--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -11,6 +11,7 @@
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="All_2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="All_3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="186">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -294,16 +295,28 @@
     <t xml:space="preserve">76615_V5_force10447</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76615_V5_force10739)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76615_V5_force10739</t>
+  </si>
+  <si>
     <t xml:space="preserve">76632_V11</t>
   </si>
   <si>
+    <t xml:space="preserve">76632_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V11_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">76632_V11_combine_force6000</t>
   </si>
   <si>
-    <t xml:space="preserve">76632_V11_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V11_combine</t>
+    <t xml:space="preserve">Fraction of Reads Kept (76632_V11_combine_force6012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V11_combine_force6012</t>
   </si>
   <si>
     <t xml:space="preserve">76632_V5</t>
@@ -315,27 +328,33 @@
     <t xml:space="preserve">76632_V5_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76632_V5_combine_force9545)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V5_combine_force9545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_combine_force15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_combine_force18000</t>
+  </si>
+  <si>
     <t xml:space="preserve">76638_V11_force10000</t>
   </si>
   <si>
-    <t xml:space="preserve">76638_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_combine_force15000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_combine_force18000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_combine_force12000</t>
-  </si>
-  <si>
     <t xml:space="preserve">76638_V5</t>
   </si>
   <si>
@@ -345,21 +364,27 @@
     <t xml:space="preserve">76638_V5_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76638_V5_combine_force9413)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_combine_force9413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_combine_force10000</t>
+  </si>
+  <si>
     <t xml:space="preserve">76638_V5_Muscle_force</t>
   </si>
   <si>
-    <t xml:space="preserve">76638_V5_Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_combine_force10000</t>
-  </si>
-  <si>
     <t xml:space="preserve">76643_V11</t>
   </si>
   <si>
@@ -369,6 +394,12 @@
     <t xml:space="preserve">76643_V11_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76643_V11_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">76643_V5</t>
   </si>
   <si>
@@ -390,21 +421,27 @@
     <t xml:space="preserve">76647_V11_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76647_V11_combine_force14625)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11_combine_force14625</t>
+  </si>
+  <si>
     <t xml:space="preserve">76647_V5</t>
   </si>
   <si>
     <t xml:space="preserve">76647_V5_2nd</t>
   </si>
   <si>
+    <t xml:space="preserve">76647_V5_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">76647_V5_combine_force12000</t>
   </si>
   <si>
     <t xml:space="preserve">76647_V5_combine_force9410</t>
   </si>
   <si>
-    <t xml:space="preserve">76647_V5_combine</t>
-  </si>
-  <si>
     <t xml:space="preserve">76649_V11</t>
   </si>
   <si>
@@ -417,21 +454,33 @@
     <t xml:space="preserve">76649_V11_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76649_V11_combine_force23260)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11_combine_force23260</t>
+  </si>
+  <si>
     <t xml:space="preserve">76649_V5</t>
   </si>
   <si>
+    <t xml:space="preserve">76649_V5_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">76649_V5_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76649_V5_combine_force14435)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine_force14435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine_force14472</t>
+  </si>
+  <si>
     <t xml:space="preserve">76649_V5_combine_force15000</t>
   </si>
   <si>
-    <t xml:space="preserve">76649_V5_combine_force14472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_2nd</t>
-  </si>
-  <si>
     <t xml:space="preserve">76656_V11</t>
   </si>
   <si>
@@ -441,6 +490,12 @@
     <t xml:space="preserve">76656_V11_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76656_V11_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">76656_V5</t>
   </si>
   <si>
@@ -459,21 +514,30 @@
     <t xml:space="preserve">76658_V11_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76658_V11_combine_force23181)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11_combine_force23181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_combine_force12000</t>
+  </si>
+  <si>
     <t xml:space="preserve">76658_V5_force10000</t>
   </si>
   <si>
-    <t xml:space="preserve">76658_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_combine_force12000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_combine</t>
-  </si>
-  <si>
     <t xml:space="preserve">76660_V11</t>
   </si>
   <si>
@@ -486,6 +550,12 @@
     <t xml:space="preserve">76660_V5_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">76661_V11</t>
   </si>
   <si>
@@ -498,6 +568,12 @@
     <t xml:space="preserve">76661_V5_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V5_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">76662_V11</t>
   </si>
   <si>
@@ -505,42 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V11_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76660_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76661_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V11_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76615_V5_force10739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V11_combine_force6012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V5_combine_force9545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_combine_force9413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V11_combine_force14625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V11_combine_force23260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_combine_force14435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V11_combine_force23181</t>
   </si>
 </sst>
 </file>
@@ -642,7 +682,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,6 +756,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,7 +947,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3682,7 +3746,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.76"/>
@@ -7056,14 +7120,14 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -7180,3906 +7244,3905 @@
         <v>837283164</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="20" t="n">
         <v>0.084</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="21" t="n">
         <v>80146</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="21" t="n">
         <v>44202</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="20" t="n">
         <f aca="false">E3/D3</f>
         <v>0.551518478776233</v>
       </c>
-      <c r="G3" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="8" t="n">
+      <c r="G3" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="21" t="n">
         <f aca="false">(G3-E3)/F3</f>
         <v>-2179.43740102258</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="21" t="n">
         <f aca="false">E3*M3/G3</f>
         <v>10739.0300930233</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="21" t="n">
         <f aca="false">I3-M3</f>
         <v>292.030093023255</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="19" t="n">
         <v>264</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="21" t="n">
         <v>10447</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="21" t="n">
         <v>80146</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="21" t="n">
         <v>2185</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="21" t="n">
         <v>837283164</v>
       </c>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>56543</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>26876</v>
-      </c>
-      <c r="F4" s="1" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>80146</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>44202</v>
+      </c>
+      <c r="F4" s="20" t="n">
         <f aca="false">E4/D4</f>
-        <v>0.475319668217109</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="2" t="n">
+        <v>0.551518478776233</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="21" t="n">
         <f aca="false">(G4-E4)/F4</f>
-        <v>33922.4338443221</v>
-      </c>
-      <c r="I4" s="2" t="n">
+        <v>-2179.43740102258</v>
+      </c>
+      <c r="I4" s="21" t="n">
         <f aca="false">E4*M4/G4</f>
-        <v>3979.52306976744</v>
-      </c>
-      <c r="J4" s="2" t="n">
+        <v>10739.0300930233</v>
+      </c>
+      <c r="J4" s="14" t="n">
         <f aca="false">I4-M4</f>
-        <v>-2387.47693023256</v>
+        <v>292.030093023255</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>10447</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>80146</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>2185</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>837283164</v>
+      </c>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="n">
+        <v>79</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>6367</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>56543</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>1997</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>360011247</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="10" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>92593</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>43084</v>
+        <v>0.418</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>43123</v>
       </c>
       <c r="F5" s="10" t="n">
         <f aca="false">E5/D5</f>
-        <v>0.465305152657328</v>
+        <v>0.553092975233111</v>
       </c>
       <c r="G5" s="8" t="n">
         <v>43000</v>
       </c>
       <c r="H5" s="8" t="n">
         <f aca="false">(G5-E5)/F5</f>
-        <v>-180.52669204345</v>
+        <v>-222.385757020615</v>
       </c>
       <c r="I5" s="8" t="n">
         <f aca="false">E5*M5/G5</f>
-        <v>6011.72093023256</v>
+        <v>10769.7185348837</v>
       </c>
       <c r="J5" s="8" t="n">
         <f aca="false">I5-M5</f>
-        <v>11.7209302325582</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>170</v>
-      </c>
-      <c r="L5" s="9" t="s">
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K5" s="23" t="n">
+        <v>281</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>91</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>6000</v>
+        <v>10739</v>
       </c>
       <c r="N5" s="8" t="n">
-        <v>92593</v>
+        <v>77967</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v>2531</v>
+        <v>2116</v>
       </c>
       <c r="P5" s="8" t="n">
-        <v>555559035</v>
-      </c>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>837283164</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.232</v>
+        <v>0.138</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>35331</v>
+        <v>56543</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15916</v>
+        <v>26876</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">E6/D6</f>
-        <v>0.450482579038238</v>
+        <v>0.475319668217109</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H6" s="2" t="n">
         <f aca="false">(G6-E6)/F6</f>
-        <v>60122.1917567228</v>
+        <v>33922.4338443221</v>
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">E6*M6/G6</f>
-        <v>2107.94465116279</v>
+        <v>3979.52306976744</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">I6-M6</f>
-        <v>-3587.05534883721</v>
+        <v>-2387.47693023256</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>92</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5695</v>
+        <v>6367</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>35331</v>
+        <v>56543</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1836</v>
+        <v>1997</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>201208589</v>
-      </c>
+        <v>360011247</v>
+      </c>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.096</v>
+        <v>0.232</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>84128</v>
+        <v>35331</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>38365</v>
+        <v>15916</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7/D7</f>
-        <v>0.456031285659947</v>
+        <v>0.450482579038238</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H7" s="2" t="n">
         <f aca="false">(G7-E7)/F7</f>
-        <v>10163.7763586602</v>
+        <v>60122.1917567228</v>
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">E7*M7/G7</f>
-        <v>5951.92825581395</v>
+        <v>2107.94465116279</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">I7-M7</f>
-        <v>-719.071744186046</v>
+        <v>-3587.05534883721</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6671</v>
+        <v>5695</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>84128</v>
+        <v>35331</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2131</v>
+        <v>1836</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>561219836</v>
+        <v>201208589</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>71360</v>
+        <v>84128</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>38087</v>
+        <v>38365</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8/D8</f>
-        <v>0.533730381165919</v>
+        <v>0.456031285659947</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">(G8-E8)/F8</f>
-        <v>9205.02218604773</v>
+        <v>10163.7763586602</v>
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">E8*M8/G8</f>
-        <v>7449.10860465116</v>
+        <v>5951.92825581395</v>
       </c>
       <c r="J8" s="2" t="n">
         <f aca="false">I8-M8</f>
-        <v>-960.891395348837</v>
+        <v>-719.071744186046</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>94</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8410</v>
+        <v>6671</v>
       </c>
       <c r="N8" s="2" t="n">
+        <v>84128</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>2131</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>561219836</v>
+      </c>
+    </row>
+    <row r="9" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>92593</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>43084</v>
+      </c>
+      <c r="F9" s="20" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.465305152657328</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <f aca="false">(G9-E9)/F9</f>
+        <v>-180.52669204345</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <f aca="false">E9*M9/G9</f>
+        <v>6011.72093023256</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <f aca="false">I9-M9</f>
+        <v>11.7209302325582</v>
+      </c>
+      <c r="K9" s="19" t="n">
+        <v>170</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N9" s="21" t="n">
+        <v>92593</v>
+      </c>
+      <c r="O9" s="21" t="n">
+        <v>2531</v>
+      </c>
+      <c r="P9" s="21" t="n">
+        <v>555559035</v>
+      </c>
+    </row>
+    <row r="10" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="n">
+        <v>80</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <f aca="false">E10/D10</f>
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">(G10-E10)/F10</f>
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">E10*M10/G10</f>
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <f aca="false">I10-M10</f>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K10" s="23" t="n">
+        <v>282</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>555559035</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>71360</v>
       </c>
-      <c r="O8" s="2" t="n">
-        <v>4330</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>600134782</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>22637</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>12067</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">E9/D9</f>
-        <v>0.533065335512656</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">(G9-E9)/F9</f>
-        <v>58028.5341012679</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">E9*M9/G9</f>
-        <v>2268.31537209302</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">I9-M9</f>
-        <v>-5814.68462790698</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>8083</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>22637</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>3049</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>182971487</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>90995</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>47691</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false">E10/D10</f>
-        <v>0.524105720094511</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <f aca="false">(G10-E10)/F10</f>
-        <v>-8950.48426327819</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <f aca="false">E10*M10/G10</f>
-        <v>9544.85455813954</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <f aca="false">I10-M10</f>
-        <v>938.854558139536</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>115</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>8606</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>90995</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>4460</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>783106269</v>
-      </c>
-      <c r="AMG10" s="0"/>
-      <c r="AMH10" s="0"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>60997</v>
-      </c>
       <c r="E11" s="2" t="n">
-        <v>20565</v>
+        <v>38087</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11/D11</f>
-        <v>0.337147728576815</v>
+        <v>0.533730381165919</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">(G11-E11)/F11</f>
-        <v>66543.5300267445</v>
+        <v>9205.02218604773</v>
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">E11*M11/G11</f>
-        <v>4782.55813953488</v>
+        <v>7449.10860465116</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">I11-M11</f>
-        <v>-5217.44186046512</v>
+        <v>-960.891395348837</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10000</v>
+        <v>8410</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>60997</v>
+        <v>71360</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3039</v>
+        <v>4330</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>609968498</v>
-      </c>
+        <v>600134782</v>
+      </c>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.309</v>
+        <v>0.306</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>27312</v>
+        <v>22637</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>11963</v>
+        <v>12067</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12/D12</f>
-        <v>0.438012595196251</v>
+        <v>0.533065335512656</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">(G12-E12)/F12</f>
-        <v>70858.6929699908</v>
+        <v>58028.5341012679</v>
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">E12*M12/G12</f>
-        <v>6213.24834883721</v>
+        <v>2268.31537209302</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">I12-M12</f>
+        <v>-5814.68462790698</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>8083</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>22637</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>3049</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>182971487</v>
+      </c>
+    </row>
+    <row r="13" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>90995</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>47691</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.524105720094511</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <f aca="false">(G13-E13)/F13</f>
+        <v>-8950.48426327819</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <f aca="false">E13*M13/G13</f>
+        <v>9544.85455813954</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <f aca="false">I13-M13</f>
+        <v>938.854558139536</v>
+      </c>
+      <c r="K13" s="19" t="n">
+        <v>115</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="21" t="n">
+        <v>8606</v>
+      </c>
+      <c r="N13" s="21" t="n">
+        <v>90995</v>
+      </c>
+      <c r="O13" s="21" t="n">
+        <v>4460</v>
+      </c>
+      <c r="P13" s="21" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="14" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="n">
+        <v>81</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D14" s="24" t="n">
+        <v>82044</v>
+      </c>
+      <c r="E14" s="24" t="n">
+        <v>43792</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <f aca="false">E14/D14</f>
+        <v>0.533762371410463</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">(G14-E14)/F14</f>
+        <v>-1483.80635732554</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <f aca="false">E14*M14/G14</f>
+        <v>9720.80558139535</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <f aca="false">I14-M14</f>
+        <v>175.805581395349</v>
+      </c>
+      <c r="K14" s="24" t="n">
+        <v>283</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>9545</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>82044</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>4002</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>27312</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>11963</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15/D15</f>
+        <v>0.438012595196251</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">(G15-E15)/F15</f>
+        <v>70858.6929699908</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">E15*M15/G15</f>
+        <v>6213.24834883721</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">I15-M15</f>
         <v>-16119.7516511628</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="2" t="n">
+      <c r="L15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>22333</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N15" s="2" t="n">
         <v>27312</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O15" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P15" s="2" t="n">
         <v>609968498</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>62358</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>24786</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">E13/D13</f>
-        <v>0.397479072452612</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <f aca="false">(G13-E13)/F13</f>
-        <v>45823.7961752602</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">E13*M13/G13</f>
-        <v>8646.27906976744</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">I13-M13</f>
-        <v>-6353.72093023256</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>62358</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>2901</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>935376480</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.556</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>15237</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>6649</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">E14/D14</f>
-        <v>0.436371989236726</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <f aca="false">(G14-E14)/F14</f>
-        <v>83302.780418108</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">E14*M14/G14</f>
-        <v>3302.38820930233</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">I14-M14</f>
-        <v>-18054.6117906977</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>141</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>21357</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>15237</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>1609</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>325407982</v>
-      </c>
-    </row>
-    <row r="15" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>40238</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>17698</v>
-      </c>
-      <c r="F15" s="13" t="n">
-        <f aca="false">E15/D15</f>
-        <v>0.439832993687559</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <f aca="false">(G15-E15)/F15</f>
-        <v>57526.3801559498</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <f aca="false">E15*M15/G15</f>
-        <v>9567.62111627907</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <f aca="false">I15-M15</f>
-        <v>-13678.3788837209</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>154</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="14" t="n">
-        <v>23246</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>40238</v>
-      </c>
-      <c r="O15" s="14" t="n">
-        <v>2241</v>
-      </c>
-      <c r="P15" s="14" t="n">
-        <v>935376480</v>
-      </c>
-      <c r="AMG15" s="0"/>
-      <c r="AMH15" s="0"/>
-      <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>51965</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>21842</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16/D16</f>
-        <v>0.420321370152988</v>
+        <v>0.436371989236726</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">(G16-E16)/F16</f>
-        <v>50337.6737478253</v>
+        <v>83302.780418108</v>
       </c>
       <c r="I16" s="2" t="n">
         <f aca="false">E16*M16/G16</f>
-        <v>9143.16279069767</v>
+        <v>3302.38820930233</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">I16-M16</f>
-        <v>-8856.83720930233</v>
+        <v>-18054.6117906977</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>18000</v>
+        <v>21357</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>51965</v>
+        <v>15237</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2635</v>
+        <v>1609</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>935376480</v>
-      </c>
+        <v>325407982</v>
+      </c>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>77948</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>28440</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="A17" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>40238</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>17698</v>
+      </c>
+      <c r="F17" s="13" t="n">
         <f aca="false">E17/D17</f>
-        <v>0.36485862369785</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H17" s="2" t="n">
+        <v>0.439832993687559</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H17" s="14" t="n">
         <f aca="false">(G17-E17)/F17</f>
-        <v>39905.8677918425</v>
-      </c>
-      <c r="I17" s="2" t="n">
+        <v>57526.3801559498</v>
+      </c>
+      <c r="I17" s="14" t="n">
         <f aca="false">E17*M17/G17</f>
-        <v>7936.74418604651</v>
-      </c>
-      <c r="J17" s="2" t="n">
+        <v>9567.62111627907</v>
+      </c>
+      <c r="J17" s="14" t="n">
         <f aca="false">I17-M17</f>
-        <v>-4063.25581395349</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>77948</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>3202</v>
-      </c>
-      <c r="P17" s="2" t="n">
+        <v>-13678.3788837209</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>154</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>23246</v>
+      </c>
+      <c r="N17" s="14" t="n">
+        <v>40238</v>
+      </c>
+      <c r="O17" s="14" t="n">
+        <v>2241</v>
+      </c>
+      <c r="P17" s="14" t="n">
         <v>935376480</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>41940</v>
+        <v>77948</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>24656</v>
+        <v>28440</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18/D18</f>
-        <v>0.587887458273724</v>
+        <v>0.36485862369785</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H18" s="2" t="n">
         <f aca="false">(G18-E18)/F18</f>
-        <v>31203.2511356262</v>
+        <v>39905.8677918425</v>
       </c>
       <c r="I18" s="2" t="n">
         <f aca="false">E18*M18/G18</f>
-        <v>4454.70846511628</v>
+        <v>7936.74418604651</v>
       </c>
       <c r="J18" s="2" t="n">
         <f aca="false">I18-M18</f>
-        <v>-3314.29153488372</v>
+        <v>-4063.25581395349</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>104</v>
+        <v>161</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>7769</v>
+        <v>12000</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>41940</v>
+        <v>77948</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2664</v>
+        <v>3202</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>325835021</v>
+        <v>935376480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.132</v>
+        <v>0.149</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>48808</v>
+        <v>62358</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>27984</v>
+        <v>24786</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19/D19</f>
-        <v>0.573348631371906</v>
+        <v>0.397479072452612</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">(G19-E19)/F19</f>
-        <v>26189.9988564894</v>
+        <v>45823.7961752602</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">E19*M19/G19</f>
-        <v>5080.72297674419</v>
+        <v>8646.27906976744</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">I19-M19</f>
-        <v>-2726.27702325581</v>
+        <v>-6353.72093023256</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>62358</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>2901</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>935376480</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>51965</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>21842</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20/D20</f>
+        <v>0.420321370152988</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">(G20-E20)/F20</f>
+        <v>50337.6737478253</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">E20*M20/G20</f>
+        <v>9143.16279069767</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">I20-M20</f>
+        <v>-8856.83720930233</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>7807</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>48808</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>2724</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>381040696</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>81616</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>46735</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <f aca="false">E20/D20</f>
-        <v>0.572620564595177</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">(G20-E20)/F20</f>
-        <v>-6522.64384294426</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <f aca="false">E20*M20/G20</f>
-        <v>9413.29848837209</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <f aca="false">I20-M20</f>
-        <v>752.298488372093</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>116</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>8661</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>81616</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>3013</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>706875717</v>
-      </c>
-      <c r="AMG20" s="0"/>
-      <c r="AMH20" s="0"/>
-      <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>51965</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>2635</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>935376480</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.424</v>
+        <v>0.18</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>33602</v>
+        <v>60997</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>8724</v>
+        <v>20565</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21/D21</f>
-        <v>0.259627403130766</v>
+        <v>0.337147728576815</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">(G21-E21)/F21</f>
-        <v>132019.962402568</v>
+        <v>66543.5300267445</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">E21*M21/G21</f>
-        <v>2028.83720930233</v>
+        <v>4782.55813953488</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">I21-M21</f>
-        <v>-7971.16279069768</v>
+        <v>-5217.44186046512</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>33602</v>
+        <v>60997</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1484</v>
+        <v>3039</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>336023509</v>
-      </c>
+        <v>609968498</v>
+      </c>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.532</v>
+        <v>0.15</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>23188</v>
+        <v>41940</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6949</v>
+        <v>24656</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22/D22</f>
-        <v>0.299680869415215</v>
+        <v>0.587887458273724</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">(G22-E22)/F22</f>
-        <v>120297.969204202</v>
+        <v>31203.2511356262</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">E22*M22/G22</f>
-        <v>2341.813</v>
+        <v>4454.70846511628</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">I22-M22</f>
-        <v>-12149.187</v>
+        <v>-3314.29153488372</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>14491</v>
+        <v>7769</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>23188</v>
+        <v>41940</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1227</v>
+        <v>2664</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>336023509</v>
+        <v>325835021</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.376</v>
+        <v>0.132</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>31676</v>
+        <v>48808</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>9836</v>
+        <v>27984</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23/D23</f>
-        <v>0.310519004924864</v>
+        <v>0.573348631371906</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H23" s="2" t="n">
         <f aca="false">(G23-E23)/F23</f>
-        <v>106801.83651891</v>
+        <v>26189.9988564894</v>
       </c>
       <c r="I23" s="2" t="n">
         <f aca="false">E23*M23/G23</f>
-        <v>3560.17451162791</v>
+        <v>5080.72297674419</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">I23-M23</f>
-        <v>-12003.8254883721</v>
+        <v>-2726.27702325581</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>15564</v>
+        <v>7807</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>31676</v>
+        <v>48808</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1305</v>
+        <v>2724</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>492998128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>46525</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>15009</v>
-      </c>
-      <c r="F24" s="1" t="n">
+        <v>381040696</v>
+      </c>
+    </row>
+    <row r="24" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="20" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="D24" s="21" t="n">
+        <v>81616</v>
+      </c>
+      <c r="E24" s="21" t="n">
+        <v>46735</v>
+      </c>
+      <c r="F24" s="20" t="n">
         <f aca="false">E24/D24</f>
-        <v>0.322600752283718</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>0.572620564595177</v>
+      </c>
+      <c r="G24" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H24" s="21" t="n">
         <f aca="false">(G24-E24)/F24</f>
-        <v>86766.6916516757</v>
-      </c>
-      <c r="I24" s="2" t="n">
+        <v>-6522.64384294426</v>
+      </c>
+      <c r="I24" s="21" t="n">
         <f aca="false">E24*M24/G24</f>
-        <v>6219.65979069767</v>
-      </c>
-      <c r="J24" s="2" t="n">
+        <v>9413.29848837209</v>
+      </c>
+      <c r="J24" s="21" t="n">
         <f aca="false">I24-M24</f>
-        <v>-11599.3402093023</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>17819</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>46525</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>1478</v>
-      </c>
-      <c r="P24" s="2" t="n">
-        <v>829021637</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>82347</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>21404</v>
-      </c>
-      <c r="F25" s="1" t="n">
+        <v>752.298488372093</v>
+      </c>
+      <c r="K24" s="19" t="n">
+        <v>116</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="21" t="n">
+        <v>8661</v>
+      </c>
+      <c r="N24" s="21" t="n">
+        <v>81616</v>
+      </c>
+      <c r="O24" s="21" t="n">
+        <v>3013</v>
+      </c>
+      <c r="P24" s="21" t="n">
+        <v>706875717</v>
+      </c>
+    </row>
+    <row r="25" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="n">
+        <v>82</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D25" s="24" t="n">
+        <v>74562</v>
+      </c>
+      <c r="E25" s="24" t="n">
+        <v>43191</v>
+      </c>
+      <c r="F25" s="5" t="n">
         <f aca="false">E25/D25</f>
-        <v>0.259924465979331</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H25" s="2" t="n">
+        <v>0.579262895308602</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H25" s="6" t="n">
         <f aca="false">(G25-E25)/F25</f>
-        <v>83085.6761353018</v>
-      </c>
-      <c r="I25" s="2" t="n">
+        <v>-329.729388066958</v>
+      </c>
+      <c r="I25" s="6" t="n">
         <f aca="false">E25*M25/G25</f>
-        <v>4977.67441860465</v>
-      </c>
-      <c r="J25" s="2" t="n">
+        <v>9454.81123255814</v>
+      </c>
+      <c r="J25" s="6" t="n">
         <f aca="false">I25-M25</f>
-        <v>-5022.32558139535</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>82347</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>1928</v>
-      </c>
-      <c r="P25" s="2" t="n">
-        <v>823472174</v>
+        <v>41.8112325581387</v>
+      </c>
+      <c r="K25" s="24" t="n">
+        <v>284</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>9413</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>74562</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>2851</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>701851123</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.195</v>
+        <v>0.532</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>39121</v>
+        <v>23188</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>18929</v>
+        <v>6949</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26/D26</f>
-        <v>0.483857774596764</v>
+        <v>0.299680869415215</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">(G26-E26)/F26</f>
-        <v>49748.0897564584</v>
+        <v>120297.969204202</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">E26*M26/G26</f>
-        <v>7999.04323255814</v>
+        <v>2341.813</v>
       </c>
       <c r="J26" s="2" t="n">
         <f aca="false">I26-M26</f>
-        <v>-10171.9567674419</v>
+        <v>-12149.187</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>18171</v>
+        <v>14491</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>39121</v>
+        <v>23188</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2669</v>
+        <v>1227</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>710859245</v>
+        <v>336023509</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.652</v>
+        <v>0.376</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>11755</v>
+        <v>31676</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>5664</v>
+        <v>9836</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">E27/D27</f>
-        <v>0.481837515950659</v>
+        <v>0.310519004924864</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H27" s="2" t="n">
         <f aca="false">(G27-E27)/F27</f>
-        <v>77486.7019774011</v>
+        <v>106801.83651891</v>
       </c>
       <c r="I27" s="2" t="n">
         <f aca="false">E27*M27/G27</f>
-        <v>2095.41655813954</v>
+        <v>3560.17451162791</v>
       </c>
       <c r="J27" s="2" t="n">
         <f aca="false">I27-M27</f>
-        <v>-13812.5834418605</v>
+        <v>-12003.8254883721</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>15908</v>
+        <v>15564</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>11755</v>
+        <v>31676</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1648</v>
+        <v>1305</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>186991746</v>
+        <v>492998128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.119</v>
+        <v>0.246</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>63944</v>
+        <v>46525</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>31131</v>
+        <v>15009</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28/D28</f>
-        <v>0.486847866883523</v>
+        <v>0.322600752283718</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">(G28-E28)/F28</f>
-        <v>24379.2790466095</v>
+        <v>86766.6916516757</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">E28*M28/G28</f>
-        <v>13833.0236511628</v>
+        <v>6219.65979069767</v>
       </c>
       <c r="J28" s="2" t="n">
         <f aca="false">I28-M28</f>
-        <v>-5273.97634883721</v>
+        <v>-11599.3402093023</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>19107</v>
+        <v>17819</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>63944</v>
+        <v>46525</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>2957</v>
+        <v>1478</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1221781079</v>
+        <v>829021637</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.083</v>
+        <v>0.173</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>91629</v>
+        <v>82347</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44770</v>
+        <v>21404</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29/D29</f>
-        <v>0.488600770498423</v>
+        <v>0.259924465979331</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H29" s="2" t="n">
         <f aca="false">(G29-E29)/F29</f>
-        <v>-3622.58945722582</v>
+        <v>83085.6761353018</v>
       </c>
       <c r="I29" s="2" t="n">
         <f aca="false">E29*M29/G29</f>
-        <v>4029.3</v>
+        <v>4977.67441860465</v>
       </c>
       <c r="J29" s="2" t="n">
         <f aca="false">I29-M29</f>
-        <v>159.3</v>
+        <v>-5022.32558139535</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3870</v>
+        <v>10000</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>91629</v>
+        <v>82347</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1890</v>
+        <v>1928</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>354602695</v>
+        <v>823472174</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.63</v>
+        <v>0.424</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>13096</v>
+        <v>33602</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>5862</v>
+        <v>8724</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">E30/D30</f>
-        <v>0.447617593158216</v>
+        <v>0.259627403130766</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H30" s="2" t="n">
         <f aca="false">(G30-E30)/F30</f>
-        <v>82968.1419310816</v>
+        <v>132019.962402568</v>
       </c>
       <c r="I30" s="2" t="n">
         <f aca="false">E30*M30/G30</f>
-        <v>265.83488372093</v>
+        <v>2028.83720930233</v>
       </c>
       <c r="J30" s="2" t="n">
         <f aca="false">I30-M30</f>
-        <v>-1684.16511627907</v>
+        <v>-7971.16279069768</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>1950</v>
+        <v>10000</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>13096</v>
+        <v>33602</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1234</v>
+        <v>1484</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>25537895</v>
-      </c>
-    </row>
-    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>44275</v>
-      </c>
-      <c r="F31" s="10" t="n">
+        <v>336023509</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>39121</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>18929</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <f aca="false">E31/D31</f>
-        <v>0.462387601432853</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H31" s="8" t="n">
+        <v>0.483857774596764</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H31" s="2" t="n">
         <f aca="false">(G31-E31)/F31</f>
-        <v>-2757.42687747036</v>
-      </c>
-      <c r="I31" s="8" t="n">
+        <v>49748.0897564584</v>
+      </c>
+      <c r="I31" s="2" t="n">
         <f aca="false">E31*M31/G31</f>
-        <v>4087.71511627907</v>
-      </c>
-      <c r="J31" s="8" t="n">
+        <v>7999.04323255814</v>
+      </c>
+      <c r="J31" s="2" t="n">
         <f aca="false">I31-M31</f>
-        <v>117.71511627907</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>118</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M31" s="8" t="n">
-        <v>3970</v>
-      </c>
-      <c r="N31" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>1888</v>
-      </c>
-      <c r="P31" s="8" t="n">
-        <v>380140590</v>
-      </c>
-      <c r="AMG31" s="0"/>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-10171.9567674419</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>18171</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>39121</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>2669</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>710859245</v>
+      </c>
+    </row>
+    <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.159</v>
+        <v>0.652</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>58984</v>
+        <v>11755</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>23286</v>
+        <v>5664</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">E32/D32</f>
-        <v>0.39478502644785</v>
+        <v>0.481837515950659</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">(G32-E32)/F32</f>
-        <v>49936.0377909474</v>
+        <v>77486.7019774011</v>
       </c>
       <c r="I32" s="2" t="n">
         <f aca="false">E32*M32/G32</f>
-        <v>7403.86493023256</v>
+        <v>2095.41655813954</v>
       </c>
       <c r="J32" s="2" t="n">
         <f aca="false">I32-M32</f>
-        <v>-6268.13506976744</v>
+        <v>-13812.5834418605</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>13672</v>
+        <v>15908</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>58984</v>
+        <v>11755</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>2691</v>
+        <v>1648</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>806422492</v>
-      </c>
+        <v>186991746</v>
+      </c>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>1</v>
+        <v>0.119</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>9456</v>
+        <v>63944</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>3696</v>
+        <v>31131</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">E33/D33</f>
-        <v>0.390862944162437</v>
+        <v>0.486847866883523</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H33" s="2" t="n">
         <f aca="false">(G33-E33)/F33</f>
-        <v>100556.987012987</v>
+        <v>24379.2790466095</v>
       </c>
       <c r="I33" s="2" t="n">
         <f aca="false">E33*M33/G33</f>
-        <v>917.639441860465</v>
+        <v>13833.0236511628</v>
       </c>
       <c r="J33" s="2" t="n">
         <f aca="false">I33-M33</f>
-        <v>-9758.36055813953</v>
+        <v>-5273.97634883721</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>10676</v>
+        <v>19107</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9456</v>
+        <v>63944</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1310</v>
+        <v>2957</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>100952053</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>50051</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>19853</v>
-      </c>
-      <c r="F34" s="1" t="n">
+        <v>1221781079</v>
+      </c>
+    </row>
+    <row r="34" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24" t="n">
+        <v>74</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="D34" s="24" t="n">
+        <v>107014</v>
+      </c>
+      <c r="E34" s="24" t="n">
+        <v>52131</v>
+      </c>
+      <c r="F34" s="5" t="n">
         <f aca="false">E34/D34</f>
-        <v>0.39665541148029</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H34" s="2" t="n">
+        <v>0.48714186928813</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H34" s="6" t="n">
         <f aca="false">(G34-E34)/F34</f>
-        <v>58355.4373142598</v>
-      </c>
-      <c r="I34" s="2" t="n">
+        <v>-18744.0262799486</v>
+      </c>
+      <c r="I34" s="6" t="n">
         <f aca="false">E34*M34/G34</f>
-        <v>6228.30162790698</v>
-      </c>
-      <c r="J34" s="2" t="n">
+        <v>24012.9934186047</v>
+      </c>
+      <c r="J34" s="6" t="n">
         <f aca="false">I34-M34</f>
-        <v>-7261.69837209302</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>13490</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>50051</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>2589</v>
-      </c>
-      <c r="P34" s="2" t="n">
-        <v>675189586</v>
-      </c>
-    </row>
-    <row r="35" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+        <v>4205.99341860465</v>
+      </c>
+      <c r="K34" s="24" t="n">
+        <v>260</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>19807</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>107014</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>3206</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>2119632070</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="10" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="D35" s="8" t="n">
-        <v>110099</v>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>43750</v>
-      </c>
-      <c r="F35" s="10" t="n">
+      <c r="C35" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>91629</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <f aca="false">E35/D35</f>
-        <v>0.397369640051227</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H35" s="8" t="n">
+        <v>0.488600770498423</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H35" s="2" t="n">
         <f aca="false">(G35-E35)/F35</f>
-        <v>-1887.41142857143</v>
-      </c>
-      <c r="I35" s="8" t="n">
+        <v>-3622.58945722582</v>
+      </c>
+      <c r="I35" s="2" t="n">
         <f aca="false">E35*M35/G35</f>
-        <v>14624.7093023256</v>
-      </c>
-      <c r="J35" s="8" t="n">
+        <v>4029.3</v>
+      </c>
+      <c r="J35" s="2" t="n">
         <f aca="false">I35-M35</f>
-        <v>250.709302325582</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>259</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="8" t="n">
-        <v>14374</v>
-      </c>
-      <c r="N35" s="8" t="n">
-        <v>110099</v>
-      </c>
-      <c r="O35" s="8" t="n">
-        <v>3032</v>
-      </c>
-      <c r="P35" s="8" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="AMG35" s="0"/>
-      <c r="AMH35" s="0"/>
-      <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159.3</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>3870</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>91629</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>354602695</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.242</v>
+        <v>0.63</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>41417</v>
+        <v>13096</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>15297</v>
+        <v>5862</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">E36/D36</f>
-        <v>0.369341091822199</v>
+        <v>0.447617593158216</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H36" s="2" t="n">
         <f aca="false">(G36-E36)/F36</f>
-        <v>75006.5471007387</v>
+        <v>82968.1419310816</v>
       </c>
       <c r="I36" s="2" t="n">
         <f aca="false">E36*M36/G36</f>
-        <v>4126.63255813954</v>
+        <v>265.83488372093</v>
       </c>
       <c r="J36" s="2" t="n">
         <f aca="false">I36-M36</f>
-        <v>-7473.36744186047</v>
+        <v>-1684.16511627907</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>11600</v>
+        <v>1950</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>41417</v>
+        <v>13096</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>2918</v>
+        <v>1234</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>480438646</v>
-      </c>
+        <v>25537895</v>
+      </c>
+      <c r="AMG36" s="0"/>
+      <c r="AMH36" s="0"/>
+      <c r="AMI36" s="0"/>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>52159</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>18627</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="A37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F37" s="10" t="n">
         <f aca="false">E37/D37</f>
-        <v>0.357119576679001</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H37" s="2" t="n">
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H37" s="8" t="n">
         <f aca="false">(G37-E37)/F37</f>
-        <v>68248.8488216031</v>
-      </c>
-      <c r="I37" s="2" t="n">
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I37" s="8" t="n">
         <f aca="false">E37*M37/G37</f>
-        <v>5321.25739534884</v>
-      </c>
-      <c r="J37" s="2" t="n">
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <f aca="false">I37-M37</f>
-        <v>-6962.74260465116</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>12284</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>52159</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>3086</v>
-      </c>
-      <c r="P37" s="2" t="n">
-        <v>640719935</v>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P37" s="8" t="n">
+        <v>380140590</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="C38" s="1" t="n">
-        <v>0.11</v>
+        <v>0.159</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>92745</v>
+        <v>58984</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>33686</v>
+        <v>23286</v>
       </c>
       <c r="F38" s="1" t="n">
         <f aca="false">E38/D38</f>
-        <v>0.363210954768451</v>
+        <v>0.39478502644785</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H38" s="2" t="n">
         <f aca="false">(G38-E38)/F38</f>
-        <v>25643.4996734548</v>
+        <v>49936.0377909474</v>
       </c>
       <c r="I38" s="2" t="n">
         <f aca="false">E38*M38/G38</f>
-        <v>9400.74418604651</v>
+        <v>7403.86493023256</v>
       </c>
       <c r="J38" s="2" t="n">
         <f aca="false">I38-M38</f>
-        <v>-2599.25581395349</v>
+        <v>-6268.13506976744</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>12000</v>
+        <v>13672</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>92745</v>
+        <v>58984</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>3762</v>
+        <v>2691</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1112943723</v>
+        <v>806422492</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="C39" s="1" t="n">
-        <v>0.089</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>118272</v>
+        <v>9456</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>41540</v>
+        <v>3696</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">E39/D39</f>
-        <v>0.351224296536797</v>
+        <v>0.390862944162437</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H39" s="2" t="n">
         <f aca="false">(G39-E39)/F39</f>
-        <v>4156.88781896967</v>
+        <v>100556.987012987</v>
       </c>
       <c r="I39" s="2" t="n">
         <f aca="false">E39*M39/G39</f>
-        <v>9090.4976744186</v>
+        <v>917.639441860465</v>
       </c>
       <c r="J39" s="2" t="n">
         <f aca="false">I39-M39</f>
-        <v>-319.502325581396</v>
+        <v>-9758.36055813953</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>9410</v>
+        <v>10676</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>118272</v>
+        <v>9456</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>4340</v>
+        <v>1310</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1112943723</v>
-      </c>
-    </row>
-    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="13" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="E40" s="14" t="n">
-        <v>27955</v>
-      </c>
-      <c r="F40" s="13" t="n">
+        <v>100952053</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>50051</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>19853</v>
+      </c>
+      <c r="F40" s="1" t="n">
         <f aca="false">E40/D40</f>
-        <v>0.365807380266946</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H40" s="14" t="n">
+        <v>0.39665541148029</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="2" t="n">
         <f aca="false">(G40-E40)/F40</f>
-        <v>41128.2024682526</v>
-      </c>
-      <c r="I40" s="14" t="n">
+        <v>58355.4373142598</v>
+      </c>
+      <c r="I40" s="2" t="n">
         <f aca="false">E40*M40/G40</f>
-        <v>9537.85593023256</v>
-      </c>
-      <c r="J40" s="14" t="n">
+        <v>6228.30162790698</v>
+      </c>
+      <c r="J40" s="2" t="n">
         <f aca="false">I40-M40</f>
-        <v>-5133.14406976744</v>
-      </c>
-      <c r="K40" s="12" t="n">
-        <v>119</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="14" t="n">
-        <v>14671</v>
-      </c>
-      <c r="N40" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="O40" s="14" t="n">
-        <v>3137</v>
-      </c>
-      <c r="P40" s="14" t="n">
-        <v>1121158581</v>
-      </c>
-      <c r="AMG40" s="0"/>
-      <c r="AMH40" s="0"/>
-      <c r="AMI40" s="0"/>
-      <c r="AMJ40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>41862</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>21676</v>
-      </c>
-      <c r="F41" s="1" t="n">
+        <v>-7261.69837209302</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>13490</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>50051</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>2589</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>675189586</v>
+      </c>
+    </row>
+    <row r="41" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="n">
+        <v>34</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="20" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D41" s="21" t="n">
+        <v>110099</v>
+      </c>
+      <c r="E41" s="21" t="n">
+        <v>43750</v>
+      </c>
+      <c r="F41" s="20" t="n">
         <f aca="false">E41/D41</f>
-        <v>0.517796569681334</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H41" s="2" t="n">
+        <v>0.397369640051227</v>
+      </c>
+      <c r="G41" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H41" s="21" t="n">
         <f aca="false">(G41-E41)/F41</f>
-        <v>41182.1963461893</v>
-      </c>
-      <c r="I41" s="2" t="n">
+        <v>-1887.41142857143</v>
+      </c>
+      <c r="I41" s="21" t="n">
         <f aca="false">E41*M41/G41</f>
-        <v>8485.90195348837</v>
-      </c>
-      <c r="J41" s="2" t="n">
+        <v>14624.7093023256</v>
+      </c>
+      <c r="J41" s="21" t="n">
         <f aca="false">I41-M41</f>
-        <v>-8348.09804651163</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>16834</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>41862</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>2487</v>
-      </c>
-      <c r="P41" s="2" t="n">
-        <v>704707035</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>10899</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>5653</v>
-      </c>
-      <c r="F42" s="1" t="n">
+        <v>250.709302325582</v>
+      </c>
+      <c r="K41" s="19" t="n">
+        <v>259</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="21" t="n">
+        <v>14374</v>
+      </c>
+      <c r="N41" s="21" t="n">
+        <v>110099</v>
+      </c>
+      <c r="O41" s="21" t="n">
+        <v>3032</v>
+      </c>
+      <c r="P41" s="21" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="AMG41" s="22"/>
+      <c r="AMH41" s="22"/>
+      <c r="AMI41" s="22"/>
+      <c r="AMJ41" s="22"/>
+    </row>
+    <row r="42" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="24" t="n">
+        <v>83</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D42" s="24" t="n">
+        <v>108210</v>
+      </c>
+      <c r="E42" s="24" t="n">
+        <v>43252</v>
+      </c>
+      <c r="F42" s="5" t="n">
         <f aca="false">E42/D42</f>
-        <v>0.518671437746582</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H42" s="2" t="n">
+        <v>0.399704278717309</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H42" s="6" t="n">
         <f aca="false">(G42-E42)/F42</f>
-        <v>72005.1217052892</v>
-      </c>
-      <c r="I42" s="2" t="n">
+        <v>-630.466105613613</v>
+      </c>
+      <c r="I42" s="6" t="n">
         <f aca="false">E42*M42/G42</f>
-        <v>1908.87348837209</v>
-      </c>
-      <c r="J42" s="2" t="n">
+        <v>14710.7093023256</v>
+      </c>
+      <c r="J42" s="6" t="n">
         <f aca="false">I42-M42</f>
-        <v>-12611.1265116279</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>14520</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>10899</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>1534</v>
-      </c>
-      <c r="P42" s="2" t="n">
-        <v>158247680</v>
+        <v>85.709302325582</v>
+      </c>
+      <c r="K42" s="24" t="n">
+        <v>285</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>14625</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>108210</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>2986</v>
+      </c>
+      <c r="P42" s="6" t="n">
+        <v>1582564131</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.123</v>
+        <v>0.242</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>57671</v>
+        <v>41417</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>30073</v>
+        <v>15297</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">E43/D43</f>
-        <v>0.521457925127014</v>
+        <v>0.369341091822199</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H43" s="2" t="n">
         <f aca="false">(G43-E43)/F43</f>
-        <v>24790.1112958468</v>
+        <v>75006.5471007387</v>
       </c>
       <c r="I43" s="2" t="n">
         <f aca="false">E43*M43/G43</f>
-        <v>12712.4865348837</v>
+        <v>4126.63255813954</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">I43-M43</f>
-        <v>-5464.51346511628</v>
+        <v>-7473.36744186047</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>18177</v>
+        <v>11600</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>57671</v>
+        <v>41417</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>2603</v>
+        <v>2918</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1048292829</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="5" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>95025</v>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>49728</v>
-      </c>
-      <c r="F44" s="5" t="n">
+        <v>480438646</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>52159</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>18627</v>
+      </c>
+      <c r="F44" s="1" t="n">
         <f aca="false">E44/D44</f>
-        <v>0.523314917127072</v>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H44" s="6" t="n">
+        <v>0.357119576679001</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H44" s="2" t="n">
         <f aca="false">(G44-E44)/F44</f>
-        <v>-12856.5033783784</v>
-      </c>
-      <c r="I44" s="6" t="n">
+        <v>68248.8488216031</v>
+      </c>
+      <c r="I44" s="2" t="n">
         <f aca="false">E44*M44/G44</f>
-        <v>23259.9828837209</v>
-      </c>
-      <c r="J44" s="6" t="n">
+        <v>5321.25739534884</v>
+      </c>
+      <c r="J44" s="2" t="n">
         <f aca="false">I44-M44</f>
-        <v>3146.98288372093</v>
-      </c>
-      <c r="K44" s="4" t="n">
-        <v>258</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" s="6" t="n">
-        <v>20113</v>
-      </c>
-      <c r="N44" s="6" t="n">
-        <v>95025</v>
-      </c>
-      <c r="O44" s="6" t="n">
-        <v>2744</v>
-      </c>
-      <c r="P44" s="6" t="n">
-        <v>1911247544</v>
-      </c>
-      <c r="AMG44" s="0"/>
-      <c r="AMH44" s="0"/>
-      <c r="AMI44" s="0"/>
-      <c r="AMJ44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>34649</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>14929</v>
-      </c>
-      <c r="F45" s="1" t="n">
+        <v>-6962.74260465116</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>12284</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>52159</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>3086</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>640719935</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="13" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>27955</v>
+      </c>
+      <c r="F45" s="13" t="n">
         <f aca="false">E45/D45</f>
-        <v>0.430863805593235</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H45" s="2" t="n">
+        <v>0.365807380266946</v>
+      </c>
+      <c r="G45" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H45" s="14" t="n">
         <f aca="false">(G45-E45)/F45</f>
-        <v>65150.5177171947</v>
-      </c>
-      <c r="I45" s="2" t="n">
+        <v>41128.2024682526</v>
+      </c>
+      <c r="I45" s="14" t="n">
         <f aca="false">E45*M45/G45</f>
-        <v>4975.87041860465</v>
-      </c>
-      <c r="J45" s="2" t="n">
+        <v>9537.85593023256</v>
+      </c>
+      <c r="J45" s="14" t="n">
         <f aca="false">I45-M45</f>
-        <v>-9356.12958139535</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>14332</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>34649</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>2139</v>
-      </c>
-      <c r="P45" s="2" t="n">
-        <v>496591233</v>
-      </c>
+        <v>-5133.14406976744</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <v>119</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M45" s="14" t="n">
+        <v>14671</v>
+      </c>
+      <c r="N45" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="O45" s="14" t="n">
+        <v>3137</v>
+      </c>
+      <c r="P45" s="14" t="n">
+        <v>1121158581</v>
+      </c>
+      <c r="AMG45" s="0"/>
+      <c r="AMH45" s="0"/>
+      <c r="AMI45" s="0"/>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.116</v>
+        <v>0.11</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>74181</v>
+        <v>92745</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>31925</v>
+        <v>33686</v>
       </c>
       <c r="F46" s="1" t="n">
         <f aca="false">E46/D46</f>
-        <v>0.430366266294604</v>
+        <v>0.363210954768451</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H46" s="2" t="n">
         <f aca="false">(G46-E46)/F46</f>
-        <v>25733.8942834769</v>
+        <v>25643.4996734548</v>
       </c>
       <c r="I46" s="2" t="n">
         <f aca="false">E46*M46/G46</f>
-        <v>14689.2122093023</v>
+        <v>9400.74418604651</v>
       </c>
       <c r="J46" s="2" t="n">
         <f aca="false">I46-M46</f>
-        <v>-5095.78779069767</v>
+        <v>-2599.25581395349</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>19785</v>
+        <v>12000</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>74181</v>
+        <v>92745</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>2016</v>
+        <v>3762</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>1467668630</v>
+        <v>1112943723</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>0.089</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>97331</v>
+        <v>118272</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>41485</v>
+        <v>41540</v>
       </c>
       <c r="F47" s="1" t="n">
         <f aca="false">E47/D47</f>
-        <v>0.426225971170542</v>
+        <v>0.351224296536797</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H47" s="2" t="n">
         <f aca="false">(G47-E47)/F47</f>
-        <v>3554.45257321924</v>
+        <v>4156.88781896967</v>
       </c>
       <c r="I47" s="2" t="n">
         <f aca="false">E47*M47/G47</f>
-        <v>14471.511627907</v>
+        <v>9090.4976744186</v>
       </c>
       <c r="J47" s="2" t="n">
         <f aca="false">I47-M47</f>
-        <v>-528.488372093023</v>
+        <v>-319.502325581396</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>15000</v>
+        <v>9410</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>97331</v>
+        <v>118272</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>2698</v>
+        <v>4340</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>1459966283</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="5" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="D48" s="6" t="n">
-        <v>100882</v>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>42891</v>
-      </c>
-      <c r="F48" s="5" t="n">
+        <v>1112943723</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>21676</v>
+      </c>
+      <c r="F48" s="1" t="n">
         <f aca="false">E48/D48</f>
-        <v>0.425160088023632</v>
-      </c>
-      <c r="G48" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H48" s="6" t="n">
+        <v>0.517796569681334</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H48" s="2" t="n">
         <f aca="false">(G48-E48)/F48</f>
-        <v>256.374017859225</v>
-      </c>
-      <c r="I48" s="6" t="n">
+        <v>41182.1963461893</v>
+      </c>
+      <c r="I48" s="2" t="n">
         <f aca="false">E48*M48/G48</f>
-        <v>14435.3151627907</v>
-      </c>
-      <c r="J48" s="6" t="n">
+        <v>8485.90195348837</v>
+      </c>
+      <c r="J48" s="2" t="n">
         <f aca="false">I48-M48</f>
-        <v>-36.6848372093027</v>
-      </c>
-      <c r="K48" s="4" t="n">
-        <v>236</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M48" s="6" t="n">
-        <v>14472</v>
-      </c>
-      <c r="N48" s="6" t="n">
-        <v>100882</v>
-      </c>
-      <c r="O48" s="6" t="n">
-        <v>2778</v>
-      </c>
-      <c r="P48" s="6" t="n">
-        <v>1459966283</v>
-      </c>
-      <c r="AMG48" s="0"/>
-      <c r="AMH48" s="0"/>
-      <c r="AMI48" s="0"/>
-      <c r="AMJ48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-8348.09804651163</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>16834</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>2487</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>704707035</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.159</v>
+        <v>0.654</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>54384</v>
+        <v>10899</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>23263</v>
+        <v>5653</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">E49/D49</f>
-        <v>0.42775448661371</v>
+        <v>0.518671437746582</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H49" s="2" t="n">
         <f aca="false">(G49-E49)/F49</f>
-        <v>46140.9537892791</v>
+        <v>72005.1217052892</v>
       </c>
       <c r="I49" s="2" t="n">
         <f aca="false">E49*M49/G49</f>
-        <v>9660.096</v>
+        <v>1908.87348837209</v>
       </c>
       <c r="J49" s="2" t="n">
         <f aca="false">I49-M49</f>
-        <v>-8195.904</v>
+        <v>-12611.1265116279</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>17856</v>
+        <v>14520</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>54384</v>
+        <v>10899</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>2072</v>
+        <v>1534</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>971077397</v>
-      </c>
+        <v>158247680</v>
+      </c>
+      <c r="AMG49" s="0"/>
+      <c r="AMH49" s="0"/>
+      <c r="AMI49" s="0"/>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.181</v>
+        <v>0.123</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>52395</v>
+        <v>57671</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>20466</v>
+        <v>30073</v>
       </c>
       <c r="F50" s="1" t="n">
         <f aca="false">E50/D50</f>
-        <v>0.390609791010593</v>
+        <v>0.521457925127014</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H50" s="2" t="n">
         <f aca="false">(G50-E50)/F50</f>
-        <v>57689.2861330988</v>
+        <v>24790.1112958468</v>
       </c>
       <c r="I50" s="2" t="n">
         <f aca="false">E50*M50/G50</f>
-        <v>6427.75186046512</v>
+        <v>12712.4865348837</v>
       </c>
       <c r="J50" s="2" t="n">
         <f aca="false">I50-M50</f>
-        <v>-7077.24813953488</v>
+        <v>-5464.51346511628</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>13505</v>
+        <v>18177</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>52395</v>
+        <v>57671</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>2519</v>
+        <v>2603</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>707598641</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>9554</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>3711</v>
-      </c>
-      <c r="F51" s="1" t="n">
+        <v>1048292829</v>
+      </c>
+    </row>
+    <row r="51" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="19" t="n">
+        <v>43</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="20" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="D51" s="21" t="n">
+        <v>95025</v>
+      </c>
+      <c r="E51" s="21" t="n">
+        <v>49728</v>
+      </c>
+      <c r="F51" s="20" t="n">
         <f aca="false">E51/D51</f>
-        <v>0.388423696880888</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H51" s="2" t="n">
+        <v>0.523314917127072</v>
+      </c>
+      <c r="G51" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H51" s="21" t="n">
         <f aca="false">(G51-E51)/F51</f>
-        <v>101149.853408785</v>
-      </c>
-      <c r="I51" s="2" t="n">
+        <v>-12856.5033783784</v>
+      </c>
+      <c r="I51" s="21" t="n">
         <f aca="false">E51*M51/G51</f>
-        <v>925.074627906977</v>
-      </c>
-      <c r="J51" s="2" t="n">
+        <v>23259.9828837209</v>
+      </c>
+      <c r="J51" s="21" t="n">
         <f aca="false">I51-M51</f>
-        <v>-9793.92537209302</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>193</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>10719</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>9554</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>1199</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>102412602</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>49699</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>19530</v>
-      </c>
-      <c r="F52" s="1" t="n">
+        <v>3146.98288372093</v>
+      </c>
+      <c r="K51" s="19" t="n">
+        <v>258</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" s="21" t="n">
+        <v>20113</v>
+      </c>
+      <c r="N51" s="21" t="n">
+        <v>95025</v>
+      </c>
+      <c r="O51" s="21" t="n">
+        <v>2744</v>
+      </c>
+      <c r="P51" s="21" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="52" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="n">
+        <v>84</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D52" s="24" t="n">
+        <v>82169</v>
+      </c>
+      <c r="E52" s="24" t="n">
+        <v>43575</v>
+      </c>
+      <c r="F52" s="5" t="n">
         <f aca="false">E52/D52</f>
-        <v>0.392965653232459</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H52" s="2" t="n">
+        <v>0.530309484112013</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H52" s="6" t="n">
         <f aca="false">(G52-E52)/F52</f>
-        <v>59725.3215565796</v>
-      </c>
-      <c r="I52" s="2" t="n">
+        <v>-1084.27251864601</v>
+      </c>
+      <c r="I52" s="6" t="n">
         <f aca="false">E52*M52/G52</f>
-        <v>6154.22093023256</v>
-      </c>
-      <c r="J52" s="2" t="n">
+        <v>23571.0348837209</v>
+      </c>
+      <c r="J52" s="6" t="n">
         <f aca="false">I52-M52</f>
-        <v>-7395.77906976744</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>243</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>13550</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>49699</v>
-      </c>
-      <c r="O52" s="2" t="n">
-        <v>2478</v>
-      </c>
-      <c r="P52" s="2" t="n">
-        <v>673418437</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="13" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="D53" s="14" t="n">
-        <v>88054</v>
-      </c>
-      <c r="E53" s="14" t="n">
-        <v>26033</v>
-      </c>
-      <c r="F53" s="13" t="n">
+        <v>311.034883720931</v>
+      </c>
+      <c r="K52" s="24" t="n">
+        <v>286</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>23260</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>82169</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>2395</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>34649</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>14929</v>
+      </c>
+      <c r="F53" s="1" t="n">
         <f aca="false">E53/D53</f>
-        <v>0.295648125014196</v>
-      </c>
-      <c r="G53" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H53" s="14" t="n">
+        <v>0.430863805593235</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H53" s="2" t="n">
         <f aca="false">(G53-E53)/F53</f>
-        <v>57389.1682864057</v>
-      </c>
-      <c r="I53" s="14" t="n">
+        <v>65150.5177171947</v>
+      </c>
+      <c r="I53" s="2" t="n">
         <f aca="false">E53*M53/G53</f>
-        <v>4777.96362790698</v>
-      </c>
-      <c r="J53" s="14" t="n">
+        <v>4975.87041860465</v>
+      </c>
+      <c r="J53" s="2" t="n">
         <f aca="false">I53-M53</f>
-        <v>-3114.03637209302</v>
-      </c>
-      <c r="K53" s="12" t="n">
-        <v>109</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M53" s="14" t="n">
-        <v>7892</v>
-      </c>
-      <c r="N53" s="14" t="n">
-        <v>88054</v>
-      </c>
-      <c r="O53" s="14" t="n">
-        <v>1951</v>
-      </c>
-      <c r="P53" s="14" t="n">
-        <v>694920731</v>
-      </c>
-      <c r="AMG53" s="0"/>
-      <c r="AMH53" s="0"/>
-      <c r="AMI53" s="0"/>
-      <c r="AMJ53" s="0"/>
-    </row>
-    <row r="54" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>51</v>
+        <v>-9356.12958139535</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>14332</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>34649</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>2139</v>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>496591233</v>
+      </c>
+    </row>
+    <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.119</v>
+        <v>0.159</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>106911</v>
+        <v>54384</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>31164</v>
+        <v>23263</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">E54/D54</f>
-        <v>0.291494794735808</v>
+        <v>0.42775448661371</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H54" s="2" t="n">
         <f aca="false">(G54-E54)/F54</f>
-        <v>40604.4986522911</v>
+        <v>46140.9537892791</v>
       </c>
       <c r="I54" s="2" t="n">
         <f aca="false">E54*M54/G54</f>
-        <v>4710.83720930233</v>
+        <v>9660.096</v>
       </c>
       <c r="J54" s="2" t="n">
         <f aca="false">I54-M54</f>
-        <v>-1789.16279069767</v>
-      </c>
-      <c r="K54" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>140</v>
+        <v>-8195.904</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>6500</v>
+        <v>17856</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>106911</v>
+        <v>54384</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>2270</v>
+        <v>2072</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>694920731</v>
+        <v>971077397</v>
       </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.229</v>
+        <v>0.116</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>35520</v>
+        <v>74181</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>16141</v>
+        <v>31925</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">E55/D55</f>
-        <v>0.454420045045045</v>
+        <v>0.430366266294604</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H55" s="2" t="n">
         <f aca="false">(G55-E55)/F55</f>
-        <v>59106.1074282882</v>
+        <v>25733.8942834769</v>
       </c>
       <c r="I55" s="2" t="n">
         <f aca="false">E55*M55/G55</f>
-        <v>7186.87409302326</v>
+        <v>14689.2122093023</v>
       </c>
       <c r="J55" s="2" t="n">
         <f aca="false">I55-M55</f>
-        <v>-11959.1259069767</v>
+        <v>-5095.78779069767</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>19146</v>
+        <v>19785</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>35520</v>
+        <v>74181</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>680068076</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>0.668</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>12263</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>5532</v>
-      </c>
-      <c r="F56" s="1" t="n">
+        <v>1467668630</v>
+      </c>
+      <c r="AMG55" s="0"/>
+      <c r="AMH55" s="0"/>
+      <c r="AMI55" s="0"/>
+      <c r="AMJ55" s="0"/>
+    </row>
+    <row r="56" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23" t="n">
+        <v>85</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D56" s="23" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E56" s="23" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F56" s="10" t="n">
         <f aca="false">E56/D56</f>
-        <v>0.451113104460572</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H56" s="2" t="n">
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H56" s="8" t="n">
         <f aca="false">(G56-E56)/F56</f>
-        <v>83056.7758496023</v>
-      </c>
-      <c r="I56" s="2" t="n">
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I56" s="8" t="n">
         <f aca="false">E56*M56/G56</f>
-        <v>2115.28241860465</v>
-      </c>
-      <c r="J56" s="2" t="n">
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J56" s="8" t="n">
         <f aca="false">I56-M56</f>
-        <v>-14326.7175813954</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>16442</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>12263</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>1188</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>201632668</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>60517</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>27600</v>
-      </c>
-      <c r="F57" s="1" t="n">
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>287</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N56" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O56" s="8" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P56" s="8" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="57" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="n">
+        <v>47</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="20" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D57" s="21" t="n">
+        <v>100882</v>
+      </c>
+      <c r="E57" s="21" t="n">
+        <v>42891</v>
+      </c>
+      <c r="F57" s="20" t="n">
         <f aca="false">E57/D57</f>
-        <v>0.456070195151776</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H57" s="2" t="n">
+        <v>0.425160088023632</v>
+      </c>
+      <c r="G57" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H57" s="21" t="n">
         <f aca="false">(G57-E57)/F57</f>
-        <v>33766.731884058</v>
-      </c>
-      <c r="I57" s="2" t="n">
+        <v>256.374017859225</v>
+      </c>
+      <c r="I57" s="21" t="n">
         <f aca="false">E57*M57/G57</f>
-        <v>13739.023255814</v>
-      </c>
-      <c r="J57" s="2" t="n">
+        <v>14435.3151627907</v>
+      </c>
+      <c r="J57" s="21" t="n">
         <f aca="false">I57-M57</f>
-        <v>-7665.97674418605</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>21405</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>60517</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>2286</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>1295363390</v>
-      </c>
-    </row>
-    <row r="58" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="5" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D58" s="6" t="n">
-        <v>95364</v>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>43663</v>
-      </c>
-      <c r="F58" s="5" t="n">
+        <v>-36.6848372093027</v>
+      </c>
+      <c r="K57" s="19" t="n">
+        <v>236</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" s="21" t="n">
+        <v>14472</v>
+      </c>
+      <c r="N57" s="21" t="n">
+        <v>100882</v>
+      </c>
+      <c r="O57" s="21" t="n">
+        <v>2778</v>
+      </c>
+      <c r="P57" s="21" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>41485</v>
+      </c>
+      <c r="F58" s="1" t="n">
         <f aca="false">E58/D58</f>
-        <v>0.45785621408498</v>
-      </c>
-      <c r="G58" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H58" s="6" t="n">
+        <v>0.426225971170542</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H58" s="2" t="n">
         <f aca="false">(G58-E58)/F58</f>
-        <v>-1448.05285940041</v>
-      </c>
-      <c r="I58" s="6" t="n">
+        <v>3554.45257321924</v>
+      </c>
+      <c r="I58" s="2" t="n">
         <f aca="false">E58*M58/G58</f>
-        <v>23180.9913255814</v>
-      </c>
-      <c r="J58" s="6" t="n">
+        <v>14471.511627907</v>
+      </c>
+      <c r="J58" s="2" t="n">
         <f aca="false">I58-M58</f>
-        <v>351.991325581395</v>
-      </c>
-      <c r="K58" s="4" t="n">
-        <v>257</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M58" s="6" t="n">
-        <v>22829</v>
-      </c>
-      <c r="N58" s="6" t="n">
-        <v>95364</v>
-      </c>
-      <c r="O58" s="6" t="n">
-        <v>2501</v>
-      </c>
-      <c r="P58" s="6" t="n">
-        <v>2177064134</v>
-      </c>
-      <c r="AMG58" s="0"/>
-      <c r="AMH58" s="0"/>
-      <c r="AMI58" s="0"/>
-      <c r="AMJ58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-528.488372093023</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>2698</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="59" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.14</v>
+        <v>0.181</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>66569</v>
+        <v>52395</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>26431</v>
+        <v>20466</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">E59/D59</f>
-        <v>0.397046673376497</v>
+        <v>0.390609791010593</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H59" s="2" t="n">
         <f aca="false">(G59-E59)/F59</f>
-        <v>41730.61030608</v>
+        <v>57689.2861330988</v>
       </c>
       <c r="I59" s="2" t="n">
         <f aca="false">E59*M59/G59</f>
-        <v>6146.74418604651</v>
+        <v>6427.75186046512</v>
       </c>
       <c r="J59" s="2" t="n">
         <f aca="false">I59-M59</f>
-        <v>-3853.25581395349</v>
+        <v>-7077.24813953488</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>10000</v>
+        <v>13505</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>66569</v>
+        <v>52395</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>3218</v>
+        <v>2519</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>665689450</v>
-      </c>
+        <v>707598641</v>
+      </c>
+      <c r="AMG59" s="0"/>
+      <c r="AMH59" s="0"/>
+      <c r="AMI59" s="0"/>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.225</v>
+        <v>0.996</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>35774</v>
+        <v>9554</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>16433</v>
+        <v>3711</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">E60/D60</f>
-        <v>0.459355956840163</v>
+        <v>0.388423696880888</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H60" s="2" t="n">
         <f aca="false">(G60-E60)/F60</f>
-        <v>57835.3227043145</v>
+        <v>101149.853408785</v>
       </c>
       <c r="I60" s="2" t="n">
         <f aca="false">E60*M60/G60</f>
-        <v>7111.28520930233</v>
+        <v>925.074627906977</v>
       </c>
       <c r="J60" s="2" t="n">
         <f aca="false">I60-M60</f>
-        <v>-11496.7147906977</v>
+        <v>-9793.92537209302</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>18608</v>
+        <v>10719</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>35774</v>
+        <v>9554</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>2151</v>
+        <v>1199</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>665689450</v>
+        <v>102412602</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0.104</v>
+        <v>0.189</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>84661</v>
+        <v>49699</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>35506</v>
+        <v>19530</v>
       </c>
       <c r="F61" s="1" t="n">
         <f aca="false">E61/D61</f>
-        <v>0.419390274152207</v>
+        <v>0.392965653232459</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H61" s="2" t="n">
         <f aca="false">(G61-E61)/F61</f>
-        <v>17868.7977806568</v>
+        <v>59725.3215565796</v>
       </c>
       <c r="I61" s="2" t="n">
         <f aca="false">E61*M61/G61</f>
-        <v>9908.6511627907</v>
+        <v>6154.22093023256</v>
       </c>
       <c r="J61" s="2" t="n">
         <f aca="false">I61-M61</f>
-        <v>-2091.3488372093</v>
+        <v>-7395.77906976744</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>12000</v>
+        <v>13550</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>84661</v>
+        <v>49699</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>3305</v>
+        <v>2478</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>1015928395</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>19800</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F62" s="1" t="n">
+        <v>673418437</v>
+      </c>
+    </row>
+    <row r="62" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="24" t="n">
+        <v>77</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="D62" s="24" t="n">
+        <v>103744</v>
+      </c>
+      <c r="E62" s="24" t="n">
+        <v>40752</v>
+      </c>
+      <c r="F62" s="5" t="n">
         <f aca="false">E62/D62</f>
-        <v>0.459090909090909</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H62" s="2" t="n">
+        <v>0.3928130783467</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H62" s="6" t="n">
         <f aca="false">(G62-E62)/F62</f>
-        <v>73863.3663366337</v>
-      </c>
-      <c r="I62" s="2" t="n">
+        <v>5722.82371417354</v>
+      </c>
+      <c r="I62" s="6" t="n">
         <f aca="false">E62*M62/G62</f>
-        <v>3739.37232558139</v>
-      </c>
-      <c r="J62" s="2" t="n">
+        <v>13551.4615813954</v>
+      </c>
+      <c r="J62" s="6" t="n">
         <f aca="false">I62-M62</f>
-        <v>-13949.6276744186</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>17689</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>19800</v>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>1713</v>
-      </c>
-      <c r="P62" s="2" t="n">
-        <v>350238945</v>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-747.53841860465</v>
+      </c>
+      <c r="K62" s="24" t="n">
+        <v>263</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M62" s="6" t="n">
+        <v>14299</v>
+      </c>
+      <c r="N62" s="6" t="n">
+        <v>103744</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>2818</v>
+      </c>
+      <c r="P62" s="6" t="n">
+        <v>1483429680</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C63" s="13" t="n">
-        <v>0.154</v>
+        <v>0.142</v>
       </c>
       <c r="D63" s="14" t="n">
-        <v>52281</v>
+        <v>88054</v>
       </c>
       <c r="E63" s="14" t="n">
-        <v>24035</v>
+        <v>26033</v>
       </c>
       <c r="F63" s="13" t="n">
         <f aca="false">E63/D63</f>
-        <v>0.459727243166734</v>
+        <v>0.295648125014196</v>
       </c>
       <c r="G63" s="14" t="n">
         <v>43000</v>
       </c>
       <c r="H63" s="14" t="n">
         <f aca="false">(G63-E63)/F63</f>
-        <v>41252.7216559185</v>
+        <v>57389.1682864057</v>
       </c>
       <c r="I63" s="14" t="n">
         <f aca="false">E63*M63/G63</f>
-        <v>10861.5841860465</v>
+        <v>4777.96362790698</v>
       </c>
       <c r="J63" s="14" t="n">
         <f aca="false">I63-M63</f>
-        <v>-8570.41581395349</v>
+        <v>-3114.03637209302</v>
       </c>
       <c r="K63" s="12" t="n">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M63" s="14" t="n">
-        <v>19432</v>
+        <v>7892</v>
       </c>
       <c r="N63" s="14" t="n">
-        <v>52281</v>
+        <v>88054</v>
       </c>
       <c r="O63" s="14" t="n">
-        <v>2400</v>
+        <v>1951</v>
       </c>
       <c r="P63" s="14" t="n">
-        <v>1015928395</v>
-      </c>
-      <c r="AMG63" s="0"/>
-      <c r="AMH63" s="0"/>
-      <c r="AMI63" s="0"/>
-      <c r="AMJ63" s="0"/>
+        <v>694920731</v>
+      </c>
     </row>
     <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="13" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="D64" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="E64" s="14" t="n">
-        <v>16906</v>
-      </c>
-      <c r="F64" s="13" t="n">
+      <c r="A64" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>106911</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>31164</v>
+      </c>
+      <c r="F64" s="1" t="n">
         <f aca="false">E64/D64</f>
-        <v>0.428065022535069</v>
-      </c>
-      <c r="G64" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H64" s="14" t="n">
+        <v>0.291494794735808</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H64" s="2" t="n">
         <f aca="false">(G64-E64)/F64</f>
-        <v>60958.0288654915</v>
-      </c>
-      <c r="I64" s="14" t="n">
+        <v>40604.4986522911</v>
+      </c>
+      <c r="I64" s="2" t="n">
         <f aca="false">E64*M64/G64</f>
-        <v>5073.76581395349</v>
-      </c>
-      <c r="J64" s="14" t="n">
+        <v>4710.83720930233</v>
+      </c>
+      <c r="J64" s="2" t="n">
         <f aca="false">I64-M64</f>
-        <v>-7831.23418604651</v>
-      </c>
-      <c r="K64" s="12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="M64" s="14" t="n">
-        <v>12905</v>
-      </c>
-      <c r="N64" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="O64" s="14" t="n">
-        <v>2190</v>
-      </c>
-      <c r="P64" s="14" t="n">
-        <v>509668347</v>
+        <v>-1789.16279069767</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>106911</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>2270</v>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v>694920731</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.144</v>
+        <v>0.229</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>56061</v>
+        <v>35520</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>25577</v>
+        <v>16141</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">E65/D65</f>
-        <v>0.456235172401491</v>
+        <v>0.454420045045045</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H65" s="2" t="n">
         <f aca="false">(G65-E65)/F65</f>
-        <v>38188.6383469523</v>
+        <v>59106.1074282882</v>
       </c>
       <c r="I65" s="2" t="n">
         <f aca="false">E65*M65/G65</f>
-        <v>8687.85260465116</v>
+        <v>7186.87409302326</v>
       </c>
       <c r="J65" s="2" t="n">
         <f aca="false">I65-M65</f>
-        <v>-5918.14739534884</v>
+        <v>-11959.1259069767</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>14606</v>
+        <v>19146</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>56061</v>
+        <v>35520</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>2538</v>
+        <v>1996</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>818820178</v>
-      </c>
+        <v>680068076</v>
+      </c>
+      <c r="AMG65" s="0"/>
+      <c r="AMH65" s="0"/>
+      <c r="AMI65" s="0"/>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.873</v>
+        <v>0.668</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>9341</v>
+        <v>12263</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>4234</v>
+        <v>5532</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">E66/D66</f>
-        <v>0.453270527780752</v>
+        <v>0.451113104460572</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H66" s="2" t="n">
         <f aca="false">(G66-E66)/F66</f>
-        <v>85525.084081247</v>
+        <v>83056.7758496023</v>
       </c>
       <c r="I66" s="2" t="n">
         <f aca="false">E66*M66/G66</f>
-        <v>1147.51246511628</v>
+        <v>2115.28241860465</v>
       </c>
       <c r="J66" s="2" t="n">
         <f aca="false">I66-M66</f>
-        <v>-10506.4875348837</v>
+        <v>-14326.7175813954</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>11654</v>
+        <v>16442</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>9341</v>
+        <v>12263</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>1271</v>
+        <v>1188</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>108865707</v>
+        <v>201632668</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.161</v>
+        <v>0.134</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>50234</v>
+        <v>60517</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>22928</v>
+        <v>27600</v>
       </c>
       <c r="F67" s="1" t="n">
         <f aca="false">E67/D67</f>
-        <v>0.456423935979615</v>
+        <v>0.456070195151776</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H67" s="2" t="n">
         <f aca="false">(G67-E67)/F67</f>
-        <v>43976.6594556874</v>
+        <v>33766.731884058</v>
       </c>
       <c r="I67" s="2" t="n">
         <f aca="false">E67*M67/G67</f>
-        <v>7627.02586046512</v>
+        <v>13739.023255814</v>
       </c>
       <c r="J67" s="2" t="n">
         <f aca="false">I67-M67</f>
-        <v>-6676.97413953488</v>
+        <v>-7665.97674418605</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>14304</v>
+        <v>21405</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>50234</v>
+        <v>60517</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>2496</v>
+        <v>2286</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>718546548</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="13" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="D68" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="E68" s="14" t="n">
-        <v>10616</v>
-      </c>
-      <c r="F68" s="13" t="n">
+        <v>1295363390</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>95364</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>43663</v>
+      </c>
+      <c r="F68" s="5" t="n">
         <f aca="false">E68/D68</f>
-        <v>0.35149990066883</v>
-      </c>
-      <c r="G68" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H68" s="14" t="n">
+        <v>0.45785621408498</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="6" t="n">
         <f aca="false">(G68-E68)/F68</f>
-        <v>92130.8937452901</v>
-      </c>
-      <c r="I68" s="14" t="n">
+        <v>-1448.05285940041</v>
+      </c>
+      <c r="I68" s="6" t="n">
         <f aca="false">E68*M68/G68</f>
-        <v>4480.44576744186</v>
-      </c>
-      <c r="J68" s="14" t="n">
+        <v>23180.9913255814</v>
+      </c>
+      <c r="J68" s="6" t="n">
         <f aca="false">I68-M68</f>
-        <v>-13667.5542325581</v>
-      </c>
-      <c r="K68" s="12" t="n">
-        <v>179</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M68" s="14" t="n">
-        <v>18148</v>
-      </c>
-      <c r="N68" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="O68" s="14" t="n">
-        <v>2189</v>
-      </c>
-      <c r="P68" s="14" t="n">
-        <v>548108581</v>
-      </c>
-      <c r="AMG68" s="0"/>
-      <c r="AMH68" s="0"/>
-      <c r="AMI68" s="0"/>
-      <c r="AMJ68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351.991325581395</v>
+      </c>
+      <c r="K68" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M68" s="6" t="n">
+        <v>22829</v>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>95364</v>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>2501</v>
+      </c>
+      <c r="P68" s="6" t="n">
+        <v>2177064134</v>
+      </c>
+    </row>
+    <row r="69" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>68439</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>34918</v>
-      </c>
-      <c r="F69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>38035</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>18024</v>
+      </c>
+      <c r="F69" s="20" t="n">
         <f aca="false">E69/D69</f>
-        <v>0.510206168997209</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H69" s="2" t="n">
+        <v>0.473879321677402</v>
+      </c>
+      <c r="G69" s="21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H69" s="21" t="n">
         <f aca="false">(G69-E69)/F69</f>
-        <v>15840.6551921645</v>
-      </c>
-      <c r="I69" s="2" t="n">
+        <v>52705.40168664</v>
+      </c>
+      <c r="I69" s="21" t="n">
         <f aca="false">E69*M69/G69</f>
-        <v>9006.40786046512</v>
-      </c>
-      <c r="J69" s="2" t="n">
+        <v>9716.61265116279</v>
+      </c>
+      <c r="J69" s="14" t="n">
         <f aca="false">I69-M69</f>
-        <v>-2084.59213953488</v>
+        <v>-13464.3873488372</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>11091</v>
+        <v>23181</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>68439</v>
+        <v>38035</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>2470</v>
+        <v>1958</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>759054298</v>
-      </c>
+        <v>881700744</v>
+      </c>
+      <c r="Q69" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AMG69" s="0"/>
+      <c r="AMH69" s="0"/>
+      <c r="AMI69" s="0"/>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0.966</v>
+        <v>0.225</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>7662</v>
+        <v>35774</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>3824</v>
+        <v>16433</v>
       </c>
       <c r="F70" s="1" t="n">
         <f aca="false">E70/D70</f>
-        <v>0.499086400417646</v>
+        <v>0.459355956840163</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H70" s="2" t="n">
         <f aca="false">(G70-E70)/F70</f>
-        <v>78495.4267782427</v>
+        <v>57835.3227043145</v>
       </c>
       <c r="I70" s="2" t="n">
         <f aca="false">E70*M70/G70</f>
-        <v>731.451162790698</v>
+        <v>7111.28520930233</v>
       </c>
       <c r="J70" s="2" t="n">
         <f aca="false">I70-M70</f>
-        <v>-7493.5488372093</v>
+        <v>-11496.7147906977</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>8225</v>
+        <v>18608</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>7662</v>
+        <v>35774</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>1166</v>
+        <v>2151</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>63023534</v>
+        <v>665689450</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.183</v>
+        <v>0.407</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>39754</v>
+        <v>19800</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>20241</v>
+        <v>9090</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">E71/D71</f>
-        <v>0.509156311314585</v>
+        <v>0.459090909090909</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H71" s="2" t="n">
         <f aca="false">(G71-E71)/F71</f>
-        <v>44699.4360950546</v>
+        <v>73863.3663366337</v>
       </c>
       <c r="I71" s="2" t="n">
         <f aca="false">E71*M71/G71</f>
-        <v>4921.3873255814</v>
+        <v>3739.37232558139</v>
       </c>
       <c r="J71" s="2" t="n">
         <f aca="false">I71-M71</f>
-        <v>-5533.61267441861</v>
+        <v>-13949.6276744186</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>10455</v>
+        <v>17689</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>39754</v>
+        <v>19800</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>2244</v>
+        <v>1713</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>415628392</v>
-      </c>
-    </row>
-    <row r="72" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350238945</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C72" s="13" t="n">
-        <v>0.171</v>
+        <v>0.154</v>
       </c>
       <c r="D72" s="14" t="n">
-        <v>62740</v>
+        <v>52281</v>
       </c>
       <c r="E72" s="14" t="n">
-        <v>21660</v>
+        <v>24035</v>
       </c>
       <c r="F72" s="13" t="n">
         <f aca="false">E72/D72</f>
-        <v>0.345234300286898</v>
+        <v>0.459727243166734</v>
       </c>
       <c r="G72" s="14" t="n">
         <v>43000</v>
       </c>
       <c r="H72" s="14" t="n">
         <f aca="false">(G72-E72)/F72</f>
-        <v>61813.0932594644</v>
+        <v>41252.7216559185</v>
       </c>
       <c r="I72" s="14" t="n">
         <f aca="false">E72*M72/G72</f>
-        <v>4818.09069767442</v>
+        <v>10861.5841860465</v>
       </c>
       <c r="J72" s="14" t="n">
         <f aca="false">I72-M72</f>
-        <v>-4746.90930232558</v>
+        <v>-8570.41581395349</v>
       </c>
       <c r="K72" s="12" t="n">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M72" s="14" t="n">
-        <v>9565</v>
+        <v>19432</v>
       </c>
       <c r="N72" s="14" t="n">
-        <v>62740</v>
+        <v>52281</v>
       </c>
       <c r="O72" s="14" t="n">
-        <v>2391</v>
+        <v>2400</v>
       </c>
       <c r="P72" s="14" t="n">
-        <v>600104724</v>
-      </c>
-      <c r="AMG72" s="0"/>
-      <c r="AMH72" s="0"/>
-      <c r="AMI72" s="0"/>
-      <c r="AMJ72" s="0"/>
+        <v>1015928395</v>
+      </c>
     </row>
     <row r="73" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="13" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="D73" s="14" t="n">
-        <v>62701</v>
-      </c>
-      <c r="E73" s="14" t="n">
-        <v>28144</v>
-      </c>
-      <c r="F73" s="13" t="n">
+      <c r="A73" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>35506</v>
+      </c>
+      <c r="F73" s="1" t="n">
         <f aca="false">E73/D73</f>
-        <v>0.448860464745379</v>
-      </c>
-      <c r="G73" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H73" s="14" t="n">
+        <v>0.419390274152207</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H73" s="2" t="n">
         <f aca="false">(G73-E73)/F73</f>
-        <v>33097.1452529847</v>
-      </c>
-      <c r="I73" s="14" t="n">
+        <v>17868.7977806568</v>
+      </c>
+      <c r="I73" s="2" t="n">
         <f aca="false">E73*M73/G73</f>
-        <v>6064.70474418605</v>
-      </c>
-      <c r="J73" s="14" t="n">
+        <v>9908.6511627907</v>
+      </c>
+      <c r="J73" s="2" t="n">
         <f aca="false">I73-M73</f>
-        <v>-3201.29525581395</v>
-      </c>
-      <c r="K73" s="12" t="n">
-        <v>176</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="M73" s="14" t="n">
-        <v>9266</v>
-      </c>
-      <c r="N73" s="14" t="n">
-        <v>62701</v>
-      </c>
-      <c r="O73" s="14" t="n">
-        <v>2372</v>
-      </c>
-      <c r="P73" s="14" t="n">
-        <v>580988437</v>
+        <v>-2091.3488372093</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>3305</v>
+      </c>
+      <c r="P73" s="2" t="n">
+        <v>1015928395</v>
       </c>
       <c r="AMG73" s="0"/>
       <c r="AMH73" s="0"/>
@@ -11087,388 +11150,1029 @@
       <c r="AMJ73" s="0"/>
     </row>
     <row r="74" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D74" s="14" t="n">
-        <v>43884</v>
-      </c>
-      <c r="E74" s="14" t="n">
-        <v>21783</v>
-      </c>
-      <c r="F74" s="13" t="n">
+      <c r="A74" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>66569</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>26431</v>
+      </c>
+      <c r="F74" s="1" t="n">
         <f aca="false">E74/D74</f>
-        <v>0.496376811594203</v>
-      </c>
-      <c r="G74" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H74" s="14" t="n">
+        <v>0.397046673376497</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="2" t="n">
         <f aca="false">(G74-E74)/F74</f>
-        <v>42743.7372262774</v>
-      </c>
-      <c r="I74" s="14" t="n">
+        <v>41730.61030608</v>
+      </c>
+      <c r="I74" s="2" t="n">
         <f aca="false">E74*M74/G74</f>
-        <v>5969.5551627907</v>
-      </c>
-      <c r="J74" s="14" t="n">
+        <v>6146.74418604651</v>
+      </c>
+      <c r="J74" s="2" t="n">
         <f aca="false">I74-M74</f>
-        <v>-5814.4448372093</v>
-      </c>
-      <c r="K74" s="12" t="n">
-        <v>177</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M74" s="14" t="n">
-        <v>11784</v>
-      </c>
-      <c r="N74" s="14" t="n">
-        <v>43884</v>
-      </c>
-      <c r="O74" s="14" t="n">
-        <v>2804</v>
-      </c>
-      <c r="P74" s="14" t="n">
-        <v>517123870</v>
+        <v>-3853.25581395349</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>66569</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>3218</v>
+      </c>
+      <c r="P74" s="2" t="n">
+        <v>665689450</v>
       </c>
       <c r="AMG74" s="0"/>
       <c r="AMH74" s="0"/>
       <c r="AMI74" s="0"/>
       <c r="AMJ74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>19807</v>
-      </c>
-      <c r="N75" s="2" t="n">
-        <v>107014</v>
-      </c>
-      <c r="O75" s="2" t="n">
-        <v>3206</v>
-      </c>
-      <c r="P75" s="2" t="n">
-        <v>2119632070</v>
-      </c>
+    <row r="75" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="13" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D75" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <v>16906</v>
+      </c>
+      <c r="F75" s="13" t="n">
+        <f aca="false">E75/D75</f>
+        <v>0.428065022535069</v>
+      </c>
+      <c r="G75" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H75" s="14" t="n">
+        <f aca="false">(G75-E75)/F75</f>
+        <v>60958.0288654915</v>
+      </c>
+      <c r="I75" s="14" t="n">
+        <f aca="false">E75*M75/G75</f>
+        <v>5073.76581395349</v>
+      </c>
+      <c r="J75" s="14" t="n">
+        <f aca="false">I75-M75</f>
+        <v>-7831.23418604651</v>
+      </c>
+      <c r="K75" s="12" t="n">
+        <v>178</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M75" s="14" t="n">
+        <v>12905</v>
+      </c>
+      <c r="N75" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="O75" s="14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="P75" s="14" t="n">
+        <v>509668347</v>
+      </c>
+      <c r="AMG75" s="0"/>
+      <c r="AMH75" s="0"/>
+      <c r="AMI75" s="0"/>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>56061</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>25577</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <f aca="false">E76/D76</f>
+        <v>0.456235172401491</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <f aca="false">(G76-E76)/F76</f>
+        <v>38188.6383469523</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <f aca="false">E76*M76/G76</f>
+        <v>8687.85260465116</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <f aca="false">I76-M76</f>
+        <v>-5918.14739534884</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>15911</v>
+        <v>14606</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>103465</v>
+        <v>56061</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>2730</v>
+        <v>2538</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1646232433</v>
+        <v>818820178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>9341</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>4234</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="false">E77/D77</f>
+        <v>0.453270527780752</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <f aca="false">(G77-E77)/F77</f>
+        <v>85525.084081247</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <f aca="false">E77*M77/G77</f>
+        <v>1147.51246511628</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <f aca="false">I77-M77</f>
+        <v>-10506.4875348837</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>11638</v>
+        <v>11654</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>106350</v>
+        <v>9341</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>2601</v>
+        <v>1271</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>1237706224</v>
+        <v>108865707</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>22928</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="false">E78/D78</f>
+        <v>0.456423935979615</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <f aca="false">(G78-E78)/F78</f>
+        <v>43976.6594556874</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <f aca="false">E78*M78/G78</f>
+        <v>7627.02586046512</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <f aca="false">I78-M78</f>
+        <v>-6676.97413953488</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>14299</v>
+        <v>14304</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>103744</v>
+        <v>50234</v>
       </c>
       <c r="O78" s="2" t="n">
-        <v>2818</v>
+        <v>2496</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>1483429680</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>264</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="M79" s="2" t="n">
-        <v>10447</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>80146</v>
-      </c>
-      <c r="O79" s="2" t="n">
-        <v>2185</v>
-      </c>
-      <c r="P79" s="2" t="n">
-        <v>837283164</v>
+        <v>718546548</v>
+      </c>
+    </row>
+    <row r="79" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D79" s="24" t="n">
+        <v>103465</v>
+      </c>
+      <c r="E79" s="24" t="n">
+        <v>47379</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <f aca="false">E79/D79</f>
+        <v>0.457922969119992</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <f aca="false">(G79-E79)/F79</f>
+        <v>-9562.74372612339</v>
+      </c>
+      <c r="I79" s="6" t="n">
+        <f aca="false">E79*M79/G79</f>
+        <v>17531.3318372093</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <f aca="false">I79-M79</f>
+        <v>1620.3318372093</v>
+      </c>
+      <c r="K79" s="24" t="n">
+        <v>261</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M79" s="6" t="n">
+        <v>15911</v>
+      </c>
+      <c r="N79" s="6" t="n">
+        <v>103465</v>
+      </c>
+      <c r="O79" s="6" t="n">
+        <v>2730</v>
+      </c>
+      <c r="P79" s="6" t="n">
+        <v>1646232433</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <v>281</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="M80" s="2" t="n">
-        <v>10739</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>77967</v>
-      </c>
-      <c r="O80" s="2" t="n">
-        <v>2116</v>
-      </c>
-      <c r="P80" s="2" t="n">
-        <v>837283164</v>
+      <c r="A80" s="12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="13" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D80" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="E80" s="14" t="n">
+        <v>10616</v>
+      </c>
+      <c r="F80" s="13" t="n">
+        <f aca="false">E80/D80</f>
+        <v>0.35149990066883</v>
+      </c>
+      <c r="G80" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H80" s="14" t="n">
+        <f aca="false">(G80-E80)/F80</f>
+        <v>92130.8937452901</v>
+      </c>
+      <c r="I80" s="14" t="n">
+        <f aca="false">E80*M80/G80</f>
+        <v>4480.44576744186</v>
+      </c>
+      <c r="J80" s="14" t="n">
+        <f aca="false">I80-M80</f>
+        <v>-13667.5542325581</v>
+      </c>
+      <c r="K80" s="12" t="n">
+        <v>179</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M80" s="14" t="n">
+        <v>18148</v>
+      </c>
+      <c r="N80" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="O80" s="14" t="n">
+        <v>2189</v>
+      </c>
+      <c r="P80" s="14" t="n">
+        <v>548108581</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>34918</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <f aca="false">E81/D81</f>
+        <v>0.510206168997209</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <f aca="false">(G81-E81)/F81</f>
+        <v>15840.6551921645</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <f aca="false">E81*M81/G81</f>
+        <v>9006.40786046512</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <f aca="false">I81-M81</f>
+        <v>-2084.59213953488</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>6012</v>
+        <v>11091</v>
       </c>
       <c r="N81" s="2" t="n">
-        <v>92408</v>
+        <v>68439</v>
       </c>
       <c r="O81" s="2" t="n">
-        <v>2527</v>
+        <v>2470</v>
       </c>
       <c r="P81" s="2" t="n">
-        <v>555559035</v>
+        <v>759054298</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>3824</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <f aca="false">E82/D82</f>
+        <v>0.499086400417646</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <f aca="false">(G82-E82)/F82</f>
+        <v>78495.4267782427</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <f aca="false">E82*M82/G82</f>
+        <v>731.451162790698</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <f aca="false">I82-M82</f>
+        <v>-7493.5488372093</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>9545</v>
+        <v>8225</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>82044</v>
+        <v>7662</v>
       </c>
       <c r="O82" s="2" t="n">
-        <v>4002</v>
+        <v>1166</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>783106269</v>
+        <v>63023534</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>20241</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <f aca="false">E83/D83</f>
+        <v>0.509156311314585</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <f aca="false">(G83-E83)/F83</f>
+        <v>44699.4360950546</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <f aca="false">E83*M83/G83</f>
+        <v>4921.3873255814</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <f aca="false">I83-M83</f>
+        <v>-5533.61267441861</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>9413</v>
+        <v>10455</v>
       </c>
       <c r="N83" s="2" t="n">
-        <v>74562</v>
+        <v>39754</v>
       </c>
       <c r="O83" s="2" t="n">
-        <v>2851</v>
+        <v>2244</v>
       </c>
       <c r="P83" s="2" t="n">
-        <v>701851123</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>285</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="M84" s="2" t="n">
-        <v>14625</v>
-      </c>
-      <c r="N84" s="2" t="n">
-        <v>108210</v>
-      </c>
-      <c r="O84" s="2" t="n">
-        <v>2986</v>
-      </c>
-      <c r="P84" s="2" t="n">
-        <v>1582564131</v>
+        <v>415628392</v>
+      </c>
+    </row>
+    <row r="84" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="24" t="n">
+        <v>76</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="D84" s="24" t="n">
+        <v>106350</v>
+      </c>
+      <c r="E84" s="24" t="n">
+        <v>54474</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <f aca="false">E84/D84</f>
+        <v>0.512214386459803</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <f aca="false">(G84-E84)/F84</f>
+        <v>-22400.7765172376</v>
+      </c>
+      <c r="I84" s="6" t="n">
+        <f aca="false">E84*M84/G84</f>
+        <v>14743.4514418605</v>
+      </c>
+      <c r="J84" s="6" t="n">
+        <f aca="false">I84-M84</f>
+        <v>3105.45144186046</v>
+      </c>
+      <c r="K84" s="24" t="n">
+        <v>262</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M84" s="6" t="n">
+        <v>11638</v>
+      </c>
+      <c r="N84" s="6" t="n">
+        <v>106350</v>
+      </c>
+      <c r="O84" s="6" t="n">
+        <v>2601</v>
+      </c>
+      <c r="P84" s="6" t="n">
+        <v>1237706224</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>286</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="M85" s="2" t="n">
-        <v>23260</v>
-      </c>
-      <c r="N85" s="2" t="n">
-        <v>82169</v>
-      </c>
-      <c r="O85" s="2" t="n">
-        <v>2395</v>
-      </c>
-      <c r="P85" s="2" t="n">
-        <v>1911247544</v>
+      <c r="A85" s="12" t="n">
+        <v>71</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="13" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="D85" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="E85" s="14" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F85" s="13" t="n">
+        <f aca="false">E85/D85</f>
+        <v>0.345234300286898</v>
+      </c>
+      <c r="G85" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H85" s="14" t="n">
+        <f aca="false">(G85-E85)/F85</f>
+        <v>61813.0932594644</v>
+      </c>
+      <c r="I85" s="14" t="n">
+        <f aca="false">E85*M85/G85</f>
+        <v>4818.09069767442</v>
+      </c>
+      <c r="J85" s="14" t="n">
+        <f aca="false">I85-M85</f>
+        <v>-4746.90930232558</v>
+      </c>
+      <c r="K85" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M85" s="14" t="n">
+        <v>9565</v>
+      </c>
+      <c r="N85" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="O85" s="14" t="n">
+        <v>2391</v>
+      </c>
+      <c r="P85" s="14" t="n">
+        <v>600104724</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>287</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>14435</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>101141</v>
-      </c>
-      <c r="O86" s="2" t="n">
-        <v>2781</v>
-      </c>
-      <c r="P86" s="2" t="n">
-        <v>1459966283</v>
+      <c r="A86" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="13" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D86" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="E86" s="14" t="n">
+        <v>28144</v>
+      </c>
+      <c r="F86" s="13" t="n">
+        <f aca="false">E86/D86</f>
+        <v>0.448860464745379</v>
+      </c>
+      <c r="G86" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H86" s="14" t="n">
+        <f aca="false">(G86-E86)/F86</f>
+        <v>33097.1452529847</v>
+      </c>
+      <c r="I86" s="14" t="n">
+        <f aca="false">E86*M86/G86</f>
+        <v>6064.70474418605</v>
+      </c>
+      <c r="J86" s="14" t="n">
+        <f aca="false">I86-M86</f>
+        <v>-3201.29525581395</v>
+      </c>
+      <c r="K86" s="12" t="n">
+        <v>176</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M86" s="14" t="n">
+        <v>9266</v>
+      </c>
+      <c r="N86" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="O86" s="14" t="n">
+        <v>2372</v>
+      </c>
+      <c r="P86" s="14" t="n">
+        <v>580988437</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <v>288</v>
-      </c>
-      <c r="L87" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="M87" s="2" t="n">
-        <v>23181</v>
-      </c>
-      <c r="N87" s="2" t="n">
-        <v>38035</v>
-      </c>
-      <c r="O87" s="2" t="n">
-        <v>1958</v>
-      </c>
-      <c r="P87" s="2" t="n">
-        <v>881700744</v>
+      <c r="A87" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D87" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>21783</v>
+      </c>
+      <c r="F87" s="13" t="n">
+        <f aca="false">E87/D87</f>
+        <v>0.496376811594203</v>
+      </c>
+      <c r="G87" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H87" s="14" t="n">
+        <f aca="false">(G87-E87)/F87</f>
+        <v>42743.7372262774</v>
+      </c>
+      <c r="I87" s="14" t="n">
+        <f aca="false">E87*M87/G87</f>
+        <v>5969.5551627907</v>
+      </c>
+      <c r="J87" s="14" t="n">
+        <f aca="false">I87-M87</f>
+        <v>-5814.4448372093</v>
+      </c>
+      <c r="K87" s="12" t="n">
+        <v>177</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M87" s="14" t="n">
+        <v>11784</v>
+      </c>
+      <c r="N87" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="O87" s="14" t="n">
+        <v>2804</v>
+      </c>
+      <c r="P87" s="14" t="n">
+        <v>517123870</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G1 F2:F74">
+  <conditionalFormatting sqref="F2:G2 F3:F87 F1">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H74">
+  <conditionalFormatting sqref="H1:H87">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J74">
+  <conditionalFormatting sqref="J1:J87">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>500</formula>
+      <formula>50</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="7" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
-      <formula>500</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="F1:F41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="2" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F41">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="All_2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="All_3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="All_4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="194">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -581,6 +581,30 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V5_combine_force9721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_combine_force9455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_combine_force24013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11_combine_force14711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11_combine_force23571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11_combine_force13551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine_force17531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5_combine_force14743</t>
   </si>
 </sst>
 </file>
@@ -682,7 +706,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -756,22 +780,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,7 +955,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3746,7 +3754,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.76"/>
@@ -7119,15 +7127,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -7143,10 +7151,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -7171,22 +7179,22 @@
         <v>5</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7244,57 +7252,57 @@
         <v>837283164</v>
       </c>
     </row>
-    <row r="3" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.084</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="2" t="n">
         <v>80146</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="2" t="n">
         <v>44202</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">E3/D3</f>
         <v>0.551518478776233</v>
       </c>
-      <c r="G3" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="21" t="n">
+      <c r="G3" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <f aca="false">(G3-E3)/F3</f>
         <v>-2179.43740102258</v>
       </c>
-      <c r="I3" s="21" t="n">
+      <c r="I3" s="2" t="n">
         <f aca="false">E3*M3/G3</f>
         <v>10739.0300930233</v>
       </c>
-      <c r="J3" s="21" t="n">
+      <c r="J3" s="2" t="n">
         <f aca="false">I3-M3</f>
         <v>292.030093023255</v>
       </c>
-      <c r="K3" s="19" t="n">
+      <c r="K3" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="21" t="n">
+      <c r="M3" s="2" t="n">
         <v>10447</v>
       </c>
-      <c r="N3" s="21" t="n">
+      <c r="N3" s="2" t="n">
         <v>80146</v>
       </c>
-      <c r="O3" s="21" t="n">
+      <c r="O3" s="2" t="n">
         <v>2185</v>
       </c>
-      <c r="P3" s="21" t="n">
+      <c r="P3" s="2" t="n">
         <v>837283164</v>
       </c>
     </row>
@@ -7314,18 +7322,18 @@
       <c r="E4" s="0" t="n">
         <v>44202</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">E4/D4</f>
         <v>0.551518478776233</v>
       </c>
-      <c r="G4" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="21" t="n">
+      <c r="G4" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <f aca="false">(G4-E4)/F4</f>
         <v>-2179.43740102258</v>
       </c>
-      <c r="I4" s="21" t="n">
+      <c r="I4" s="2" t="n">
         <f aca="false">E4*M4/G4</f>
         <v>10739.0300930233</v>
       </c>
@@ -7356,20 +7364,20 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+    <row r="5" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="n">
         <v>79</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>0.418</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="19" t="n">
         <v>77967</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="19" t="n">
         <v>43123</v>
       </c>
       <c r="F5" s="10" t="n">
@@ -7391,10 +7399,10 @@
         <f aca="false">I5-M5</f>
         <v>30.7185348837211</v>
       </c>
-      <c r="K5" s="23" t="n">
+      <c r="K5" s="19" t="n">
         <v>281</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>91</v>
       </c>
       <c r="M5" s="8" t="n">
@@ -7576,74 +7584,74 @@
         <v>561219836</v>
       </c>
     </row>
-    <row r="9" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.086</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="2" t="n">
         <v>92593</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="2" t="n">
         <v>43084</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">E9/D9</f>
         <v>0.465305152657328</v>
       </c>
-      <c r="G9" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H9" s="21" t="n">
+      <c r="G9" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <f aca="false">(G9-E9)/F9</f>
         <v>-180.52669204345</v>
       </c>
-      <c r="I9" s="21" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">E9*M9/G9</f>
         <v>6011.72093023256</v>
       </c>
-      <c r="J9" s="21" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">I9-M9</f>
         <v>11.7209302325582</v>
       </c>
-      <c r="K9" s="19" t="n">
+      <c r="K9" s="3" t="n">
         <v>170</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="21" t="n">
+      <c r="M9" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="N9" s="21" t="n">
+      <c r="N9" s="2" t="n">
         <v>92593</v>
       </c>
-      <c r="O9" s="21" t="n">
+      <c r="O9" s="2" t="n">
         <v>2531</v>
       </c>
-      <c r="P9" s="21" t="n">
+      <c r="P9" s="2" t="n">
         <v>555559035</v>
       </c>
     </row>
-    <row r="10" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
+    <row r="10" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="n">
         <v>80</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>0.419</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="19" t="n">
         <v>92408</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="19" t="n">
         <v>43007</v>
       </c>
       <c r="F10" s="10" t="n">
@@ -7665,10 +7673,10 @@
         <f aca="false">I10-M10</f>
         <v>0.978697674418982</v>
       </c>
-      <c r="K10" s="23" t="n">
+      <c r="K10" s="19" t="n">
         <v>282</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="19" t="s">
         <v>97</v>
       </c>
       <c r="M10" s="8" t="n">
@@ -7796,74 +7804,74 @@
         <v>182971487</v>
       </c>
     </row>
-    <row r="13" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.077</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="2" t="n">
         <v>90995</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="2" t="n">
         <v>47691</v>
       </c>
-      <c r="F13" s="20" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">E13/D13</f>
         <v>0.524105720094511</v>
       </c>
-      <c r="G13" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H13" s="21" t="n">
+      <c r="G13" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <f aca="false">(G13-E13)/F13</f>
         <v>-8950.48426327819</v>
       </c>
-      <c r="I13" s="21" t="n">
+      <c r="I13" s="2" t="n">
         <f aca="false">E13*M13/G13</f>
         <v>9544.85455813954</v>
       </c>
-      <c r="J13" s="21" t="n">
+      <c r="J13" s="2" t="n">
         <f aca="false">I13-M13</f>
         <v>938.854558139536</v>
       </c>
-      <c r="K13" s="19" t="n">
+      <c r="K13" s="3" t="n">
         <v>115</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="21" t="n">
+      <c r="M13" s="2" t="n">
         <v>8606</v>
       </c>
-      <c r="N13" s="21" t="n">
+      <c r="N13" s="2" t="n">
         <v>90995</v>
       </c>
-      <c r="O13" s="21" t="n">
+      <c r="O13" s="2" t="n">
         <v>4460</v>
       </c>
-      <c r="P13" s="21" t="n">
+      <c r="P13" s="2" t="n">
         <v>783106269</v>
       </c>
     </row>
-    <row r="14" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
+    <row r="14" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
         <v>81</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>0.412</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="20" t="n">
         <v>82044</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="20" t="n">
         <v>43792</v>
       </c>
       <c r="F14" s="5" t="n">
@@ -7885,10 +7893,10 @@
         <f aca="false">I14-M14</f>
         <v>175.805581395349</v>
       </c>
-      <c r="K14" s="24" t="n">
+      <c r="K14" s="20" t="n">
         <v>283</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="20" t="s">
         <v>102</v>
       </c>
       <c r="M14" s="6" t="n">
@@ -8108,7 +8116,7 @@
       <c r="K18" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="21" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="2" t="n">
@@ -8398,74 +8406,74 @@
         <v>381040696</v>
       </c>
     </row>
-    <row r="24" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.079</v>
       </c>
-      <c r="D24" s="21" t="n">
+      <c r="D24" s="2" t="n">
         <v>81616</v>
       </c>
-      <c r="E24" s="21" t="n">
+      <c r="E24" s="2" t="n">
         <v>46735</v>
       </c>
-      <c r="F24" s="20" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">E24/D24</f>
         <v>0.572620564595177</v>
       </c>
-      <c r="G24" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H24" s="21" t="n">
+      <c r="G24" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H24" s="2" t="n">
         <f aca="false">(G24-E24)/F24</f>
         <v>-6522.64384294426</v>
       </c>
-      <c r="I24" s="21" t="n">
+      <c r="I24" s="2" t="n">
         <f aca="false">E24*M24/G24</f>
         <v>9413.29848837209</v>
       </c>
-      <c r="J24" s="21" t="n">
+      <c r="J24" s="2" t="n">
         <f aca="false">I24-M24</f>
         <v>752.298488372093</v>
       </c>
-      <c r="K24" s="19" t="n">
+      <c r="K24" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="21" t="n">
+      <c r="M24" s="2" t="n">
         <v>8661</v>
       </c>
-      <c r="N24" s="21" t="n">
+      <c r="N24" s="2" t="n">
         <v>81616</v>
       </c>
-      <c r="O24" s="21" t="n">
+      <c r="O24" s="2" t="n">
         <v>3013</v>
       </c>
-      <c r="P24" s="21" t="n">
+      <c r="P24" s="2" t="n">
         <v>706875717</v>
       </c>
     </row>
-    <row r="25" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="n">
+    <row r="25" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="n">
         <v>82</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>0.417</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="D25" s="20" t="n">
         <v>74562</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="20" t="n">
         <v>43191</v>
       </c>
       <c r="F25" s="5" t="n">
@@ -8487,10 +8495,10 @@
         <f aca="false">I25-M25</f>
         <v>41.8112325581387</v>
       </c>
-      <c r="K25" s="24" t="n">
+      <c r="K25" s="20" t="n">
         <v>284</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="20" t="s">
         <v>114</v>
       </c>
       <c r="M25" s="6" t="n">
@@ -8942,20 +8950,20 @@
         <v>1221781079</v>
       </c>
     </row>
-    <row r="34" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="n">
+    <row r="34" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="n">
         <v>74</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>0.346</v>
       </c>
-      <c r="D34" s="24" t="n">
+      <c r="D34" s="20" t="n">
         <v>107014</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="20" t="n">
         <v>52131</v>
       </c>
       <c r="F34" s="5" t="n">
@@ -8977,10 +8985,10 @@
         <f aca="false">I34-M34</f>
         <v>4205.99341860465</v>
       </c>
-      <c r="K34" s="24" t="n">
+      <c r="K34" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="20" t="s">
         <v>124</v>
       </c>
       <c r="M34" s="6" t="n">
@@ -9324,78 +9332,78 @@
         <v>675189586</v>
       </c>
     </row>
-    <row r="41" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="n">
+    <row r="41" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="20" t="n">
+      <c r="C41" s="1" t="n">
         <v>0.084</v>
       </c>
-      <c r="D41" s="21" t="n">
+      <c r="D41" s="2" t="n">
         <v>110099</v>
       </c>
-      <c r="E41" s="21" t="n">
+      <c r="E41" s="2" t="n">
         <v>43750</v>
       </c>
-      <c r="F41" s="20" t="n">
+      <c r="F41" s="1" t="n">
         <f aca="false">E41/D41</f>
         <v>0.397369640051227</v>
       </c>
-      <c r="G41" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H41" s="21" t="n">
+      <c r="G41" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H41" s="2" t="n">
         <f aca="false">(G41-E41)/F41</f>
         <v>-1887.41142857143</v>
       </c>
-      <c r="I41" s="21" t="n">
+      <c r="I41" s="2" t="n">
         <f aca="false">E41*M41/G41</f>
         <v>14624.7093023256</v>
       </c>
-      <c r="J41" s="21" t="n">
+      <c r="J41" s="2" t="n">
         <f aca="false">I41-M41</f>
         <v>250.709302325582</v>
       </c>
-      <c r="K41" s="19" t="n">
+      <c r="K41" s="3" t="n">
         <v>259</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="21" t="n">
+      <c r="M41" s="2" t="n">
         <v>14374</v>
       </c>
-      <c r="N41" s="21" t="n">
+      <c r="N41" s="2" t="n">
         <v>110099</v>
       </c>
-      <c r="O41" s="21" t="n">
+      <c r="O41" s="2" t="n">
         <v>3032</v>
       </c>
-      <c r="P41" s="21" t="n">
+      <c r="P41" s="2" t="n">
         <v>1582564131</v>
       </c>
-      <c r="AMG41" s="22"/>
-      <c r="AMH41" s="22"/>
-      <c r="AMI41" s="22"/>
-      <c r="AMJ41" s="22"/>
-    </row>
-    <row r="42" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="n">
+      <c r="AMG41" s="0"/>
+      <c r="AMH41" s="0"/>
+      <c r="AMI41" s="0"/>
+      <c r="AMJ41" s="0"/>
+    </row>
+    <row r="42" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="n">
         <v>83</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>0.417</v>
       </c>
-      <c r="D42" s="24" t="n">
+      <c r="D42" s="20" t="n">
         <v>108210</v>
       </c>
-      <c r="E42" s="24" t="n">
+      <c r="E42" s="20" t="n">
         <v>43252</v>
       </c>
       <c r="F42" s="5" t="n">
@@ -9417,10 +9425,10 @@
         <f aca="false">I42-M42</f>
         <v>85.709302325582</v>
       </c>
-      <c r="K42" s="24" t="n">
+      <c r="K42" s="20" t="n">
         <v>285</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="20" t="s">
         <v>133</v>
       </c>
       <c r="M42" s="6" t="n">
@@ -9876,74 +9884,74 @@
         <v>1048292829</v>
       </c>
     </row>
-    <row r="51" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="n">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="20" t="n">
+      <c r="C51" s="1" t="n">
         <v>0.074</v>
       </c>
-      <c r="D51" s="21" t="n">
+      <c r="D51" s="2" t="n">
         <v>95025</v>
       </c>
-      <c r="E51" s="21" t="n">
+      <c r="E51" s="2" t="n">
         <v>49728</v>
       </c>
-      <c r="F51" s="20" t="n">
+      <c r="F51" s="1" t="n">
         <f aca="false">E51/D51</f>
         <v>0.523314917127072</v>
       </c>
-      <c r="G51" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H51" s="21" t="n">
+      <c r="G51" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H51" s="2" t="n">
         <f aca="false">(G51-E51)/F51</f>
         <v>-12856.5033783784</v>
       </c>
-      <c r="I51" s="21" t="n">
+      <c r="I51" s="2" t="n">
         <f aca="false">E51*M51/G51</f>
         <v>23259.9828837209</v>
       </c>
-      <c r="J51" s="21" t="n">
+      <c r="J51" s="2" t="n">
         <f aca="false">I51-M51</f>
         <v>3146.98288372093</v>
       </c>
-      <c r="K51" s="19" t="n">
+      <c r="K51" s="3" t="n">
         <v>258</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M51" s="21" t="n">
+      <c r="M51" s="2" t="n">
         <v>20113</v>
       </c>
-      <c r="N51" s="21" t="n">
+      <c r="N51" s="2" t="n">
         <v>95025</v>
       </c>
-      <c r="O51" s="21" t="n">
+      <c r="O51" s="2" t="n">
         <v>2744</v>
       </c>
-      <c r="P51" s="21" t="n">
+      <c r="P51" s="2" t="n">
         <v>1911247544</v>
       </c>
     </row>
-    <row r="52" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="n">
+    <row r="52" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="n">
         <v>84</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C52" s="5" t="n">
         <v>0.414</v>
       </c>
-      <c r="D52" s="24" t="n">
+      <c r="D52" s="20" t="n">
         <v>82169</v>
       </c>
-      <c r="E52" s="24" t="n">
+      <c r="E52" s="20" t="n">
         <v>43575</v>
       </c>
       <c r="F52" s="5" t="n">
@@ -9965,10 +9973,10 @@
         <f aca="false">I52-M52</f>
         <v>311.034883720931</v>
       </c>
-      <c r="K52" s="24" t="n">
+      <c r="K52" s="20" t="n">
         <v>286</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="L52" s="20" t="s">
         <v>144</v>
       </c>
       <c r="M52" s="6" t="n">
@@ -10154,20 +10162,20 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23" t="n">
+    <row r="56" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19" t="n">
         <v>85</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C56" s="10" t="n">
         <v>0.419</v>
       </c>
-      <c r="D56" s="23" t="n">
+      <c r="D56" s="19" t="n">
         <v>101141</v>
       </c>
-      <c r="E56" s="23" t="n">
+      <c r="E56" s="19" t="n">
         <v>42993</v>
       </c>
       <c r="F56" s="10" t="n">
@@ -10189,10 +10197,10 @@
         <f aca="false">I56-M56</f>
         <v>-2.34988372092994</v>
       </c>
-      <c r="K56" s="23" t="n">
+      <c r="K56" s="19" t="n">
         <v>287</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="L56" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M56" s="8" t="n">
@@ -10208,57 +10216,57 @@
         <v>1459966283</v>
       </c>
     </row>
-    <row r="57" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="n">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="20" t="n">
+      <c r="C57" s="1" t="n">
         <v>0.086</v>
       </c>
-      <c r="D57" s="21" t="n">
+      <c r="D57" s="2" t="n">
         <v>100882</v>
       </c>
-      <c r="E57" s="21" t="n">
+      <c r="E57" s="2" t="n">
         <v>42891</v>
       </c>
-      <c r="F57" s="20" t="n">
+      <c r="F57" s="1" t="n">
         <f aca="false">E57/D57</f>
         <v>0.425160088023632</v>
       </c>
-      <c r="G57" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H57" s="21" t="n">
+      <c r="G57" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H57" s="2" t="n">
         <f aca="false">(G57-E57)/F57</f>
         <v>256.374017859225</v>
       </c>
-      <c r="I57" s="21" t="n">
+      <c r="I57" s="2" t="n">
         <f aca="false">E57*M57/G57</f>
         <v>14435.3151627907</v>
       </c>
-      <c r="J57" s="21" t="n">
+      <c r="J57" s="2" t="n">
         <f aca="false">I57-M57</f>
         <v>-36.6848372093027</v>
       </c>
-      <c r="K57" s="19" t="n">
+      <c r="K57" s="3" t="n">
         <v>236</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="21" t="n">
+      <c r="M57" s="2" t="n">
         <v>14472</v>
       </c>
-      <c r="N57" s="21" t="n">
+      <c r="N57" s="2" t="n">
         <v>100882</v>
       </c>
-      <c r="O57" s="21" t="n">
+      <c r="O57" s="2" t="n">
         <v>2778</v>
       </c>
-      <c r="P57" s="21" t="n">
+      <c r="P57" s="2" t="n">
         <v>1459966283</v>
       </c>
     </row>
@@ -10482,20 +10490,20 @@
         <v>673418437</v>
       </c>
     </row>
-    <row r="62" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24" t="n">
+    <row r="62" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="n">
         <v>77</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C62" s="5" t="n">
         <v>0.442</v>
       </c>
-      <c r="D62" s="24" t="n">
+      <c r="D62" s="20" t="n">
         <v>103744</v>
       </c>
-      <c r="E62" s="24" t="n">
+      <c r="E62" s="20" t="n">
         <v>40752</v>
       </c>
       <c r="F62" s="5" t="n">
@@ -10517,10 +10525,10 @@
         <f aca="false">I62-M62</f>
         <v>-747.53841860465</v>
       </c>
-      <c r="K62" s="24" t="n">
+      <c r="K62" s="20" t="n">
         <v>263</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="L62" s="20" t="s">
         <v>156</v>
       </c>
       <c r="M62" s="6" t="n">
@@ -10884,18 +10892,18 @@
       <c r="E69" s="0" t="n">
         <v>18024</v>
       </c>
-      <c r="F69" s="20" t="n">
+      <c r="F69" s="1" t="n">
         <f aca="false">E69/D69</f>
         <v>0.473879321677402</v>
       </c>
-      <c r="G69" s="21" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H69" s="21" t="n">
+      <c r="G69" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H69" s="2" t="n">
         <f aca="false">(G69-E69)/F69</f>
         <v>52705.40168664</v>
       </c>
-      <c r="I69" s="21" t="n">
+      <c r="I69" s="2" t="n">
         <f aca="false">E69*M69/G69</f>
         <v>9716.61265116279</v>
       </c>
@@ -11427,20 +11435,20 @@
         <v>718546548</v>
       </c>
     </row>
-    <row r="79" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24" t="n">
+    <row r="79" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="20" t="n">
         <v>75</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="5" t="n">
         <v>0.38</v>
       </c>
-      <c r="D79" s="24" t="n">
+      <c r="D79" s="20" t="n">
         <v>103465</v>
       </c>
-      <c r="E79" s="24" t="n">
+      <c r="E79" s="20" t="n">
         <v>47379</v>
       </c>
       <c r="F79" s="5" t="n">
@@ -11462,10 +11470,10 @@
         <f aca="false">I79-M79</f>
         <v>1620.3318372093</v>
       </c>
-      <c r="K79" s="24" t="n">
+      <c r="K79" s="20" t="n">
         <v>261</v>
       </c>
-      <c r="L79" s="24" t="s">
+      <c r="L79" s="20" t="s">
         <v>176</v>
       </c>
       <c r="M79" s="6" t="n">
@@ -11697,20 +11705,20 @@
         <v>415628392</v>
       </c>
     </row>
-    <row r="84" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24" t="n">
+    <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="20" t="n">
         <v>76</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="20" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="5" t="n">
         <v>0.331</v>
       </c>
-      <c r="D84" s="24" t="n">
+      <c r="D84" s="20" t="n">
         <v>106350</v>
       </c>
-      <c r="E84" s="24" t="n">
+      <c r="E84" s="20" t="n">
         <v>54474</v>
       </c>
       <c r="F84" s="5" t="n">
@@ -11732,10 +11740,10 @@
         <f aca="false">I84-M84</f>
         <v>3105.45144186046</v>
       </c>
-      <c r="K84" s="24" t="n">
+      <c r="K84" s="20" t="n">
         <v>262</v>
       </c>
-      <c r="L84" s="24" t="s">
+      <c r="L84" s="20" t="s">
         <v>182</v>
       </c>
       <c r="M84" s="6" t="n">
@@ -11956,223 +11964,5077 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F1:F41"/>
+  <dimension ref="A1:AMJ97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="2" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="12.74"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="2" t="n">
-        <v>43000</v>
+      <c r="A1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="2" t="n">
-        <v>43000</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>91267</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>48968</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">E2/D2</f>
+        <v>0.536535659110084</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">(G2-E2)/F2</f>
+        <v>-11123.2122202255</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">E2*M2/G2</f>
+        <v>10447.2658604651</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">I2-M2</f>
+        <v>1273.26586046512</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>9174</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>91267</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>2531</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>837283164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>80146</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44202</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.551518478776233</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">(G3-E3)/F3</f>
+        <v>-2179.43740102258</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">E3*M3/G3</f>
+        <v>10739.0300930233</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">I3-M3</f>
+        <v>292.030093023255</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>10447</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>80146</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>2185</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>837283164</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>80146</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>44202</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.551518478776233</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">(G4-E4)/F4</f>
+        <v>-2179.43740102258</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">E4*M4/G4</f>
+        <v>10739.0300930233</v>
+      </c>
+      <c r="J4" s="14" t="n">
+        <f aca="false">I4-M4</f>
+        <v>292.030093023255</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>10447</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>80146</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>2185</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>837283164</v>
+      </c>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A5" s="19" t="n">
+        <v>79</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>43123</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <f aca="false">E5/D5</f>
+        <v>0.553092975233111</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <f aca="false">(G5-E5)/F5</f>
+        <v>-222.385757020615</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <f aca="false">E5*M5/G5</f>
+        <v>10769.7185348837</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <f aca="false">I5-M5</f>
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>281</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>10739</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>77967</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>2116</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>837283164</v>
+      </c>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>56543</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>26876</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">E6/D6</f>
+        <v>0.475319668217109</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">(G6-E6)/F6</f>
+        <v>33922.4338443221</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">E6*M6/G6</f>
+        <v>3979.52306976744</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">I6-M6</f>
+        <v>-2387.47693023256</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>6367</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>56543</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>360011247</v>
+      </c>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>35331</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>15916</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.450482579038238</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">(G7-E7)/F7</f>
+        <v>60122.1917567228</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">E7*M7/G7</f>
+        <v>2107.94465116279</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">I7-M7</f>
+        <v>-3587.05534883721</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>5695</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>35331</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>1836</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>201208589</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>84128</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>38365</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">E8/D8</f>
+        <v>0.456031285659947</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">(G8-E8)/F8</f>
+        <v>10163.7763586602</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">E8*M8/G8</f>
+        <v>5951.92825581395</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">I8-M8</f>
+        <v>-719.071744186046</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>6671</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>84128</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>2131</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>561219836</v>
+      </c>
+      <c r="Q8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="2" t="n">
-        <v>43000</v>
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>92593</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>43084</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.465305152657328</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">(G9-E9)/F9</f>
+        <v>-180.52669204345</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">E9*M9/G9</f>
+        <v>6011.72093023256</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">I9-M9</f>
+        <v>11.7209302325582</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>170</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>92593</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>2531</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>555559035</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A10" s="19" t="n">
+        <v>80</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <f aca="false">E10/D10</f>
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">(G10-E10)/F10</f>
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">E10*M10/G10</f>
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <f aca="false">I10-M10</f>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K10" s="19" t="n">
+        <v>282</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>555559035</v>
+      </c>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>71360</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>38087</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">E11/D11</f>
+        <v>0.533730381165919</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">(G11-E11)/F11</f>
+        <v>9205.02218604773</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">E11*M11/G11</f>
+        <v>7449.10860465116</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">I11-M11</f>
+        <v>-960.891395348837</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>8410</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>71360</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>4330</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>600134782</v>
+      </c>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="2" t="n">
-        <v>43000</v>
+      <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>22637</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>12067</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">E12/D12</f>
+        <v>0.533065335512656</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">(G12-E12)/F12</f>
+        <v>58028.5341012679</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">E12*M12/G12</f>
+        <v>2268.31537209302</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">I12-M12</f>
+        <v>-5814.68462790698</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>8083</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>22637</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>3049</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>182971487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A13" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>90995</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>47691</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.524105720094511</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">(G13-E13)/F13</f>
+        <v>-8950.48426327819</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">E13*M13/G13</f>
+        <v>9544.85455813954</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">I13-M13</f>
+        <v>938.854558139536</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>8606</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>90995</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>4460</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>81</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>82044</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>43792</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <f aca="false">E14/D14</f>
+        <v>0.533762371410463</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">(G14-E14)/F14</f>
+        <v>-1483.80635732554</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <f aca="false">E14*M14/G14</f>
+        <v>9720.80558139535</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <f aca="false">I14-M14</f>
+        <v>175.805581395349</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>283</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>9545</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>82044</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>4002</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>783106269</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2" t="n">
-        <v>43000</v>
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>27312</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>11963</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15/D15</f>
+        <v>0.438012595196251</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">(G15-E15)/F15</f>
+        <v>70858.6929699908</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">E15*M15/G15</f>
+        <v>6213.24834883721</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">I15-M15</f>
+        <v>-16119.7516511628</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>22333</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>27312</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>609968498</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>15237</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>6649</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16/D16</f>
+        <v>0.436371989236726</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">(G16-E16)/F16</f>
+        <v>83302.780418108</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">E16*M16/G16</f>
+        <v>3302.38820930233</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">I16-M16</f>
+        <v>-18054.6117906977</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>21357</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>15237</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>1609</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>325407982</v>
+      </c>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="2" t="n">
-        <v>43000</v>
+      <c r="A17" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>40238</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>17698</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <f aca="false">E17/D17</f>
+        <v>0.439832993687559</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <f aca="false">(G17-E17)/F17</f>
+        <v>57526.3801559498</v>
+      </c>
+      <c r="I17" s="14" t="n">
+        <f aca="false">E17*M17/G17</f>
+        <v>9567.62111627907</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <f aca="false">I17-M17</f>
+        <v>-13678.3788837209</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>154</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>23246</v>
+      </c>
+      <c r="N17" s="14" t="n">
+        <v>40238</v>
+      </c>
+      <c r="O17" s="14" t="n">
+        <v>2241</v>
+      </c>
+      <c r="P17" s="14" t="n">
+        <v>935376480</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="2" t="n">
-        <v>43000</v>
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>77948</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>28440</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18/D18</f>
+        <v>0.36485862369785</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">(G18-E18)/F18</f>
+        <v>39905.8677918425</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <f aca="false">E18*M18/G18</f>
+        <v>7936.74418604651</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">I18-M18</f>
+        <v>-4063.25581395349</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>77948</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>3202</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>935376480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="2" t="n">
-        <v>43000</v>
+      <c r="A19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>62358</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>24786</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E19/D19</f>
+        <v>0.397479072452612</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">(G19-E19)/F19</f>
+        <v>45823.7961752602</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">E19*M19/G19</f>
+        <v>8646.27906976744</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">I19-M19</f>
+        <v>-6353.72093023256</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>62358</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>2901</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>935376480</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="2" t="n">
-        <v>43000</v>
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>51965</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>21842</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20/D20</f>
+        <v>0.420321370152988</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">(G20-E20)/F20</f>
+        <v>50337.6737478253</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">E20*M20/G20</f>
+        <v>9143.16279069767</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">I20-M20</f>
+        <v>-8856.83720930233</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>51965</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>2635</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>935376480</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>60997</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>20565</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E21/D21</f>
+        <v>0.337147728576815</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">(G21-E21)/F21</f>
+        <v>66543.5300267445</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">E21*M21/G21</f>
+        <v>4782.55813953488</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">I21-M21</f>
+        <v>-5217.44186046512</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>60997</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>3039</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>609968498</v>
+      </c>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="2" t="n">
-        <v>43000</v>
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>41940</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>24656</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <f aca="false">E22/D22</f>
+        <v>0.587887458273724</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <f aca="false">(G22-E22)/F22</f>
+        <v>31203.2511356262</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <f aca="false">E22*M22/G22</f>
+        <v>4454.70846511628</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">I22-M22</f>
+        <v>-3314.29153488372</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>7769</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>41940</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>2664</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>325835021</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="2" t="n">
-        <v>43000</v>
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>48808</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>27984</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <f aca="false">E23/D23</f>
+        <v>0.573348631371906</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <f aca="false">(G23-E23)/F23</f>
+        <v>26189.9988564894</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <f aca="false">E23*M23/G23</f>
+        <v>5080.72297674419</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">I23-M23</f>
+        <v>-2726.27702325581</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>7807</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>48808</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>2724</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>381040696</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="2" t="n">
-        <v>43000</v>
+      <c r="A24" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>81616</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>46735</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <f aca="false">E24/D24</f>
+        <v>0.572620564595177</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <f aca="false">(G24-E24)/F24</f>
+        <v>-6522.64384294426</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">E24*M24/G24</f>
+        <v>9413.29848837209</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">I24-M24</f>
+        <v>752.298488372093</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>8661</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>81616</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>3013</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>706875717</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A25" s="20" t="n">
+        <v>82</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>74562</v>
+      </c>
+      <c r="E25" s="20" t="n">
+        <v>43191</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">E25/D25</f>
+        <v>0.579262895308602</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">(G25-E25)/F25</f>
+        <v>-329.729388066958</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <f aca="false">E25*M25/G25</f>
+        <v>9454.81123255814</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <f aca="false">I25-M25</f>
+        <v>41.8112325581387</v>
+      </c>
+      <c r="K25" s="20" t="n">
+        <v>284</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>9413</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>74562</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>2851</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>701851123</v>
+      </c>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>23188</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>6949</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <f aca="false">E26/D26</f>
+        <v>0.299680869415215</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <f aca="false">(G26-E26)/F26</f>
+        <v>120297.969204202</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <f aca="false">E26*M26/G26</f>
+        <v>2341.813</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">I26-M26</f>
+        <v>-12149.187</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>14491</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>23188</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>1227</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>336023509</v>
+      </c>
+    </row>
+    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>31676</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>9836</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">E27/D27</f>
+        <v>0.310519004924864</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <f aca="false">(G27-E27)/F27</f>
+        <v>106801.83651891</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <f aca="false">E27*M27/G27</f>
+        <v>3560.17451162791</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">I27-M27</f>
+        <v>-12003.8254883721</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>15564</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>31676</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>1305</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>492998128</v>
+      </c>
+      <c r="Q27" s="0"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="2" t="n">
-        <v>43000</v>
+      <c r="A28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>46525</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>15009</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">E28/D28</f>
+        <v>0.322600752283718</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <f aca="false">(G28-E28)/F28</f>
+        <v>86766.6916516757</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <f aca="false">E28*M28/G28</f>
+        <v>6219.65979069767</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">I28-M28</f>
+        <v>-11599.3402093023</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>17819</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>46525</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>1478</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>829021637</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>82347</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>21404</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">E29/D29</f>
+        <v>0.259924465979331</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <f aca="false">(G29-E29)/F29</f>
+        <v>83085.6761353018</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <f aca="false">E29*M29/G29</f>
+        <v>4977.67441860465</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <f aca="false">I29-M29</f>
+        <v>-5022.32558139535</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>82347</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1928</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>823472174</v>
+      </c>
+    </row>
+    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>33602</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>8724</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">E30/D30</f>
+        <v>0.259627403130766</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">(G30-E30)/F30</f>
+        <v>132019.962402568</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <f aca="false">E30*M30/G30</f>
+        <v>2028.83720930233</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <f aca="false">I30-M30</f>
+        <v>-7971.16279069768</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>33602</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>1484</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>336023509</v>
+      </c>
+      <c r="Q30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="2" t="n">
-        <v>43000</v>
+      <c r="A31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>39121</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>18929</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">E31/D31</f>
+        <v>0.483857774596764</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <f aca="false">(G31-E31)/F31</f>
+        <v>49748.0897564584</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <f aca="false">E31*M31/G31</f>
+        <v>7999.04323255814</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">I31-M31</f>
+        <v>-10171.9567674419</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>18171</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>39121</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>2669</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>710859245</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A32" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>11755</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>5664</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <f aca="false">E32/D32</f>
+        <v>0.481837515950659</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <f aca="false">(G32-E32)/F32</f>
+        <v>77486.7019774011</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <f aca="false">E32*M32/G32</f>
+        <v>2095.41655813954</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <f aca="false">I32-M32</f>
+        <v>-13812.5834418605</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>15908</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>11755</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>1648</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>186991746</v>
+      </c>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="2" t="n">
-        <v>43000</v>
+      <c r="A33" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>63944</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>31131</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <f aca="false">E33/D33</f>
+        <v>0.486847866883523</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <f aca="false">(G33-E33)/F33</f>
+        <v>24379.2790466095</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <f aca="false">E33*M33/G33</f>
+        <v>13833.0236511628</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">I33-M33</f>
+        <v>-5273.97634883721</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>19107</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>63944</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>2957</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>1221781079</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A34" s="20" t="n">
+        <v>74</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="D34" s="20" t="n">
+        <v>107014</v>
+      </c>
+      <c r="E34" s="20" t="n">
+        <v>52131</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <f aca="false">E34/D34</f>
+        <v>0.48714186928813</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <f aca="false">(G34-E34)/F34</f>
+        <v>-18744.0262799486</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <f aca="false">E34*M34/G34</f>
+        <v>24012.9934186047</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <f aca="false">I34-M34</f>
+        <v>4205.99341860465</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>260</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>19807</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>107014</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>3206</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>2119632070</v>
+      </c>
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>91629</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <f aca="false">E35/D35</f>
+        <v>0.488600770498423</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <f aca="false">(G35-E35)/F35</f>
+        <v>-3622.58945722582</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <f aca="false">E35*M35/G35</f>
+        <v>4029.3</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <f aca="false">I35-M35</f>
+        <v>159.3</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>3870</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>91629</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>354602695</v>
+      </c>
+      <c r="Q35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A36" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>13096</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>5862</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">E36/D36</f>
+        <v>0.447617593158216</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <f aca="false">(G36-E36)/F36</f>
+        <v>82968.1419310816</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <f aca="false">E36*M36/G36</f>
+        <v>265.83488372093</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <f aca="false">I36-M36</f>
+        <v>-1684.16511627907</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>13096</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>25537895</v>
+      </c>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="2" t="n">
-        <v>43000</v>
+      <c r="A37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <f aca="false">E37/D37</f>
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H37" s="8" t="n">
+        <f aca="false">(G37-E37)/F37</f>
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <f aca="false">E37*M37/G37</f>
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <f aca="false">I37-M37</f>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P37" s="8" t="n">
+        <v>380140590</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="2" t="n">
-        <v>43000</v>
+      <c r="A38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>58984</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>23286</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="false">E38/D38</f>
+        <v>0.39478502644785</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <f aca="false">(G38-E38)/F38</f>
+        <v>49936.0377909474</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <f aca="false">E38*M38/G38</f>
+        <v>7403.86493023256</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <f aca="false">I38-M38</f>
+        <v>-6268.13506976744</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>13672</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>58984</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>2691</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>806422492</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="2" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="2" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>9456</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>3696</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <f aca="false">E39/D39</f>
+        <v>0.390862944162437</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <f aca="false">(G39-E39)/F39</f>
+        <v>100556.987012987</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <f aca="false">E39*M39/G39</f>
+        <v>917.639441860465</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <f aca="false">I39-M39</f>
+        <v>-9758.36055813953</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>10676</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>9456</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>100952053</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>50051</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>19853</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">E40/D40</f>
+        <v>0.39665541148029</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <f aca="false">(G40-E40)/F40</f>
+        <v>58355.4373142598</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <f aca="false">E40*M40/G40</f>
+        <v>6228.30162790698</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <f aca="false">I40-M40</f>
+        <v>-7261.69837209302</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>13490</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>50051</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>2589</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>675189586</v>
+      </c>
+      <c r="Q40" s="0"/>
+      <c r="AMG40" s="0"/>
+      <c r="AMH40" s="0"/>
+      <c r="AMI40" s="0"/>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="2" t="n">
-        <v>43000</v>
+      <c r="A41" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>110099</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>43750</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">E41/D41</f>
+        <v>0.397369640051227</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <f aca="false">(G41-E41)/F41</f>
+        <v>-1887.41142857143</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <f aca="false">E41*M41/G41</f>
+        <v>14624.7093023256</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <f aca="false">I41-M41</f>
+        <v>250.709302325582</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>259</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>14374</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>110099</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>3032</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="n">
+        <v>83</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D42" s="20" t="n">
+        <v>108210</v>
+      </c>
+      <c r="E42" s="20" t="n">
+        <v>43252</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <f aca="false">E42/D42</f>
+        <v>0.399704278717309</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <f aca="false">(G42-E42)/F42</f>
+        <v>-630.466105613613</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <f aca="false">E42*M42/G42</f>
+        <v>14710.7093023256</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <f aca="false">I42-M42</f>
+        <v>85.709302325582</v>
+      </c>
+      <c r="K42" s="20" t="n">
+        <v>285</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>14625</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>108210</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>2986</v>
+      </c>
+      <c r="P42" s="6" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q42" s="20"/>
+      <c r="AMG42" s="0"/>
+      <c r="AMH42" s="0"/>
+      <c r="AMI42" s="0"/>
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>41417</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>15297</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="false">E43/D43</f>
+        <v>0.369341091822199</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <f aca="false">(G43-E43)/F43</f>
+        <v>75006.5471007387</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <f aca="false">E43*M43/G43</f>
+        <v>4126.63255813954</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <f aca="false">I43-M43</f>
+        <v>-7473.36744186047</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>11600</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>41417</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>2918</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>480438646</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>52159</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>18627</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">E44/D44</f>
+        <v>0.357119576679001</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <f aca="false">(G44-E44)/F44</f>
+        <v>68248.8488216031</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <f aca="false">E44*M44/G44</f>
+        <v>5321.25739534884</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <f aca="false">I44-M44</f>
+        <v>-6962.74260465116</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>12284</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>52159</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>3086</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>640719935</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="13" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>27955</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <f aca="false">E45/D45</f>
+        <v>0.365807380266946</v>
+      </c>
+      <c r="G45" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H45" s="14" t="n">
+        <f aca="false">(G45-E45)/F45</f>
+        <v>41128.2024682526</v>
+      </c>
+      <c r="I45" s="14" t="n">
+        <f aca="false">E45*M45/G45</f>
+        <v>9537.85593023256</v>
+      </c>
+      <c r="J45" s="14" t="n">
+        <f aca="false">I45-M45</f>
+        <v>-5133.14406976744</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <v>119</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M45" s="14" t="n">
+        <v>14671</v>
+      </c>
+      <c r="N45" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="O45" s="14" t="n">
+        <v>3137</v>
+      </c>
+      <c r="P45" s="14" t="n">
+        <v>1121158581</v>
+      </c>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>92745</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>33686</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <f aca="false">E46/D46</f>
+        <v>0.363210954768451</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <f aca="false">(G46-E46)/F46</f>
+        <v>25643.4996734548</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <f aca="false">E46*M46/G46</f>
+        <v>9400.74418604651</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <f aca="false">I46-M46</f>
+        <v>-2599.25581395349</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>92745</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>3762</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>1112943723</v>
+      </c>
+      <c r="Q46" s="0"/>
+      <c r="AMG46" s="0"/>
+      <c r="AMH46" s="0"/>
+      <c r="AMI46" s="0"/>
+      <c r="AMJ46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>118272</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>41540</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <f aca="false">E47/D47</f>
+        <v>0.351224296536797</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <f aca="false">(G47-E47)/F47</f>
+        <v>4156.88781896967</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <f aca="false">E47*M47/G47</f>
+        <v>9090.4976744186</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <f aca="false">I47-M47</f>
+        <v>-319.502325581396</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>9410</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>118272</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>4340</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>1112943723</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>21676</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <f aca="false">E48/D48</f>
+        <v>0.517796569681334</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <f aca="false">(G48-E48)/F48</f>
+        <v>41182.1963461893</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <f aca="false">E48*M48/G48</f>
+        <v>8485.90195348837</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <f aca="false">I48-M48</f>
+        <v>-8348.09804651163</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>16834</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>2487</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>704707035</v>
+      </c>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>10899</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>5653</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <f aca="false">E49/D49</f>
+        <v>0.518671437746582</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <f aca="false">(G49-E49)/F49</f>
+        <v>72005.1217052892</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <f aca="false">E49*M49/G49</f>
+        <v>1908.87348837209</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <f aca="false">I49-M49</f>
+        <v>-12611.1265116279</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>14520</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>10899</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>1534</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>158247680</v>
+      </c>
+      <c r="Q49" s="4"/>
+      <c r="AMG49" s="0"/>
+      <c r="AMH49" s="0"/>
+      <c r="AMI49" s="0"/>
+      <c r="AMJ49" s="0"/>
+    </row>
+    <row r="50" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>57671</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>30073</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <f aca="false">E50/D50</f>
+        <v>0.521457925127014</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <f aca="false">(G50-E50)/F50</f>
+        <v>24790.1112958468</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <f aca="false">E50*M50/G50</f>
+        <v>12712.4865348837</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <f aca="false">I50-M50</f>
+        <v>-5464.51346511628</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>18177</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>57671</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>2603</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>1048292829</v>
+      </c>
+      <c r="Q50" s="0"/>
+      <c r="AMG50" s="0"/>
+      <c r="AMH50" s="0"/>
+      <c r="AMI50" s="0"/>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>95025</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>49728</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <f aca="false">E51/D51</f>
+        <v>0.523314917127072</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <f aca="false">(G51-E51)/F51</f>
+        <v>-12856.5033783784</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <f aca="false">E51*M51/G51</f>
+        <v>23259.9828837209</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <f aca="false">I51-M51</f>
+        <v>3146.98288372093</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>258</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>20113</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>95025</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>2744</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="n">
+        <v>84</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D52" s="20" t="n">
+        <v>82169</v>
+      </c>
+      <c r="E52" s="20" t="n">
+        <v>43575</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <f aca="false">E52/D52</f>
+        <v>0.530309484112013</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <f aca="false">(G52-E52)/F52</f>
+        <v>-1084.27251864601</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <f aca="false">E52*M52/G52</f>
+        <v>23571.0348837209</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <f aca="false">I52-M52</f>
+        <v>311.034883720931</v>
+      </c>
+      <c r="K52" s="20" t="n">
+        <v>286</v>
+      </c>
+      <c r="L52" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>23260</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>82169</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>2395</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>1911247544</v>
+      </c>
+      <c r="Q52" s="20"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>34649</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>14929</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <f aca="false">E53/D53</f>
+        <v>0.430863805593235</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <f aca="false">(G53-E53)/F53</f>
+        <v>65150.5177171947</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <f aca="false">E53*M53/G53</f>
+        <v>4975.87041860465</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <f aca="false">I53-M53</f>
+        <v>-9356.12958139535</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>14332</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>34649</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>2139</v>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>496591233</v>
+      </c>
+    </row>
+    <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>54384</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>23263</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <f aca="false">E54/D54</f>
+        <v>0.42775448661371</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <f aca="false">(G54-E54)/F54</f>
+        <v>46140.9537892791</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <f aca="false">E54*M54/G54</f>
+        <v>9660.096</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <f aca="false">I54-M54</f>
+        <v>-8195.904</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>17856</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>54384</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>2072</v>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v>971077397</v>
+      </c>
+      <c r="AMG54" s="0"/>
+      <c r="AMH54" s="0"/>
+      <c r="AMI54" s="0"/>
+      <c r="AMJ54" s="0"/>
+    </row>
+    <row r="55" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>74181</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>31925</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <f aca="false">E55/D55</f>
+        <v>0.430366266294604</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <f aca="false">(G55-E55)/F55</f>
+        <v>25733.8942834769</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <f aca="false">E55*M55/G55</f>
+        <v>14689.2122093023</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <f aca="false">I55-M55</f>
+        <v>-5095.78779069767</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>19785</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>74181</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>1467668630</v>
+      </c>
+      <c r="Q55" s="3"/>
+      <c r="AMG55" s="0"/>
+      <c r="AMH55" s="0"/>
+      <c r="AMI55" s="0"/>
+      <c r="AMJ55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D56" s="19" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E56" s="19" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <f aca="false">E56/D56</f>
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H56" s="8" t="n">
+        <f aca="false">(G56-E56)/F56</f>
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I56" s="8" t="n">
+        <f aca="false">E56*M56/G56</f>
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <f aca="false">I56-M56</f>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K56" s="19" t="n">
+        <v>287</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N56" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O56" s="8" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P56" s="8" t="n">
+        <v>1459966283</v>
+      </c>
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>100882</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>42891</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <f aca="false">E57/D57</f>
+        <v>0.425160088023632</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <f aca="false">(G57-E57)/F57</f>
+        <v>256.374017859225</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <f aca="false">E57*M57/G57</f>
+        <v>14435.3151627907</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <f aca="false">I57-M57</f>
+        <v>-36.6848372093027</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>14472</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>100882</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>2778</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>41485</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <f aca="false">E58/D58</f>
+        <v>0.426225971170542</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <f aca="false">(G58-E58)/F58</f>
+        <v>3554.45257321924</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <f aca="false">E58*M58/G58</f>
+        <v>14471.511627907</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <f aca="false">I58-M58</f>
+        <v>-528.488372093023</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>2698</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>52395</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>20466</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <f aca="false">E59/D59</f>
+        <v>0.390609791010593</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <f aca="false">(G59-E59)/F59</f>
+        <v>57689.2861330988</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <f aca="false">E59*M59/G59</f>
+        <v>6427.75186046512</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <f aca="false">I59-M59</f>
+        <v>-7077.24813953488</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>13505</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>52395</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>2519</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>707598641</v>
+      </c>
+      <c r="Q59" s="4"/>
+      <c r="AMG59" s="0"/>
+      <c r="AMH59" s="0"/>
+      <c r="AMI59" s="0"/>
+      <c r="AMJ59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>9554</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>3711</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <f aca="false">E60/D60</f>
+        <v>0.388423696880888</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <f aca="false">(G60-E60)/F60</f>
+        <v>101149.853408785</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <f aca="false">E60*M60/G60</f>
+        <v>925.074627906977</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <f aca="false">I60-M60</f>
+        <v>-9793.92537209302</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>10719</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>9554</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>102412602</v>
+      </c>
+    </row>
+    <row r="61" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>49699</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>19530</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <f aca="false">E61/D61</f>
+        <v>0.392965653232459</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <f aca="false">(G61-E61)/F61</f>
+        <v>59725.3215565796</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <f aca="false">E61*M61/G61</f>
+        <v>6154.22093023256</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <f aca="false">I61-M61</f>
+        <v>-7395.77906976744</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>13550</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>49699</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>2478</v>
+      </c>
+      <c r="P61" s="2" t="n">
+        <v>673418437</v>
+      </c>
+      <c r="Q61" s="0"/>
+      <c r="AMG61" s="0"/>
+      <c r="AMH61" s="0"/>
+      <c r="AMI61" s="0"/>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="n">
+        <v>77</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="D62" s="20" t="n">
+        <v>103744</v>
+      </c>
+      <c r="E62" s="20" t="n">
+        <v>40752</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <f aca="false">E62/D62</f>
+        <v>0.3928130783467</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <f aca="false">(G62-E62)/F62</f>
+        <v>5722.82371417354</v>
+      </c>
+      <c r="I62" s="6" t="n">
+        <f aca="false">E62*M62/G62</f>
+        <v>13551.4615813954</v>
+      </c>
+      <c r="J62" s="6" t="n">
+        <f aca="false">I62-M62</f>
+        <v>-747.53841860465</v>
+      </c>
+      <c r="K62" s="20" t="n">
+        <v>263</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M62" s="6" t="n">
+        <v>14299</v>
+      </c>
+      <c r="N62" s="6" t="n">
+        <v>103744</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>2818</v>
+      </c>
+      <c r="P62" s="6" t="n">
+        <v>1483429680</v>
+      </c>
+      <c r="Q62" s="20"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="13" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>88054</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>26033</v>
+      </c>
+      <c r="F63" s="13" t="n">
+        <f aca="false">E63/D63</f>
+        <v>0.295648125014196</v>
+      </c>
+      <c r="G63" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H63" s="14" t="n">
+        <f aca="false">(G63-E63)/F63</f>
+        <v>57389.1682864057</v>
+      </c>
+      <c r="I63" s="14" t="n">
+        <f aca="false">E63*M63/G63</f>
+        <v>4777.96362790698</v>
+      </c>
+      <c r="J63" s="14" t="n">
+        <f aca="false">I63-M63</f>
+        <v>-3114.03637209302</v>
+      </c>
+      <c r="K63" s="12" t="n">
+        <v>109</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M63" s="14" t="n">
+        <v>7892</v>
+      </c>
+      <c r="N63" s="14" t="n">
+        <v>88054</v>
+      </c>
+      <c r="O63" s="14" t="n">
+        <v>1951</v>
+      </c>
+      <c r="P63" s="14" t="n">
+        <v>694920731</v>
+      </c>
+    </row>
+    <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>106911</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>31164</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <f aca="false">E64/D64</f>
+        <v>0.291494794735808</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <f aca="false">(G64-E64)/F64</f>
+        <v>40604.4986522911</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <f aca="false">E64*M64/G64</f>
+        <v>4710.83720930233</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <f aca="false">I64-M64</f>
+        <v>-1789.16279069767</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>106911</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>2270</v>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v>694920731</v>
+      </c>
+      <c r="AMG64" s="0"/>
+      <c r="AMH64" s="0"/>
+      <c r="AMI64" s="0"/>
+      <c r="AMJ64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>35520</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>16141</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <f aca="false">E65/D65</f>
+        <v>0.454420045045045</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <f aca="false">(G65-E65)/F65</f>
+        <v>59106.1074282882</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <f aca="false">E65*M65/G65</f>
+        <v>7186.87409302326</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <f aca="false">I65-M65</f>
+        <v>-11959.1259069767</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>19146</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>35520</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>1996</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>680068076</v>
+      </c>
+      <c r="Q65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>12263</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>5532</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <f aca="false">E66/D66</f>
+        <v>0.451113104460572</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <f aca="false">(G66-E66)/F66</f>
+        <v>83056.7758496023</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <f aca="false">E66*M66/G66</f>
+        <v>2115.28241860465</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <f aca="false">I66-M66</f>
+        <v>-14326.7175813954</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>16442</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>12263</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="P66" s="2" t="n">
+        <v>201632668</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>60517</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>27600</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <f aca="false">E67/D67</f>
+        <v>0.456070195151776</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <f aca="false">(G67-E67)/F67</f>
+        <v>33766.731884058</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <f aca="false">E67*M67/G67</f>
+        <v>13739.023255814</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <f aca="false">I67-M67</f>
+        <v>-7665.97674418605</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>21405</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>60517</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>2286</v>
+      </c>
+      <c r="P67" s="2" t="n">
+        <v>1295363390</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>95364</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>43663</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <f aca="false">E68/D68</f>
+        <v>0.45785621408498</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="6" t="n">
+        <f aca="false">(G68-E68)/F68</f>
+        <v>-1448.05285940041</v>
+      </c>
+      <c r="I68" s="6" t="n">
+        <f aca="false">E68*M68/G68</f>
+        <v>23180.9913255814</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <f aca="false">I68-M68</f>
+        <v>351.991325581395</v>
+      </c>
+      <c r="K68" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M68" s="6" t="n">
+        <v>22829</v>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>95364</v>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>2501</v>
+      </c>
+      <c r="P68" s="6" t="n">
+        <v>2177064134</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>38035</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>18024</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <f aca="false">E69/D69</f>
+        <v>0.473879321677402</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <f aca="false">(G69-E69)/F69</f>
+        <v>52705.40168664</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <f aca="false">E69*M69/G69</f>
+        <v>9716.61265116279</v>
+      </c>
+      <c r="J69" s="14" t="n">
+        <f aca="false">I69-M69</f>
+        <v>-13464.3873488372</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>23181</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>38035</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>1958</v>
+      </c>
+      <c r="P69" s="2" t="n">
+        <v>881700744</v>
+      </c>
+      <c r="Q69" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>35774</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>16433</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <f aca="false">E70/D70</f>
+        <v>0.459355956840163</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <f aca="false">(G70-E70)/F70</f>
+        <v>57835.3227043145</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <f aca="false">E70*M70/G70</f>
+        <v>7111.28520930233</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <f aca="false">I70-M70</f>
+        <v>-11496.7147906977</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>18608</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>35774</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>2151</v>
+      </c>
+      <c r="P70" s="2" t="n">
+        <v>665689450</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>19800</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <f aca="false">E71/D71</f>
+        <v>0.459090909090909</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <f aca="false">(G71-E71)/F71</f>
+        <v>73863.3663366337</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <f aca="false">E71*M71/G71</f>
+        <v>3739.37232558139</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <f aca="false">I71-M71</f>
+        <v>-13949.6276744186</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" s="2" t="n">
+        <v>17689</v>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>19800</v>
+      </c>
+      <c r="O71" s="2" t="n">
+        <v>1713</v>
+      </c>
+      <c r="P71" s="2" t="n">
+        <v>350238945</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="13" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D72" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="E72" s="14" t="n">
+        <v>24035</v>
+      </c>
+      <c r="F72" s="13" t="n">
+        <f aca="false">E72/D72</f>
+        <v>0.459727243166734</v>
+      </c>
+      <c r="G72" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H72" s="14" t="n">
+        <f aca="false">(G72-E72)/F72</f>
+        <v>41252.7216559185</v>
+      </c>
+      <c r="I72" s="14" t="n">
+        <f aca="false">E72*M72/G72</f>
+        <v>10861.5841860465</v>
+      </c>
+      <c r="J72" s="14" t="n">
+        <f aca="false">I72-M72</f>
+        <v>-8570.41581395349</v>
+      </c>
+      <c r="K72" s="12" t="n">
+        <v>159</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M72" s="14" t="n">
+        <v>19432</v>
+      </c>
+      <c r="N72" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="O72" s="14" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P72" s="14" t="n">
+        <v>1015928395</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>35506</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <f aca="false">E73/D73</f>
+        <v>0.419390274152207</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <f aca="false">(G73-E73)/F73</f>
+        <v>17868.7977806568</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <f aca="false">E73*M73/G73</f>
+        <v>9908.6511627907</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <f aca="false">I73-M73</f>
+        <v>-2091.3488372093</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>3305</v>
+      </c>
+      <c r="P73" s="2" t="n">
+        <v>1015928395</v>
+      </c>
+      <c r="Q73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>66569</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>26431</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="false">E74/D74</f>
+        <v>0.397046673376497</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <f aca="false">(G74-E74)/F74</f>
+        <v>41730.61030608</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <f aca="false">E74*M74/G74</f>
+        <v>6146.74418604651</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <f aca="false">I74-M74</f>
+        <v>-3853.25581395349</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>66569</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>3218</v>
+      </c>
+      <c r="P74" s="2" t="n">
+        <v>665689450</v>
+      </c>
+      <c r="Q74" s="12"/>
+    </row>
+    <row r="75" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="13" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D75" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <v>16906</v>
+      </c>
+      <c r="F75" s="13" t="n">
+        <f aca="false">E75/D75</f>
+        <v>0.428065022535069</v>
+      </c>
+      <c r="G75" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H75" s="14" t="n">
+        <f aca="false">(G75-E75)/F75</f>
+        <v>60958.0288654915</v>
+      </c>
+      <c r="I75" s="14" t="n">
+        <f aca="false">E75*M75/G75</f>
+        <v>5073.76581395349</v>
+      </c>
+      <c r="J75" s="14" t="n">
+        <f aca="false">I75-M75</f>
+        <v>-7831.23418604651</v>
+      </c>
+      <c r="K75" s="12" t="n">
+        <v>178</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M75" s="14" t="n">
+        <v>12905</v>
+      </c>
+      <c r="N75" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="O75" s="14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="P75" s="14" t="n">
+        <v>509668347</v>
+      </c>
+      <c r="Q75" s="12"/>
+    </row>
+    <row r="76" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>56061</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>25577</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <f aca="false">E76/D76</f>
+        <v>0.456235172401491</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <f aca="false">(G76-E76)/F76</f>
+        <v>38188.6383469523</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <f aca="false">E76*M76/G76</f>
+        <v>8687.85260465116</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <f aca="false">I76-M76</f>
+        <v>-5918.14739534884</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>14606</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>56061</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>2538</v>
+      </c>
+      <c r="P76" s="2" t="n">
+        <v>818820178</v>
+      </c>
+      <c r="Q76" s="0"/>
+    </row>
+    <row r="77" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>9341</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>4234</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="false">E77/D77</f>
+        <v>0.453270527780752</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <f aca="false">(G77-E77)/F77</f>
+        <v>85525.084081247</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <f aca="false">E77*M77/G77</f>
+        <v>1147.51246511628</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <f aca="false">I77-M77</f>
+        <v>-10506.4875348837</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>11654</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>9341</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>108865707</v>
+      </c>
+      <c r="Q77" s="0"/>
+    </row>
+    <row r="78" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>22928</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="false">E78/D78</f>
+        <v>0.456423935979615</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <f aca="false">(G78-E78)/F78</f>
+        <v>43976.6594556874</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <f aca="false">E78*M78/G78</f>
+        <v>7627.02586046512</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <f aca="false">I78-M78</f>
+        <v>-6676.97413953488</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>14304</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>2496</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>718546548</v>
+      </c>
+      <c r="Q78" s="0"/>
+    </row>
+    <row r="79" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="20" t="n">
+        <v>75</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D79" s="20" t="n">
+        <v>103465</v>
+      </c>
+      <c r="E79" s="20" t="n">
+        <v>47379</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <f aca="false">E79/D79</f>
+        <v>0.457922969119992</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <f aca="false">(G79-E79)/F79</f>
+        <v>-9562.74372612339</v>
+      </c>
+      <c r="I79" s="6" t="n">
+        <f aca="false">E79*M79/G79</f>
+        <v>17531.3318372093</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <f aca="false">I79-M79</f>
+        <v>1620.3318372093</v>
+      </c>
+      <c r="K79" s="20" t="n">
+        <v>261</v>
+      </c>
+      <c r="L79" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M79" s="6" t="n">
+        <v>15911</v>
+      </c>
+      <c r="N79" s="6" t="n">
+        <v>103465</v>
+      </c>
+      <c r="O79" s="6" t="n">
+        <v>2730</v>
+      </c>
+      <c r="P79" s="6" t="n">
+        <v>1646232433</v>
+      </c>
+      <c r="Q79" s="20"/>
+      <c r="AMG79" s="0"/>
+      <c r="AMH79" s="0"/>
+      <c r="AMI79" s="0"/>
+      <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="13" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D80" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="E80" s="14" t="n">
+        <v>10616</v>
+      </c>
+      <c r="F80" s="13" t="n">
+        <f aca="false">E80/D80</f>
+        <v>0.35149990066883</v>
+      </c>
+      <c r="G80" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H80" s="14" t="n">
+        <f aca="false">(G80-E80)/F80</f>
+        <v>92130.8937452901</v>
+      </c>
+      <c r="I80" s="14" t="n">
+        <f aca="false">E80*M80/G80</f>
+        <v>4480.44576744186</v>
+      </c>
+      <c r="J80" s="14" t="n">
+        <f aca="false">I80-M80</f>
+        <v>-13667.5542325581</v>
+      </c>
+      <c r="K80" s="12" t="n">
+        <v>179</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M80" s="14" t="n">
+        <v>18148</v>
+      </c>
+      <c r="N80" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="O80" s="14" t="n">
+        <v>2189</v>
+      </c>
+      <c r="P80" s="14" t="n">
+        <v>548108581</v>
+      </c>
+      <c r="Q80" s="0"/>
+    </row>
+    <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>34918</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <f aca="false">E81/D81</f>
+        <v>0.510206168997209</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <f aca="false">(G81-E81)/F81</f>
+        <v>15840.6551921645</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <f aca="false">E81*M81/G81</f>
+        <v>9006.40786046512</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <f aca="false">I81-M81</f>
+        <v>-2084.59213953488</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>11091</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>759054298</v>
+      </c>
+      <c r="Q81" s="0"/>
+    </row>
+    <row r="82" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>3824</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <f aca="false">E82/D82</f>
+        <v>0.499086400417646</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <f aca="false">(G82-E82)/F82</f>
+        <v>78495.4267782427</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <f aca="false">E82*M82/G82</f>
+        <v>731.451162790698</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <f aca="false">I82-M82</f>
+        <v>-7493.5488372093</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>8225</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>1166</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>63023534</v>
+      </c>
+      <c r="Q82" s="0"/>
+    </row>
+    <row r="83" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>20241</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <f aca="false">E83/D83</f>
+        <v>0.509156311314585</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <f aca="false">(G83-E83)/F83</f>
+        <v>44699.4360950546</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <f aca="false">E83*M83/G83</f>
+        <v>4921.3873255814</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <f aca="false">I83-M83</f>
+        <v>-5533.61267441861</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>10455</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>415628392</v>
+      </c>
+      <c r="Q83" s="0"/>
+    </row>
+    <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="20" t="n">
+        <v>76</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="D84" s="20" t="n">
+        <v>106350</v>
+      </c>
+      <c r="E84" s="20" t="n">
+        <v>54474</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <f aca="false">E84/D84</f>
+        <v>0.512214386459803</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <f aca="false">(G84-E84)/F84</f>
+        <v>-22400.7765172376</v>
+      </c>
+      <c r="I84" s="6" t="n">
+        <f aca="false">E84*M84/G84</f>
+        <v>14743.4514418605</v>
+      </c>
+      <c r="J84" s="6" t="n">
+        <f aca="false">I84-M84</f>
+        <v>3105.45144186046</v>
+      </c>
+      <c r="K84" s="20" t="n">
+        <v>262</v>
+      </c>
+      <c r="L84" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M84" s="6" t="n">
+        <v>11638</v>
+      </c>
+      <c r="N84" s="6" t="n">
+        <v>106350</v>
+      </c>
+      <c r="O84" s="6" t="n">
+        <v>2601</v>
+      </c>
+      <c r="P84" s="6" t="n">
+        <v>1237706224</v>
+      </c>
+    </row>
+    <row r="85" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="n">
+        <v>71</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="13" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="D85" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="E85" s="14" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F85" s="13" t="n">
+        <f aca="false">E85/D85</f>
+        <v>0.345234300286898</v>
+      </c>
+      <c r="G85" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H85" s="14" t="n">
+        <f aca="false">(G85-E85)/F85</f>
+        <v>61813.0932594644</v>
+      </c>
+      <c r="I85" s="14" t="n">
+        <f aca="false">E85*M85/G85</f>
+        <v>4818.09069767442</v>
+      </c>
+      <c r="J85" s="14" t="n">
+        <f aca="false">I85-M85</f>
+        <v>-4746.90930232558</v>
+      </c>
+      <c r="K85" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M85" s="14" t="n">
+        <v>9565</v>
+      </c>
+      <c r="N85" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="O85" s="14" t="n">
+        <v>2391</v>
+      </c>
+      <c r="P85" s="14" t="n">
+        <v>600104724</v>
+      </c>
+      <c r="Q85" s="0"/>
+    </row>
+    <row r="86" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="13" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D86" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="E86" s="14" t="n">
+        <v>28144</v>
+      </c>
+      <c r="F86" s="13" t="n">
+        <f aca="false">E86/D86</f>
+        <v>0.448860464745379</v>
+      </c>
+      <c r="G86" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H86" s="14" t="n">
+        <f aca="false">(G86-E86)/F86</f>
+        <v>33097.1452529847</v>
+      </c>
+      <c r="I86" s="14" t="n">
+        <f aca="false">E86*M86/G86</f>
+        <v>6064.70474418605</v>
+      </c>
+      <c r="J86" s="14" t="n">
+        <f aca="false">I86-M86</f>
+        <v>-3201.29525581395</v>
+      </c>
+      <c r="K86" s="12" t="n">
+        <v>176</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M86" s="14" t="n">
+        <v>9266</v>
+      </c>
+      <c r="N86" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="O86" s="14" t="n">
+        <v>2372</v>
+      </c>
+      <c r="P86" s="14" t="n">
+        <v>580988437</v>
+      </c>
+      <c r="Q86" s="0"/>
+    </row>
+    <row r="87" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D87" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>21783</v>
+      </c>
+      <c r="F87" s="13" t="n">
+        <f aca="false">E87/D87</f>
+        <v>0.496376811594203</v>
+      </c>
+      <c r="G87" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H87" s="14" t="n">
+        <f aca="false">(G87-E87)/F87</f>
+        <v>42743.7372262774</v>
+      </c>
+      <c r="I87" s="14" t="n">
+        <f aca="false">E87*M87/G87</f>
+        <v>5969.5551627907</v>
+      </c>
+      <c r="J87" s="14" t="n">
+        <f aca="false">I87-M87</f>
+        <v>-5814.4448372093</v>
+      </c>
+      <c r="K87" s="12" t="n">
+        <v>177</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M87" s="14" t="n">
+        <v>11784</v>
+      </c>
+      <c r="N87" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="O87" s="14" t="n">
+        <v>2804</v>
+      </c>
+      <c r="P87" s="14" t="n">
+        <v>517123870</v>
+      </c>
+      <c r="Q87" s="0"/>
+      <c r="AMG87" s="0"/>
+      <c r="AMH87" s="0"/>
+      <c r="AMI87" s="0"/>
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>701851123</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>24013</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>88270</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>2702</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>2119632070</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>1582564131</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>1483429680</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>17531</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <v>93904</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>2524</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>1646232433</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>14743</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>2126</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>1237706224</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F41">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G2 F3:F87 F1">
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H87">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J87">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -13,6 +13,9 @@
     <sheet name="All_3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="All_4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$Q$95</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="202">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -583,25 +586,49 @@
     <t xml:space="preserve">76664_V5</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76632_V5_combine_force9721)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76632_V5_combine_force9721</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76638_V5_combine_force9455)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76638_V5_combine_force9455</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76643_V11_combine_force24013)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76643_V11_combine_force24013</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76647_V11_combine_force14711)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76647_V11_combine_force14711</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76649_V11_combine_force23571)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76649_V11_combine_force23571</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76656_V11_combine_force13551)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76656_V11_combine_force13551</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine_force17531)</t>
+  </si>
+  <si>
     <t xml:space="preserve">76660_V5_combine_force17531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V5_combine_force14743)</t>
   </si>
   <si>
     <t xml:space="preserve">76661_V5_combine_force14743</t>
@@ -706,7 +733,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -793,6 +820,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -940,6 +983,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -955,7 +1002,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3754,7 +3801,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.76"/>
@@ -7135,7 +7182,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -11964,17 +12011,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ97"/>
+  <dimension ref="A1:AMJ95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="B91" activeCellId="0" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -11990,10 +12037,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -12018,10 +12065,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="18"/>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="16" t="s">
@@ -12155,10 +12202,10 @@
       <c r="C4" s="1" t="n">
         <v>0.408</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>80146</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -12213,10 +12260,10 @@
       <c r="C5" s="10" t="n">
         <v>0.418</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="8" t="n">
         <v>77967</v>
       </c>
-      <c r="E5" s="19" t="n">
+      <c r="E5" s="8" t="n">
         <v>43123</v>
       </c>
       <c r="F5" s="10" t="n">
@@ -12490,10 +12537,10 @@
       <c r="C10" s="10" t="n">
         <v>0.419</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="8" t="n">
         <v>92408</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="8" t="n">
         <v>43007</v>
       </c>
       <c r="F10" s="10" t="n">
@@ -12701,331 +12748,331 @@
         <v>783106269</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+    <row r="14" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="n">
         <v>81</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="23" t="n">
         <v>0.412</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="24" t="n">
         <v>82044</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="24" t="n">
         <v>43792</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="23" t="n">
         <f aca="false">E14/D14</f>
         <v>0.533762371410463</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H14" s="6" t="n">
+      <c r="G14" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="24" t="n">
         <f aca="false">(G14-E14)/F14</f>
         <v>-1483.80635732554</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="24" t="n">
         <f aca="false">E14*M14/G14</f>
         <v>9720.80558139535</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="24" t="n">
         <f aca="false">I14-M14</f>
         <v>175.805581395349</v>
       </c>
-      <c r="K14" s="20" t="n">
+      <c r="K14" s="22" t="n">
         <v>283</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="24" t="n">
         <v>9545</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="24" t="n">
         <v>82044</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="24" t="n">
         <v>4002</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="24" t="n">
         <v>783106269</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="AMG14" s="0"/>
-      <c r="AMH14" s="0"/>
-      <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>27312</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>11963</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="Q14" s="22"/>
+      <c r="AMG14" s="22"/>
+      <c r="AMH14" s="22"/>
+      <c r="AMI14" s="22"/>
+      <c r="AMJ14" s="22"/>
+    </row>
+    <row r="15" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="n">
+        <v>87</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>80558</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>43051</v>
+      </c>
+      <c r="F15" s="10" t="n">
         <f aca="false">E15/D15</f>
-        <v>0.438012595196251</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H15" s="2" t="n">
+        <v>0.534409990317535</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="8" t="n">
         <f aca="false">(G15-E15)/F15</f>
-        <v>70858.6929699908</v>
-      </c>
-      <c r="I15" s="2" t="n">
+        <v>-95.4323476806578</v>
+      </c>
+      <c r="I15" s="8" t="n">
         <f aca="false">E15*M15/G15</f>
-        <v>6213.24834883721</v>
-      </c>
-      <c r="J15" s="2" t="n">
+        <v>9732.52955813953</v>
+      </c>
+      <c r="J15" s="8" t="n">
         <f aca="false">I15-M15</f>
-        <v>-16119.7516511628</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>111</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>22333</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>27312</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>2006</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>609968498</v>
+        <v>11.5295581395349</v>
+      </c>
+      <c r="K15" s="19" t="n">
+        <v>291</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>783106269</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.556</v>
+        <v>0.309</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>15237</v>
+        <v>27312</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6649</v>
+        <v>11963</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16/D16</f>
-        <v>0.436371989236726</v>
+        <v>0.438012595196251</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">(G16-E16)/F16</f>
-        <v>83302.780418108</v>
+        <v>70858.6929699908</v>
       </c>
       <c r="I16" s="2" t="n">
         <f aca="false">E16*M16/G16</f>
-        <v>3302.38820930233</v>
+        <v>6213.24834883721</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">I16-M16</f>
+        <v>-16119.7516511628</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>22333</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>27312</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>609968498</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15237</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>6649</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17/D17</f>
+        <v>0.436371989236726</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">(G17-E17)/F17</f>
+        <v>83302.780418108</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">E17*M17/G17</f>
+        <v>3302.38820930233</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">I17-M17</f>
         <v>-18054.6117906977</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="M17" s="2" t="n">
         <v>21357</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N17" s="2" t="n">
         <v>15237</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O17" s="2" t="n">
         <v>1609</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P17" s="2" t="n">
         <v>325407982</v>
       </c>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C18" s="13" t="n">
         <v>0.209</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D18" s="14" t="n">
         <v>40238</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E18" s="14" t="n">
         <v>17698</v>
       </c>
-      <c r="F17" s="13" t="n">
-        <f aca="false">E17/D17</f>
+      <c r="F18" s="13" t="n">
+        <f aca="false">E18/D18</f>
         <v>0.439832993687559</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <f aca="false">(G17-E17)/F17</f>
+      <c r="G18" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <f aca="false">(G18-E18)/F18</f>
         <v>57526.3801559498</v>
       </c>
-      <c r="I17" s="14" t="n">
-        <f aca="false">E17*M17/G17</f>
+      <c r="I18" s="14" t="n">
+        <f aca="false">E18*M18/G18</f>
         <v>9567.62111627907</v>
       </c>
-      <c r="J17" s="14" t="n">
-        <f aca="false">I17-M17</f>
+      <c r="J18" s="14" t="n">
+        <f aca="false">I18-M18</f>
         <v>-13678.3788837209</v>
       </c>
-      <c r="K17" s="12" t="n">
+      <c r="K18" s="12" t="n">
         <v>154</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="14" t="n">
+      <c r="M18" s="14" t="n">
         <v>23246</v>
       </c>
-      <c r="N17" s="14" t="n">
+      <c r="N18" s="14" t="n">
         <v>40238</v>
       </c>
-      <c r="O17" s="14" t="n">
+      <c r="O18" s="14" t="n">
         <v>2241</v>
       </c>
-      <c r="P17" s="14" t="n">
-        <v>935376480</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>77948</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>28440</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">E18/D18</f>
-        <v>0.36485862369785</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <f aca="false">(G18-E18)/F18</f>
-        <v>39905.8677918425</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <f aca="false">E18*M18/G18</f>
-        <v>7936.74418604651</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <f aca="false">I18-M18</f>
-        <v>-4063.25581395349</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>77948</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>3202</v>
-      </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="14" t="n">
         <v>935376480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.149</v>
+        <v>0.13</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>62358</v>
+        <v>77948</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>24786</v>
+        <v>28440</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19/D19</f>
-        <v>0.397479072452612</v>
+        <v>0.36485862369785</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">(G19-E19)/F19</f>
-        <v>45823.7961752602</v>
+        <v>39905.8677918425</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">E19*M19/G19</f>
-        <v>8646.27906976744</v>
+        <v>7936.74418604651</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">I19-M19</f>
-        <v>-6353.72093023256</v>
+        <v>-4063.25581395349</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>107</v>
+        <v>161</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>62358</v>
+        <v>77948</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>2901</v>
+        <v>3202</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>935376480</v>
@@ -13033,53 +13080,53 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.169</v>
+        <v>0.149</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>51965</v>
+        <v>62358</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>21842</v>
+        <v>24786</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20/D20</f>
-        <v>0.420321370152988</v>
+        <v>0.397479072452612</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">(G20-E20)/F20</f>
-        <v>50337.6737478253</v>
+        <v>45823.7961752602</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">E20*M20/G20</f>
-        <v>9143.16279069767</v>
+        <v>8646.27906976744</v>
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">I20-M20</f>
-        <v>-8856.83720930233</v>
+        <v>-6353.72093023256</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>51965</v>
+        <v>62358</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2635</v>
+        <v>2901</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>935376480</v>
@@ -13087,549 +13134,548 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.18</v>
+        <v>0.169</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>60997</v>
+        <v>51965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>20565</v>
+        <v>21842</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21/D21</f>
-        <v>0.337147728576815</v>
+        <v>0.420321370152988</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">(G21-E21)/F21</f>
-        <v>66543.5300267445</v>
+        <v>50337.6737478253</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">E21*M21/G21</f>
-        <v>4782.55813953488</v>
+        <v>9143.16279069767</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">I21-M21</f>
-        <v>-5217.44186046512</v>
+        <v>-8856.83720930233</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>60997</v>
+        <v>51965</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>3039</v>
+        <v>2635</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>609968498</v>
-      </c>
-      <c r="Q21" s="4"/>
+        <v>935376480</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C22" s="1" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>41940</v>
+        <v>60997</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>24656</v>
+        <v>20565</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22/D22</f>
-        <v>0.587887458273724</v>
+        <v>0.337147728576815</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">(G22-E22)/F22</f>
-        <v>31203.2511356262</v>
+        <v>66543.5300267445</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">E22*M22/G22</f>
-        <v>4454.70846511628</v>
+        <v>4782.55813953488</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">I22-M22</f>
-        <v>-3314.29153488372</v>
+        <v>-5217.44186046512</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>7769</v>
+        <v>10000</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>41940</v>
+        <v>60997</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>2664</v>
+        <v>3039</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>325835021</v>
-      </c>
+        <v>609968498</v>
+      </c>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.132</v>
+        <v>0.15</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>48808</v>
+        <v>41940</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>27984</v>
+        <v>24656</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23/D23</f>
-        <v>0.573348631371906</v>
+        <v>0.587887458273724</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H23" s="2" t="n">
         <f aca="false">(G23-E23)/F23</f>
-        <v>26189.9988564894</v>
+        <v>31203.2511356262</v>
       </c>
       <c r="I23" s="2" t="n">
         <f aca="false">E23*M23/G23</f>
-        <v>5080.72297674419</v>
+        <v>4454.70846511628</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">I23-M23</f>
-        <v>-2726.27702325581</v>
+        <v>-3314.29153488372</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7807</v>
+        <v>7769</v>
       </c>
       <c r="N23" s="2" t="n">
+        <v>41940</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>2664</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>325835021</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>48808</v>
       </c>
-      <c r="O23" s="2" t="n">
-        <v>2724</v>
-      </c>
-      <c r="P23" s="2" t="n">
-        <v>381040696</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>81616</v>
-      </c>
       <c r="E24" s="2" t="n">
-        <v>46735</v>
+        <v>27984</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24/D24</f>
-        <v>0.572620564595177</v>
+        <v>0.573348631371906</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H24" s="2" t="n">
         <f aca="false">(G24-E24)/F24</f>
-        <v>-6522.64384294426</v>
+        <v>26189.9988564894</v>
       </c>
       <c r="I24" s="2" t="n">
         <f aca="false">E24*M24/G24</f>
-        <v>9413.29848837209</v>
+        <v>5080.72297674419</v>
       </c>
       <c r="J24" s="2" t="n">
         <f aca="false">I24-M24</f>
+        <v>-2726.27702325581</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>7807</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>48808</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>2724</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>381040696</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>81616</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>46735</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <f aca="false">E25/D25</f>
+        <v>0.572620564595177</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">(G25-E25)/F25</f>
+        <v>-6522.64384294426</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <f aca="false">E25*M25/G25</f>
+        <v>9413.29848837209</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">I25-M25</f>
         <v>752.298488372093</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K25" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="2" t="n">
+      <c r="M25" s="2" t="n">
         <v>8661</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="N25" s="2" t="n">
         <v>81616</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O25" s="2" t="n">
         <v>3013</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P25" s="2" t="n">
         <v>706875717</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="n">
+    <row r="26" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="n">
         <v>82</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C26" s="23" t="n">
         <v>0.417</v>
       </c>
-      <c r="D25" s="20" t="n">
+      <c r="D26" s="24" t="n">
         <v>74562</v>
       </c>
-      <c r="E25" s="20" t="n">
+      <c r="E26" s="24" t="n">
         <v>43191</v>
       </c>
-      <c r="F25" s="5" t="n">
-        <f aca="false">E25/D25</f>
+      <c r="F26" s="23" t="n">
+        <f aca="false">E26/D26</f>
         <v>0.579262895308602</v>
       </c>
-      <c r="G25" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">(G25-E25)/F25</f>
+      <c r="G26" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H26" s="24" t="n">
+        <f aca="false">(G26-E26)/F26</f>
         <v>-329.729388066958</v>
       </c>
-      <c r="I25" s="6" t="n">
-        <f aca="false">E25*M25/G25</f>
+      <c r="I26" s="24" t="n">
+        <f aca="false">E26*M26/G26</f>
         <v>9454.81123255814</v>
       </c>
-      <c r="J25" s="6" t="n">
-        <f aca="false">I25-M25</f>
+      <c r="J26" s="24" t="n">
+        <f aca="false">I26-M26</f>
         <v>41.8112325581387</v>
       </c>
-      <c r="K25" s="20" t="n">
+      <c r="K26" s="22" t="n">
         <v>284</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L26" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M26" s="24" t="n">
         <v>9413</v>
       </c>
-      <c r="N25" s="6" t="n">
+      <c r="N26" s="24" t="n">
         <v>74562</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O26" s="24" t="n">
         <v>2851</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="P26" s="24" t="n">
         <v>701851123</v>
       </c>
-      <c r="Q25" s="20"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>23188</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>6949</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <f aca="false">E26/D26</f>
-        <v>0.299680869415215</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <f aca="false">(G26-E26)/F26</f>
-        <v>120297.969204202</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <f aca="false">E26*M26/G26</f>
-        <v>2341.813</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <f aca="false">I26-M26</f>
-        <v>-12149.187</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>14491</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>23188</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>1227</v>
-      </c>
-      <c r="P26" s="2" t="n">
-        <v>336023509</v>
-      </c>
     </row>
     <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>31676</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>9836</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="A27" s="19" t="n">
+        <v>88</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>74231</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F27" s="10" t="n">
         <f aca="false">E27/D27</f>
-        <v>0.310519004924864</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H27" s="2" t="n">
+        <v>0.579367110775821</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H27" s="8" t="n">
         <f aca="false">(G27-E27)/F27</f>
-        <v>106801.83651891</v>
-      </c>
-      <c r="I27" s="2" t="n">
+        <v>-12.0821494175367</v>
+      </c>
+      <c r="I27" s="8" t="n">
         <f aca="false">E27*M27/G27</f>
-        <v>3560.17451162791</v>
-      </c>
-      <c r="J27" s="2" t="n">
+        <v>9456.53918604651</v>
+      </c>
+      <c r="J27" s="8" t="n">
         <f aca="false">I27-M27</f>
-        <v>-12003.8254883721</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>15564</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>31676</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>1305</v>
-      </c>
-      <c r="P27" s="2" t="n">
-        <v>492998128</v>
-      </c>
-      <c r="Q27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+        <v>1.53918604651153</v>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>292</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N27" s="8" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P27" s="8" t="n">
+        <v>701851123</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="AMG27" s="19"/>
+      <c r="AMH27" s="19"/>
+      <c r="AMI27" s="19"/>
+      <c r="AMJ27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.246</v>
+        <v>0.532</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>46525</v>
+        <v>23188</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>15009</v>
+        <v>6949</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28/D28</f>
-        <v>0.322600752283718</v>
+        <v>0.299680869415215</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">(G28-E28)/F28</f>
-        <v>86766.6916516757</v>
+        <v>120297.969204202</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">E28*M28/G28</f>
-        <v>6219.65979069767</v>
+        <v>2341.813</v>
       </c>
       <c r="J28" s="2" t="n">
         <f aca="false">I28-M28</f>
-        <v>-11599.3402093023</v>
+        <v>-12149.187</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>17819</v>
+        <v>14491</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>46525</v>
+        <v>23188</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1478</v>
+        <v>1227</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>829021637</v>
+        <v>336023509</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.173</v>
+        <v>0.376</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>82347</v>
+        <v>31676</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>21404</v>
+        <v>9836</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29/D29</f>
-        <v>0.259924465979331</v>
+        <v>0.310519004924864</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H29" s="2" t="n">
         <f aca="false">(G29-E29)/F29</f>
-        <v>83085.6761353018</v>
+        <v>106801.83651891</v>
       </c>
       <c r="I29" s="2" t="n">
         <f aca="false">E29*M29/G29</f>
-        <v>4977.67441860465</v>
+        <v>3560.17451162791</v>
       </c>
       <c r="J29" s="2" t="n">
         <f aca="false">I29-M29</f>
-        <v>-5022.32558139535</v>
+        <v>-12003.8254883721</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>10000</v>
+        <v>15564</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>82347</v>
+        <v>31676</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1928</v>
+        <v>1305</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>823472174</v>
+        <v>492998128</v>
       </c>
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.424</v>
+        <v>0.246</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>33602</v>
+        <v>46525</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>8724</v>
+        <v>15009</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">E30/D30</f>
-        <v>0.259627403130766</v>
+        <v>0.322600752283718</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H30" s="2" t="n">
         <f aca="false">(G30-E30)/F30</f>
-        <v>132019.962402568</v>
+        <v>86766.6916516757</v>
       </c>
       <c r="I30" s="2" t="n">
         <f aca="false">E30*M30/G30</f>
-        <v>2028.83720930233</v>
+        <v>6219.65979069767</v>
       </c>
       <c r="J30" s="2" t="n">
         <f aca="false">I30-M30</f>
-        <v>-7971.16279069768</v>
+        <v>-11599.3402093023</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>10000</v>
+        <v>17819</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>33602</v>
+        <v>46525</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>336023509</v>
+        <v>829021637</v>
       </c>
       <c r="Q30" s="0"/>
       <c r="AMG30" s="0"/>
@@ -13639,274 +13685,273 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.195</v>
+        <v>0.173</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>39121</v>
+        <v>82347</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>18929</v>
+        <v>21404</v>
       </c>
       <c r="F31" s="1" t="n">
         <f aca="false">E31/D31</f>
-        <v>0.483857774596764</v>
+        <v>0.259924465979331</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H31" s="2" t="n">
         <f aca="false">(G31-E31)/F31</f>
-        <v>49748.0897564584</v>
+        <v>83085.6761353018</v>
       </c>
       <c r="I31" s="2" t="n">
         <f aca="false">E31*M31/G31</f>
-        <v>7999.04323255814</v>
+        <v>4977.67441860465</v>
       </c>
       <c r="J31" s="2" t="n">
         <f aca="false">I31-M31</f>
-        <v>-10171.9567674419</v>
+        <v>-5022.32558139535</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>18171</v>
+        <v>10000</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>39121</v>
+        <v>82347</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2669</v>
+        <v>1928</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>710859245</v>
+        <v>823472174</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.652</v>
+        <v>0.424</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>11755</v>
+        <v>33602</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>5664</v>
+        <v>8724</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">E32/D32</f>
-        <v>0.481837515950659</v>
+        <v>0.259627403130766</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">(G32-E32)/F32</f>
-        <v>77486.7019774011</v>
+        <v>132019.962402568</v>
       </c>
       <c r="I32" s="2" t="n">
         <f aca="false">E32*M32/G32</f>
-        <v>2095.41655813954</v>
+        <v>2028.83720930233</v>
       </c>
       <c r="J32" s="2" t="n">
         <f aca="false">I32-M32</f>
-        <v>-13812.5834418605</v>
+        <v>-7971.16279069768</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>15908</v>
+        <v>10000</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>11755</v>
+        <v>33602</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1648</v>
+        <v>1484</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>186991746</v>
-      </c>
-      <c r="Q32" s="9"/>
+        <v>336023509</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.119</v>
+        <v>0.195</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>63944</v>
+        <v>39121</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>31131</v>
+        <v>18929</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">E33/D33</f>
-        <v>0.486847866883523</v>
+        <v>0.483857774596764</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H33" s="2" t="n">
         <f aca="false">(G33-E33)/F33</f>
-        <v>24379.2790466095</v>
+        <v>49748.0897564584</v>
       </c>
       <c r="I33" s="2" t="n">
         <f aca="false">E33*M33/G33</f>
-        <v>13833.0236511628</v>
+        <v>7999.04323255814</v>
       </c>
       <c r="J33" s="2" t="n">
         <f aca="false">I33-M33</f>
-        <v>-5273.97634883721</v>
+        <v>-10171.9567674419</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>19107</v>
+        <v>18171</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>63944</v>
+        <v>39121</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>2957</v>
+        <v>2669</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1221781079</v>
+        <v>710859245</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="n">
-        <v>74</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="D34" s="20" t="n">
-        <v>107014</v>
-      </c>
-      <c r="E34" s="20" t="n">
-        <v>52131</v>
-      </c>
-      <c r="F34" s="5" t="n">
+      <c r="A34" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>11755</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>5664</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <f aca="false">E34/D34</f>
-        <v>0.48714186928813</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H34" s="6" t="n">
+        <v>0.481837515950659</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <f aca="false">(G34-E34)/F34</f>
-        <v>-18744.0262799486</v>
-      </c>
-      <c r="I34" s="6" t="n">
+        <v>77486.7019774011</v>
+      </c>
+      <c r="I34" s="2" t="n">
         <f aca="false">E34*M34/G34</f>
-        <v>24012.9934186047</v>
-      </c>
-      <c r="J34" s="6" t="n">
+        <v>2095.41655813954</v>
+      </c>
+      <c r="J34" s="2" t="n">
         <f aca="false">I34-M34</f>
-        <v>4205.99341860465</v>
-      </c>
-      <c r="K34" s="20" t="n">
-        <v>260</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" s="6" t="n">
-        <v>19807</v>
-      </c>
-      <c r="N34" s="6" t="n">
-        <v>107014</v>
-      </c>
-      <c r="O34" s="6" t="n">
-        <v>3206</v>
-      </c>
-      <c r="P34" s="6" t="n">
-        <v>2119632070</v>
-      </c>
-      <c r="Q34" s="20"/>
+        <v>-13812.5834418605</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>15908</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>11755</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>1648</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>186991746</v>
+      </c>
+      <c r="Q34" s="9"/>
     </row>
     <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.083</v>
+        <v>0.119</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>91629</v>
+        <v>63944</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44770</v>
+        <v>31131</v>
       </c>
       <c r="F35" s="1" t="n">
         <f aca="false">E35/D35</f>
-        <v>0.488600770498423</v>
+        <v>0.486847866883523</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H35" s="2" t="n">
         <f aca="false">(G35-E35)/F35</f>
-        <v>-3622.58945722582</v>
+        <v>24379.2790466095</v>
       </c>
       <c r="I35" s="2" t="n">
         <f aca="false">E35*M35/G35</f>
-        <v>4029.3</v>
+        <v>13833.0236511628</v>
       </c>
       <c r="J35" s="2" t="n">
         <f aca="false">I35-M35</f>
-        <v>159.3</v>
+        <v>-5273.97634883721</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3870</v>
+        <v>19107</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>91629</v>
+        <v>63944</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1890</v>
+        <v>2957</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>354602695</v>
+        <v>1221781079</v>
       </c>
       <c r="Q35" s="0"/>
       <c r="AMG35" s="0"/>
@@ -13914,275 +13959,275 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>13096</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>5862</v>
-      </c>
-      <c r="F36" s="1" t="n">
+    <row r="36" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="n">
+        <v>74</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="23" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="D36" s="24" t="n">
+        <v>107014</v>
+      </c>
+      <c r="E36" s="24" t="n">
+        <v>52131</v>
+      </c>
+      <c r="F36" s="23" t="n">
         <f aca="false">E36/D36</f>
-        <v>0.447617593158216</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H36" s="2" t="n">
+        <v>0.48714186928813</v>
+      </c>
+      <c r="G36" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H36" s="24" t="n">
         <f aca="false">(G36-E36)/F36</f>
-        <v>82968.1419310816</v>
-      </c>
-      <c r="I36" s="2" t="n">
+        <v>-18744.0262799486</v>
+      </c>
+      <c r="I36" s="24" t="n">
         <f aca="false">E36*M36/G36</f>
-        <v>265.83488372093</v>
-      </c>
-      <c r="J36" s="2" t="n">
+        <v>24012.9934186047</v>
+      </c>
+      <c r="J36" s="24" t="n">
         <f aca="false">I36-M36</f>
-        <v>-1684.16511627907</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>1950</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>13096</v>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="P36" s="2" t="n">
-        <v>25537895</v>
-      </c>
-      <c r="Q36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="10" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v>44275</v>
-      </c>
-      <c r="F37" s="10" t="n">
+        <v>4205.99341860465</v>
+      </c>
+      <c r="K36" s="22" t="n">
+        <v>260</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="24" t="n">
+        <v>19807</v>
+      </c>
+      <c r="N36" s="24" t="n">
+        <v>107014</v>
+      </c>
+      <c r="O36" s="24" t="n">
+        <v>3206</v>
+      </c>
+      <c r="P36" s="24" t="n">
+        <v>2119632070</v>
+      </c>
+    </row>
+    <row r="37" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="n">
+        <v>89</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>88270</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>43635</v>
+      </c>
+      <c r="F37" s="5" t="n">
         <f aca="false">E37/D37</f>
-        <v>0.462387601432853</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H37" s="8" t="n">
+        <v>0.494335561345871</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H37" s="6" t="n">
         <f aca="false">(G37-E37)/F37</f>
-        <v>-2757.42687747036</v>
-      </c>
-      <c r="I37" s="8" t="n">
+        <v>-1284.55253810015</v>
+      </c>
+      <c r="I37" s="6" t="n">
         <f aca="false">E37*M37/G37</f>
-        <v>4087.71511627907</v>
-      </c>
-      <c r="J37" s="8" t="n">
+        <v>24367.6105813953</v>
+      </c>
+      <c r="J37" s="6" t="n">
         <f aca="false">I37-M37</f>
-        <v>117.71511627907</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>118</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="M37" s="8" t="n">
-        <v>3970</v>
-      </c>
-      <c r="N37" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="O37" s="8" t="n">
-        <v>1888</v>
-      </c>
-      <c r="P37" s="8" t="n">
-        <v>380140590</v>
+        <v>354.610581395347</v>
+      </c>
+      <c r="K37" s="20" t="n">
+        <v>293</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>24013</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>88270</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>2702</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>2119632070</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.159</v>
+        <v>0.083</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>58984</v>
+        <v>91629</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>23286</v>
+        <v>44770</v>
       </c>
       <c r="F38" s="1" t="n">
         <f aca="false">E38/D38</f>
-        <v>0.39478502644785</v>
+        <v>0.488600770498423</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H38" s="2" t="n">
         <f aca="false">(G38-E38)/F38</f>
-        <v>49936.0377909474</v>
+        <v>-3622.58945722582</v>
       </c>
       <c r="I38" s="2" t="n">
         <f aca="false">E38*M38/G38</f>
-        <v>7403.86493023256</v>
+        <v>4029.3</v>
       </c>
       <c r="J38" s="2" t="n">
         <f aca="false">I38-M38</f>
-        <v>-6268.13506976744</v>
+        <v>159.3</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>13672</v>
+        <v>3870</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>58984</v>
+        <v>91629</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>2691</v>
+        <v>1890</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>806422492</v>
+        <v>354602695</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>9456</v>
+        <v>13096</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>3696</v>
+        <v>5862</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">E39/D39</f>
-        <v>0.390862944162437</v>
+        <v>0.447617593158216</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H39" s="2" t="n">
         <f aca="false">(G39-E39)/F39</f>
-        <v>100556.987012987</v>
+        <v>82968.1419310816</v>
       </c>
       <c r="I39" s="2" t="n">
         <f aca="false">E39*M39/G39</f>
-        <v>917.639441860465</v>
+        <v>265.83488372093</v>
       </c>
       <c r="J39" s="2" t="n">
         <f aca="false">I39-M39</f>
-        <v>-9758.36055813953</v>
+        <v>-1684.16511627907</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>10676</v>
+        <v>1950</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>9456</v>
+        <v>13096</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1310</v>
+        <v>1234</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>100952053</v>
-      </c>
+        <v>25537895</v>
+      </c>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>50051</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>19853</v>
-      </c>
-      <c r="F40" s="1" t="n">
+      <c r="A40" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="10" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F40" s="10" t="n">
         <f aca="false">E40/D40</f>
-        <v>0.39665541148029</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H40" s="2" t="n">
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="8" t="n">
         <f aca="false">(G40-E40)/F40</f>
-        <v>58355.4373142598</v>
-      </c>
-      <c r="I40" s="2" t="n">
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I40" s="8" t="n">
         <f aca="false">E40*M40/G40</f>
-        <v>6228.30162790698</v>
-      </c>
-      <c r="J40" s="2" t="n">
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J40" s="8" t="n">
         <f aca="false">I40-M40</f>
-        <v>-7261.69837209302</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>13490</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>50051</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>2589</v>
-      </c>
-      <c r="P40" s="2" t="n">
-        <v>675189586</v>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="8" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N40" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P40" s="8" t="n">
+        <v>380140590</v>
       </c>
       <c r="Q40" s="0"/>
       <c r="AMG40" s="0"/>
@@ -14191,114 +14236,113 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>72</v>
+      <c r="A41" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.084</v>
+        <v>0.159</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>110099</v>
+        <v>58984</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>43750</v>
+        <v>23286</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="false">E41/D41</f>
-        <v>0.397369640051227</v>
+        <v>0.39478502644785</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H41" s="2" t="n">
         <f aca="false">(G41-E41)/F41</f>
-        <v>-1887.41142857143</v>
+        <v>49936.0377909474</v>
       </c>
       <c r="I41" s="2" t="n">
         <f aca="false">E41*M41/G41</f>
-        <v>14624.7093023256</v>
+        <v>7403.86493023256</v>
       </c>
       <c r="J41" s="2" t="n">
         <f aca="false">I41-M41</f>
-        <v>250.709302325582</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>259</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>131</v>
+        <v>-6268.13506976744</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>14374</v>
+        <v>13672</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>110099</v>
+        <v>58984</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>3032</v>
+        <v>2691</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="Q41" s="3"/>
+        <v>806422492</v>
+      </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="n">
-        <v>83</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="D42" s="20" t="n">
-        <v>108210</v>
-      </c>
-      <c r="E42" s="20" t="n">
-        <v>43252</v>
-      </c>
-      <c r="F42" s="5" t="n">
+      <c r="A42" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>9456</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>3696</v>
+      </c>
+      <c r="F42" s="1" t="n">
         <f aca="false">E42/D42</f>
-        <v>0.399704278717309</v>
-      </c>
-      <c r="G42" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H42" s="6" t="n">
+        <v>0.390862944162437</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H42" s="2" t="n">
         <f aca="false">(G42-E42)/F42</f>
-        <v>-630.466105613613</v>
-      </c>
-      <c r="I42" s="6" t="n">
+        <v>100556.987012987</v>
+      </c>
+      <c r="I42" s="2" t="n">
         <f aca="false">E42*M42/G42</f>
-        <v>14710.7093023256</v>
-      </c>
-      <c r="J42" s="6" t="n">
+        <v>917.639441860465</v>
+      </c>
+      <c r="J42" s="2" t="n">
         <f aca="false">I42-M42</f>
-        <v>85.709302325582</v>
-      </c>
-      <c r="K42" s="20" t="n">
-        <v>285</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M42" s="6" t="n">
-        <v>14625</v>
-      </c>
-      <c r="N42" s="6" t="n">
-        <v>108210</v>
-      </c>
-      <c r="O42" s="6" t="n">
-        <v>2986</v>
-      </c>
-      <c r="P42" s="6" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="Q42" s="20"/>
+        <v>-9758.36055813953</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>10676</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>9456</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>100952053</v>
+      </c>
+      <c r="Q42" s="0"/>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
@@ -14306,386 +14350,386 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.242</v>
+        <v>0.186</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>41417</v>
+        <v>50051</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>15297</v>
+        <v>19853</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">E43/D43</f>
-        <v>0.369341091822199</v>
+        <v>0.39665541148029</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H43" s="2" t="n">
         <f aca="false">(G43-E43)/F43</f>
-        <v>75006.5471007387</v>
+        <v>58355.4373142598</v>
       </c>
       <c r="I43" s="2" t="n">
         <f aca="false">E43*M43/G43</f>
-        <v>4126.63255813954</v>
+        <v>6228.30162790698</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">I43-M43</f>
-        <v>-7473.36744186047</v>
+        <v>-7261.69837209302</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>11600</v>
+        <v>13490</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>41417</v>
+        <v>50051</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>2918</v>
+        <v>2589</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>480438646</v>
+        <v>675189586</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>41</v>
+      <c r="A44" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.198</v>
+        <v>0.084</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>52159</v>
+        <v>110099</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>18627</v>
+        <v>43750</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">E44/D44</f>
-        <v>0.357119576679001</v>
+        <v>0.397369640051227</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H44" s="2" t="n">
         <f aca="false">(G44-E44)/F44</f>
-        <v>68248.8488216031</v>
+        <v>-1887.41142857143</v>
       </c>
       <c r="I44" s="2" t="n">
         <f aca="false">E44*M44/G44</f>
-        <v>5321.25739534884</v>
+        <v>14624.7093023256</v>
       </c>
       <c r="J44" s="2" t="n">
         <f aca="false">I44-M44</f>
-        <v>-6962.74260465116</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>135</v>
+        <v>250.709302325582</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>259</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>12284</v>
+        <v>14374</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>52159</v>
+        <v>110099</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>3086</v>
+        <v>3032</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>640719935</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="13" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="D45" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="E45" s="14" t="n">
-        <v>27955</v>
-      </c>
-      <c r="F45" s="13" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="22" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="23" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D45" s="24" t="n">
+        <v>108210</v>
+      </c>
+      <c r="E45" s="24" t="n">
+        <v>43252</v>
+      </c>
+      <c r="F45" s="23" t="n">
         <f aca="false">E45/D45</f>
-        <v>0.365807380266946</v>
-      </c>
-      <c r="G45" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H45" s="14" t="n">
+        <v>0.399704278717309</v>
+      </c>
+      <c r="G45" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H45" s="24" t="n">
         <f aca="false">(G45-E45)/F45</f>
-        <v>41128.2024682526</v>
-      </c>
-      <c r="I45" s="14" t="n">
+        <v>-630.466105613613</v>
+      </c>
+      <c r="I45" s="24" t="n">
         <f aca="false">E45*M45/G45</f>
-        <v>9537.85593023256</v>
-      </c>
-      <c r="J45" s="14" t="n">
+        <v>14710.7093023256</v>
+      </c>
+      <c r="J45" s="24" t="n">
         <f aca="false">I45-M45</f>
-        <v>-5133.14406976744</v>
-      </c>
-      <c r="K45" s="12" t="n">
-        <v>119</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M45" s="14" t="n">
-        <v>14671</v>
-      </c>
-      <c r="N45" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="O45" s="14" t="n">
-        <v>3137</v>
-      </c>
-      <c r="P45" s="14" t="n">
-        <v>1121158581</v>
-      </c>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>92745</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>33686</v>
-      </c>
-      <c r="F46" s="1" t="n">
+        <v>85.709302325582</v>
+      </c>
+      <c r="K45" s="22" t="n">
+        <v>285</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" s="24" t="n">
+        <v>14625</v>
+      </c>
+      <c r="N45" s="24" t="n">
+        <v>108210</v>
+      </c>
+      <c r="O45" s="24" t="n">
+        <v>2986</v>
+      </c>
+      <c r="P45" s="24" t="n">
+        <v>1582564131</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F46" s="10" t="n">
         <f aca="false">E46/D46</f>
-        <v>0.363210954768451</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H46" s="2" t="n">
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H46" s="8" t="n">
         <f aca="false">(G46-E46)/F46</f>
-        <v>25643.4996734548</v>
-      </c>
-      <c r="I46" s="2" t="n">
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I46" s="8" t="n">
         <f aca="false">E46*M46/G46</f>
-        <v>9400.74418604651</v>
-      </c>
-      <c r="J46" s="2" t="n">
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J46" s="8" t="n">
         <f aca="false">I46-M46</f>
-        <v>-2599.25581395349</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>169</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>92745</v>
-      </c>
-      <c r="O46" s="2" t="n">
-        <v>3762</v>
-      </c>
-      <c r="P46" s="2" t="n">
-        <v>1112943723</v>
-      </c>
-      <c r="Q46" s="0"/>
-      <c r="AMG46" s="0"/>
-      <c r="AMH46" s="0"/>
-      <c r="AMI46" s="0"/>
-      <c r="AMJ46" s="0"/>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K46" s="19" t="n">
+        <v>294</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N46" s="8" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P46" s="8" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q46" s="19"/>
+      <c r="AMG46" s="19"/>
+      <c r="AMH46" s="19"/>
+      <c r="AMI46" s="19"/>
+      <c r="AMJ46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.089</v>
+        <v>0.242</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>118272</v>
+        <v>41417</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>41540</v>
+        <v>15297</v>
       </c>
       <c r="F47" s="1" t="n">
         <f aca="false">E47/D47</f>
-        <v>0.351224296536797</v>
+        <v>0.369341091822199</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H47" s="2" t="n">
         <f aca="false">(G47-E47)/F47</f>
-        <v>4156.88781896967</v>
+        <v>75006.5471007387</v>
       </c>
       <c r="I47" s="2" t="n">
         <f aca="false">E47*M47/G47</f>
-        <v>9090.4976744186</v>
+        <v>4126.63255813954</v>
       </c>
       <c r="J47" s="2" t="n">
         <f aca="false">I47-M47</f>
-        <v>-319.502325581396</v>
+        <v>-7473.36744186047</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>9410</v>
+        <v>11600</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>118272</v>
+        <v>41417</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>4340</v>
+        <v>2918</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>1112943723</v>
+        <v>480438646</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.17</v>
+        <v>0.198</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>41862</v>
+        <v>52159</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>21676</v>
+        <v>18627</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">E48/D48</f>
-        <v>0.517796569681334</v>
+        <v>0.357119576679001</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H48" s="2" t="n">
         <f aca="false">(G48-E48)/F48</f>
-        <v>41182.1963461893</v>
+        <v>68248.8488216031</v>
       </c>
       <c r="I48" s="2" t="n">
         <f aca="false">E48*M48/G48</f>
-        <v>8485.90195348837</v>
+        <v>5321.25739534884</v>
       </c>
       <c r="J48" s="2" t="n">
         <f aca="false">I48-M48</f>
-        <v>-8348.09804651163</v>
+        <v>-6962.74260465116</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>16834</v>
+        <v>12284</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>41862</v>
+        <v>52159</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>2487</v>
+        <v>3086</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>704707035</v>
+        <v>640719935</v>
       </c>
     </row>
     <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>10899</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>5653</v>
-      </c>
-      <c r="F49" s="1" t="n">
+      <c r="A49" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="13" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D49" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>27955</v>
+      </c>
+      <c r="F49" s="13" t="n">
         <f aca="false">E49/D49</f>
-        <v>0.518671437746582</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H49" s="2" t="n">
+        <v>0.365807380266946</v>
+      </c>
+      <c r="G49" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H49" s="14" t="n">
         <f aca="false">(G49-E49)/F49</f>
-        <v>72005.1217052892</v>
-      </c>
-      <c r="I49" s="2" t="n">
+        <v>41128.2024682526</v>
+      </c>
+      <c r="I49" s="14" t="n">
         <f aca="false">E49*M49/G49</f>
-        <v>1908.87348837209</v>
-      </c>
-      <c r="J49" s="2" t="n">
+        <v>9537.85593023256</v>
+      </c>
+      <c r="J49" s="14" t="n">
         <f aca="false">I49-M49</f>
-        <v>-12611.1265116279</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>14520</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>10899</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>1534</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>158247680</v>
+        <v>-5133.14406976744</v>
+      </c>
+      <c r="K49" s="12" t="n">
+        <v>119</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M49" s="14" t="n">
+        <v>14671</v>
+      </c>
+      <c r="N49" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="O49" s="14" t="n">
+        <v>3137</v>
+      </c>
+      <c r="P49" s="14" t="n">
+        <v>1121158581</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="AMG49" s="0"/>
@@ -14695,56 +14739,56 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="C50" s="1" t="n">
-        <v>0.123</v>
+        <v>0.11</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>57671</v>
+        <v>92745</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>30073</v>
+        <v>33686</v>
       </c>
       <c r="F50" s="1" t="n">
         <f aca="false">E50/D50</f>
-        <v>0.521457925127014</v>
+        <v>0.363210954768451</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H50" s="2" t="n">
         <f aca="false">(G50-E50)/F50</f>
-        <v>24790.1112958468</v>
+        <v>25643.4996734548</v>
       </c>
       <c r="I50" s="2" t="n">
         <f aca="false">E50*M50/G50</f>
-        <v>12712.4865348837</v>
+        <v>9400.74418604651</v>
       </c>
       <c r="J50" s="2" t="n">
         <f aca="false">I50-M50</f>
-        <v>-5464.51346511628</v>
+        <v>-2599.25581395349</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>18177</v>
+        <v>12000</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>57671</v>
+        <v>92745</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>2603</v>
+        <v>3762</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>1048292829</v>
+        <v>1112943723</v>
       </c>
       <c r="Q50" s="0"/>
       <c r="AMG50" s="0"/>
@@ -14753,502 +14797,501 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>75</v>
+      <c r="A51" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.074</v>
+        <v>0.089</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>95025</v>
+        <v>118272</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>49728</v>
+        <v>41540</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">E51/D51</f>
-        <v>0.523314917127072</v>
+        <v>0.351224296536797</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H51" s="2" t="n">
         <f aca="false">(G51-E51)/F51</f>
-        <v>-12856.5033783784</v>
+        <v>4156.88781896967</v>
       </c>
       <c r="I51" s="2" t="n">
         <f aca="false">E51*M51/G51</f>
-        <v>23259.9828837209</v>
+        <v>9090.4976744186</v>
       </c>
       <c r="J51" s="2" t="n">
         <f aca="false">I51-M51</f>
-        <v>3146.98288372093</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>258</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>142</v>
+        <v>-319.502325581396</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>20113</v>
+        <v>9410</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>95025</v>
+        <v>118272</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>2744</v>
+        <v>4340</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>1911247544</v>
+        <v>1112943723</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="n">
-        <v>84</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="5" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D52" s="20" t="n">
-        <v>82169</v>
-      </c>
-      <c r="E52" s="20" t="n">
-        <v>43575</v>
-      </c>
-      <c r="F52" s="5" t="n">
+      <c r="A52" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>21676</v>
+      </c>
+      <c r="F52" s="1" t="n">
         <f aca="false">E52/D52</f>
-        <v>0.530309484112013</v>
-      </c>
-      <c r="G52" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H52" s="6" t="n">
+        <v>0.517796569681334</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H52" s="2" t="n">
         <f aca="false">(G52-E52)/F52</f>
-        <v>-1084.27251864601</v>
-      </c>
-      <c r="I52" s="6" t="n">
+        <v>41182.1963461893</v>
+      </c>
+      <c r="I52" s="2" t="n">
         <f aca="false">E52*M52/G52</f>
-        <v>23571.0348837209</v>
-      </c>
-      <c r="J52" s="6" t="n">
+        <v>8485.90195348837</v>
+      </c>
+      <c r="J52" s="2" t="n">
         <f aca="false">I52-M52</f>
-        <v>311.034883720931</v>
-      </c>
-      <c r="K52" s="20" t="n">
-        <v>286</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="M52" s="6" t="n">
-        <v>23260</v>
-      </c>
-      <c r="N52" s="6" t="n">
-        <v>82169</v>
-      </c>
-      <c r="O52" s="6" t="n">
-        <v>2395</v>
-      </c>
-      <c r="P52" s="6" t="n">
-        <v>1911247544</v>
-      </c>
-      <c r="Q52" s="20"/>
+        <v>-8348.09804651163</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>16834</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>2487</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>704707035</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="C53" s="1" t="n">
-        <v>0.248</v>
+        <v>0.654</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>34649</v>
+        <v>10899</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>14929</v>
+        <v>5653</v>
       </c>
       <c r="F53" s="1" t="n">
         <f aca="false">E53/D53</f>
-        <v>0.430863805593235</v>
+        <v>0.518671437746582</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H53" s="2" t="n">
         <f aca="false">(G53-E53)/F53</f>
-        <v>65150.5177171947</v>
+        <v>72005.1217052892</v>
       </c>
       <c r="I53" s="2" t="n">
         <f aca="false">E53*M53/G53</f>
-        <v>4975.87041860465</v>
+        <v>1908.87348837209</v>
       </c>
       <c r="J53" s="2" t="n">
         <f aca="false">I53-M53</f>
-        <v>-9356.12958139535</v>
+        <v>-12611.1265116279</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>14332</v>
+        <v>14520</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>34649</v>
+        <v>10899</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>2139</v>
+        <v>1534</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>496591233</v>
-      </c>
+        <v>158247680</v>
+      </c>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.159</v>
+        <v>0.123</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>54384</v>
+        <v>57671</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>23263</v>
+        <v>30073</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">E54/D54</f>
-        <v>0.42775448661371</v>
+        <v>0.521457925127014</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H54" s="2" t="n">
         <f aca="false">(G54-E54)/F54</f>
-        <v>46140.9537892791</v>
+        <v>24790.1112958468</v>
       </c>
       <c r="I54" s="2" t="n">
         <f aca="false">E54*M54/G54</f>
-        <v>9660.096</v>
+        <v>12712.4865348837</v>
       </c>
       <c r="J54" s="2" t="n">
         <f aca="false">I54-M54</f>
-        <v>-8195.904</v>
+        <v>-5464.51346511628</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>17856</v>
+        <v>18177</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>54384</v>
+        <v>57671</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>2072</v>
+        <v>2603</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>971077397</v>
-      </c>
+        <v>1048292829</v>
+      </c>
+      <c r="Q54" s="0"/>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>47</v>
+      <c r="A55" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.116</v>
+        <v>0.074</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>74181</v>
+        <v>95025</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>31925</v>
+        <v>49728</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">E55/D55</f>
-        <v>0.430366266294604</v>
+        <v>0.523314917127072</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H55" s="2" t="n">
         <f aca="false">(G55-E55)/F55</f>
-        <v>25733.8942834769</v>
+        <v>-12856.5033783784</v>
       </c>
       <c r="I55" s="2" t="n">
         <f aca="false">E55*M55/G55</f>
-        <v>14689.2122093023</v>
+        <v>23259.9828837209</v>
       </c>
       <c r="J55" s="2" t="n">
         <f aca="false">I55-M55</f>
-        <v>-5095.78779069767</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>147</v>
+        <v>3146.98288372093</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>258</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>19785</v>
+        <v>20113</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>74181</v>
+        <v>95025</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>2016</v>
+        <v>2744</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>1467668630</v>
-      </c>
-      <c r="Q55" s="3"/>
+        <v>1911247544</v>
+      </c>
+      <c r="Q55" s="0"/>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="n">
-        <v>85</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="10" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D56" s="19" t="n">
-        <v>101141</v>
-      </c>
-      <c r="E56" s="19" t="n">
-        <v>42993</v>
-      </c>
-      <c r="F56" s="10" t="n">
+    <row r="56" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="n">
+        <v>84</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="23" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D56" s="24" t="n">
+        <v>82169</v>
+      </c>
+      <c r="E56" s="24" t="n">
+        <v>43575</v>
+      </c>
+      <c r="F56" s="23" t="n">
         <f aca="false">E56/D56</f>
-        <v>0.425079839036592</v>
-      </c>
-      <c r="G56" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H56" s="8" t="n">
+        <v>0.530309484112013</v>
+      </c>
+      <c r="G56" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H56" s="24" t="n">
         <f aca="false">(G56-E56)/F56</f>
-        <v>16.4674947084409</v>
-      </c>
-      <c r="I56" s="8" t="n">
+        <v>-1084.27251864601</v>
+      </c>
+      <c r="I56" s="24" t="n">
         <f aca="false">E56*M56/G56</f>
-        <v>14432.6501162791</v>
-      </c>
-      <c r="J56" s="8" t="n">
+        <v>23571.0348837209</v>
+      </c>
+      <c r="J56" s="24" t="n">
         <f aca="false">I56-M56</f>
-        <v>-2.34988372092994</v>
-      </c>
-      <c r="K56" s="19" t="n">
-        <v>287</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M56" s="8" t="n">
-        <v>14435</v>
-      </c>
-      <c r="N56" s="8" t="n">
-        <v>101141</v>
-      </c>
-      <c r="O56" s="8" t="n">
-        <v>2781</v>
-      </c>
-      <c r="P56" s="8" t="n">
-        <v>1459966283</v>
-      </c>
-      <c r="Q56" s="19"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>100882</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>42891</v>
-      </c>
-      <c r="F57" s="1" t="n">
+        <v>311.034883720931</v>
+      </c>
+      <c r="K56" s="22" t="n">
+        <v>286</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>23260</v>
+      </c>
+      <c r="N56" s="24" t="n">
+        <v>82169</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>2395</v>
+      </c>
+      <c r="P56" s="24" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="57" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="n">
+        <v>91</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="10" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>81085</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>43038</v>
+      </c>
+      <c r="F57" s="10" t="n">
         <f aca="false">E57/D57</f>
-        <v>0.425160088023632</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H57" s="2" t="n">
+        <v>0.530776345809952</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H57" s="8" t="n">
         <f aca="false">(G57-E57)/F57</f>
-        <v>256.374017859225</v>
-      </c>
-      <c r="I57" s="2" t="n">
+        <v>-71.5932431804452</v>
+      </c>
+      <c r="I57" s="8" t="n">
         <f aca="false">E57*M57/G57</f>
-        <v>14435.3151627907</v>
-      </c>
-      <c r="J57" s="2" t="n">
+        <v>23591.8301860465</v>
+      </c>
+      <c r="J57" s="8" t="n">
         <f aca="false">I57-M57</f>
-        <v>-36.6848372093027</v>
-      </c>
-      <c r="K57" s="3" t="n">
-        <v>236</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>14472</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>100882</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>2778</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>1459966283</v>
+        <v>20.8301860465108</v>
+      </c>
+      <c r="K57" s="19" t="n">
+        <v>295</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M57" s="8" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N57" s="8" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O57" s="8" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P57" s="8" t="n">
+        <v>1911247544</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0.089</v>
+        <v>0.248</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>97331</v>
+        <v>34649</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>41485</v>
+        <v>14929</v>
       </c>
       <c r="F58" s="1" t="n">
         <f aca="false">E58/D58</f>
-        <v>0.426225971170542</v>
+        <v>0.430863805593235</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H58" s="2" t="n">
         <f aca="false">(G58-E58)/F58</f>
-        <v>3554.45257321924</v>
+        <v>65150.5177171947</v>
       </c>
       <c r="I58" s="2" t="n">
         <f aca="false">E58*M58/G58</f>
-        <v>14471.511627907</v>
+        <v>4975.87041860465</v>
       </c>
       <c r="J58" s="2" t="n">
         <f aca="false">I58-M58</f>
-        <v>-528.488372093023</v>
+        <v>-9356.12958139535</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>15000</v>
+        <v>14332</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>97331</v>
+        <v>34649</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>2698</v>
+        <v>2139</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>1459966283</v>
+        <v>496591233</v>
       </c>
     </row>
     <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.181</v>
+        <v>0.159</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>52395</v>
+        <v>54384</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>20466</v>
+        <v>23263</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">E59/D59</f>
-        <v>0.390609791010593</v>
+        <v>0.42775448661371</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H59" s="2" t="n">
         <f aca="false">(G59-E59)/F59</f>
-        <v>57689.2861330988</v>
+        <v>46140.9537892791</v>
       </c>
       <c r="I59" s="2" t="n">
         <f aca="false">E59*M59/G59</f>
-        <v>6427.75186046512</v>
+        <v>9660.096</v>
       </c>
       <c r="J59" s="2" t="n">
         <f aca="false">I59-M59</f>
-        <v>-7077.24813953488</v>
+        <v>-8195.904</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>13505</v>
+        <v>17856</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>52395</v>
+        <v>54384</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>2519</v>
+        <v>2072</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>707598641</v>
-      </c>
-      <c r="Q59" s="4"/>
+        <v>971077397</v>
+      </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
       <c r="AMI59" s="0"/>
@@ -15256,279 +15299,280 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.996</v>
+        <v>0.116</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>9554</v>
+        <v>74181</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>3711</v>
+        <v>31925</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">E60/D60</f>
-        <v>0.388423696880888</v>
+        <v>0.430366266294604</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H60" s="2" t="n">
         <f aca="false">(G60-E60)/F60</f>
-        <v>101149.853408785</v>
+        <v>25733.8942834769</v>
       </c>
       <c r="I60" s="2" t="n">
         <f aca="false">E60*M60/G60</f>
-        <v>925.074627906977</v>
+        <v>14689.2122093023</v>
       </c>
       <c r="J60" s="2" t="n">
         <f aca="false">I60-M60</f>
-        <v>-9793.92537209302</v>
+        <v>-5095.78779069767</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>10719</v>
+        <v>19785</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>9554</v>
+        <v>74181</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>1199</v>
+        <v>2016</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>102412602</v>
-      </c>
+        <v>1467668630</v>
+      </c>
+      <c r="Q60" s="3"/>
     </row>
     <row r="61" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>49699</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>19530</v>
-      </c>
-      <c r="F61" s="1" t="n">
+      <c r="A61" s="19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F61" s="10" t="n">
         <f aca="false">E61/D61</f>
-        <v>0.392965653232459</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H61" s="2" t="n">
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H61" s="8" t="n">
         <f aca="false">(G61-E61)/F61</f>
-        <v>59725.3215565796</v>
-      </c>
-      <c r="I61" s="2" t="n">
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I61" s="8" t="n">
         <f aca="false">E61*M61/G61</f>
-        <v>6154.22093023256</v>
-      </c>
-      <c r="J61" s="2" t="n">
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J61" s="8" t="n">
         <f aca="false">I61-M61</f>
-        <v>-7395.77906976744</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>243</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>13550</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>49699</v>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>2478</v>
-      </c>
-      <c r="P61" s="2" t="n">
-        <v>673418437</v>
-      </c>
-      <c r="Q61" s="0"/>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K61" s="19" t="n">
+        <v>287</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M61" s="8" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N61" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O61" s="8" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P61" s="8" t="n">
+        <v>1459966283</v>
+      </c>
+      <c r="Q61" s="19"/>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="n">
-        <v>77</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="5" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="D62" s="20" t="n">
-        <v>103744</v>
-      </c>
-      <c r="E62" s="20" t="n">
-        <v>40752</v>
-      </c>
-      <c r="F62" s="5" t="n">
+      <c r="A62" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>100882</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>42891</v>
+      </c>
+      <c r="F62" s="1" t="n">
         <f aca="false">E62/D62</f>
-        <v>0.3928130783467</v>
-      </c>
-      <c r="G62" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H62" s="6" t="n">
+        <v>0.425160088023632</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H62" s="2" t="n">
         <f aca="false">(G62-E62)/F62</f>
-        <v>5722.82371417354</v>
-      </c>
-      <c r="I62" s="6" t="n">
+        <v>256.374017859225</v>
+      </c>
+      <c r="I62" s="2" t="n">
         <f aca="false">E62*M62/G62</f>
-        <v>13551.4615813954</v>
-      </c>
-      <c r="J62" s="6" t="n">
+        <v>14435.3151627907</v>
+      </c>
+      <c r="J62" s="2" t="n">
         <f aca="false">I62-M62</f>
-        <v>-747.53841860465</v>
-      </c>
-      <c r="K62" s="20" t="n">
-        <v>263</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M62" s="6" t="n">
-        <v>14299</v>
-      </c>
-      <c r="N62" s="6" t="n">
-        <v>103744</v>
-      </c>
-      <c r="O62" s="6" t="n">
-        <v>2818</v>
-      </c>
-      <c r="P62" s="6" t="n">
-        <v>1483429680</v>
-      </c>
-      <c r="Q62" s="20"/>
+        <v>-36.6848372093027</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>14472</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>100882</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>2778</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v>1459966283</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="13" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="D63" s="14" t="n">
-        <v>88054</v>
-      </c>
-      <c r="E63" s="14" t="n">
-        <v>26033</v>
-      </c>
-      <c r="F63" s="13" t="n">
+      <c r="A63" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>41485</v>
+      </c>
+      <c r="F63" s="1" t="n">
         <f aca="false">E63/D63</f>
-        <v>0.295648125014196</v>
-      </c>
-      <c r="G63" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H63" s="14" t="n">
+        <v>0.426225971170542</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H63" s="2" t="n">
         <f aca="false">(G63-E63)/F63</f>
-        <v>57389.1682864057</v>
-      </c>
-      <c r="I63" s="14" t="n">
+        <v>3554.45257321924</v>
+      </c>
+      <c r="I63" s="2" t="n">
         <f aca="false">E63*M63/G63</f>
-        <v>4777.96362790698</v>
-      </c>
-      <c r="J63" s="14" t="n">
+        <v>14471.511627907</v>
+      </c>
+      <c r="J63" s="2" t="n">
         <f aca="false">I63-M63</f>
-        <v>-3114.03637209302</v>
-      </c>
-      <c r="K63" s="12" t="n">
-        <v>109</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="M63" s="14" t="n">
-        <v>7892</v>
-      </c>
-      <c r="N63" s="14" t="n">
-        <v>88054</v>
-      </c>
-      <c r="O63" s="14" t="n">
-        <v>1951</v>
-      </c>
-      <c r="P63" s="14" t="n">
-        <v>694920731</v>
+        <v>-528.488372093023</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>2698</v>
+      </c>
+      <c r="P63" s="2" t="n">
+        <v>1459966283</v>
       </c>
     </row>
     <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>51</v>
+      <c r="A64" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0.119</v>
+        <v>0.181</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>106911</v>
+        <v>52395</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>31164</v>
+        <v>20466</v>
       </c>
       <c r="F64" s="1" t="n">
         <f aca="false">E64/D64</f>
-        <v>0.291494794735808</v>
+        <v>0.390609791010593</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H64" s="2" t="n">
         <f aca="false">(G64-E64)/F64</f>
-        <v>40604.4986522911</v>
+        <v>57689.2861330988</v>
       </c>
       <c r="I64" s="2" t="n">
         <f aca="false">E64*M64/G64</f>
-        <v>4710.83720930233</v>
+        <v>6427.75186046512</v>
       </c>
       <c r="J64" s="2" t="n">
         <f aca="false">I64-M64</f>
-        <v>-1789.16279069767</v>
-      </c>
-      <c r="K64" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>158</v>
+        <v>-7077.24813953488</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>152</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>6500</v>
+        <v>13505</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>106911</v>
+        <v>52395</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>2270</v>
+        <v>2519</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>694920731</v>
-      </c>
+        <v>707598641</v>
+      </c>
+      <c r="Q64" s="4"/>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
@@ -15536,1265 +15580,1262 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.229</v>
+        <v>0.996</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>35520</v>
+        <v>9554</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>16141</v>
+        <v>3711</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">E65/D65</f>
-        <v>0.454420045045045</v>
+        <v>0.388423696880888</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H65" s="2" t="n">
         <f aca="false">(G65-E65)/F65</f>
-        <v>59106.1074282882</v>
+        <v>101149.853408785</v>
       </c>
       <c r="I65" s="2" t="n">
         <f aca="false">E65*M65/G65</f>
-        <v>7186.87409302326</v>
+        <v>925.074627906977</v>
       </c>
       <c r="J65" s="2" t="n">
         <f aca="false">I65-M65</f>
-        <v>-11959.1259069767</v>
+        <v>-9793.92537209302</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>19146</v>
+        <v>10719</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>35520</v>
+        <v>9554</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>1996</v>
+        <v>1199</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>680068076</v>
-      </c>
-      <c r="Q65" s="12"/>
+        <v>102412602</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.668</v>
+        <v>0.189</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>12263</v>
+        <v>49699</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>5532</v>
+        <v>19530</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">E66/D66</f>
-        <v>0.451113104460572</v>
+        <v>0.392965653232459</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H66" s="2" t="n">
         <f aca="false">(G66-E66)/F66</f>
-        <v>83056.7758496023</v>
+        <v>59725.3215565796</v>
       </c>
       <c r="I66" s="2" t="n">
         <f aca="false">E66*M66/G66</f>
-        <v>2115.28241860465</v>
+        <v>6154.22093023256</v>
       </c>
       <c r="J66" s="2" t="n">
         <f aca="false">I66-M66</f>
-        <v>-14326.7175813954</v>
+        <v>-7395.77906976744</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>16442</v>
+        <v>13550</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>12263</v>
+        <v>49699</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>1188</v>
+        <v>2478</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>201632668</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>60517</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>27600</v>
-      </c>
-      <c r="F67" s="1" t="n">
+        <v>673418437</v>
+      </c>
+    </row>
+    <row r="67" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="22" t="n">
+        <v>77</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="23" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="D67" s="24" t="n">
+        <v>103744</v>
+      </c>
+      <c r="E67" s="24" t="n">
+        <v>40752</v>
+      </c>
+      <c r="F67" s="23" t="n">
         <f aca="false">E67/D67</f>
-        <v>0.456070195151776</v>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H67" s="2" t="n">
+        <v>0.3928130783467</v>
+      </c>
+      <c r="G67" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H67" s="24" t="n">
         <f aca="false">(G67-E67)/F67</f>
-        <v>33766.731884058</v>
-      </c>
-      <c r="I67" s="2" t="n">
+        <v>5722.82371417354</v>
+      </c>
+      <c r="I67" s="24" t="n">
         <f aca="false">E67*M67/G67</f>
-        <v>13739.023255814</v>
-      </c>
-      <c r="J67" s="2" t="n">
+        <v>13551.4615813954</v>
+      </c>
+      <c r="J67" s="24" t="n">
         <f aca="false">I67-M67</f>
-        <v>-7665.97674418605</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>21405</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>60517</v>
-      </c>
-      <c r="O67" s="2" t="n">
-        <v>2286</v>
-      </c>
-      <c r="P67" s="2" t="n">
-        <v>1295363390</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
-        <v>57</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="5" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D68" s="6" t="n">
-        <v>95364</v>
-      </c>
-      <c r="E68" s="6" t="n">
-        <v>43663</v>
-      </c>
-      <c r="F68" s="5" t="n">
+        <v>-747.53841860465</v>
+      </c>
+      <c r="K67" s="22" t="n">
+        <v>263</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M67" s="24" t="n">
+        <v>14299</v>
+      </c>
+      <c r="N67" s="24" t="n">
+        <v>103744</v>
+      </c>
+      <c r="O67" s="24" t="n">
+        <v>2818</v>
+      </c>
+      <c r="P67" s="24" t="n">
+        <v>1483429680</v>
+      </c>
+    </row>
+    <row r="68" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="19" t="n">
+        <v>92</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <v>109470</v>
+      </c>
+      <c r="E68" s="8" t="n">
+        <v>43013</v>
+      </c>
+      <c r="F68" s="10" t="n">
         <f aca="false">E68/D68</f>
-        <v>0.45785621408498</v>
-      </c>
-      <c r="G68" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H68" s="6" t="n">
+        <v>0.392920434822326</v>
+      </c>
+      <c r="G68" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="8" t="n">
         <f aca="false">(G68-E68)/F68</f>
-        <v>-1448.05285940041</v>
-      </c>
-      <c r="I68" s="6" t="n">
+        <v>-33.0855787785088</v>
+      </c>
+      <c r="I68" s="8" t="n">
         <f aca="false">E68*M68/G68</f>
-        <v>23180.9913255814</v>
-      </c>
-      <c r="J68" s="6" t="n">
+        <v>13555.0968139535</v>
+      </c>
+      <c r="J68" s="8" t="n">
         <f aca="false">I68-M68</f>
-        <v>351.991325581395</v>
-      </c>
-      <c r="K68" s="4" t="n">
-        <v>257</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M68" s="6" t="n">
-        <v>22829</v>
-      </c>
-      <c r="N68" s="6" t="n">
-        <v>95364</v>
-      </c>
-      <c r="O68" s="6" t="n">
-        <v>2501</v>
-      </c>
-      <c r="P68" s="6" t="n">
-        <v>2177064134</v>
+        <v>4.09681395348889</v>
+      </c>
+      <c r="K68" s="19" t="n">
+        <v>296</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M68" s="8" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N68" s="8" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O68" s="8" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P68" s="8" t="n">
+        <v>1483429680</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>38035</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>18024</v>
-      </c>
-      <c r="F69" s="1" t="n">
+      <c r="A69" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="13" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="D69" s="14" t="n">
+        <v>88054</v>
+      </c>
+      <c r="E69" s="14" t="n">
+        <v>26033</v>
+      </c>
+      <c r="F69" s="13" t="n">
         <f aca="false">E69/D69</f>
-        <v>0.473879321677402</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H69" s="2" t="n">
+        <v>0.295648125014196</v>
+      </c>
+      <c r="G69" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H69" s="14" t="n">
         <f aca="false">(G69-E69)/F69</f>
-        <v>52705.40168664</v>
-      </c>
-      <c r="I69" s="2" t="n">
+        <v>57389.1682864057</v>
+      </c>
+      <c r="I69" s="14" t="n">
         <f aca="false">E69*M69/G69</f>
-        <v>9716.61265116279</v>
+        <v>4777.96362790698</v>
       </c>
       <c r="J69" s="14" t="n">
         <f aca="false">I69-M69</f>
-        <v>-13464.3873488372</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>288</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>23181</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>38035</v>
-      </c>
-      <c r="O69" s="2" t="n">
-        <v>1958</v>
-      </c>
-      <c r="P69" s="2" t="n">
-        <v>881700744</v>
-      </c>
-      <c r="Q69" s="12" t="s">
-        <v>165</v>
+        <v>-3114.03637209302</v>
+      </c>
+      <c r="K69" s="12" t="n">
+        <v>109</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M69" s="14" t="n">
+        <v>7892</v>
+      </c>
+      <c r="N69" s="14" t="n">
+        <v>88054</v>
+      </c>
+      <c r="O69" s="14" t="n">
+        <v>1951</v>
+      </c>
+      <c r="P69" s="14" t="n">
+        <v>694920731</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>55</v>
+      <c r="A70" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0.225</v>
+        <v>0.119</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>35774</v>
+        <v>106911</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>16433</v>
+        <v>31164</v>
       </c>
       <c r="F70" s="1" t="n">
         <f aca="false">E70/D70</f>
-        <v>0.459355956840163</v>
+        <v>0.291494794735808</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H70" s="2" t="n">
         <f aca="false">(G70-E70)/F70</f>
-        <v>57835.3227043145</v>
+        <v>40604.4986522911</v>
       </c>
       <c r="I70" s="2" t="n">
         <f aca="false">E70*M70/G70</f>
-        <v>7111.28520930233</v>
+        <v>4710.83720930233</v>
       </c>
       <c r="J70" s="2" t="n">
         <f aca="false">I70-M70</f>
-        <v>-11496.7147906977</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>166</v>
+        <v>-1789.16279069767</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>18608</v>
+        <v>6500</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>35774</v>
+        <v>106911</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>2151</v>
+        <v>2270</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>665689450</v>
-      </c>
+        <v>694920731</v>
+      </c>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.407</v>
+        <v>0.229</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>19800</v>
+        <v>35520</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>9090</v>
+        <v>16141</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">E71/D71</f>
-        <v>0.459090909090909</v>
+        <v>0.454420045045045</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H71" s="2" t="n">
         <f aca="false">(G71-E71)/F71</f>
-        <v>73863.3663366337</v>
+        <v>59106.1074282882</v>
       </c>
       <c r="I71" s="2" t="n">
         <f aca="false">E71*M71/G71</f>
-        <v>3739.37232558139</v>
+        <v>7186.87409302326</v>
       </c>
       <c r="J71" s="2" t="n">
         <f aca="false">I71-M71</f>
-        <v>-13949.6276744186</v>
+        <v>-11959.1259069767</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>17689</v>
+        <v>19146</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>19800</v>
+        <v>35520</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>1713</v>
+        <v>1996</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>350238945</v>
-      </c>
+        <v>680068076</v>
+      </c>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="n">
-        <v>62</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="13" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D72" s="14" t="n">
-        <v>52281</v>
-      </c>
-      <c r="E72" s="14" t="n">
-        <v>24035</v>
-      </c>
-      <c r="F72" s="13" t="n">
+      <c r="A72" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>12263</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>5532</v>
+      </c>
+      <c r="F72" s="1" t="n">
         <f aca="false">E72/D72</f>
-        <v>0.459727243166734</v>
-      </c>
-      <c r="G72" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H72" s="14" t="n">
+        <v>0.451113104460572</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H72" s="2" t="n">
         <f aca="false">(G72-E72)/F72</f>
-        <v>41252.7216559185</v>
-      </c>
-      <c r="I72" s="14" t="n">
+        <v>83056.7758496023</v>
+      </c>
+      <c r="I72" s="2" t="n">
         <f aca="false">E72*M72/G72</f>
-        <v>10861.5841860465</v>
-      </c>
-      <c r="J72" s="14" t="n">
+        <v>2115.28241860465</v>
+      </c>
+      <c r="J72" s="2" t="n">
         <f aca="false">I72-M72</f>
-        <v>-8570.41581395349</v>
-      </c>
-      <c r="K72" s="12" t="n">
-        <v>159</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="M72" s="14" t="n">
-        <v>19432</v>
-      </c>
-      <c r="N72" s="14" t="n">
-        <v>52281</v>
-      </c>
-      <c r="O72" s="14" t="n">
-        <v>2400</v>
-      </c>
-      <c r="P72" s="14" t="n">
-        <v>1015928395</v>
+        <v>-14326.7175813954</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="M72" s="2" t="n">
+        <v>16442</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>12263</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="P72" s="2" t="n">
+        <v>201632668</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0.104</v>
+        <v>0.134</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>84661</v>
+        <v>60517</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>35506</v>
+        <v>27600</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">E73/D73</f>
-        <v>0.419390274152207</v>
+        <v>0.456070195151776</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H73" s="2" t="n">
         <f aca="false">(G73-E73)/F73</f>
-        <v>17868.7977806568</v>
+        <v>33766.731884058</v>
       </c>
       <c r="I73" s="2" t="n">
         <f aca="false">E73*M73/G73</f>
-        <v>9908.6511627907</v>
+        <v>13739.023255814</v>
       </c>
       <c r="J73" s="2" t="n">
         <f aca="false">I73-M73</f>
-        <v>-2091.3488372093</v>
+        <v>-7665.97674418605</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>12000</v>
+        <v>21405</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>84661</v>
+        <v>60517</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>3305</v>
+        <v>2286</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>1015928395</v>
-      </c>
-      <c r="Q73" s="12"/>
+        <v>1295363390</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>66569</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>26431</v>
-      </c>
-      <c r="F74" s="1" t="n">
+      <c r="A74" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>95364</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>43663</v>
+      </c>
+      <c r="F74" s="5" t="n">
         <f aca="false">E74/D74</f>
-        <v>0.397046673376497</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H74" s="2" t="n">
+        <v>0.45785621408498</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="6" t="n">
         <f aca="false">(G74-E74)/F74</f>
-        <v>41730.61030608</v>
-      </c>
-      <c r="I74" s="2" t="n">
+        <v>-1448.05285940041</v>
+      </c>
+      <c r="I74" s="6" t="n">
         <f aca="false">E74*M74/G74</f>
-        <v>6146.74418604651</v>
-      </c>
-      <c r="J74" s="2" t="n">
+        <v>23180.9913255814</v>
+      </c>
+      <c r="J74" s="6" t="n">
         <f aca="false">I74-M74</f>
-        <v>-3853.25581395349</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>66569</v>
-      </c>
-      <c r="O74" s="2" t="n">
-        <v>3218</v>
-      </c>
-      <c r="P74" s="2" t="n">
-        <v>665689450</v>
-      </c>
-      <c r="Q74" s="12"/>
+        <v>351.991325581395</v>
+      </c>
+      <c r="K74" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M74" s="6" t="n">
+        <v>22829</v>
+      </c>
+      <c r="N74" s="6" t="n">
+        <v>95364</v>
+      </c>
+      <c r="O74" s="6" t="n">
+        <v>2501</v>
+      </c>
+      <c r="P74" s="6" t="n">
+        <v>2177064134</v>
+      </c>
     </row>
     <row r="75" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="n">
-        <v>63</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="13" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="D75" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="E75" s="14" t="n">
-        <v>16906</v>
-      </c>
-      <c r="F75" s="13" t="n">
+      <c r="A75" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>38035</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>18024</v>
+      </c>
+      <c r="F75" s="1" t="n">
         <f aca="false">E75/D75</f>
-        <v>0.428065022535069</v>
-      </c>
-      <c r="G75" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H75" s="14" t="n">
+        <v>0.473879321677402</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H75" s="2" t="n">
         <f aca="false">(G75-E75)/F75</f>
-        <v>60958.0288654915</v>
-      </c>
-      <c r="I75" s="14" t="n">
+        <v>52705.40168664</v>
+      </c>
+      <c r="I75" s="2" t="n">
         <f aca="false">E75*M75/G75</f>
-        <v>5073.76581395349</v>
+        <v>9716.61265116279</v>
       </c>
       <c r="J75" s="14" t="n">
         <f aca="false">I75-M75</f>
-        <v>-7831.23418604651</v>
-      </c>
-      <c r="K75" s="12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="M75" s="14" t="n">
-        <v>12905</v>
-      </c>
-      <c r="N75" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="O75" s="14" t="n">
-        <v>2190</v>
-      </c>
-      <c r="P75" s="14" t="n">
-        <v>509668347</v>
-      </c>
-      <c r="Q75" s="12"/>
+        <v>-13464.3873488372</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>23181</v>
+      </c>
+      <c r="N75" s="2" t="n">
+        <v>38035</v>
+      </c>
+      <c r="O75" s="2" t="n">
+        <v>1958</v>
+      </c>
+      <c r="P75" s="2" t="n">
+        <v>881700744</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="76" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0.144</v>
+        <v>0.225</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>56061</v>
+        <v>35774</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>25577</v>
+        <v>16433</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="false">E76/D76</f>
-        <v>0.456235172401491</v>
+        <v>0.459355956840163</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H76" s="2" t="n">
         <f aca="false">(G76-E76)/F76</f>
-        <v>38188.6383469523</v>
+        <v>57835.3227043145</v>
       </c>
       <c r="I76" s="2" t="n">
         <f aca="false">E76*M76/G76</f>
-        <v>8687.85260465116</v>
+        <v>7111.28520930233</v>
       </c>
       <c r="J76" s="2" t="n">
         <f aca="false">I76-M76</f>
-        <v>-5918.14739534884</v>
+        <v>-11496.7147906977</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>14606</v>
+        <v>18608</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>56061</v>
+        <v>35774</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>2538</v>
+        <v>2151</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>818820178</v>
+        <v>665689450</v>
       </c>
       <c r="Q76" s="0"/>
     </row>
     <row r="77" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>0.873</v>
+        <v>0.407</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>9341</v>
+        <v>19800</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>4234</v>
+        <v>9090</v>
       </c>
       <c r="F77" s="1" t="n">
         <f aca="false">E77/D77</f>
-        <v>0.453270527780752</v>
+        <v>0.459090909090909</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H77" s="2" t="n">
         <f aca="false">(G77-E77)/F77</f>
-        <v>85525.084081247</v>
+        <v>73863.3663366337</v>
       </c>
       <c r="I77" s="2" t="n">
         <f aca="false">E77*M77/G77</f>
-        <v>1147.51246511628</v>
+        <v>3739.37232558139</v>
       </c>
       <c r="J77" s="2" t="n">
         <f aca="false">I77-M77</f>
-        <v>-10506.4875348837</v>
+        <v>-13949.6276744186</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>11654</v>
+        <v>17689</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>9341</v>
+        <v>19800</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>1271</v>
+        <v>1713</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>108865707</v>
+        <v>350238945</v>
       </c>
       <c r="Q77" s="0"/>
     </row>
     <row r="78" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>50234</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>22928</v>
-      </c>
-      <c r="F78" s="1" t="n">
+      <c r="A78" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="13" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D78" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="E78" s="14" t="n">
+        <v>24035</v>
+      </c>
+      <c r="F78" s="13" t="n">
         <f aca="false">E78/D78</f>
-        <v>0.456423935979615</v>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H78" s="2" t="n">
+        <v>0.459727243166734</v>
+      </c>
+      <c r="G78" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H78" s="14" t="n">
         <f aca="false">(G78-E78)/F78</f>
-        <v>43976.6594556874</v>
-      </c>
-      <c r="I78" s="2" t="n">
+        <v>41252.7216559185</v>
+      </c>
+      <c r="I78" s="14" t="n">
         <f aca="false">E78*M78/G78</f>
-        <v>7627.02586046512</v>
-      </c>
-      <c r="J78" s="2" t="n">
+        <v>10861.5841860465</v>
+      </c>
+      <c r="J78" s="14" t="n">
         <f aca="false">I78-M78</f>
-        <v>-6676.97413953488</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>241</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="M78" s="2" t="n">
-        <v>14304</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>50234</v>
-      </c>
-      <c r="O78" s="2" t="n">
-        <v>2496</v>
-      </c>
-      <c r="P78" s="2" t="n">
-        <v>718546548</v>
+        <v>-8570.41581395349</v>
+      </c>
+      <c r="K78" s="12" t="n">
+        <v>159</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M78" s="14" t="n">
+        <v>19432</v>
+      </c>
+      <c r="N78" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="O78" s="14" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P78" s="14" t="n">
+        <v>1015928395</v>
       </c>
       <c r="Q78" s="0"/>
     </row>
     <row r="79" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20" t="n">
-        <v>75</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D79" s="20" t="n">
-        <v>103465</v>
-      </c>
-      <c r="E79" s="20" t="n">
-        <v>47379</v>
-      </c>
-      <c r="F79" s="5" t="n">
+      <c r="A79" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>35506</v>
+      </c>
+      <c r="F79" s="1" t="n">
         <f aca="false">E79/D79</f>
-        <v>0.457922969119992</v>
-      </c>
-      <c r="G79" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H79" s="6" t="n">
+        <v>0.419390274152207</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H79" s="2" t="n">
         <f aca="false">(G79-E79)/F79</f>
-        <v>-9562.74372612339</v>
-      </c>
-      <c r="I79" s="6" t="n">
+        <v>17868.7977806568</v>
+      </c>
+      <c r="I79" s="2" t="n">
         <f aca="false">E79*M79/G79</f>
-        <v>17531.3318372093</v>
-      </c>
-      <c r="J79" s="6" t="n">
+        <v>9908.6511627907</v>
+      </c>
+      <c r="J79" s="2" t="n">
         <f aca="false">I79-M79</f>
-        <v>1620.3318372093</v>
-      </c>
-      <c r="K79" s="20" t="n">
-        <v>261</v>
-      </c>
-      <c r="L79" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="M79" s="6" t="n">
-        <v>15911</v>
-      </c>
-      <c r="N79" s="6" t="n">
-        <v>103465</v>
-      </c>
-      <c r="O79" s="6" t="n">
-        <v>2730</v>
-      </c>
-      <c r="P79" s="6" t="n">
-        <v>1646232433</v>
-      </c>
-      <c r="Q79" s="20"/>
+        <v>-2091.3488372093</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>3305</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>1015928395</v>
+      </c>
+      <c r="Q79" s="12"/>
       <c r="AMG79" s="0"/>
       <c r="AMH79" s="0"/>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
     <row r="80" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="n">
-        <v>67</v>
-      </c>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>66569</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>26431</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <f aca="false">E80/D80</f>
+        <v>0.397046673376497</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <f aca="false">(G80-E80)/F80</f>
+        <v>41730.61030608</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <f aca="false">E80*M80/G80</f>
+        <v>6146.74418604651</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <f aca="false">I80-M80</f>
+        <v>-3853.25581395349</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>66569</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>3218</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>665689450</v>
+      </c>
+      <c r="Q80" s="12"/>
+    </row>
+    <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="C80" s="13" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="D80" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="E80" s="14" t="n">
-        <v>10616</v>
-      </c>
-      <c r="F80" s="13" t="n">
-        <f aca="false">E80/D80</f>
-        <v>0.35149990066883</v>
-      </c>
-      <c r="G80" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H80" s="14" t="n">
-        <f aca="false">(G80-E80)/F80</f>
-        <v>92130.8937452901</v>
-      </c>
-      <c r="I80" s="14" t="n">
-        <f aca="false">E80*M80/G80</f>
-        <v>4480.44576744186</v>
-      </c>
-      <c r="J80" s="14" t="n">
-        <f aca="false">I80-M80</f>
-        <v>-13667.5542325581</v>
-      </c>
-      <c r="K80" s="12" t="n">
-        <v>179</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M80" s="14" t="n">
-        <v>18148</v>
-      </c>
-      <c r="N80" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="O80" s="14" t="n">
-        <v>2189</v>
-      </c>
-      <c r="P80" s="14" t="n">
-        <v>548108581</v>
-      </c>
-      <c r="Q80" s="0"/>
-    </row>
-    <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>68439</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>34918</v>
-      </c>
-      <c r="F81" s="1" t="n">
+      <c r="B81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="13" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D81" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="E81" s="14" t="n">
+        <v>16906</v>
+      </c>
+      <c r="F81" s="13" t="n">
         <f aca="false">E81/D81</f>
-        <v>0.510206168997209</v>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H81" s="2" t="n">
+        <v>0.428065022535069</v>
+      </c>
+      <c r="G81" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H81" s="14" t="n">
         <f aca="false">(G81-E81)/F81</f>
-        <v>15840.6551921645</v>
-      </c>
-      <c r="I81" s="2" t="n">
+        <v>60958.0288654915</v>
+      </c>
+      <c r="I81" s="14" t="n">
         <f aca="false">E81*M81/G81</f>
-        <v>9006.40786046512</v>
-      </c>
-      <c r="J81" s="2" t="n">
+        <v>5073.76581395349</v>
+      </c>
+      <c r="J81" s="14" t="n">
         <f aca="false">I81-M81</f>
-        <v>-2084.59213953488</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="L81" s="0" t="s">
+        <v>-7831.23418604651</v>
+      </c>
+      <c r="K81" s="12" t="n">
         <v>178</v>
       </c>
-      <c r="M81" s="2" t="n">
-        <v>11091</v>
-      </c>
-      <c r="N81" s="2" t="n">
-        <v>68439</v>
-      </c>
-      <c r="O81" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="P81" s="2" t="n">
-        <v>759054298</v>
-      </c>
-      <c r="Q81" s="0"/>
+      <c r="L81" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M81" s="14" t="n">
+        <v>12905</v>
+      </c>
+      <c r="N81" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="O81" s="14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="P81" s="14" t="n">
+        <v>509668347</v>
+      </c>
+      <c r="Q81" s="12"/>
     </row>
     <row r="82" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.966</v>
+        <v>0.144</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>7662</v>
+        <v>56061</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>3824</v>
+        <v>25577</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">E82/D82</f>
-        <v>0.499086400417646</v>
+        <v>0.456235172401491</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H82" s="2" t="n">
         <f aca="false">(G82-E82)/F82</f>
-        <v>78495.4267782427</v>
+        <v>38188.6383469523</v>
       </c>
       <c r="I82" s="2" t="n">
         <f aca="false">E82*M82/G82</f>
-        <v>731.451162790698</v>
+        <v>8687.85260465116</v>
       </c>
       <c r="J82" s="2" t="n">
         <f aca="false">I82-M82</f>
-        <v>-7493.5488372093</v>
+        <v>-5918.14739534884</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>8225</v>
+        <v>14606</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>7662</v>
+        <v>56061</v>
       </c>
       <c r="O82" s="2" t="n">
-        <v>1166</v>
+        <v>2538</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>63023534</v>
+        <v>818820178</v>
       </c>
       <c r="Q82" s="0"/>
     </row>
     <row r="83" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>0.183</v>
+        <v>0.873</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>39754</v>
+        <v>9341</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>20241</v>
+        <v>4234</v>
       </c>
       <c r="F83" s="1" t="n">
         <f aca="false">E83/D83</f>
-        <v>0.509156311314585</v>
+        <v>0.453270527780752</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H83" s="2" t="n">
         <f aca="false">(G83-E83)/F83</f>
-        <v>44699.4360950546</v>
+        <v>85525.084081247</v>
       </c>
       <c r="I83" s="2" t="n">
         <f aca="false">E83*M83/G83</f>
-        <v>4921.3873255814</v>
+        <v>1147.51246511628</v>
       </c>
       <c r="J83" s="2" t="n">
         <f aca="false">I83-M83</f>
-        <v>-5533.61267441861</v>
+        <v>-10506.4875348837</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>10455</v>
+        <v>11654</v>
       </c>
       <c r="N83" s="2" t="n">
-        <v>39754</v>
+        <v>9341</v>
       </c>
       <c r="O83" s="2" t="n">
-        <v>2244</v>
+        <v>1271</v>
       </c>
       <c r="P83" s="2" t="n">
-        <v>415628392</v>
+        <v>108865707</v>
       </c>
       <c r="Q83" s="0"/>
     </row>
     <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20" t="n">
-        <v>76</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="5" t="n">
-        <v>0.331</v>
-      </c>
-      <c r="D84" s="20" t="n">
-        <v>106350</v>
-      </c>
-      <c r="E84" s="20" t="n">
-        <v>54474</v>
-      </c>
-      <c r="F84" s="5" t="n">
+      <c r="A84" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>22928</v>
+      </c>
+      <c r="F84" s="1" t="n">
         <f aca="false">E84/D84</f>
-        <v>0.512214386459803</v>
-      </c>
-      <c r="G84" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H84" s="6" t="n">
+        <v>0.456423935979615</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H84" s="2" t="n">
         <f aca="false">(G84-E84)/F84</f>
-        <v>-22400.7765172376</v>
-      </c>
-      <c r="I84" s="6" t="n">
+        <v>43976.6594556874</v>
+      </c>
+      <c r="I84" s="2" t="n">
         <f aca="false">E84*M84/G84</f>
-        <v>14743.4514418605</v>
-      </c>
-      <c r="J84" s="6" t="n">
+        <v>7627.02586046512</v>
+      </c>
+      <c r="J84" s="2" t="n">
         <f aca="false">I84-M84</f>
-        <v>3105.45144186046</v>
-      </c>
-      <c r="K84" s="20" t="n">
-        <v>262</v>
-      </c>
-      <c r="L84" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="M84" s="6" t="n">
-        <v>11638</v>
-      </c>
-      <c r="N84" s="6" t="n">
-        <v>106350</v>
-      </c>
-      <c r="O84" s="6" t="n">
-        <v>2601</v>
-      </c>
-      <c r="P84" s="6" t="n">
-        <v>1237706224</v>
-      </c>
-    </row>
-    <row r="85" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="n">
-        <v>71</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="13" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="D85" s="14" t="n">
-        <v>62740</v>
-      </c>
-      <c r="E85" s="14" t="n">
-        <v>21660</v>
-      </c>
-      <c r="F85" s="13" t="n">
+        <v>-6676.97413953488</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>14304</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>2496</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>718546548</v>
+      </c>
+      <c r="Q84" s="0"/>
+    </row>
+    <row r="85" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="22" t="n">
+        <v>75</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="23" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D85" s="24" t="n">
+        <v>103465</v>
+      </c>
+      <c r="E85" s="24" t="n">
+        <v>47379</v>
+      </c>
+      <c r="F85" s="23" t="n">
         <f aca="false">E85/D85</f>
-        <v>0.345234300286898</v>
-      </c>
-      <c r="G85" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H85" s="14" t="n">
+        <v>0.457922969119992</v>
+      </c>
+      <c r="G85" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H85" s="24" t="n">
         <f aca="false">(G85-E85)/F85</f>
-        <v>61813.0932594644</v>
-      </c>
-      <c r="I85" s="14" t="n">
+        <v>-9562.74372612339</v>
+      </c>
+      <c r="I85" s="24" t="n">
         <f aca="false">E85*M85/G85</f>
-        <v>4818.09069767442</v>
-      </c>
-      <c r="J85" s="14" t="n">
+        <v>17531.3318372093</v>
+      </c>
+      <c r="J85" s="24" t="n">
         <f aca="false">I85-M85</f>
-        <v>-4746.90930232558</v>
-      </c>
-      <c r="K85" s="12" t="n">
-        <v>180</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M85" s="14" t="n">
-        <v>9565</v>
-      </c>
-      <c r="N85" s="14" t="n">
-        <v>62740</v>
-      </c>
-      <c r="O85" s="14" t="n">
-        <v>2391</v>
-      </c>
-      <c r="P85" s="14" t="n">
-        <v>600104724</v>
-      </c>
-      <c r="Q85" s="0"/>
-    </row>
-    <row r="86" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="n">
-        <v>72</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="13" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="D86" s="14" t="n">
-        <v>62701</v>
-      </c>
-      <c r="E86" s="14" t="n">
-        <v>28144</v>
-      </c>
-      <c r="F86" s="13" t="n">
+        <v>1620.3318372093</v>
+      </c>
+      <c r="K85" s="22" t="n">
+        <v>261</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M85" s="24" t="n">
+        <v>15911</v>
+      </c>
+      <c r="N85" s="24" t="n">
+        <v>103465</v>
+      </c>
+      <c r="O85" s="24" t="n">
+        <v>2730</v>
+      </c>
+      <c r="P85" s="24" t="n">
+        <v>1646232433</v>
+      </c>
+    </row>
+    <row r="86" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="20" t="n">
+        <v>93</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>93904</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>43404</v>
+      </c>
+      <c r="F86" s="5" t="n">
         <f aca="false">E86/D86</f>
-        <v>0.448860464745379</v>
-      </c>
-      <c r="G86" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H86" s="14" t="n">
+        <v>0.462216731981598</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H86" s="6" t="n">
         <f aca="false">(G86-E86)/F86</f>
-        <v>33097.1452529847</v>
-      </c>
-      <c r="I86" s="14" t="n">
+        <v>-874.048843424569</v>
+      </c>
+      <c r="I86" s="6" t="n">
         <f aca="false">E86*M86/G86</f>
-        <v>6064.70474418605</v>
-      </c>
-      <c r="J86" s="14" t="n">
+        <v>17695.7098604651</v>
+      </c>
+      <c r="J86" s="6" t="n">
         <f aca="false">I86-M86</f>
-        <v>-3201.29525581395</v>
-      </c>
-      <c r="K86" s="12" t="n">
-        <v>176</v>
-      </c>
-      <c r="L86" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="M86" s="14" t="n">
-        <v>9266</v>
-      </c>
-      <c r="N86" s="14" t="n">
-        <v>62701</v>
-      </c>
-      <c r="O86" s="14" t="n">
-        <v>2372</v>
-      </c>
-      <c r="P86" s="14" t="n">
-        <v>580988437</v>
-      </c>
-      <c r="Q86" s="0"/>
+        <v>164.709860465115</v>
+      </c>
+      <c r="K86" s="20" t="n">
+        <v>297</v>
+      </c>
+      <c r="L86" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M86" s="6" t="n">
+        <v>17531</v>
+      </c>
+      <c r="N86" s="6" t="n">
+        <v>93904</v>
+      </c>
+      <c r="O86" s="6" t="n">
+        <v>2524</v>
+      </c>
+      <c r="P86" s="6" t="n">
+        <v>1646232433</v>
+      </c>
     </row>
     <row r="87" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C87" s="13" t="n">
-        <v>0.17</v>
+        <v>0.348</v>
       </c>
       <c r="D87" s="14" t="n">
-        <v>43884</v>
+        <v>30202</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>21783</v>
+        <v>10616</v>
       </c>
       <c r="F87" s="13" t="n">
         <f aca="false">E87/D87</f>
-        <v>0.496376811594203</v>
+        <v>0.35149990066883</v>
       </c>
       <c r="G87" s="14" t="n">
         <v>43000</v>
       </c>
       <c r="H87" s="14" t="n">
         <f aca="false">(G87-E87)/F87</f>
-        <v>42743.7372262774</v>
+        <v>92130.8937452901</v>
       </c>
       <c r="I87" s="14" t="n">
         <f aca="false">E87*M87/G87</f>
-        <v>5969.5551627907</v>
+        <v>4480.44576744186</v>
       </c>
       <c r="J87" s="14" t="n">
         <f aca="false">I87-M87</f>
-        <v>-5814.4448372093</v>
+        <v>-13667.5542325581</v>
       </c>
       <c r="K87" s="12" t="n">
+        <v>179</v>
+      </c>
+      <c r="L87" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="L87" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="M87" s="14" t="n">
-        <v>11784</v>
+        <v>18148</v>
       </c>
       <c r="N87" s="14" t="n">
-        <v>43884</v>
+        <v>30202</v>
       </c>
       <c r="O87" s="14" t="n">
-        <v>2804</v>
+        <v>2189</v>
       </c>
       <c r="P87" s="14" t="n">
-        <v>517123870</v>
+        <v>548108581</v>
       </c>
       <c r="Q87" s="0"/>
       <c r="AMG87" s="0"/>
@@ -16802,230 +16843,456 @@
       <c r="AMI87" s="0"/>
       <c r="AMJ87" s="0"/>
     </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>34918</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <f aca="false">E88/D88</f>
+        <v>0.510206168997209</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <f aca="false">(G88-E88)/F88</f>
+        <v>15840.6551921645</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <f aca="false">E88*M88/G88</f>
+        <v>9006.40786046512</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <f aca="false">I88-M88</f>
+        <v>-2084.59213953488</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>11091</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>759054298</v>
+      </c>
+    </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>3824</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <f aca="false">E89/D89</f>
+        <v>0.499086400417646</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <f aca="false">(G89-E89)/F89</f>
+        <v>78495.4267782427</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <f aca="false">E89*M89/G89</f>
+        <v>731.451162790698</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <f aca="false">I89-M89</f>
+        <v>-7493.5488372093</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>192</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="M89" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="O89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="P89" s="0" t="s">
-        <v>8</v>
+        <v>179</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>8225</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>1166</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>63023534</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>20241</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <f aca="false">E90/D90</f>
+        <v>0.509156311314585</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <f aca="false">(G90-E90)/F90</f>
+        <v>44699.4360950546</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <f aca="false">E90*M90/G90</f>
+        <v>4921.3873255814</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <f aca="false">I90-M90</f>
+        <v>-5533.61267441861</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M90" s="0" t="n">
-        <v>9721</v>
-      </c>
-      <c r="N90" s="0" t="n">
-        <v>80558</v>
-      </c>
-      <c r="O90" s="0" t="n">
-        <v>3928</v>
-      </c>
-      <c r="P90" s="0" t="n">
-        <v>783106269</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="K91" s="0" t="n">
-        <v>292</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="M91" s="0" t="n">
-        <v>9455</v>
-      </c>
-      <c r="N91" s="0" t="n">
-        <v>74231</v>
-      </c>
-      <c r="O91" s="0" t="n">
-        <v>2844</v>
-      </c>
-      <c r="P91" s="0" t="n">
-        <v>701851123</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="K92" s="0" t="n">
-        <v>293</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="M92" s="0" t="n">
-        <v>24013</v>
-      </c>
-      <c r="N92" s="0" t="n">
-        <v>88270</v>
-      </c>
-      <c r="O92" s="0" t="n">
-        <v>2702</v>
-      </c>
-      <c r="P92" s="0" t="n">
-        <v>2119632070</v>
+        <v>180</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>10455</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>415628392</v>
+      </c>
+    </row>
+    <row r="91" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="22" t="n">
+        <v>76</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="23" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="D91" s="24" t="n">
+        <v>106350</v>
+      </c>
+      <c r="E91" s="24" t="n">
+        <v>54474</v>
+      </c>
+      <c r="F91" s="23" t="n">
+        <f aca="false">E91/D91</f>
+        <v>0.512214386459803</v>
+      </c>
+      <c r="G91" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H91" s="24" t="n">
+        <f aca="false">(G91-E91)/F91</f>
+        <v>-22400.7765172376</v>
+      </c>
+      <c r="I91" s="24" t="n">
+        <f aca="false">E91*M91/G91</f>
+        <v>14743.4514418605</v>
+      </c>
+      <c r="J91" s="24" t="n">
+        <f aca="false">I91-M91</f>
+        <v>3105.45144186046</v>
+      </c>
+      <c r="K91" s="22" t="n">
+        <v>262</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M91" s="24" t="n">
+        <v>11638</v>
+      </c>
+      <c r="N91" s="24" t="n">
+        <v>106350</v>
+      </c>
+      <c r="O91" s="24" t="n">
+        <v>2601</v>
+      </c>
+      <c r="P91" s="24" t="n">
+        <v>1237706224</v>
+      </c>
+    </row>
+    <row r="92" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="19" t="n">
+        <v>94</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="10" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>83952</v>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>44586</v>
+      </c>
+      <c r="F92" s="10" t="n">
+        <f aca="false">E92/D92</f>
+        <v>0.531089193825043</v>
+      </c>
+      <c r="G92" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H92" s="8" t="n">
+        <f aca="false">(G92-E92)/F92</f>
+        <v>-2986.31570448123</v>
+      </c>
+      <c r="I92" s="8" t="n">
+        <f aca="false">E92*M92/G92</f>
+        <v>15286.7766976744</v>
+      </c>
+      <c r="J92" s="8" t="n">
+        <f aca="false">I92-M92</f>
+        <v>543.776697674419</v>
+      </c>
+      <c r="K92" s="19" t="n">
+        <v>298</v>
+      </c>
+      <c r="L92" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M92" s="8" t="n">
+        <v>14743</v>
+      </c>
+      <c r="N92" s="8" t="n">
+        <v>83952</v>
+      </c>
+      <c r="O92" s="8" t="n">
+        <v>2126</v>
+      </c>
+      <c r="P92" s="8" t="n">
+        <v>1237706224</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="K93" s="0" t="n">
-        <v>294</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="M93" s="0" t="n">
-        <v>14711</v>
-      </c>
-      <c r="N93" s="0" t="n">
-        <v>107577</v>
-      </c>
-      <c r="O93" s="0" t="n">
-        <v>2973</v>
-      </c>
-      <c r="P93" s="0" t="n">
-        <v>1582564131</v>
+      <c r="A93" s="12" t="n">
+        <v>71</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="13" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="D93" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="E93" s="14" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F93" s="13" t="n">
+        <f aca="false">E93/D93</f>
+        <v>0.345234300286898</v>
+      </c>
+      <c r="G93" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H93" s="14" t="n">
+        <f aca="false">(G93-E93)/F93</f>
+        <v>61813.0932594644</v>
+      </c>
+      <c r="I93" s="14" t="n">
+        <f aca="false">E93*M93/G93</f>
+        <v>4818.09069767442</v>
+      </c>
+      <c r="J93" s="14" t="n">
+        <f aca="false">I93-M93</f>
+        <v>-4746.90930232558</v>
+      </c>
+      <c r="K93" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M93" s="14" t="n">
+        <v>9565</v>
+      </c>
+      <c r="N93" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="O93" s="14" t="n">
+        <v>2391</v>
+      </c>
+      <c r="P93" s="14" t="n">
+        <v>600104724</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="K94" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="M94" s="0" t="n">
-        <v>23571</v>
-      </c>
-      <c r="N94" s="0" t="n">
-        <v>81085</v>
-      </c>
-      <c r="O94" s="0" t="n">
-        <v>2361</v>
-      </c>
-      <c r="P94" s="0" t="n">
-        <v>1911247544</v>
+      <c r="A94" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="13" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D94" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="E94" s="14" t="n">
+        <v>28144</v>
+      </c>
+      <c r="F94" s="13" t="n">
+        <f aca="false">E94/D94</f>
+        <v>0.448860464745379</v>
+      </c>
+      <c r="G94" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H94" s="14" t="n">
+        <f aca="false">(G94-E94)/F94</f>
+        <v>33097.1452529847</v>
+      </c>
+      <c r="I94" s="14" t="n">
+        <f aca="false">E94*M94/G94</f>
+        <v>6064.70474418605</v>
+      </c>
+      <c r="J94" s="14" t="n">
+        <f aca="false">I94-M94</f>
+        <v>-3201.29525581395</v>
+      </c>
+      <c r="K94" s="12" t="n">
+        <v>176</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M94" s="14" t="n">
+        <v>9266</v>
+      </c>
+      <c r="N94" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="O94" s="14" t="n">
+        <v>2372</v>
+      </c>
+      <c r="P94" s="14" t="n">
+        <v>580988437</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="K95" s="0" t="n">
-        <v>296</v>
-      </c>
-      <c r="L95" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="M95" s="0" t="n">
-        <v>13551</v>
-      </c>
-      <c r="N95" s="0" t="n">
-        <v>109470</v>
-      </c>
-      <c r="O95" s="0" t="n">
-        <v>2927</v>
-      </c>
-      <c r="P95" s="0" t="n">
-        <v>1483429680</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="K96" s="0" t="n">
-        <v>297</v>
-      </c>
-      <c r="L96" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="M96" s="0" t="n">
-        <v>17531</v>
-      </c>
-      <c r="N96" s="0" t="n">
-        <v>93904</v>
-      </c>
-      <c r="O96" s="0" t="n">
-        <v>2524</v>
-      </c>
-      <c r="P96" s="0" t="n">
-        <v>1646232433</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="K97" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="L97" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="M97" s="0" t="n">
-        <v>14743</v>
-      </c>
-      <c r="N97" s="0" t="n">
-        <v>83952</v>
-      </c>
-      <c r="O97" s="0" t="n">
-        <v>2126</v>
-      </c>
-      <c r="P97" s="0" t="n">
-        <v>1237706224</v>
+      <c r="A95" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D95" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="E95" s="14" t="n">
+        <v>21783</v>
+      </c>
+      <c r="F95" s="13" t="n">
+        <f aca="false">E95/D95</f>
+        <v>0.496376811594203</v>
+      </c>
+      <c r="G95" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H95" s="14" t="n">
+        <f aca="false">(G95-E95)/F95</f>
+        <v>42743.7372262774</v>
+      </c>
+      <c r="I95" s="14" t="n">
+        <f aca="false">E95*M95/G95</f>
+        <v>5969.5551627907</v>
+      </c>
+      <c r="J95" s="14" t="n">
+        <f aca="false">I95-M95</f>
+        <v>-5814.4448372093</v>
+      </c>
+      <c r="K95" s="12" t="n">
+        <v>177</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M95" s="14" t="n">
+        <v>11784</v>
+      </c>
+      <c r="N95" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="O95" s="14" t="n">
+        <v>2804</v>
+      </c>
+      <c r="P95" s="14" t="n">
+        <v>517123870</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q95"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F3:F87 F1">
+  <conditionalFormatting sqref="F2:G2 F3:F95 F1">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H87">
+  <conditionalFormatting sqref="H1:H95">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J87">
+  <conditionalFormatting sqref="J1:J95">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -17044,5 +17311,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -733,7 +733,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -820,22 +820,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1002,7 +986,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3801,7 +3785,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.76"/>
@@ -7182,7 +7166,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12014,14 +11998,14 @@
   <dimension ref="A1:AMJ95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="C92" activeCellId="0" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12748,64 +12732,64 @@
         <v>783106269</v>
       </c>
     </row>
-    <row r="14" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.412</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="2" t="n">
         <v>82044</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="2" t="n">
         <v>43792</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">E14/D14</f>
         <v>0.533762371410463</v>
       </c>
-      <c r="G14" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H14" s="24" t="n">
+      <c r="G14" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <f aca="false">(G14-E14)/F14</f>
         <v>-1483.80635732554</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">E14*M14/G14</f>
         <v>9720.80558139535</v>
       </c>
-      <c r="J14" s="24" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">I14-M14</f>
         <v>175.805581395349</v>
       </c>
-      <c r="K14" s="22" t="n">
+      <c r="K14" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="24" t="n">
+      <c r="M14" s="2" t="n">
         <v>9545</v>
       </c>
-      <c r="N14" s="24" t="n">
+      <c r="N14" s="2" t="n">
         <v>82044</v>
       </c>
-      <c r="O14" s="24" t="n">
+      <c r="O14" s="2" t="n">
         <v>4002</v>
       </c>
-      <c r="P14" s="24" t="n">
+      <c r="P14" s="2" t="n">
         <v>783106269</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="AMG14" s="22"/>
-      <c r="AMH14" s="22"/>
-      <c r="AMI14" s="22"/>
-      <c r="AMJ14" s="22"/>
+      <c r="Q14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="n">
@@ -13403,57 +13387,57 @@
         <v>706875717</v>
       </c>
     </row>
-    <row r="26" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="n">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.417</v>
       </c>
-      <c r="D26" s="24" t="n">
+      <c r="D26" s="2" t="n">
         <v>74562</v>
       </c>
-      <c r="E26" s="24" t="n">
+      <c r="E26" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">E26/D26</f>
         <v>0.579262895308602</v>
       </c>
-      <c r="G26" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H26" s="24" t="n">
+      <c r="G26" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H26" s="2" t="n">
         <f aca="false">(G26-E26)/F26</f>
         <v>-329.729388066958</v>
       </c>
-      <c r="I26" s="24" t="n">
+      <c r="I26" s="2" t="n">
         <f aca="false">E26*M26/G26</f>
         <v>9454.81123255814</v>
       </c>
-      <c r="J26" s="24" t="n">
+      <c r="J26" s="2" t="n">
         <f aca="false">I26-M26</f>
         <v>41.8112325581387</v>
       </c>
-      <c r="K26" s="22" t="n">
+      <c r="K26" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="24" t="n">
+      <c r="M26" s="2" t="n">
         <v>9413</v>
       </c>
-      <c r="N26" s="24" t="n">
+      <c r="N26" s="2" t="n">
         <v>74562</v>
       </c>
-      <c r="O26" s="24" t="n">
+      <c r="O26" s="2" t="n">
         <v>2851</v>
       </c>
-      <c r="P26" s="24" t="n">
+      <c r="P26" s="2" t="n">
         <v>701851123</v>
       </c>
     </row>
@@ -13959,57 +13943,57 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="n">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="23" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.346</v>
       </c>
-      <c r="D36" s="24" t="n">
+      <c r="D36" s="2" t="n">
         <v>107014</v>
       </c>
-      <c r="E36" s="24" t="n">
+      <c r="E36" s="2" t="n">
         <v>52131</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="1" t="n">
         <f aca="false">E36/D36</f>
         <v>0.48714186928813</v>
       </c>
-      <c r="G36" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H36" s="24" t="n">
+      <c r="G36" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H36" s="2" t="n">
         <f aca="false">(G36-E36)/F36</f>
         <v>-18744.0262799486</v>
       </c>
-      <c r="I36" s="24" t="n">
+      <c r="I36" s="2" t="n">
         <f aca="false">E36*M36/G36</f>
         <v>24012.9934186047</v>
       </c>
-      <c r="J36" s="24" t="n">
+      <c r="J36" s="2" t="n">
         <f aca="false">I36-M36</f>
         <v>4205.99341860465</v>
       </c>
-      <c r="K36" s="22" t="n">
+      <c r="K36" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="24" t="n">
+      <c r="M36" s="2" t="n">
         <v>19807</v>
       </c>
-      <c r="N36" s="24" t="n">
+      <c r="N36" s="2" t="n">
         <v>107014</v>
       </c>
-      <c r="O36" s="24" t="n">
+      <c r="O36" s="2" t="n">
         <v>3206</v>
       </c>
-      <c r="P36" s="24" t="n">
+      <c r="P36" s="2" t="n">
         <v>2119632070</v>
       </c>
     </row>
@@ -14457,57 +14441,57 @@
       </c>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="n">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="23" t="n">
+      <c r="C45" s="1" t="n">
         <v>0.417</v>
       </c>
-      <c r="D45" s="24" t="n">
+      <c r="D45" s="2" t="n">
         <v>108210</v>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="1" t="n">
         <f aca="false">E45/D45</f>
         <v>0.399704278717309</v>
       </c>
-      <c r="G45" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H45" s="24" t="n">
+      <c r="G45" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H45" s="2" t="n">
         <f aca="false">(G45-E45)/F45</f>
         <v>-630.466105613613</v>
       </c>
-      <c r="I45" s="24" t="n">
+      <c r="I45" s="2" t="n">
         <f aca="false">E45*M45/G45</f>
         <v>14710.7093023256</v>
       </c>
-      <c r="J45" s="24" t="n">
+      <c r="J45" s="2" t="n">
         <f aca="false">I45-M45</f>
         <v>85.709302325582</v>
       </c>
-      <c r="K45" s="22" t="n">
+      <c r="K45" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="L45" s="22" t="s">
+      <c r="L45" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="24" t="n">
+      <c r="M45" s="2" t="n">
         <v>14625</v>
       </c>
-      <c r="N45" s="24" t="n">
+      <c r="N45" s="2" t="n">
         <v>108210</v>
       </c>
-      <c r="O45" s="24" t="n">
+      <c r="O45" s="2" t="n">
         <v>2986</v>
       </c>
-      <c r="P45" s="24" t="n">
+      <c r="P45" s="2" t="n">
         <v>1582564131</v>
       </c>
     </row>
@@ -15077,57 +15061,57 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="n">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="23" t="n">
+      <c r="C56" s="1" t="n">
         <v>0.414</v>
       </c>
-      <c r="D56" s="24" t="n">
+      <c r="D56" s="2" t="n">
         <v>82169</v>
       </c>
-      <c r="E56" s="24" t="n">
+      <c r="E56" s="2" t="n">
         <v>43575</v>
       </c>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="1" t="n">
         <f aca="false">E56/D56</f>
         <v>0.530309484112013</v>
       </c>
-      <c r="G56" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H56" s="24" t="n">
+      <c r="G56" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H56" s="2" t="n">
         <f aca="false">(G56-E56)/F56</f>
         <v>-1084.27251864601</v>
       </c>
-      <c r="I56" s="24" t="n">
+      <c r="I56" s="2" t="n">
         <f aca="false">E56*M56/G56</f>
         <v>23571.0348837209</v>
       </c>
-      <c r="J56" s="24" t="n">
+      <c r="J56" s="2" t="n">
         <f aca="false">I56-M56</f>
         <v>311.034883720931</v>
       </c>
-      <c r="K56" s="22" t="n">
+      <c r="K56" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L56" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="M56" s="24" t="n">
+      <c r="M56" s="2" t="n">
         <v>23260</v>
       </c>
-      <c r="N56" s="24" t="n">
+      <c r="N56" s="2" t="n">
         <v>82169</v>
       </c>
-      <c r="O56" s="24" t="n">
+      <c r="O56" s="2" t="n">
         <v>2395</v>
       </c>
-      <c r="P56" s="24" t="n">
+      <c r="P56" s="2" t="n">
         <v>1911247544</v>
       </c>
     </row>
@@ -15686,57 +15670,57 @@
         <v>673418437</v>
       </c>
     </row>
-    <row r="67" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="n">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="23" t="n">
+      <c r="C67" s="1" t="n">
         <v>0.442</v>
       </c>
-      <c r="D67" s="24" t="n">
+      <c r="D67" s="2" t="n">
         <v>103744</v>
       </c>
-      <c r="E67" s="24" t="n">
+      <c r="E67" s="2" t="n">
         <v>40752</v>
       </c>
-      <c r="F67" s="23" t="n">
+      <c r="F67" s="1" t="n">
         <f aca="false">E67/D67</f>
         <v>0.3928130783467</v>
       </c>
-      <c r="G67" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H67" s="24" t="n">
+      <c r="G67" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H67" s="2" t="n">
         <f aca="false">(G67-E67)/F67</f>
         <v>5722.82371417354</v>
       </c>
-      <c r="I67" s="24" t="n">
+      <c r="I67" s="2" t="n">
         <f aca="false">E67*M67/G67</f>
         <v>13551.4615813954</v>
       </c>
-      <c r="J67" s="24" t="n">
+      <c r="J67" s="2" t="n">
         <f aca="false">I67-M67</f>
         <v>-747.53841860465</v>
       </c>
-      <c r="K67" s="22" t="n">
+      <c r="K67" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="L67" s="22" t="s">
+      <c r="L67" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="M67" s="24" t="n">
+      <c r="M67" s="2" t="n">
         <v>14299</v>
       </c>
-      <c r="N67" s="24" t="n">
+      <c r="N67" s="2" t="n">
         <v>103744</v>
       </c>
-      <c r="O67" s="24" t="n">
+      <c r="O67" s="2" t="n">
         <v>2818</v>
       </c>
-      <c r="P67" s="24" t="n">
+      <c r="P67" s="2" t="n">
         <v>1483429680</v>
       </c>
     </row>
@@ -16676,57 +16660,57 @@
       </c>
       <c r="Q84" s="0"/>
     </row>
-    <row r="85" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="n">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="23" t="n">
+      <c r="C85" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="D85" s="24" t="n">
+      <c r="D85" s="2" t="n">
         <v>103465</v>
       </c>
-      <c r="E85" s="24" t="n">
+      <c r="E85" s="2" t="n">
         <v>47379</v>
       </c>
-      <c r="F85" s="23" t="n">
+      <c r="F85" s="1" t="n">
         <f aca="false">E85/D85</f>
         <v>0.457922969119992</v>
       </c>
-      <c r="G85" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H85" s="24" t="n">
+      <c r="G85" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H85" s="2" t="n">
         <f aca="false">(G85-E85)/F85</f>
         <v>-9562.74372612339</v>
       </c>
-      <c r="I85" s="24" t="n">
+      <c r="I85" s="2" t="n">
         <f aca="false">E85*M85/G85</f>
         <v>17531.3318372093</v>
       </c>
-      <c r="J85" s="24" t="n">
+      <c r="J85" s="2" t="n">
         <f aca="false">I85-M85</f>
         <v>1620.3318372093</v>
       </c>
-      <c r="K85" s="22" t="n">
+      <c r="K85" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="L85" s="22" t="s">
+      <c r="L85" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="M85" s="24" t="n">
+      <c r="M85" s="2" t="n">
         <v>15911</v>
       </c>
-      <c r="N85" s="24" t="n">
+      <c r="N85" s="2" t="n">
         <v>103465</v>
       </c>
-      <c r="O85" s="24" t="n">
+      <c r="O85" s="2" t="n">
         <v>2730</v>
       </c>
-      <c r="P85" s="24" t="n">
+      <c r="P85" s="2" t="n">
         <v>1646232433</v>
       </c>
     </row>
@@ -17005,57 +16989,57 @@
         <v>415628392</v>
       </c>
     </row>
-    <row r="91" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22" t="n">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="23" t="n">
+      <c r="C91" s="1" t="n">
         <v>0.331</v>
       </c>
-      <c r="D91" s="24" t="n">
+      <c r="D91" s="2" t="n">
         <v>106350</v>
       </c>
-      <c r="E91" s="24" t="n">
+      <c r="E91" s="2" t="n">
         <v>54474</v>
       </c>
-      <c r="F91" s="23" t="n">
+      <c r="F91" s="1" t="n">
         <f aca="false">E91/D91</f>
         <v>0.512214386459803</v>
       </c>
-      <c r="G91" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H91" s="24" t="n">
+      <c r="G91" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H91" s="2" t="n">
         <f aca="false">(G91-E91)/F91</f>
         <v>-22400.7765172376</v>
       </c>
-      <c r="I91" s="24" t="n">
+      <c r="I91" s="2" t="n">
         <f aca="false">E91*M91/G91</f>
         <v>14743.4514418605</v>
       </c>
-      <c r="J91" s="24" t="n">
+      <c r="J91" s="2" t="n">
         <f aca="false">I91-M91</f>
         <v>3105.45144186046</v>
       </c>
-      <c r="K91" s="22" t="n">
+      <c r="K91" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="L91" s="22" t="s">
+      <c r="L91" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="M91" s="24" t="n">
+      <c r="M91" s="2" t="n">
         <v>11638</v>
       </c>
-      <c r="N91" s="24" t="n">
+      <c r="N91" s="2" t="n">
         <v>106350</v>
       </c>
-      <c r="O91" s="24" t="n">
+      <c r="O91" s="2" t="n">
         <v>2601</v>
       </c>
-      <c r="P91" s="24" t="n">
+      <c r="P91" s="2" t="n">
         <v>1237706224</v>
       </c>
     </row>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="All_2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="All_3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="All_4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Final" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$Q$95</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="203">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -632,6 +633,9 @@
   </si>
   <si>
     <t xml:space="preserve">76661_V5_combine_force14743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_id_ori</t>
   </si>
 </sst>
 </file>
@@ -986,7 +990,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3785,14 +3789,14 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="12.74"/>
   </cols>
   <sheetData>
@@ -7166,7 +7170,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -11997,15 +12001,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="C92" activeCellId="0" sqref="C92"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -17297,4 +17301,805 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>43123</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">E2/D2</f>
+        <v>0.553092975233111</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">(G2-E2)/F2</f>
+        <v>-222.385757020615</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">E2*M2/G2</f>
+        <v>10769.7185348837</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">I2-M2</f>
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10739</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>77967</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2116</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>837283164</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">(G3-E3)/F3</f>
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">E3*M3/G3</f>
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">I3-M3</f>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>555559035</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>43051</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.534409990317535</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">(G4-E4)/F4</f>
+        <v>-95.4323476806578</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">E4*M4/G4</f>
+        <v>9732.52955813953</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">I4-M4</f>
+        <v>11.5295581395349</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5/D5</f>
+        <v>0.579367110775821</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">(G5-E5)/F5</f>
+        <v>-12.0821494175367</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">E5*M5/G5</f>
+        <v>9456.53918604651</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">I5-M5</f>
+        <v>1.53918604651153</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>701851123</v>
+      </c>
+    </row>
+    <row r="6" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>88270</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>43635</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">E6/D6</f>
+        <v>0.494335561345871</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">(G6-E6)/F6</f>
+        <v>-1284.55253810015</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <f aca="false">E6*M6/G6</f>
+        <v>24367.6105813953</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <f aca="false">I6-M6</f>
+        <v>354.610581395347</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>293</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>24013</v>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>88270</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>2702</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>2119632070</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">(G7-E7)/F7</f>
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">E7*M7/G7</f>
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">I7-M7</f>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>380140590</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">E8/D8</f>
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">(G8-E8)/F8</f>
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">E8*M8/G8</f>
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">I8-M8</f>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1582564131</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>43038</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.530776345809952</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">(G9-E9)/F9</f>
+        <v>-71.5932431804452</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">E9*M9/G9</f>
+        <v>23591.8301860465</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">I9-M9</f>
+        <v>20.8301860465108</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">E10/D10</f>
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">(G10-E10)/F10</f>
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">E10*M10/G10</f>
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">I10-M10</f>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>43013</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">E11/D11</f>
+        <v>0.392920434822326</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">(G11-E11)/F11</f>
+        <v>-33.0855787785088</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">E11*M11/G11</f>
+        <v>13555.0968139535</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">I11-M11</f>
+        <v>4.09681395348889</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1483429680</v>
+      </c>
+    </row>
+    <row r="12" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>93916</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>44274</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <f aca="false">E12/D12</f>
+        <v>0.471421270071127</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">(G12-E12)/F12</f>
+        <v>-2702.46609748385</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <f aca="false">E12*M12/G12</f>
+        <v>23867.8045116279</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <f aca="false">I12-M12</f>
+        <v>686.804511627906</v>
+      </c>
+      <c r="K12" s="20" t="n">
+        <v>288</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="20" t="n">
+        <v>23181</v>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>93916</v>
+      </c>
+      <c r="O12" s="20" t="n">
+        <v>2508</v>
+      </c>
+      <c r="P12" s="20" t="n">
+        <v>2177064134</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>93904</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>43404</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.462216731981598</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">(G13-E13)/F13</f>
+        <v>-874.048843424569</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <f aca="false">E13*M13/G13</f>
+        <v>17695.7098604651</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <f aca="false">I13-M13</f>
+        <v>164.709860465115</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>297</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" s="20" t="n">
+        <v>17531</v>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>93904</v>
+      </c>
+      <c r="O13" s="20" t="n">
+        <v>2524</v>
+      </c>
+      <c r="P13" s="20" t="n">
+        <v>1646232433</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>44586</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14/D14</f>
+        <v>0.531089193825043</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">(G14-E14)/F14</f>
+        <v>-2986.31570448123</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">E14*M14/G14</f>
+        <v>15286.7766976744</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">I14-M14</f>
+        <v>543.776697674419</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>14743</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2126</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1237706224</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F2:G14">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H14">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J14">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,11 @@
     <sheet name="All_3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="All_4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Final" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Final_2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Combine" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$Q$95</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="268">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -587,6 +589,12 @@
     <t xml:space="preserve">76664_V5</t>
   </si>
   <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76632_V5_combine_force9721)</t>
   </si>
   <si>
@@ -605,6 +613,12 @@
     <t xml:space="preserve">76643_V11_combine_force24013</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76643_V11_combine_force24368)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_combine_force24368</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76647_V11_combine_force14711)</t>
   </si>
   <si>
@@ -623,12 +637,24 @@
     <t xml:space="preserve">76656_V11_combine_force13551</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76658_V11_combine_force23868)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11_combine_force23868</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine_force17531)</t>
   </si>
   <si>
     <t xml:space="preserve">76660_V5_combine_force17531</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine_force17696)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine_force17696</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76661_V5_combine_force14743)</t>
   </si>
   <si>
@@ -636,6 +662,177 @@
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGLT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_015_combine_force12660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_016_force7398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024_combine_force9907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_combine_force8966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_041)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_041_combine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_043)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_043_combine_force9146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_049_combine_force8535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_059)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_059_force5793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_060)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_combine_force9464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_063_combine_force7508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_069_combine_force8196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_071_combine_force11261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_072_combine_force13147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_075)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_075_combine_force18792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_077)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077_combine_force13134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_079)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_079_combine_force13446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_080)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_080_force4270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_085)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_085_Bar_force9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_085</t>
   </si>
 </sst>
 </file>
@@ -737,7 +934,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -824,6 +1021,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -990,7 +1191,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3789,11 +3990,10 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="11.6"/>
@@ -7170,7 +7370,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -11999,17 +12199,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ95"/>
+  <dimension ref="A1:AMJ98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12071,6 +12271,12 @@
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -12292,6 +12498,7 @@
         <v>837283164</v>
       </c>
       <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -12347,6 +12554,7 @@
         <v>360011247</v>
       </c>
       <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -12456,6 +12664,7 @@
         <v>561219836</v>
       </c>
       <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -12569,6 +12778,7 @@
         <v>555559035</v>
       </c>
       <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -12790,6 +13000,7 @@
         <v>783106269</v>
       </c>
       <c r="Q14" s="0"/>
+      <c r="R14" s="20"/>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
@@ -12800,7 +13011,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>0.999</v>
@@ -12834,7 +13045,7 @@
         <v>291</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>9721</v>
@@ -12847,6 +13058,9 @@
       </c>
       <c r="P15" s="8" t="n">
         <v>783106269</v>
+      </c>
+      <c r="R15" s="19" t="n">
+        <v>20220830</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12957,6 +13171,7 @@
         <v>325407982</v>
       </c>
       <c r="Q17" s="12"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
@@ -13011,6 +13226,7 @@
       <c r="P18" s="14" t="n">
         <v>935376480</v>
       </c>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -13228,6 +13444,7 @@
         <v>609968498</v>
       </c>
       <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -13444,13 +13661,14 @@
       <c r="P26" s="2" t="n">
         <v>701851123</v>
       </c>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="n">
         <v>88</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C27" s="10" t="n">
         <v>1</v>
@@ -13484,7 +13702,7 @@
         <v>292</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="8" t="n">
         <v>9455</v>
@@ -13499,6 +13717,9 @@
         <v>701851123</v>
       </c>
       <c r="Q27" s="19"/>
+      <c r="R27" s="19" t="n">
+        <v>20220830</v>
+      </c>
       <c r="AMG27" s="19"/>
       <c r="AMH27" s="19"/>
       <c r="AMI27" s="19"/>
@@ -13612,7 +13833,7 @@
         <v>492998128</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="9" customFormat="true" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>23</v>
       </c>
@@ -13650,7 +13871,7 @@
       <c r="K30" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="22" t="s">
         <v>117</v>
       </c>
       <c r="M30" s="2" t="n">
@@ -13666,6 +13887,7 @@
         <v>829021637</v>
       </c>
       <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
@@ -13887,6 +14109,7 @@
         <v>186991746</v>
       </c>
       <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
     </row>
     <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -13942,6 +14165,7 @@
         <v>1221781079</v>
       </c>
       <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
@@ -14001,336 +14225,343 @@
         <v>2119632070</v>
       </c>
     </row>
-    <row r="37" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="n">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="5" t="n">
+      <c r="B37" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>0.986</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="2" t="n">
         <v>88270</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="2" t="n">
         <v>43635</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="1" t="n">
         <f aca="false">E37/D37</f>
         <v>0.494335561345871</v>
       </c>
-      <c r="G37" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H37" s="6" t="n">
+      <c r="G37" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H37" s="2" t="n">
         <f aca="false">(G37-E37)/F37</f>
         <v>-1284.55253810015</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="2" t="n">
         <f aca="false">E37*M37/G37</f>
         <v>24367.6105813953</v>
       </c>
-      <c r="J37" s="6" t="n">
+      <c r="J37" s="2" t="n">
         <f aca="false">I37-M37</f>
         <v>354.610581395347</v>
       </c>
-      <c r="K37" s="20" t="n">
+      <c r="K37" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="L37" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="6" t="n">
+      <c r="L37" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="2" t="n">
         <v>24013</v>
       </c>
-      <c r="N37" s="6" t="n">
+      <c r="N37" s="2" t="n">
         <v>88270</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="2" t="n">
         <v>2702</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="P37" s="2" t="n">
         <v>2119632070</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>91629</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="F38" s="1" t="n">
+      <c r="R37" s="19" t="n">
+        <v>20220830</v>
+      </c>
+    </row>
+    <row r="38" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="n">
+        <v>95</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19" t="n">
+        <v>86984</v>
+      </c>
+      <c r="E38" s="19" t="n">
+        <v>43039</v>
+      </c>
+      <c r="F38" s="10" t="n">
         <f aca="false">E38/D38</f>
-        <v>0.488600770498423</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H38" s="2" t="n">
+        <v>0.494792145681964</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H38" s="8" t="n">
         <f aca="false">(G38-E38)/F38</f>
-        <v>-3622.58945722582</v>
-      </c>
-      <c r="I38" s="2" t="n">
+        <v>-78.8209763237993</v>
+      </c>
+      <c r="I38" s="8" t="n">
         <f aca="false">E38*M38/G38</f>
-        <v>4029.3</v>
-      </c>
-      <c r="J38" s="2" t="n">
+        <v>24390.1012093023</v>
+      </c>
+      <c r="J38" s="8" t="n">
         <f aca="false">I38-M38</f>
-        <v>159.3</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>3870</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>91629</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>1890</v>
-      </c>
-      <c r="P38" s="2" t="n">
-        <v>354602695</v>
+        <v>22.1012093023273</v>
+      </c>
+      <c r="K38" s="19" t="n">
+        <v>299</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M38" s="19" t="n">
+        <v>24368</v>
+      </c>
+      <c r="N38" s="19" t="n">
+        <v>86984</v>
+      </c>
+      <c r="O38" s="19" t="n">
+        <v>2656</v>
+      </c>
+      <c r="P38" s="19" t="n">
+        <v>2119632070</v>
+      </c>
+      <c r="R38" s="19" t="n">
+        <v>20220912</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.63</v>
+        <v>0.083</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>13096</v>
+        <v>91629</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>5862</v>
+        <v>44770</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">E39/D39</f>
-        <v>0.447617593158216</v>
+        <v>0.488600770498423</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H39" s="2" t="n">
         <f aca="false">(G39-E39)/F39</f>
-        <v>82968.1419310816</v>
+        <v>-3622.58945722582</v>
       </c>
       <c r="I39" s="2" t="n">
         <f aca="false">E39*M39/G39</f>
-        <v>265.83488372093</v>
+        <v>4029.3</v>
       </c>
       <c r="J39" s="2" t="n">
         <f aca="false">I39-M39</f>
+        <v>159.3</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>3870</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>91629</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>354602695</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>13096</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>5862</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">E40/D40</f>
+        <v>0.447617593158216</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <f aca="false">(G40-E40)/F40</f>
+        <v>82968.1419310816</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <f aca="false">E40*M40/G40</f>
+        <v>265.83488372093</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <f aca="false">I40-M40</f>
         <v>-1684.16511627907</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L40" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="M39" s="2" t="n">
+      <c r="M40" s="2" t="n">
         <v>1950</v>
       </c>
-      <c r="N39" s="2" t="n">
+      <c r="N40" s="2" t="n">
         <v>13096</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O40" s="2" t="n">
         <v>1234</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P40" s="2" t="n">
         <v>25537895</v>
       </c>
-      <c r="Q39" s="9"/>
-    </row>
-    <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="10" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D40" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="E40" s="8" t="n">
-        <v>44275</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <f aca="false">E40/D40</f>
-        <v>0.462387601432853</v>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H40" s="8" t="n">
-        <f aca="false">(G40-E40)/F40</f>
-        <v>-2757.42687747036</v>
-      </c>
-      <c r="I40" s="8" t="n">
-        <f aca="false">E40*M40/G40</f>
-        <v>4087.71511627907</v>
-      </c>
-      <c r="J40" s="8" t="n">
-        <f aca="false">I40-M40</f>
-        <v>117.71511627907</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>118</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="M40" s="8" t="n">
-        <v>3970</v>
-      </c>
-      <c r="N40" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="O40" s="8" t="n">
-        <v>1888</v>
-      </c>
-      <c r="P40" s="8" t="n">
-        <v>380140590</v>
-      </c>
-      <c r="Q40" s="0"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>58984</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>23286</v>
-      </c>
-      <c r="F41" s="1" t="n">
+      <c r="A41" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="10" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F41" s="10" t="n">
         <f aca="false">E41/D41</f>
-        <v>0.39478502644785</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H41" s="2" t="n">
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H41" s="8" t="n">
         <f aca="false">(G41-E41)/F41</f>
-        <v>49936.0377909474</v>
-      </c>
-      <c r="I41" s="2" t="n">
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I41" s="8" t="n">
         <f aca="false">E41*M41/G41</f>
-        <v>7403.86493023256</v>
-      </c>
-      <c r="J41" s="2" t="n">
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J41" s="8" t="n">
         <f aca="false">I41-M41</f>
-        <v>-6268.13506976744</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>138</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>13672</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>58984</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>2691</v>
-      </c>
-      <c r="P41" s="2" t="n">
-        <v>806422492</v>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" s="8" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N41" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P41" s="8" t="n">
+        <v>380140590</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>1</v>
+        <v>0.159</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>9456</v>
+        <v>58984</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>3696</v>
+        <v>23286</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">E42/D42</f>
-        <v>0.390862944162437</v>
+        <v>0.39478502644785</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H42" s="2" t="n">
         <f aca="false">(G42-E42)/F42</f>
-        <v>100556.987012987</v>
+        <v>49936.0377909474</v>
       </c>
       <c r="I42" s="2" t="n">
         <f aca="false">E42*M42/G42</f>
-        <v>917.639441860465</v>
+        <v>7403.86493023256</v>
       </c>
       <c r="J42" s="2" t="n">
         <f aca="false">I42-M42</f>
-        <v>-9758.36055813953</v>
+        <v>-6268.13506976744</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>10676</v>
+        <v>13672</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9456</v>
+        <v>58984</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1310</v>
+        <v>2691</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>100952053</v>
+        <v>806422492</v>
       </c>
       <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
@@ -14338,447 +14569,453 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.186</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>50051</v>
+        <v>9456</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>19853</v>
+        <v>3696</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">E43/D43</f>
-        <v>0.39665541148029</v>
+        <v>0.390862944162437</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H43" s="2" t="n">
         <f aca="false">(G43-E43)/F43</f>
-        <v>58355.4373142598</v>
+        <v>100556.987012987</v>
       </c>
       <c r="I43" s="2" t="n">
         <f aca="false">E43*M43/G43</f>
-        <v>6228.30162790698</v>
+        <v>917.639441860465</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">I43-M43</f>
-        <v>-7261.69837209302</v>
+        <v>-9758.36055813953</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>13490</v>
+        <v>10676</v>
       </c>
       <c r="N43" s="2" t="n">
+        <v>9456</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>100952053</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>50051</v>
       </c>
-      <c r="O43" s="2" t="n">
-        <v>2589</v>
-      </c>
-      <c r="P43" s="2" t="n">
-        <v>675189586</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>110099</v>
-      </c>
       <c r="E44" s="2" t="n">
-        <v>43750</v>
+        <v>19853</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">E44/D44</f>
-        <v>0.397369640051227</v>
+        <v>0.39665541148029</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H44" s="2" t="n">
         <f aca="false">(G44-E44)/F44</f>
-        <v>-1887.41142857143</v>
+        <v>58355.4373142598</v>
       </c>
       <c r="I44" s="2" t="n">
         <f aca="false">E44*M44/G44</f>
-        <v>14624.7093023256</v>
+        <v>6228.30162790698</v>
       </c>
       <c r="J44" s="2" t="n">
         <f aca="false">I44-M44</f>
-        <v>250.709302325582</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>259</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>131</v>
+        <v>-7261.69837209302</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>14374</v>
+        <v>13490</v>
       </c>
       <c r="N44" s="2" t="n">
+        <v>50051</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>2589</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>675189586</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>110099</v>
       </c>
-      <c r="O44" s="2" t="n">
-        <v>3032</v>
-      </c>
-      <c r="P44" s="2" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>108210</v>
-      </c>
       <c r="E45" s="2" t="n">
-        <v>43252</v>
+        <v>43750</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">E45/D45</f>
-        <v>0.399704278717309</v>
+        <v>0.397369640051227</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H45" s="2" t="n">
         <f aca="false">(G45-E45)/F45</f>
-        <v>-630.466105613613</v>
+        <v>-1887.41142857143</v>
       </c>
       <c r="I45" s="2" t="n">
         <f aca="false">E45*M45/G45</f>
-        <v>14710.7093023256</v>
+        <v>14624.7093023256</v>
       </c>
       <c r="J45" s="2" t="n">
         <f aca="false">I45-M45</f>
-        <v>85.709302325582</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>285</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>133</v>
+        <v>250.709302325582</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>259</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>14625</v>
+        <v>14374</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>108210</v>
+        <v>110099</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>2986</v>
+        <v>3032</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>1582564131</v>
       </c>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="n">
-        <v>90</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v>107577</v>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>43022</v>
-      </c>
-      <c r="F46" s="10" t="n">
+      <c r="A46" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>108210</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="F46" s="1" t="n">
         <f aca="false">E46/D46</f>
-        <v>0.399918198127853</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H46" s="8" t="n">
+        <v>0.399704278717309</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H46" s="2" t="n">
         <f aca="false">(G46-E46)/F46</f>
-        <v>-55.0112500581098</v>
-      </c>
-      <c r="I46" s="8" t="n">
+        <v>-630.466105613613</v>
+      </c>
+      <c r="I46" s="2" t="n">
         <f aca="false">E46*M46/G46</f>
-        <v>14718.5265581395</v>
-      </c>
-      <c r="J46" s="8" t="n">
+        <v>14710.7093023256</v>
+      </c>
+      <c r="J46" s="2" t="n">
         <f aca="false">I46-M46</f>
-        <v>7.52655813953425</v>
-      </c>
-      <c r="K46" s="19" t="n">
-        <v>294</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="M46" s="8" t="n">
-        <v>14711</v>
-      </c>
-      <c r="N46" s="8" t="n">
-        <v>107577</v>
-      </c>
-      <c r="O46" s="8" t="n">
-        <v>2973</v>
-      </c>
-      <c r="P46" s="8" t="n">
+        <v>85.709302325582</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>14625</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>108210</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>2986</v>
+      </c>
+      <c r="P46" s="2" t="n">
         <v>1582564131</v>
       </c>
-      <c r="Q46" s="19"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="20"/>
       <c r="AMG46" s="19"/>
       <c r="AMH46" s="19"/>
       <c r="AMI46" s="19"/>
       <c r="AMJ46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>41417</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>15297</v>
-      </c>
-      <c r="F47" s="1" t="n">
+      <c r="A47" s="19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F47" s="10" t="n">
         <f aca="false">E47/D47</f>
-        <v>0.369341091822199</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H47" s="2" t="n">
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H47" s="8" t="n">
         <f aca="false">(G47-E47)/F47</f>
-        <v>75006.5471007387</v>
-      </c>
-      <c r="I47" s="2" t="n">
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I47" s="8" t="n">
         <f aca="false">E47*M47/G47</f>
-        <v>4126.63255813954</v>
-      </c>
-      <c r="J47" s="2" t="n">
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J47" s="8" t="n">
         <f aca="false">I47-M47</f>
-        <v>-7473.36744186047</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>11600</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>41417</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>2918</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>480438646</v>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K47" s="19" t="n">
+        <v>294</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N47" s="8" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O47" s="8" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P47" s="8" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19" t="n">
+        <v>20220830</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.198</v>
+        <v>0.242</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>52159</v>
+        <v>41417</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>18627</v>
+        <v>15297</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">E48/D48</f>
-        <v>0.357119576679001</v>
+        <v>0.369341091822199</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H48" s="2" t="n">
         <f aca="false">(G48-E48)/F48</f>
-        <v>68248.8488216031</v>
+        <v>75006.5471007387</v>
       </c>
       <c r="I48" s="2" t="n">
         <f aca="false">E48*M48/G48</f>
-        <v>5321.25739534884</v>
+        <v>4126.63255813954</v>
       </c>
       <c r="J48" s="2" t="n">
         <f aca="false">I48-M48</f>
+        <v>-7473.36744186047</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>11600</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>41417</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>2918</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>480438646</v>
+      </c>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>52159</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>18627</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <f aca="false">E49/D49</f>
+        <v>0.357119576679001</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <f aca="false">(G49-E49)/F49</f>
+        <v>68248.8488216031</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <f aca="false">E49*M49/G49</f>
+        <v>5321.25739534884</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <f aca="false">I49-M49</f>
         <v>-6962.74260465116</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K49" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L49" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="M48" s="2" t="n">
+      <c r="M49" s="2" t="n">
         <v>12284</v>
       </c>
-      <c r="N48" s="2" t="n">
+      <c r="N49" s="2" t="n">
         <v>52159</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="O49" s="2" t="n">
         <v>3086</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P49" s="2" t="n">
         <v>640719935</v>
       </c>
-    </row>
-    <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="13" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="D49" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="E49" s="14" t="n">
-        <v>27955</v>
-      </c>
-      <c r="F49" s="13" t="n">
-        <f aca="false">E49/D49</f>
-        <v>0.365807380266946</v>
-      </c>
-      <c r="G49" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H49" s="14" t="n">
-        <f aca="false">(G49-E49)/F49</f>
-        <v>41128.2024682526</v>
-      </c>
-      <c r="I49" s="14" t="n">
-        <f aca="false">E49*M49/G49</f>
-        <v>9537.85593023256</v>
-      </c>
-      <c r="J49" s="14" t="n">
-        <f aca="false">I49-M49</f>
-        <v>-5133.14406976744</v>
-      </c>
-      <c r="K49" s="12" t="n">
-        <v>119</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M49" s="14" t="n">
-        <v>14671</v>
-      </c>
-      <c r="N49" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="O49" s="14" t="n">
-        <v>3137</v>
-      </c>
-      <c r="P49" s="14" t="n">
-        <v>1121158581</v>
-      </c>
-      <c r="Q49" s="4"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>92745</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>33686</v>
-      </c>
-      <c r="F50" s="1" t="n">
+      <c r="A50" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="13" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D50" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="E50" s="14" t="n">
+        <v>27955</v>
+      </c>
+      <c r="F50" s="13" t="n">
         <f aca="false">E50/D50</f>
-        <v>0.363210954768451</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H50" s="2" t="n">
+        <v>0.365807380266946</v>
+      </c>
+      <c r="G50" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H50" s="14" t="n">
         <f aca="false">(G50-E50)/F50</f>
-        <v>25643.4996734548</v>
-      </c>
-      <c r="I50" s="2" t="n">
+        <v>41128.2024682526</v>
+      </c>
+      <c r="I50" s="14" t="n">
         <f aca="false">E50*M50/G50</f>
-        <v>9400.74418604651</v>
-      </c>
-      <c r="J50" s="2" t="n">
+        <v>9537.85593023256</v>
+      </c>
+      <c r="J50" s="14" t="n">
         <f aca="false">I50-M50</f>
-        <v>-2599.25581395349</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>169</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>92745</v>
-      </c>
-      <c r="O50" s="2" t="n">
-        <v>3762</v>
-      </c>
-      <c r="P50" s="2" t="n">
-        <v>1112943723</v>
-      </c>
-      <c r="Q50" s="0"/>
+        <v>-5133.14406976744</v>
+      </c>
+      <c r="K50" s="12" t="n">
+        <v>119</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M50" s="14" t="n">
+        <v>14671</v>
+      </c>
+      <c r="N50" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="O50" s="14" t="n">
+        <v>3137</v>
+      </c>
+      <c r="P50" s="14" t="n">
+        <v>1121158581</v>
+      </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
@@ -14786,500 +15023,510 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.089</v>
+        <v>0.11</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>118272</v>
+        <v>92745</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>41540</v>
+        <v>33686</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">E51/D51</f>
-        <v>0.351224296536797</v>
+        <v>0.363210954768451</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H51" s="2" t="n">
         <f aca="false">(G51-E51)/F51</f>
-        <v>4156.88781896967</v>
+        <v>25643.4996734548</v>
       </c>
       <c r="I51" s="2" t="n">
         <f aca="false">E51*M51/G51</f>
-        <v>9090.4976744186</v>
+        <v>9400.74418604651</v>
       </c>
       <c r="J51" s="2" t="n">
         <f aca="false">I51-M51</f>
-        <v>-319.502325581396</v>
+        <v>-2599.25581395349</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>9410</v>
+        <v>12000</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>118272</v>
+        <v>92745</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>4340</v>
+        <v>3762</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>1112943723</v>
       </c>
+      <c r="R51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0.17</v>
+        <v>0.089</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>41862</v>
+        <v>118272</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>21676</v>
+        <v>41540</v>
       </c>
       <c r="F52" s="1" t="n">
         <f aca="false">E52/D52</f>
-        <v>0.517796569681334</v>
+        <v>0.351224296536797</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H52" s="2" t="n">
         <f aca="false">(G52-E52)/F52</f>
-        <v>41182.1963461893</v>
+        <v>4156.88781896967</v>
       </c>
       <c r="I52" s="2" t="n">
         <f aca="false">E52*M52/G52</f>
-        <v>8485.90195348837</v>
+        <v>9090.4976744186</v>
       </c>
       <c r="J52" s="2" t="n">
         <f aca="false">I52-M52</f>
-        <v>-8348.09804651163</v>
+        <v>-319.502325581396</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>16834</v>
+        <v>9410</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>41862</v>
+        <v>118272</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>2487</v>
+        <v>4340</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>704707035</v>
+        <v>1112943723</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0.654</v>
+        <v>0.17</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>10899</v>
+        <v>41862</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>5653</v>
+        <v>21676</v>
       </c>
       <c r="F53" s="1" t="n">
         <f aca="false">E53/D53</f>
-        <v>0.518671437746582</v>
+        <v>0.517796569681334</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H53" s="2" t="n">
         <f aca="false">(G53-E53)/F53</f>
-        <v>72005.1217052892</v>
+        <v>41182.1963461893</v>
       </c>
       <c r="I53" s="2" t="n">
         <f aca="false">E53*M53/G53</f>
-        <v>1908.87348837209</v>
+        <v>8485.90195348837</v>
       </c>
       <c r="J53" s="2" t="n">
         <f aca="false">I53-M53</f>
-        <v>-12611.1265116279</v>
+        <v>-8348.09804651163</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>14520</v>
+        <v>16834</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>10899</v>
+        <v>41862</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>1534</v>
+        <v>2487</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>158247680</v>
-      </c>
-      <c r="Q53" s="4"/>
+        <v>704707035</v>
+      </c>
     </row>
     <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.123</v>
+        <v>0.654</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>57671</v>
+        <v>10899</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>30073</v>
+        <v>5653</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">E54/D54</f>
-        <v>0.521457925127014</v>
+        <v>0.518671437746582</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H54" s="2" t="n">
         <f aca="false">(G54-E54)/F54</f>
-        <v>24790.1112958468</v>
+        <v>72005.1217052892</v>
       </c>
       <c r="I54" s="2" t="n">
         <f aca="false">E54*M54/G54</f>
-        <v>12712.4865348837</v>
+        <v>1908.87348837209</v>
       </c>
       <c r="J54" s="2" t="n">
         <f aca="false">I54-M54</f>
-        <v>-5464.51346511628</v>
+        <v>-12611.1265116279</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>18177</v>
+        <v>14520</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>57671</v>
+        <v>10899</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>2603</v>
+        <v>1534</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>1048292829</v>
-      </c>
-      <c r="Q54" s="0"/>
+        <v>158247680</v>
+      </c>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>75</v>
+      <c r="A55" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.074</v>
+        <v>0.123</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>95025</v>
+        <v>57671</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>49728</v>
+        <v>30073</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">E55/D55</f>
-        <v>0.523314917127072</v>
+        <v>0.521457925127014</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H55" s="2" t="n">
         <f aca="false">(G55-E55)/F55</f>
-        <v>-12856.5033783784</v>
+        <v>24790.1112958468</v>
       </c>
       <c r="I55" s="2" t="n">
         <f aca="false">E55*M55/G55</f>
-        <v>23259.9828837209</v>
+        <v>12712.4865348837</v>
       </c>
       <c r="J55" s="2" t="n">
         <f aca="false">I55-M55</f>
-        <v>3146.98288372093</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>258</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>142</v>
+        <v>-5464.51346511628</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>20113</v>
+        <v>18177</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>95025</v>
+        <v>57671</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>2744</v>
+        <v>2603</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>1911247544</v>
+        <v>1048292829</v>
       </c>
       <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>143</v>
+      <c r="A56" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.414</v>
+        <v>0.074</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>82169</v>
+        <v>95025</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>43575</v>
+        <v>49728</v>
       </c>
       <c r="F56" s="1" t="n">
         <f aca="false">E56/D56</f>
-        <v>0.530309484112013</v>
+        <v>0.523314917127072</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H56" s="2" t="n">
         <f aca="false">(G56-E56)/F56</f>
-        <v>-1084.27251864601</v>
+        <v>-12856.5033783784</v>
       </c>
       <c r="I56" s="2" t="n">
         <f aca="false">E56*M56/G56</f>
-        <v>23571.0348837209</v>
+        <v>23259.9828837209</v>
       </c>
       <c r="J56" s="2" t="n">
         <f aca="false">I56-M56</f>
-        <v>311.034883720931</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>286</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>144</v>
+        <v>3146.98288372093</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>258</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>23260</v>
+        <v>20113</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>82169</v>
+        <v>95025</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>2395</v>
+        <v>2744</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>1911247544</v>
       </c>
     </row>
     <row r="57" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="n">
+      <c r="A57" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>82169</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>43575</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <f aca="false">E57/D57</f>
+        <v>0.530309484112013</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <f aca="false">(G57-E57)/F57</f>
+        <v>-1084.27251864601</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <f aca="false">E57*M57/G57</f>
+        <v>23571.0348837209</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <f aca="false">I57-M57</f>
+        <v>311.034883720931</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>23260</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>82169</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>2395</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>1911247544</v>
+      </c>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="n">
         <v>91</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="10" t="n">
+      <c r="B58" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="10" t="n">
         <v>0.999</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D58" s="8" t="n">
         <v>81085</v>
       </c>
-      <c r="E57" s="8" t="n">
+      <c r="E58" s="8" t="n">
         <v>43038</v>
       </c>
-      <c r="F57" s="10" t="n">
-        <f aca="false">E57/D57</f>
+      <c r="F58" s="10" t="n">
+        <f aca="false">E58/D58</f>
         <v>0.530776345809952</v>
       </c>
-      <c r="G57" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H57" s="8" t="n">
-        <f aca="false">(G57-E57)/F57</f>
+      <c r="G58" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H58" s="8" t="n">
+        <f aca="false">(G58-E58)/F58</f>
         <v>-71.5932431804452</v>
       </c>
-      <c r="I57" s="8" t="n">
-        <f aca="false">E57*M57/G57</f>
+      <c r="I58" s="8" t="n">
+        <f aca="false">E58*M58/G58</f>
         <v>23591.8301860465</v>
       </c>
-      <c r="J57" s="8" t="n">
-        <f aca="false">I57-M57</f>
+      <c r="J58" s="8" t="n">
+        <f aca="false">I58-M58</f>
         <v>20.8301860465108</v>
       </c>
-      <c r="K57" s="19" t="n">
+      <c r="K58" s="19" t="n">
         <v>295</v>
       </c>
-      <c r="L57" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="M57" s="8" t="n">
+      <c r="L58" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M58" s="8" t="n">
         <v>23571</v>
       </c>
-      <c r="N57" s="8" t="n">
+      <c r="N58" s="8" t="n">
         <v>81085</v>
       </c>
-      <c r="O57" s="8" t="n">
+      <c r="O58" s="8" t="n">
         <v>2361</v>
       </c>
-      <c r="P57" s="8" t="n">
+      <c r="P58" s="8" t="n">
         <v>1911247544</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>34649</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>14929</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <f aca="false">E58/D58</f>
-        <v>0.430863805593235</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <f aca="false">(G58-E58)/F58</f>
-        <v>65150.5177171947</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <f aca="false">E58*M58/G58</f>
-        <v>4975.87041860465</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <f aca="false">I58-M58</f>
-        <v>-9356.12958139535</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>14332</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>34649</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>2139</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>496591233</v>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19" t="n">
+        <v>20220830</v>
       </c>
     </row>
     <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.159</v>
+        <v>0.248</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>54384</v>
+        <v>34649</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>23263</v>
+        <v>14929</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">E59/D59</f>
-        <v>0.42775448661371</v>
+        <v>0.430863805593235</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H59" s="2" t="n">
         <f aca="false">(G59-E59)/F59</f>
-        <v>46140.9537892791</v>
+        <v>65150.5177171947</v>
       </c>
       <c r="I59" s="2" t="n">
         <f aca="false">E59*M59/G59</f>
-        <v>9660.096</v>
+        <v>4975.87041860465</v>
       </c>
       <c r="J59" s="2" t="n">
         <f aca="false">I59-M59</f>
-        <v>-8195.904</v>
+        <v>-9356.12958139535</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>17856</v>
+        <v>14332</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>54384</v>
+        <v>34649</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>2072</v>
+        <v>2139</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>971077397</v>
-      </c>
+        <v>496591233</v>
+      </c>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
       <c r="AMI59" s="0"/>
@@ -15287,221 +15534,225 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.116</v>
+        <v>0.159</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>74181</v>
+        <v>54384</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>31925</v>
+        <v>23263</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">E60/D60</f>
-        <v>0.430366266294604</v>
+        <v>0.42775448661371</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H60" s="2" t="n">
         <f aca="false">(G60-E60)/F60</f>
-        <v>25733.8942834769</v>
+        <v>46140.9537892791</v>
       </c>
       <c r="I60" s="2" t="n">
         <f aca="false">E60*M60/G60</f>
-        <v>14689.2122093023</v>
+        <v>9660.096</v>
       </c>
       <c r="J60" s="2" t="n">
         <f aca="false">I60-M60</f>
+        <v>-8195.904</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>17856</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>54384</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>2072</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>971077397</v>
+      </c>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>74181</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>31925</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <f aca="false">E61/D61</f>
+        <v>0.430366266294604</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <f aca="false">(G61-E61)/F61</f>
+        <v>25733.8942834769</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <f aca="false">E61*M61/G61</f>
+        <v>14689.2122093023</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <f aca="false">I61-M61</f>
         <v>-5095.78779069767</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L61" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="M60" s="2" t="n">
+      <c r="M61" s="2" t="n">
         <v>19785</v>
       </c>
-      <c r="N60" s="2" t="n">
+      <c r="N61" s="2" t="n">
         <v>74181</v>
       </c>
-      <c r="O60" s="2" t="n">
+      <c r="O61" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P61" s="2" t="n">
         <v>1467668630</v>
       </c>
-      <c r="Q60" s="3"/>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="n">
-        <v>85</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="10" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D61" s="8" t="n">
-        <v>101141</v>
-      </c>
-      <c r="E61" s="8" t="n">
-        <v>42993</v>
-      </c>
-      <c r="F61" s="10" t="n">
-        <f aca="false">E61/D61</f>
-        <v>0.425079839036592</v>
-      </c>
-      <c r="G61" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H61" s="8" t="n">
-        <f aca="false">(G61-E61)/F61</f>
-        <v>16.4674947084409</v>
-      </c>
-      <c r="I61" s="8" t="n">
-        <f aca="false">E61*M61/G61</f>
-        <v>14432.6501162791</v>
-      </c>
-      <c r="J61" s="8" t="n">
-        <f aca="false">I61-M61</f>
-        <v>-2.34988372092994</v>
-      </c>
-      <c r="K61" s="19" t="n">
-        <v>287</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M61" s="8" t="n">
-        <v>14435</v>
-      </c>
-      <c r="N61" s="8" t="n">
-        <v>101141</v>
-      </c>
-      <c r="O61" s="8" t="n">
-        <v>2781</v>
-      </c>
-      <c r="P61" s="8" t="n">
-        <v>1459966283</v>
-      </c>
-      <c r="Q61" s="19"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="9"/>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <f aca="false">E62/D62</f>
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H62" s="8" t="n">
+        <f aca="false">(G62-E62)/F62</f>
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <f aca="false">E62*M62/G62</f>
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J62" s="8" t="n">
+        <f aca="false">I62-M62</f>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K62" s="19" t="n">
+        <v>287</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M62" s="8" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N62" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O62" s="8" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P62" s="8" t="n">
+        <v>1459966283</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C63" s="1" t="n">
         <v>0.086</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D63" s="2" t="n">
         <v>100882</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E63" s="2" t="n">
         <v>42891</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <f aca="false">E62/D62</f>
-        <v>0.425160088023632</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <f aca="false">(G62-E62)/F62</f>
-        <v>256.374017859225</v>
-      </c>
-      <c r="I62" s="2" t="n">
-        <f aca="false">E62*M62/G62</f>
-        <v>14435.3151627907</v>
-      </c>
-      <c r="J62" s="2" t="n">
-        <f aca="false">I62-M62</f>
-        <v>-36.6848372093027</v>
-      </c>
-      <c r="K62" s="3" t="n">
-        <v>236</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>14472</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>100882</v>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>2778</v>
-      </c>
-      <c r="P62" s="2" t="n">
-        <v>1459966283</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>97331</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>41485</v>
       </c>
       <c r="F63" s="1" t="n">
         <f aca="false">E63/D63</f>
-        <v>0.426225971170542</v>
+        <v>0.425160088023632</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H63" s="2" t="n">
         <f aca="false">(G63-E63)/F63</f>
-        <v>3554.45257321924</v>
+        <v>256.374017859225</v>
       </c>
       <c r="I63" s="2" t="n">
         <f aca="false">E63*M63/G63</f>
-        <v>14471.511627907</v>
+        <v>14435.3151627907</v>
       </c>
       <c r="J63" s="2" t="n">
         <f aca="false">I63-M63</f>
-        <v>-528.488372093023</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>151</v>
+        <v>-36.6848372093027</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>15000</v>
+        <v>14472</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>97331</v>
+        <v>100882</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>2698</v>
+        <v>2778</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>1459966283</v>
@@ -15509,58 +15760,59 @@
     </row>
     <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0.181</v>
+        <v>0.089</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>52395</v>
+        <v>97331</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>20466</v>
+        <v>41485</v>
       </c>
       <c r="F64" s="1" t="n">
         <f aca="false">E64/D64</f>
-        <v>0.390609791010593</v>
+        <v>0.426225971170542</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H64" s="2" t="n">
         <f aca="false">(G64-E64)/F64</f>
-        <v>57689.2861330988</v>
+        <v>3554.45257321924</v>
       </c>
       <c r="I64" s="2" t="n">
         <f aca="false">E64*M64/G64</f>
-        <v>6427.75186046512</v>
+        <v>14471.511627907</v>
       </c>
       <c r="J64" s="2" t="n">
         <f aca="false">I64-M64</f>
-        <v>-7077.24813953488</v>
+        <v>-528.488372093023</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>13505</v>
+        <v>15000</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>52395</v>
+        <v>97331</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>2519</v>
+        <v>2698</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>707598641</v>
-      </c>
-      <c r="Q64" s="4"/>
+        <v>1459966283</v>
+      </c>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
@@ -15568,1264 +15820,1287 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.996</v>
+        <v>0.181</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>9554</v>
+        <v>52395</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>3711</v>
+        <v>20466</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">E65/D65</f>
-        <v>0.388423696880888</v>
+        <v>0.390609791010593</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H65" s="2" t="n">
         <f aca="false">(G65-E65)/F65</f>
-        <v>101149.853408785</v>
+        <v>57689.2861330988</v>
       </c>
       <c r="I65" s="2" t="n">
         <f aca="false">E65*M65/G65</f>
-        <v>925.074627906977</v>
+        <v>6427.75186046512</v>
       </c>
       <c r="J65" s="2" t="n">
         <f aca="false">I65-M65</f>
-        <v>-9793.92537209302</v>
+        <v>-7077.24813953488</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>10719</v>
+        <v>13505</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>9554</v>
+        <v>52395</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>1199</v>
+        <v>2519</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>102412602</v>
-      </c>
+        <v>707598641</v>
+      </c>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.189</v>
+        <v>0.996</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>49699</v>
+        <v>9554</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>19530</v>
+        <v>3711</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">E66/D66</f>
-        <v>0.392965653232459</v>
+        <v>0.388423696880888</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H66" s="2" t="n">
         <f aca="false">(G66-E66)/F66</f>
-        <v>59725.3215565796</v>
+        <v>101149.853408785</v>
       </c>
       <c r="I66" s="2" t="n">
         <f aca="false">E66*M66/G66</f>
-        <v>6154.22093023256</v>
+        <v>925.074627906977</v>
       </c>
       <c r="J66" s="2" t="n">
         <f aca="false">I66-M66</f>
-        <v>-7395.77906976744</v>
+        <v>-9793.92537209302</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>13550</v>
+        <v>10719</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>49699</v>
+        <v>9554</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>2478</v>
+        <v>1199</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>673418437</v>
+        <v>102412602</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="C67" s="1" t="n">
-        <v>0.442</v>
+        <v>0.189</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>103744</v>
+        <v>49699</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>40752</v>
+        <v>19530</v>
       </c>
       <c r="F67" s="1" t="n">
         <f aca="false">E67/D67</f>
-        <v>0.3928130783467</v>
+        <v>0.392965653232459</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H67" s="2" t="n">
         <f aca="false">(G67-E67)/F67</f>
-        <v>5722.82371417354</v>
+        <v>59725.3215565796</v>
       </c>
       <c r="I67" s="2" t="n">
         <f aca="false">E67*M67/G67</f>
-        <v>13551.4615813954</v>
+        <v>6154.22093023256</v>
       </c>
       <c r="J67" s="2" t="n">
         <f aca="false">I67-M67</f>
+        <v>-7395.77906976744</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>13550</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>49699</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>2478</v>
+      </c>
+      <c r="P67" s="2" t="n">
+        <v>673418437</v>
+      </c>
+    </row>
+    <row r="68" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>103744</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>40752</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <f aca="false">E68/D68</f>
+        <v>0.3928130783467</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <f aca="false">(G68-E68)/F68</f>
+        <v>5722.82371417354</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <f aca="false">E68*M68/G68</f>
+        <v>13551.4615813954</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <f aca="false">I68-M68</f>
         <v>-747.53841860465</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K68" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="L67" s="0" t="s">
+      <c r="L68" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="M67" s="2" t="n">
+      <c r="M68" s="2" t="n">
         <v>14299</v>
       </c>
-      <c r="N67" s="2" t="n">
+      <c r="N68" s="2" t="n">
         <v>103744</v>
       </c>
-      <c r="O67" s="2" t="n">
+      <c r="O68" s="2" t="n">
         <v>2818</v>
       </c>
-      <c r="P67" s="2" t="n">
+      <c r="P68" s="2" t="n">
         <v>1483429680</v>
       </c>
-    </row>
-    <row r="68" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="n">
+      <c r="Q68" s="0"/>
+      <c r="R68" s="20"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="19" t="n">
         <v>92</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="10" t="n">
+      <c r="B69" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D69" s="8" t="n">
         <v>109470</v>
       </c>
-      <c r="E68" s="8" t="n">
+      <c r="E69" s="8" t="n">
         <v>43013</v>
       </c>
-      <c r="F68" s="10" t="n">
-        <f aca="false">E68/D68</f>
+      <c r="F69" s="10" t="n">
+        <f aca="false">E69/D69</f>
         <v>0.392920434822326</v>
       </c>
-      <c r="G68" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H68" s="8" t="n">
-        <f aca="false">(G68-E68)/F68</f>
+      <c r="G69" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H69" s="8" t="n">
+        <f aca="false">(G69-E69)/F69</f>
         <v>-33.0855787785088</v>
       </c>
-      <c r="I68" s="8" t="n">
-        <f aca="false">E68*M68/G68</f>
+      <c r="I69" s="8" t="n">
+        <f aca="false">E69*M69/G69</f>
         <v>13555.0968139535</v>
       </c>
-      <c r="J68" s="8" t="n">
-        <f aca="false">I68-M68</f>
+      <c r="J69" s="8" t="n">
+        <f aca="false">I69-M69</f>
         <v>4.09681395348889</v>
       </c>
-      <c r="K68" s="19" t="n">
+      <c r="K69" s="19" t="n">
         <v>296</v>
       </c>
-      <c r="L68" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M68" s="8" t="n">
+      <c r="L69" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M69" s="8" t="n">
         <v>13551</v>
       </c>
-      <c r="N68" s="8" t="n">
+      <c r="N69" s="8" t="n">
         <v>109470</v>
       </c>
-      <c r="O68" s="8" t="n">
+      <c r="O69" s="8" t="n">
         <v>2927</v>
       </c>
-      <c r="P68" s="8" t="n">
+      <c r="P69" s="8" t="n">
         <v>1483429680</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="n">
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19" t="n">
+        <v>20220830</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="13" t="n">
+      <c r="C70" s="13" t="n">
         <v>0.142</v>
       </c>
-      <c r="D69" s="14" t="n">
+      <c r="D70" s="14" t="n">
         <v>88054</v>
       </c>
-      <c r="E69" s="14" t="n">
+      <c r="E70" s="14" t="n">
         <v>26033</v>
       </c>
-      <c r="F69" s="13" t="n">
-        <f aca="false">E69/D69</f>
+      <c r="F70" s="13" t="n">
+        <f aca="false">E70/D70</f>
         <v>0.295648125014196</v>
       </c>
-      <c r="G69" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H69" s="14" t="n">
-        <f aca="false">(G69-E69)/F69</f>
+      <c r="G70" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H70" s="14" t="n">
+        <f aca="false">(G70-E70)/F70</f>
         <v>57389.1682864057</v>
       </c>
-      <c r="I69" s="14" t="n">
-        <f aca="false">E69*M69/G69</f>
+      <c r="I70" s="14" t="n">
+        <f aca="false">E70*M70/G70</f>
         <v>4777.96362790698</v>
       </c>
-      <c r="J69" s="14" t="n">
-        <f aca="false">I69-M69</f>
+      <c r="J70" s="14" t="n">
+        <f aca="false">I70-M70</f>
         <v>-3114.03637209302</v>
       </c>
-      <c r="K69" s="12" t="n">
+      <c r="K70" s="12" t="n">
         <v>109</v>
       </c>
-      <c r="L69" s="12" t="s">
+      <c r="L70" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="M69" s="14" t="n">
+      <c r="M70" s="14" t="n">
         <v>7892</v>
       </c>
-      <c r="N69" s="14" t="n">
+      <c r="N70" s="14" t="n">
         <v>88054</v>
       </c>
-      <c r="O69" s="14" t="n">
+      <c r="O70" s="14" t="n">
         <v>1951</v>
       </c>
-      <c r="P69" s="14" t="n">
+      <c r="P70" s="14" t="n">
         <v>694920731</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C71" s="1" t="n">
         <v>0.119</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D71" s="2" t="n">
         <v>106911</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E71" s="2" t="n">
         <v>31164</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <f aca="false">E70/D70</f>
-        <v>0.291494794735808</v>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <f aca="false">(G70-E70)/F70</f>
-        <v>40604.4986522911</v>
-      </c>
-      <c r="I70" s="2" t="n">
-        <f aca="false">E70*M70/G70</f>
-        <v>4710.83720930233</v>
-      </c>
-      <c r="J70" s="2" t="n">
-        <f aca="false">I70-M70</f>
-        <v>-1789.16279069767</v>
-      </c>
-      <c r="K70" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M70" s="2" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N70" s="2" t="n">
-        <v>106911</v>
-      </c>
-      <c r="O70" s="2" t="n">
-        <v>2270</v>
-      </c>
-      <c r="P70" s="2" t="n">
-        <v>694920731</v>
-      </c>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>35520</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>16141</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">E71/D71</f>
-        <v>0.454420045045045</v>
+        <v>0.291494794735808</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H71" s="2" t="n">
         <f aca="false">(G71-E71)/F71</f>
-        <v>59106.1074282882</v>
+        <v>40604.4986522911</v>
       </c>
       <c r="I71" s="2" t="n">
         <f aca="false">E71*M71/G71</f>
-        <v>7186.87409302326</v>
+        <v>4710.83720930233</v>
       </c>
       <c r="J71" s="2" t="n">
         <f aca="false">I71-M71</f>
-        <v>-11959.1259069767</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>159</v>
+        <v>-1789.16279069767</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>19146</v>
+        <v>6500</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>35520</v>
+        <v>106911</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>1996</v>
+        <v>2270</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>680068076</v>
+        <v>694920731</v>
       </c>
       <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0.668</v>
+        <v>0.229</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>12263</v>
+        <v>35520</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>5532</v>
+        <v>16141</v>
       </c>
       <c r="F72" s="1" t="n">
         <f aca="false">E72/D72</f>
-        <v>0.451113104460572</v>
+        <v>0.454420045045045</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H72" s="2" t="n">
         <f aca="false">(G72-E72)/F72</f>
-        <v>83056.7758496023</v>
+        <v>59106.1074282882</v>
       </c>
       <c r="I72" s="2" t="n">
         <f aca="false">E72*M72/G72</f>
-        <v>2115.28241860465</v>
+        <v>7186.87409302326</v>
       </c>
       <c r="J72" s="2" t="n">
         <f aca="false">I72-M72</f>
-        <v>-14326.7175813954</v>
+        <v>-11959.1259069767</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>16442</v>
+        <v>19146</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>12263</v>
+        <v>35520</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>1188</v>
+        <v>1996</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>201632668</v>
-      </c>
+        <v>680068076</v>
+      </c>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0.134</v>
+        <v>0.668</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>60517</v>
+        <v>12263</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>27600</v>
+        <v>5532</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">E73/D73</f>
-        <v>0.456070195151776</v>
+        <v>0.451113104460572</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H73" s="2" t="n">
         <f aca="false">(G73-E73)/F73</f>
-        <v>33766.731884058</v>
+        <v>83056.7758496023</v>
       </c>
       <c r="I73" s="2" t="n">
         <f aca="false">E73*M73/G73</f>
-        <v>13739.023255814</v>
+        <v>2115.28241860465</v>
       </c>
       <c r="J73" s="2" t="n">
         <f aca="false">I73-M73</f>
+        <v>-14326.7175813954</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>16442</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>12263</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="P73" s="2" t="n">
+        <v>201632668</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>60517</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>27600</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="false">E74/D74</f>
+        <v>0.456070195151776</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <f aca="false">(G74-E74)/F74</f>
+        <v>33766.731884058</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <f aca="false">E74*M74/G74</f>
+        <v>13739.023255814</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <f aca="false">I74-M74</f>
         <v>-7665.97674418605</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K74" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="L73" s="0" t="s">
+      <c r="L74" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="M73" s="2" t="n">
+      <c r="M74" s="2" t="n">
         <v>21405</v>
       </c>
-      <c r="N73" s="2" t="n">
+      <c r="N74" s="2" t="n">
         <v>60517</v>
       </c>
-      <c r="O73" s="2" t="n">
+      <c r="O74" s="2" t="n">
         <v>2286</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P74" s="2" t="n">
         <v>1295363390</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="R74" s="19"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C75" s="1" t="n">
         <v>0.085</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D75" s="2" t="n">
         <v>95364</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E75" s="2" t="n">
         <v>43663</v>
-      </c>
-      <c r="F74" s="5" t="n">
-        <f aca="false">E74/D74</f>
-        <v>0.45785621408498</v>
-      </c>
-      <c r="G74" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H74" s="6" t="n">
-        <f aca="false">(G74-E74)/F74</f>
-        <v>-1448.05285940041</v>
-      </c>
-      <c r="I74" s="6" t="n">
-        <f aca="false">E74*M74/G74</f>
-        <v>23180.9913255814</v>
-      </c>
-      <c r="J74" s="6" t="n">
-        <f aca="false">I74-M74</f>
-        <v>351.991325581395</v>
-      </c>
-      <c r="K74" s="4" t="n">
-        <v>257</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M74" s="6" t="n">
-        <v>22829</v>
-      </c>
-      <c r="N74" s="6" t="n">
-        <v>95364</v>
-      </c>
-      <c r="O74" s="6" t="n">
-        <v>2501</v>
-      </c>
-      <c r="P74" s="6" t="n">
-        <v>2177064134</v>
-      </c>
-    </row>
-    <row r="75" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>38035</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>18024</v>
       </c>
       <c r="F75" s="1" t="n">
         <f aca="false">E75/D75</f>
-        <v>0.473879321677402</v>
+        <v>0.45785621408498</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H75" s="2" t="n">
         <f aca="false">(G75-E75)/F75</f>
-        <v>52705.40168664</v>
+        <v>-1448.05285940041</v>
       </c>
       <c r="I75" s="2" t="n">
         <f aca="false">E75*M75/G75</f>
-        <v>9716.61265116279</v>
-      </c>
-      <c r="J75" s="14" t="n">
+        <v>23180.9913255814</v>
+      </c>
+      <c r="J75" s="2" t="n">
         <f aca="false">I75-M75</f>
-        <v>-13464.3873488372</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>288</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>164</v>
+        <v>351.991325581395</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>257</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>23181</v>
+        <v>22829</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>38035</v>
+        <v>95364</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>1958</v>
+        <v>2501</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>881700744</v>
-      </c>
-      <c r="Q75" s="12" t="s">
-        <v>165</v>
+        <v>2177064134</v>
       </c>
     </row>
     <row r="76" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0.225</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>35774</v>
+        <v>38035</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>16433</v>
+        <v>18024</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="false">E76/D76</f>
-        <v>0.459355956840163</v>
+        <v>0.473879321677402</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H76" s="2" t="n">
         <f aca="false">(G76-E76)/F76</f>
-        <v>57835.3227043145</v>
+        <v>52705.40168664</v>
       </c>
       <c r="I76" s="2" t="n">
         <f aca="false">E76*M76/G76</f>
+        <v>9716.61265116279</v>
+      </c>
+      <c r="J76" s="14" t="n">
+        <f aca="false">I76-M76</f>
+        <v>-13464.3873488372</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>23181</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>38035</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>1958</v>
+      </c>
+      <c r="P76" s="2" t="n">
+        <v>881700744</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="R76" s="12"/>
+    </row>
+    <row r="77" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="19" t="n">
+        <v>96</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="10" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D77" s="19" t="n">
+        <v>91213</v>
+      </c>
+      <c r="E77" s="19" t="n">
+        <v>43150</v>
+      </c>
+      <c r="F77" s="10" t="n">
+        <f aca="false">E77/D77</f>
+        <v>0.473068531897865</v>
+      </c>
+      <c r="G77" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H77" s="8" t="n">
+        <f aca="false">(G77-E77)/F77</f>
+        <v>-317.078794901506</v>
+      </c>
+      <c r="I77" s="8" t="n">
+        <f aca="false">E77*M77/G77</f>
+        <v>23951.2604651163</v>
+      </c>
+      <c r="J77" s="8" t="n">
+        <f aca="false">I77-M77</f>
+        <v>83.2604651162801</v>
+      </c>
+      <c r="K77" s="19" t="n">
+        <v>301</v>
+      </c>
+      <c r="L77" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="M77" s="19" t="n">
+        <v>23868</v>
+      </c>
+      <c r="N77" s="19" t="n">
+        <v>91213</v>
+      </c>
+      <c r="O77" s="19" t="n">
+        <v>2461</v>
+      </c>
+      <c r="P77" s="19" t="n">
+        <v>2177064134</v>
+      </c>
+      <c r="R77" s="19" t="n">
+        <v>20220912</v>
+      </c>
+    </row>
+    <row r="78" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>35774</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>16433</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="false">E78/D78</f>
+        <v>0.459355956840163</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <f aca="false">(G78-E78)/F78</f>
+        <v>57835.3227043145</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <f aca="false">E78*M78/G78</f>
         <v>7111.28520930233</v>
       </c>
-      <c r="J76" s="2" t="n">
-        <f aca="false">I76-M76</f>
+      <c r="J78" s="2" t="n">
+        <f aca="false">I78-M78</f>
         <v>-11496.7147906977</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="L76" s="0" t="s">
+      <c r="L78" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="M76" s="2" t="n">
+      <c r="M78" s="2" t="n">
         <v>18608</v>
       </c>
-      <c r="N76" s="2" t="n">
+      <c r="N78" s="2" t="n">
         <v>35774</v>
       </c>
-      <c r="O76" s="2" t="n">
+      <c r="O78" s="2" t="n">
         <v>2151</v>
       </c>
-      <c r="P76" s="2" t="n">
+      <c r="P78" s="2" t="n">
         <v>665689450</v>
       </c>
-      <c r="Q76" s="0"/>
-    </row>
-    <row r="77" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>19800</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <f aca="false">E77/D77</f>
-        <v>0.459090909090909</v>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <f aca="false">(G77-E77)/F77</f>
-        <v>73863.3663366337</v>
-      </c>
-      <c r="I77" s="2" t="n">
-        <f aca="false">E77*M77/G77</f>
-        <v>3739.37232558139</v>
-      </c>
-      <c r="J77" s="2" t="n">
-        <f aca="false">I77-M77</f>
-        <v>-13949.6276744186</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="M77" s="2" t="n">
-        <v>17689</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>19800</v>
-      </c>
-      <c r="O77" s="2" t="n">
-        <v>1713</v>
-      </c>
-      <c r="P77" s="2" t="n">
-        <v>350238945</v>
-      </c>
-      <c r="Q77" s="0"/>
-    </row>
-    <row r="78" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="n">
-        <v>62</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="13" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D78" s="14" t="n">
-        <v>52281</v>
-      </c>
-      <c r="E78" s="14" t="n">
-        <v>24035</v>
-      </c>
-      <c r="F78" s="13" t="n">
-        <f aca="false">E78/D78</f>
-        <v>0.459727243166734</v>
-      </c>
-      <c r="G78" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H78" s="14" t="n">
-        <f aca="false">(G78-E78)/F78</f>
-        <v>41252.7216559185</v>
-      </c>
-      <c r="I78" s="14" t="n">
-        <f aca="false">E78*M78/G78</f>
-        <v>10861.5841860465</v>
-      </c>
-      <c r="J78" s="14" t="n">
-        <f aca="false">I78-M78</f>
-        <v>-8570.41581395349</v>
-      </c>
-      <c r="K78" s="12" t="n">
-        <v>159</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="M78" s="14" t="n">
-        <v>19432</v>
-      </c>
-      <c r="N78" s="14" t="n">
-        <v>52281</v>
-      </c>
-      <c r="O78" s="14" t="n">
-        <v>2400</v>
-      </c>
-      <c r="P78" s="14" t="n">
-        <v>1015928395</v>
-      </c>
       <c r="Q78" s="0"/>
+      <c r="R78" s="0"/>
     </row>
     <row r="79" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0.104</v>
+        <v>0.407</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>84661</v>
+        <v>19800</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>35506</v>
+        <v>9090</v>
       </c>
       <c r="F79" s="1" t="n">
         <f aca="false">E79/D79</f>
-        <v>0.419390274152207</v>
+        <v>0.459090909090909</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H79" s="2" t="n">
         <f aca="false">(G79-E79)/F79</f>
-        <v>17868.7977806568</v>
+        <v>73863.3663366337</v>
       </c>
       <c r="I79" s="2" t="n">
         <f aca="false">E79*M79/G79</f>
-        <v>9908.6511627907</v>
+        <v>3739.37232558139</v>
       </c>
       <c r="J79" s="2" t="n">
         <f aca="false">I79-M79</f>
-        <v>-2091.3488372093</v>
+        <v>-13949.6276744186</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>12000</v>
+        <v>17689</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>84661</v>
+        <v>19800</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>3305</v>
+        <v>1713</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>1015928395</v>
-      </c>
-      <c r="Q79" s="12"/>
+        <v>350238945</v>
+      </c>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
       <c r="AMG79" s="0"/>
       <c r="AMH79" s="0"/>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
     <row r="80" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>66569</v>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>26431</v>
-      </c>
-      <c r="F80" s="1" t="n">
+      <c r="C80" s="13" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D80" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="E80" s="14" t="n">
+        <v>24035</v>
+      </c>
+      <c r="F80" s="13" t="n">
         <f aca="false">E80/D80</f>
-        <v>0.397046673376497</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H80" s="2" t="n">
+        <v>0.459727243166734</v>
+      </c>
+      <c r="G80" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H80" s="14" t="n">
         <f aca="false">(G80-E80)/F80</f>
-        <v>41730.61030608</v>
-      </c>
-      <c r="I80" s="2" t="n">
+        <v>41252.7216559185</v>
+      </c>
+      <c r="I80" s="14" t="n">
         <f aca="false">E80*M80/G80</f>
-        <v>6146.74418604651</v>
-      </c>
-      <c r="J80" s="2" t="n">
+        <v>10861.5841860465</v>
+      </c>
+      <c r="J80" s="14" t="n">
         <f aca="false">I80-M80</f>
-        <v>-3853.25581395349</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="M80" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>66569</v>
-      </c>
-      <c r="O80" s="2" t="n">
-        <v>3218</v>
-      </c>
-      <c r="P80" s="2" t="n">
-        <v>665689450</v>
-      </c>
-      <c r="Q80" s="12"/>
+        <v>-8570.41581395349</v>
+      </c>
+      <c r="K80" s="12" t="n">
+        <v>159</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M80" s="14" t="n">
+        <v>19432</v>
+      </c>
+      <c r="N80" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="O80" s="14" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P80" s="14" t="n">
+        <v>1015928395</v>
+      </c>
+      <c r="Q80" s="0"/>
+      <c r="R80" s="0"/>
     </row>
     <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="n">
-        <v>63</v>
-      </c>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C81" s="13" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="D81" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="E81" s="14" t="n">
-        <v>16906</v>
-      </c>
-      <c r="F81" s="13" t="n">
+      <c r="B81" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>35506</v>
+      </c>
+      <c r="F81" s="1" t="n">
         <f aca="false">E81/D81</f>
-        <v>0.428065022535069</v>
-      </c>
-      <c r="G81" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H81" s="14" t="n">
+        <v>0.419390274152207</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H81" s="2" t="n">
         <f aca="false">(G81-E81)/F81</f>
-        <v>60958.0288654915</v>
-      </c>
-      <c r="I81" s="14" t="n">
+        <v>17868.7977806568</v>
+      </c>
+      <c r="I81" s="2" t="n">
         <f aca="false">E81*M81/G81</f>
-        <v>5073.76581395349</v>
-      </c>
-      <c r="J81" s="14" t="n">
+        <v>9908.6511627907</v>
+      </c>
+      <c r="J81" s="2" t="n">
         <f aca="false">I81-M81</f>
-        <v>-7831.23418604651</v>
-      </c>
-      <c r="K81" s="12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="M81" s="14" t="n">
-        <v>12905</v>
-      </c>
-      <c r="N81" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="O81" s="14" t="n">
-        <v>2190</v>
-      </c>
-      <c r="P81" s="14" t="n">
-        <v>509668347</v>
+        <v>-2091.3488372093</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>84661</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>3305</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>1015928395</v>
       </c>
       <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
     </row>
     <row r="82" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.144</v>
+        <v>0.14</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>56061</v>
+        <v>66569</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>25577</v>
+        <v>26431</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">E82/D82</f>
-        <v>0.456235172401491</v>
+        <v>0.397046673376497</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H82" s="2" t="n">
         <f aca="false">(G82-E82)/F82</f>
-        <v>38188.6383469523</v>
+        <v>41730.61030608</v>
       </c>
       <c r="I82" s="2" t="n">
         <f aca="false">E82*M82/G82</f>
-        <v>8687.85260465116</v>
+        <v>6146.74418604651</v>
       </c>
       <c r="J82" s="2" t="n">
         <f aca="false">I82-M82</f>
-        <v>-5918.14739534884</v>
+        <v>-3853.25581395349</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>14606</v>
+        <v>10000</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>56061</v>
+        <v>66569</v>
       </c>
       <c r="O82" s="2" t="n">
-        <v>2538</v>
+        <v>3218</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>818820178</v>
-      </c>
-      <c r="Q82" s="0"/>
+        <v>665689450</v>
+      </c>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
     </row>
     <row r="83" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>9341</v>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>4234</v>
-      </c>
-      <c r="F83" s="1" t="n">
+      <c r="A83" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="13" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D83" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="E83" s="14" t="n">
+        <v>16906</v>
+      </c>
+      <c r="F83" s="13" t="n">
         <f aca="false">E83/D83</f>
-        <v>0.453270527780752</v>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H83" s="2" t="n">
+        <v>0.428065022535069</v>
+      </c>
+      <c r="G83" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H83" s="14" t="n">
         <f aca="false">(G83-E83)/F83</f>
-        <v>85525.084081247</v>
-      </c>
-      <c r="I83" s="2" t="n">
+        <v>60958.0288654915</v>
+      </c>
+      <c r="I83" s="14" t="n">
         <f aca="false">E83*M83/G83</f>
-        <v>1147.51246511628</v>
-      </c>
-      <c r="J83" s="2" t="n">
+        <v>5073.76581395349</v>
+      </c>
+      <c r="J83" s="14" t="n">
         <f aca="false">I83-M83</f>
-        <v>-10506.4875348837</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>191</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="M83" s="2" t="n">
-        <v>11654</v>
-      </c>
-      <c r="N83" s="2" t="n">
-        <v>9341</v>
-      </c>
-      <c r="O83" s="2" t="n">
-        <v>1271</v>
-      </c>
-      <c r="P83" s="2" t="n">
-        <v>108865707</v>
-      </c>
-      <c r="Q83" s="0"/>
+        <v>-7831.23418604651</v>
+      </c>
+      <c r="K83" s="12" t="n">
+        <v>178</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M83" s="14" t="n">
+        <v>12905</v>
+      </c>
+      <c r="N83" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="O83" s="14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="P83" s="14" t="n">
+        <v>509668347</v>
+      </c>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
     </row>
     <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>0.161</v>
+        <v>0.144</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>50234</v>
+        <v>56061</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>22928</v>
+        <v>25577</v>
       </c>
       <c r="F84" s="1" t="n">
         <f aca="false">E84/D84</f>
-        <v>0.456423935979615</v>
+        <v>0.456235172401491</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H84" s="2" t="n">
         <f aca="false">(G84-E84)/F84</f>
-        <v>43976.6594556874</v>
+        <v>38188.6383469523</v>
       </c>
       <c r="I84" s="2" t="n">
         <f aca="false">E84*M84/G84</f>
-        <v>7627.02586046512</v>
+        <v>8687.85260465116</v>
       </c>
       <c r="J84" s="2" t="n">
         <f aca="false">I84-M84</f>
-        <v>-6676.97413953488</v>
+        <v>-5918.14739534884</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>14304</v>
+        <v>14606</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>50234</v>
+        <v>56061</v>
       </c>
       <c r="O84" s="2" t="n">
-        <v>2496</v>
+        <v>2538</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>718546548</v>
+        <v>818820178</v>
       </c>
       <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0.38</v>
+        <v>0.873</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>103465</v>
+        <v>9341</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>47379</v>
+        <v>4234</v>
       </c>
       <c r="F85" s="1" t="n">
         <f aca="false">E85/D85</f>
-        <v>0.457922969119992</v>
+        <v>0.453270527780752</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H85" s="2" t="n">
         <f aca="false">(G85-E85)/F85</f>
-        <v>-9562.74372612339</v>
+        <v>85525.084081247</v>
       </c>
       <c r="I85" s="2" t="n">
         <f aca="false">E85*M85/G85</f>
-        <v>17531.3318372093</v>
+        <v>1147.51246511628</v>
       </c>
       <c r="J85" s="2" t="n">
         <f aca="false">I85-M85</f>
+        <v>-10506.4875348837</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>11654</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>9341</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>108865707</v>
+      </c>
+    </row>
+    <row r="86" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>22928</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <f aca="false">E86/D86</f>
+        <v>0.456423935979615</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <f aca="false">(G86-E86)/F86</f>
+        <v>43976.6594556874</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <f aca="false">E86*M86/G86</f>
+        <v>7627.02586046512</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <f aca="false">I86-M86</f>
+        <v>-6676.97413953488</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>14304</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>50234</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>2496</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>718546548</v>
+      </c>
+      <c r="Q86" s="0"/>
+      <c r="R86" s="0"/>
+    </row>
+    <row r="87" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>103465</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>47379</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <f aca="false">E87/D87</f>
+        <v>0.457922969119992</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <f aca="false">(G87-E87)/F87</f>
+        <v>-9562.74372612339</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <f aca="false">E87*M87/G87</f>
+        <v>17531.3318372093</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <f aca="false">I87-M87</f>
         <v>1620.3318372093</v>
       </c>
-      <c r="K85" s="0" t="n">
+      <c r="K87" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="L85" s="0" t="s">
+      <c r="L87" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="M85" s="2" t="n">
+      <c r="M87" s="2" t="n">
         <v>15911</v>
       </c>
-      <c r="N85" s="2" t="n">
+      <c r="N87" s="2" t="n">
         <v>103465</v>
       </c>
-      <c r="O85" s="2" t="n">
+      <c r="O87" s="2" t="n">
         <v>2730</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P87" s="2" t="n">
         <v>1646232433</v>
       </c>
-    </row>
-    <row r="86" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20" t="n">
-        <v>93</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="D86" s="6" t="n">
-        <v>93904</v>
-      </c>
-      <c r="E86" s="6" t="n">
-        <v>43404</v>
-      </c>
-      <c r="F86" s="5" t="n">
-        <f aca="false">E86/D86</f>
-        <v>0.462216731981598</v>
-      </c>
-      <c r="G86" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H86" s="6" t="n">
-        <f aca="false">(G86-E86)/F86</f>
-        <v>-874.048843424569</v>
-      </c>
-      <c r="I86" s="6" t="n">
-        <f aca="false">E86*M86/G86</f>
-        <v>17695.7098604651</v>
-      </c>
-      <c r="J86" s="6" t="n">
-        <f aca="false">I86-M86</f>
-        <v>164.709860465115</v>
-      </c>
-      <c r="K86" s="20" t="n">
-        <v>297</v>
-      </c>
-      <c r="L86" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="M86" s="6" t="n">
-        <v>17531</v>
-      </c>
-      <c r="N86" s="6" t="n">
-        <v>93904</v>
-      </c>
-      <c r="O86" s="6" t="n">
-        <v>2524</v>
-      </c>
-      <c r="P86" s="6" t="n">
-        <v>1646232433</v>
-      </c>
-    </row>
-    <row r="87" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="n">
-        <v>67</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="13" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="D87" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="E87" s="14" t="n">
-        <v>10616</v>
-      </c>
-      <c r="F87" s="13" t="n">
-        <f aca="false">E87/D87</f>
-        <v>0.35149990066883</v>
-      </c>
-      <c r="G87" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H87" s="14" t="n">
-        <f aca="false">(G87-E87)/F87</f>
-        <v>92130.8937452901</v>
-      </c>
-      <c r="I87" s="14" t="n">
-        <f aca="false">E87*M87/G87</f>
-        <v>4480.44576744186</v>
-      </c>
-      <c r="J87" s="14" t="n">
-        <f aca="false">I87-M87</f>
-        <v>-13667.5542325581</v>
-      </c>
-      <c r="K87" s="12" t="n">
-        <v>179</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M87" s="14" t="n">
-        <v>18148</v>
-      </c>
-      <c r="N87" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="O87" s="14" t="n">
-        <v>2189</v>
-      </c>
-      <c r="P87" s="14" t="n">
-        <v>548108581</v>
-      </c>
       <c r="Q87" s="0"/>
+      <c r="R87" s="20"/>
       <c r="AMG87" s="0"/>
       <c r="AMH87" s="0"/>
       <c r="AMI87" s="0"/>
@@ -16833,454 +17108,630 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>0.106</v>
+        <v>0.991</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>68439</v>
+        <v>93904</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>34918</v>
+        <v>43404</v>
       </c>
       <c r="F88" s="1" t="n">
         <f aca="false">E88/D88</f>
-        <v>0.510206168997209</v>
+        <v>0.462216731981598</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H88" s="2" t="n">
         <f aca="false">(G88-E88)/F88</f>
-        <v>15840.6551921645</v>
+        <v>-874.048843424569</v>
       </c>
       <c r="I88" s="2" t="n">
         <f aca="false">E88*M88/G88</f>
-        <v>9006.40786046512</v>
+        <v>17695.7098604651</v>
       </c>
       <c r="J88" s="2" t="n">
         <f aca="false">I88-M88</f>
-        <v>-2084.59213953488</v>
+        <v>164.709860465115</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>11091</v>
+        <v>17531</v>
       </c>
       <c r="N88" s="2" t="n">
-        <v>68439</v>
+        <v>93904</v>
       </c>
       <c r="O88" s="2" t="n">
-        <v>2470</v>
+        <v>2524</v>
       </c>
       <c r="P88" s="2" t="n">
-        <v>759054298</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>7662</v>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>3824</v>
-      </c>
-      <c r="F89" s="1" t="n">
+        <v>1646232433</v>
+      </c>
+      <c r="R88" s="19" t="n">
+        <v>20220830</v>
+      </c>
+    </row>
+    <row r="89" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="19" t="n">
+        <v>97</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="19" t="n">
+        <v>93029</v>
+      </c>
+      <c r="E89" s="19" t="n">
+        <v>43024</v>
+      </c>
+      <c r="F89" s="10" t="n">
         <f aca="false">E89/D89</f>
-        <v>0.499086400417646</v>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H89" s="2" t="n">
+        <v>0.462479441894463</v>
+      </c>
+      <c r="G89" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H89" s="8" t="n">
         <f aca="false">(G89-E89)/F89</f>
-        <v>78495.4267782427</v>
-      </c>
-      <c r="I89" s="2" t="n">
+        <v>-51.8941985868353</v>
+      </c>
+      <c r="I89" s="8" t="n">
         <f aca="false">E89*M89/G89</f>
-        <v>731.451162790698</v>
-      </c>
-      <c r="J89" s="2" t="n">
+        <v>17705.8768372093</v>
+      </c>
+      <c r="J89" s="8" t="n">
         <f aca="false">I89-M89</f>
-        <v>-7493.5488372093</v>
-      </c>
-      <c r="K89" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="L89" s="0" t="s">
+        <v>9.87683720930363</v>
+      </c>
+      <c r="K89" s="19" t="n">
+        <v>300</v>
+      </c>
+      <c r="L89" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M89" s="19" t="n">
+        <v>17696</v>
+      </c>
+      <c r="N89" s="19" t="n">
+        <v>93029</v>
+      </c>
+      <c r="O89" s="19" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P89" s="19" t="n">
+        <v>1646232433</v>
+      </c>
+      <c r="R89" s="19" t="n">
+        <v>20220912</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="13" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D90" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="E90" s="14" t="n">
+        <v>10616</v>
+      </c>
+      <c r="F90" s="13" t="n">
+        <f aca="false">E90/D90</f>
+        <v>0.35149990066883</v>
+      </c>
+      <c r="G90" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H90" s="14" t="n">
+        <f aca="false">(G90-E90)/F90</f>
+        <v>92130.8937452901</v>
+      </c>
+      <c r="I90" s="14" t="n">
+        <f aca="false">E90*M90/G90</f>
+        <v>4480.44576744186</v>
+      </c>
+      <c r="J90" s="14" t="n">
+        <f aca="false">I90-M90</f>
+        <v>-13667.5542325581</v>
+      </c>
+      <c r="K90" s="12" t="n">
         <v>179</v>
       </c>
-      <c r="M89" s="2" t="n">
-        <v>8225</v>
-      </c>
-      <c r="N89" s="2" t="n">
-        <v>7662</v>
-      </c>
-      <c r="O89" s="2" t="n">
-        <v>1166</v>
-      </c>
-      <c r="P89" s="2" t="n">
-        <v>63023534</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>39754</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>20241</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <f aca="false">E90/D90</f>
-        <v>0.509156311314585</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <f aca="false">(G90-E90)/F90</f>
-        <v>44699.4360950546</v>
-      </c>
-      <c r="I90" s="2" t="n">
-        <f aca="false">E90*M90/G90</f>
-        <v>4921.3873255814</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <f aca="false">I90-M90</f>
-        <v>-5533.61267441861</v>
-      </c>
-      <c r="K90" s="0" t="n">
-        <v>242</v>
-      </c>
-      <c r="L90" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>10455</v>
-      </c>
-      <c r="N90" s="2" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O90" s="2" t="n">
-        <v>2244</v>
-      </c>
-      <c r="P90" s="2" t="n">
-        <v>415628392</v>
-      </c>
+      <c r="L90" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M90" s="14" t="n">
+        <v>18148</v>
+      </c>
+      <c r="N90" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="O90" s="14" t="n">
+        <v>2189</v>
+      </c>
+      <c r="P90" s="14" t="n">
+        <v>548108581</v>
+      </c>
+      <c r="R90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>0.331</v>
+        <v>0.106</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>106350</v>
+        <v>68439</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>54474</v>
+        <v>34918</v>
       </c>
       <c r="F91" s="1" t="n">
         <f aca="false">E91/D91</f>
-        <v>0.512214386459803</v>
+        <v>0.510206168997209</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H91" s="2" t="n">
         <f aca="false">(G91-E91)/F91</f>
-        <v>-22400.7765172376</v>
+        <v>15840.6551921645</v>
       </c>
       <c r="I91" s="2" t="n">
         <f aca="false">E91*M91/G91</f>
-        <v>14743.4514418605</v>
+        <v>9006.40786046512</v>
       </c>
       <c r="J91" s="2" t="n">
         <f aca="false">I91-M91</f>
+        <v>-2084.59213953488</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>11091</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>759054298</v>
+      </c>
+    </row>
+    <row r="92" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>3824</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <f aca="false">E92/D92</f>
+        <v>0.499086400417646</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <f aca="false">(G92-E92)/F92</f>
+        <v>78495.4267782427</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <f aca="false">E92*M92/G92</f>
+        <v>731.451162790698</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <f aca="false">I92-M92</f>
+        <v>-7493.5488372093</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>8225</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>1166</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>63023534</v>
+      </c>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>20241</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <f aca="false">E93/D93</f>
+        <v>0.509156311314585</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <f aca="false">(G93-E93)/F93</f>
+        <v>44699.4360950546</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <f aca="false">E93*M93/G93</f>
+        <v>4921.3873255814</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <f aca="false">I93-M93</f>
+        <v>-5533.61267441861</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>10455</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>415628392</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>106350</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>54474</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <f aca="false">E94/D94</f>
+        <v>0.512214386459803</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <f aca="false">(G94-E94)/F94</f>
+        <v>-22400.7765172376</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <f aca="false">E94*M94/G94</f>
+        <v>14743.4514418605</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <f aca="false">I94-M94</f>
         <v>3105.45144186046</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="K94" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="L91" s="0" t="s">
+      <c r="L94" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="M91" s="2" t="n">
+      <c r="M94" s="2" t="n">
         <v>11638</v>
       </c>
-      <c r="N91" s="2" t="n">
+      <c r="N94" s="2" t="n">
         <v>106350</v>
       </c>
-      <c r="O91" s="2" t="n">
+      <c r="O94" s="2" t="n">
         <v>2601</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P94" s="2" t="n">
         <v>1237706224</v>
       </c>
-    </row>
-    <row r="92" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19" t="n">
+      <c r="R94" s="19"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="19" t="n">
         <v>94</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="10" t="n">
+      <c r="B95" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="10" t="n">
         <v>0.965</v>
       </c>
-      <c r="D92" s="8" t="n">
+      <c r="D95" s="8" t="n">
         <v>83952</v>
       </c>
-      <c r="E92" s="8" t="n">
+      <c r="E95" s="8" t="n">
         <v>44586</v>
       </c>
-      <c r="F92" s="10" t="n">
-        <f aca="false">E92/D92</f>
+      <c r="F95" s="10" t="n">
+        <f aca="false">E95/D95</f>
         <v>0.531089193825043</v>
       </c>
-      <c r="G92" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H92" s="8" t="n">
-        <f aca="false">(G92-E92)/F92</f>
+      <c r="G95" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H95" s="8" t="n">
+        <f aca="false">(G95-E95)/F95</f>
         <v>-2986.31570448123</v>
       </c>
-      <c r="I92" s="8" t="n">
-        <f aca="false">E92*M92/G92</f>
+      <c r="I95" s="8" t="n">
+        <f aca="false">E95*M95/G95</f>
         <v>15286.7766976744</v>
       </c>
-      <c r="J92" s="8" t="n">
-        <f aca="false">I92-M92</f>
+      <c r="J95" s="8" t="n">
+        <f aca="false">I95-M95</f>
         <v>543.776697674419</v>
       </c>
-      <c r="K92" s="19" t="n">
+      <c r="K95" s="19" t="n">
         <v>298</v>
       </c>
-      <c r="L92" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="M92" s="8" t="n">
+      <c r="L95" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M95" s="8" t="n">
         <v>14743</v>
       </c>
-      <c r="N92" s="8" t="n">
+      <c r="N95" s="8" t="n">
         <v>83952</v>
       </c>
-      <c r="O92" s="8" t="n">
+      <c r="O95" s="8" t="n">
         <v>2126</v>
       </c>
-      <c r="P92" s="8" t="n">
+      <c r="P95" s="8" t="n">
         <v>1237706224</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="n">
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19" t="n">
+        <v>20220830</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B96" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="13" t="n">
+      <c r="C96" s="13" t="n">
         <v>0.171</v>
       </c>
-      <c r="D93" s="14" t="n">
+      <c r="D96" s="14" t="n">
         <v>62740</v>
       </c>
-      <c r="E93" s="14" t="n">
+      <c r="E96" s="14" t="n">
         <v>21660</v>
       </c>
-      <c r="F93" s="13" t="n">
-        <f aca="false">E93/D93</f>
+      <c r="F96" s="13" t="n">
+        <f aca="false">E96/D96</f>
         <v>0.345234300286898</v>
       </c>
-      <c r="G93" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H93" s="14" t="n">
-        <f aca="false">(G93-E93)/F93</f>
+      <c r="G96" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H96" s="14" t="n">
+        <f aca="false">(G96-E96)/F96</f>
         <v>61813.0932594644</v>
       </c>
-      <c r="I93" s="14" t="n">
-        <f aca="false">E93*M93/G93</f>
+      <c r="I96" s="14" t="n">
+        <f aca="false">E96*M96/G96</f>
         <v>4818.09069767442</v>
       </c>
-      <c r="J93" s="14" t="n">
-        <f aca="false">I93-M93</f>
+      <c r="J96" s="14" t="n">
+        <f aca="false">I96-M96</f>
         <v>-4746.90930232558</v>
       </c>
-      <c r="K93" s="12" t="n">
+      <c r="K96" s="12" t="n">
         <v>180</v>
       </c>
-      <c r="L93" s="12" t="s">
+      <c r="L96" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M93" s="14" t="n">
+      <c r="M96" s="14" t="n">
         <v>9565</v>
       </c>
-      <c r="N93" s="14" t="n">
+      <c r="N96" s="14" t="n">
         <v>62740</v>
       </c>
-      <c r="O93" s="14" t="n">
+      <c r="O96" s="14" t="n">
         <v>2391</v>
       </c>
-      <c r="P93" s="14" t="n">
+      <c r="P96" s="14" t="n">
         <v>600104724</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="n">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="n">
         <v>72</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B97" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="13" t="n">
+      <c r="C97" s="13" t="n">
         <v>0.131</v>
       </c>
-      <c r="D94" s="14" t="n">
+      <c r="D97" s="14" t="n">
         <v>62701</v>
       </c>
-      <c r="E94" s="14" t="n">
+      <c r="E97" s="14" t="n">
         <v>28144</v>
       </c>
-      <c r="F94" s="13" t="n">
-        <f aca="false">E94/D94</f>
+      <c r="F97" s="13" t="n">
+        <f aca="false">E97/D97</f>
         <v>0.448860464745379</v>
       </c>
-      <c r="G94" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H94" s="14" t="n">
-        <f aca="false">(G94-E94)/F94</f>
+      <c r="G97" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H97" s="14" t="n">
+        <f aca="false">(G97-E97)/F97</f>
         <v>33097.1452529847</v>
       </c>
-      <c r="I94" s="14" t="n">
-        <f aca="false">E94*M94/G94</f>
+      <c r="I97" s="14" t="n">
+        <f aca="false">E97*M97/G97</f>
         <v>6064.70474418605</v>
       </c>
-      <c r="J94" s="14" t="n">
-        <f aca="false">I94-M94</f>
+      <c r="J97" s="14" t="n">
+        <f aca="false">I97-M97</f>
         <v>-3201.29525581395</v>
       </c>
-      <c r="K94" s="12" t="n">
+      <c r="K97" s="12" t="n">
         <v>176</v>
       </c>
-      <c r="L94" s="12" t="s">
+      <c r="L97" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M94" s="14" t="n">
+      <c r="M97" s="14" t="n">
         <v>9266</v>
       </c>
-      <c r="N94" s="14" t="n">
+      <c r="N97" s="14" t="n">
         <v>62701</v>
       </c>
-      <c r="O94" s="14" t="n">
+      <c r="O97" s="14" t="n">
         <v>2372</v>
       </c>
-      <c r="P94" s="14" t="n">
+      <c r="P97" s="14" t="n">
         <v>580988437</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="n">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12" t="n">
         <v>73</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B98" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="13" t="n">
+      <c r="C98" s="13" t="n">
         <v>0.17</v>
       </c>
-      <c r="D95" s="14" t="n">
+      <c r="D98" s="14" t="n">
         <v>43884</v>
       </c>
-      <c r="E95" s="14" t="n">
+      <c r="E98" s="14" t="n">
         <v>21783</v>
       </c>
-      <c r="F95" s="13" t="n">
-        <f aca="false">E95/D95</f>
+      <c r="F98" s="13" t="n">
+        <f aca="false">E98/D98</f>
         <v>0.496376811594203</v>
       </c>
-      <c r="G95" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H95" s="14" t="n">
-        <f aca="false">(G95-E95)/F95</f>
+      <c r="G98" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H98" s="14" t="n">
+        <f aca="false">(G98-E98)/F98</f>
         <v>42743.7372262774</v>
       </c>
-      <c r="I95" s="14" t="n">
-        <f aca="false">E95*M95/G95</f>
+      <c r="I98" s="14" t="n">
+        <f aca="false">E98*M98/G98</f>
         <v>5969.5551627907</v>
       </c>
-      <c r="J95" s="14" t="n">
-        <f aca="false">I95-M95</f>
+      <c r="J98" s="14" t="n">
+        <f aca="false">I98-M98</f>
         <v>-5814.4448372093</v>
       </c>
-      <c r="K95" s="12" t="n">
+      <c r="K98" s="12" t="n">
         <v>177</v>
       </c>
-      <c r="L95" s="12" t="s">
+      <c r="L98" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="M95" s="14" t="n">
+      <c r="M98" s="14" t="n">
         <v>11784</v>
       </c>
-      <c r="N95" s="14" t="n">
+      <c r="N98" s="14" t="n">
         <v>43884</v>
       </c>
-      <c r="O95" s="14" t="n">
+      <c r="O98" s="14" t="n">
         <v>2804</v>
       </c>
-      <c r="P95" s="14" t="n">
+      <c r="P98" s="14" t="n">
         <v>517123870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q95"/>
+  <autoFilter ref="A1:R98"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F3:F95 F1">
+  <conditionalFormatting sqref="F2:G2 F3:F98 F1">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H95">
+  <conditionalFormatting sqref="H1:H98">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J95">
+  <conditionalFormatting sqref="J1:J98">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -17310,11 +17761,11 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -17354,7 +17805,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -17516,7 +17967,7 @@
         <v>291</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>9721</v>
@@ -17570,7 +18021,7 @@
         <v>292</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>9455</v>
@@ -17624,7 +18075,7 @@
         <v>293</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M6" s="20" t="n">
         <v>24013</v>
@@ -17732,7 +18183,7 @@
         <v>294</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>14711</v>
@@ -17786,7 +18237,7 @@
         <v>295</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>23571</v>
@@ -17894,7 +18345,7 @@
         <v>296</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>13551</v>
@@ -18002,7 +18453,7 @@
         <v>297</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M13" s="20" t="n">
         <v>17531</v>
@@ -18056,7 +18507,7 @@
         <v>298</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>14743</v>
@@ -18102,4 +18553,2769 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>43123</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">E2/D2</f>
+        <v>0.553092975233111</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">(G2-E2)/F2</f>
+        <v>-222.385757020615</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">E2*M2/G2</f>
+        <v>10769.7185348837</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">I2-M2</f>
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10739</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>77967</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2116</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>837283164</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">(G3-E3)/F3</f>
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">E3*M3/G3</f>
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">I3-M3</f>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>555559035</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>43051</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.534409990317535</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">(G4-E4)/F4</f>
+        <v>-95.4323476806578</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">E4*M4/G4</f>
+        <v>9732.52955813953</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">I4-M4</f>
+        <v>11.5295581395349</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5/D5</f>
+        <v>0.579367110775821</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">(G5-E5)/F5</f>
+        <v>-12.0821494175367</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">E5*M5/G5</f>
+        <v>9456.53918604651</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">I5-M5</f>
+        <v>1.53918604651153</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>701851123</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>86984</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>43039</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">E6/D6</f>
+        <v>0.494792145681964</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">(G6-E6)/F6</f>
+        <v>-78.8209763237993</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">E6*M6/G6</f>
+        <v>24390.1012093023</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">I6-M6</f>
+        <v>22.1012093023273</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>24368</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>86984</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2656</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2119632070</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">(G7-E7)/F7</f>
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">E7*M7/G7</f>
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">I7-M7</f>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>380140590</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">E8/D8</f>
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">(G8-E8)/F8</f>
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">E8*M8/G8</f>
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">I8-M8</f>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1582564131</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>43038</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.530776345809952</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">(G9-E9)/F9</f>
+        <v>-71.5932431804452</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">E9*M9/G9</f>
+        <v>23591.8301860465</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">I9-M9</f>
+        <v>20.8301860465108</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">E10/D10</f>
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">(G10-E10)/F10</f>
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">E10*M10/G10</f>
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">I10-M10</f>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>43013</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">E11/D11</f>
+        <v>0.392920434822326</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">(G11-E11)/F11</f>
+        <v>-33.0855787785088</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">E11*M11/G11</f>
+        <v>13555.0968139535</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">I11-M11</f>
+        <v>4.09681395348889</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1483429680</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>91213</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>43150</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">E12/D12</f>
+        <v>0.473068531897865</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">(G12-E12)/F12</f>
+        <v>-317.078794901506</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">E12*M12/G12</f>
+        <v>23951.2604651163</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">I12-M12</f>
+        <v>83.2604651162801</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>23868</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>91213</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2461</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2177064134</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>93029</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>43024</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.462479441894463</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">(G13-E13)/F13</f>
+        <v>-51.8941985868353</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">E13*M13/G13</f>
+        <v>17705.8768372093</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">I13-M13</f>
+        <v>9.87683720930363</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>17696</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>93029</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1646232433</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>44586</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14/D14</f>
+        <v>0.531089193825043</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">(G14-E14)/F14</f>
+        <v>-2986.31570448123</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">E14*M14/G14</f>
+        <v>15286.7766976744</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">I14-M14</f>
+        <v>543.776697674419</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>14743</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2126</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1237706224</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F2:G14">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H14">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J14">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>43123</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">E2/D2</f>
+        <v>0.553092975233111</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">(G2-E2)/F2</f>
+        <v>-222.385757020615</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">E2*M2/G2</f>
+        <v>10769.7185348837</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">I2-M2</f>
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10739</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>77967</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2116</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>837283164</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">(G3-E3)/F3</f>
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">E3*M3/G3</f>
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">I3-M3</f>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>555559035</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>43051</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.534409990317535</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">(G4-E4)/F4</f>
+        <v>-95.4323476806578</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">E4*M4/G4</f>
+        <v>9732.52955813953</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">I4-M4</f>
+        <v>11.5295581395349</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>783106269</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5/D5</f>
+        <v>0.579367110775821</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">(G5-E5)/F5</f>
+        <v>-12.0821494175367</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">E5*M5/G5</f>
+        <v>9456.53918604651</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">I5-M5</f>
+        <v>1.53918604651153</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>701851123</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>86984</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>43039</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">E6/D6</f>
+        <v>0.494792145681964</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">(G6-E6)/F6</f>
+        <v>-78.8209763237993</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">E6*M6/G6</f>
+        <v>24390.1012093023</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">I6-M6</f>
+        <v>22.1012093023273</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>24368</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>86984</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2656</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2119632070</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">(G7-E7)/F7</f>
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">E7*M7/G7</f>
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">I7-M7</f>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>380140590</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">E8/D8</f>
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">(G8-E8)/F8</f>
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">E8*M8/G8</f>
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">I8-M8</f>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>43038</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.530776345809952</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">(G9-E9)/F9</f>
+        <v>-71.5932431804452</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">E9*M9/G9</f>
+        <v>23591.8301860465</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">I9-M9</f>
+        <v>20.8301860465108</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1911247544</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">E10/D10</f>
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">(G10-E10)/F10</f>
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">E10*M10/G10</f>
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">I10-M10</f>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1459966283</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>43013</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">E11/D11</f>
+        <v>0.392920434822326</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">(G11-E11)/F11</f>
+        <v>-33.0855787785088</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">E11*M11/G11</f>
+        <v>13555.0968139535</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">I11-M11</f>
+        <v>4.09681395348889</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1483429680</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>91213</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>43150</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">E12/D12</f>
+        <v>0.473068531897865</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">(G12-E12)/F12</f>
+        <v>-317.078794901506</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">E12*M12/G12</f>
+        <v>23951.2604651163</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">I12-M12</f>
+        <v>83.2604651162801</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>23868</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>91213</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2461</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2177064134</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>93029</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>43024</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.462479441894463</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">(G13-E13)/F13</f>
+        <v>-51.8941985868353</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">E13*M13/G13</f>
+        <v>17705.8768372093</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">I13-M13</f>
+        <v>9.87683720930363</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>17696</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>93029</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1646232433</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>44586</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14/D14</f>
+        <v>0.531089193825043</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">(G14-E14)/F14</f>
+        <v>-2986.31570448123</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">E14*M14/G14</f>
+        <v>15286.7766976744</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">I14-M14</f>
+        <v>543.776697674419</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>14743</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>83952</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2126</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1237706224</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>102792</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>49989</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15/D15</f>
+        <v>0.486312164370768</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">(G15-E15)/F15</f>
+        <v>-14371.4274740443</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">E15*M15/G15</f>
+        <v>14717.691627907</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">I15-M15</f>
+        <v>2057.69162790698</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12660</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>102792</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1904</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1301343516</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>79644</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>50008</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16/D16</f>
+        <v>0.627894128873487</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">(G16-E16)/F16</f>
+        <v>-11161.1172612382</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">E16*M16/G16</f>
+        <v>8603.70195348837</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">I16-M16</f>
+        <v>1205.70195348837</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>7398</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>79644</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2670</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>589206059</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>105217</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>50078</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17/D17</f>
+        <v>0.47594970394518</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">(G17-E17)/F17</f>
+        <v>-14871.3192619514</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">E17*M17/G17</f>
+        <v>11537.7382790698</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">I17-M17</f>
+        <v>1630.73827906977</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>9907</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>105217</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>2581</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1042384328</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>106342</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>49978</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18/D18</f>
+        <v>0.469974234074966</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">(G18-E18)/F18</f>
+        <v>-14847.6224738885</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <f aca="false">E18*M18/G18</f>
+        <v>10420.9941395349</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">I18-M18</f>
+        <v>1454.99413953488</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>8966</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>106342</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>953461413</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>97871</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>51102</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E19/D19</f>
+        <v>0.52213628143168</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">(G19-E19)/F19</f>
+        <v>-15517.0216821259</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">E19*M19/G19</f>
+        <v>18832.869627907</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">I19-M19</f>
+        <v>2985.86962790698</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>15847</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>97871</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1959</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1550968370</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>95965</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>50089</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20/D20</f>
+        <v>0.52195071119679</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">(G20-E20)/F20</f>
+        <v>-13581.742198886</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">E20*M20/G20</f>
+        <v>10653.8138139535</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">I20-M20</f>
+        <v>1507.81381395349</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>9146</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>95965</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>2390</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>877693939</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>90572</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>50168</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E21/D21</f>
+        <v>0.553901868127015</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">(G21-E21)/F21</f>
+        <v>-12940.9204273641</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">E21*M21/G21</f>
+        <v>9957.76465116279</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">I21-M21</f>
+        <v>1422.76465116279</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>8535</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>90572</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>3594</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>773029050</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>121886</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>50004</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <f aca="false">E22/D22</f>
+        <v>0.410252202878099</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <f aca="false">(G22-E22)/F22</f>
+        <v>-17072.4250859931</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <f aca="false">E22*M22/G22</f>
+        <v>6736.58539534884</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">I22-M22</f>
+        <v>943.585395348837</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>5793</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>121886</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>2572</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>706088154</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>148705</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>49178</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <f aca="false">E23/D23</f>
+        <v>0.33070844961501</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <f aca="false">(G23-E23)/F23</f>
+        <v>-18681.1072024076</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <f aca="false">E23*M23/G23</f>
+        <v>10823.7346976744</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">I23-M23</f>
+        <v>1359.73469767442</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>9464</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>148705</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>3131</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>1407347538</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>114259</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>49770</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <f aca="false">E24/D24</f>
+        <v>0.435589319003317</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <f aca="false">(G24-E24)/F24</f>
+        <v>-15542.1625477195</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">E24*M24/G24</f>
+        <v>8690.07348837209</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">I24-M24</f>
+        <v>1182.07348837209</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>7508</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>114259</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>3071</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>857858458</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>97650</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>49986</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <f aca="false">E25/D25</f>
+        <v>0.511889400921659</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">(G25-E25)/F25</f>
+        <v>-13647.4792942024</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <f aca="false">E25*M25/G25</f>
+        <v>9527.56409302326</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">I25-M25</f>
+        <v>1331.56409302326</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>8196</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>97650</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>2773</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>800342375</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>113321</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>49937</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <f aca="false">E26/D26</f>
+        <v>0.440668543341481</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <f aca="false">(G26-E26)/F26</f>
+        <v>-15741.9904479644</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <f aca="false">E26*M26/G26</f>
+        <v>13077.687372093</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">I26-M26</f>
+        <v>1816.68737209302</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>11261</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>113321</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>3604</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>1276111489</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>99921</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>50011</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">E27/D27</f>
+        <v>0.50050539926542</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <f aca="false">(G27-E27)/F27</f>
+        <v>-14007.8408950031</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <f aca="false">E27*M27/G27</f>
+        <v>15290.5724883721</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">I27-M27</f>
+        <v>2143.57248837209</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>13147</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>99921</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2630</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>1313660155</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>101242</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>50011</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">E28/D28</f>
+        <v>0.493974832579364</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <f aca="false">(G28-E28)/F28</f>
+        <v>-14193.0307732299</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <f aca="false">E28*M28/G28</f>
+        <v>21855.9700465116</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">I28-M28</f>
+        <v>3063.97004651163</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>18792</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>101242</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>2548</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>1902547600</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>101100</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>50009</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">E29/D29</f>
+        <v>0.494648862512364</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <f aca="false">(G29-E29)/F29</f>
+        <v>-14169.6474634566</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <f aca="false">E29*M29/G29</f>
+        <v>15274.842</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <f aca="false">I29-M29</f>
+        <v>2140.842</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>13134</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>101100</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>3168</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>1327847231</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>99434</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>49994</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">E30/D30</f>
+        <v>0.502785767443732</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">(G30-E30)/F30</f>
+        <v>-13910.4971796616</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <f aca="false">E30*M30/G30</f>
+        <v>15633.0075348837</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <f aca="false">I30-M30</f>
+        <v>2187.00753488372</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>13446</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>99434</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>2869</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>1336986912</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>112157</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>49957</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">E31/D31</f>
+        <v>0.445420259101082</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <f aca="false">(G31-E31)/F31</f>
+        <v>-15618.9572832636</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <f aca="false">E31*M31/G31</f>
+        <v>4960.84627906977</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">I31-M31</f>
+        <v>690.846279069768</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>4270</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>112157</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>3192</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>478908775</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>282445</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>102215</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <f aca="false">E32/D32</f>
+        <v>0.361893465984528</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <f aca="false">(G32-E32)/F32</f>
+        <v>-163625.501883285</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <f aca="false">E32*M32/G32</f>
+        <v>21393.8372093023</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <f aca="false">I32-M32</f>
+        <v>12393.8372093023</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>282445</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>2156</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2542002423</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F2:G32">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H32">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J32">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="Combine" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$98</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$105</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="282">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -613,52 +613,94 @@
     <t xml:space="preserve">76643_V11_combine_force24013</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76647_V11_combine_force14711)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11_combine_force14711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76649_V11_combine_force23571)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11_combine_force23571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76656_V11_combine_force13551)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11_combine_force13551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine_force17531)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine_force17531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V5_combine_force14743)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5_combine_force14743</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76643_V11_combine_force24368)</t>
   </si>
   <si>
     <t xml:space="preserve">76643_V11_combine_force24368</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraction of Reads Kept (76647_V11_combine_force14711)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V11_combine_force14711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Reads Kept (76649_V11_combine_force23571)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V11_combine_force23571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Reads Kept (76656_V11_combine_force13551)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V11_combine_force13551</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76658_V11_combine_force23868)</t>
   </si>
   <si>
     <t xml:space="preserve">76658_V11_combine_force23868</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine_force17531)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76660_V5_combine_force17531</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76660_V5_combine_force17696)</t>
   </si>
   <si>
     <t xml:space="preserve">76660_V5_combine_force17696</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraction of Reads Kept (76661_V5_combine_force14743)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76661_V5_combine_force14743</t>
+    <t xml:space="preserve">Fraction of Reads Kept (76638_V11_3rd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76658_V5_3rd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V11_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V11_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V11_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V5_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76664_V5_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V5_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -874,7 +916,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +939,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -934,7 +982,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1025,6 +1073,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1210,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -1188,10 +1248,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I3" activeCellId="1" sqref="99:99 I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3987,10 +4047,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="99:99 A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7367,10 +7427,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="99:99 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12199,17 +12259,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ98"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="C99" activeCellId="0" sqref="99:99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12388,56 +12448,56 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.408</v>
+        <v>0.138</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>80146</v>
+        <v>56543</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44202</v>
+        <v>26876</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">E4/D4</f>
-        <v>0.551518478776233</v>
+        <v>0.475319668217109</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H4" s="2" t="n">
         <f aca="false">(G4-E4)/F4</f>
-        <v>-2179.43740102258</v>
+        <v>33922.4338443221</v>
       </c>
       <c r="I4" s="2" t="n">
         <f aca="false">E4*M4/G4</f>
-        <v>10739.0300930233</v>
-      </c>
-      <c r="J4" s="14" t="n">
+        <v>3979.52306976744</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <f aca="false">I4-M4</f>
-        <v>292.030093023255</v>
+        <v>-2387.47693023256</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>10447</v>
+        <v>6367</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>80146</v>
+        <v>56543</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2185</v>
+        <v>1997</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>837283164</v>
+        <v>360011247</v>
       </c>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
@@ -12445,393 +12505,385 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
-        <v>79</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>77967</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>43123</v>
-      </c>
-      <c r="F5" s="10" t="n">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>92593</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>43084</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">E5/D5</f>
-        <v>0.553092975233111</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H5" s="8" t="n">
+        <v>0.465305152657328</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <f aca="false">(G5-E5)/F5</f>
-        <v>-222.385757020615</v>
-      </c>
-      <c r="I5" s="8" t="n">
+        <v>-180.52669204345</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <f aca="false">E5*M5/G5</f>
-        <v>10769.7185348837</v>
-      </c>
-      <c r="J5" s="8" t="n">
+        <v>6011.72093023256</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <f aca="false">I5-M5</f>
-        <v>30.7185348837211</v>
-      </c>
-      <c r="K5" s="19" t="n">
-        <v>281</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>10739</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>77967</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>2116</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>837283164</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+        <v>11.7209302325582</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>170</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>92593</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>2531</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>555559035</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.138</v>
+        <v>0.232</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>56543</v>
+        <v>35331</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>26876</v>
+        <v>15916</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">E6/D6</f>
-        <v>0.475319668217109</v>
+        <v>0.450482579038238</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H6" s="2" t="n">
         <f aca="false">(G6-E6)/F6</f>
-        <v>33922.4338443221</v>
+        <v>60122.1917567228</v>
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">E6*M6/G6</f>
-        <v>3979.52306976744</v>
+        <v>2107.94465116279</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">I6-M6</f>
-        <v>-2387.47693023256</v>
+        <v>-3587.05534883721</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6367</v>
+        <v>5695</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>56543</v>
+        <v>35331</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1997</v>
+        <v>1836</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>360011247</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+        <v>201208589</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.232</v>
+        <v>0.096</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>35331</v>
+        <v>84128</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>15916</v>
+        <v>38365</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">E7/D7</f>
-        <v>0.450482579038238</v>
+        <v>0.456031285659947</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H7" s="2" t="n">
         <f aca="false">(G7-E7)/F7</f>
-        <v>60122.1917567228</v>
+        <v>10163.7763586602</v>
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">E7*M7/G7</f>
-        <v>2107.94465116279</v>
+        <v>5951.92825581395</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">I7-M7</f>
-        <v>-3587.05534883721</v>
+        <v>-719.071744186046</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5695</v>
+        <v>6671</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>35331</v>
+        <v>84128</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1836</v>
+        <v>2131</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>201208589</v>
+        <v>561219836</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>84128</v>
+        <v>71360</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>38365</v>
+        <v>38087</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">E8/D8</f>
-        <v>0.456031285659947</v>
+        <v>0.533730381165919</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">(G8-E8)/F8</f>
-        <v>10163.7763586602</v>
+        <v>9205.02218604773</v>
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">E8*M8/G8</f>
-        <v>5951.92825581395</v>
+        <v>7449.10860465116</v>
       </c>
       <c r="J8" s="2" t="n">
         <f aca="false">I8-M8</f>
-        <v>-719.071744186046</v>
+        <v>-960.891395348837</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6671</v>
+        <v>8410</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>84128</v>
+        <v>71360</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2131</v>
+        <v>4330</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>561219836</v>
-      </c>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
+        <v>600134782</v>
+      </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.086</v>
+        <v>0.306</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>92593</v>
+        <v>22637</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>43084</v>
+        <v>12067</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">E9/D9</f>
-        <v>0.465305152657328</v>
+        <v>0.533065335512656</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">(G9-E9)/F9</f>
-        <v>-180.52669204345</v>
+        <v>58028.5341012679</v>
       </c>
       <c r="I9" s="2" t="n">
         <f aca="false">E9*M9/G9</f>
-        <v>6011.72093023256</v>
+        <v>2268.31537209302</v>
       </c>
       <c r="J9" s="2" t="n">
         <f aca="false">I9-M9</f>
-        <v>11.7209302325582</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>170</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>95</v>
+        <v>-5814.68462790698</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6000</v>
+        <v>8083</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>92593</v>
+        <v>22637</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2531</v>
+        <v>3049</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>555559035</v>
+        <v>182971487</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="n">
-        <v>80</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>92408</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>43007</v>
-      </c>
-      <c r="F10" s="10" t="n">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>90995</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>47691</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <f aca="false">E10/D10</f>
-        <v>0.465403428274608</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H10" s="8" t="n">
+        <v>0.524105720094511</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <f aca="false">(G10-E10)/F10</f>
-        <v>-15.0407143023229</v>
-      </c>
-      <c r="I10" s="8" t="n">
+        <v>-8950.48426327819</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <f aca="false">E10*M10/G10</f>
-        <v>6012.97869767442</v>
-      </c>
-      <c r="J10" s="8" t="n">
+        <v>9544.85455813954</v>
+      </c>
+      <c r="J10" s="2" t="n">
         <f aca="false">I10-M10</f>
-        <v>0.978697674418982</v>
-      </c>
-      <c r="K10" s="19" t="n">
-        <v>282</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>6012</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>92408</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>2527</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>555559035</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+        <v>938.854558139536</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>8606</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>90995</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>4460</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>783106269</v>
+      </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.097</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>71360</v>
+        <v>60997</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>38087</v>
+        <v>20565</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">E11/D11</f>
-        <v>0.533730381165919</v>
+        <v>0.337147728576815</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">(G11-E11)/F11</f>
-        <v>9205.02218604773</v>
+        <v>66543.5300267445</v>
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">E11*M11/G11</f>
-        <v>7449.10860465116</v>
+        <v>4782.55813953488</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">I11-M11</f>
-        <v>-960.891395348837</v>
+        <v>-5217.44186046512</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8410</v>
+        <v>10000</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>71360</v>
+        <v>60997</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>4330</v>
+        <v>3039</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>600134782</v>
+        <v>609968498</v>
       </c>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
@@ -12840,885 +12892,872 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.306</v>
+        <v>0.309</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>22637</v>
+        <v>27312</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12067</v>
+        <v>11963</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12/D12</f>
-        <v>0.533065335512656</v>
+        <v>0.438012595196251</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">(G12-E12)/F12</f>
-        <v>58028.5341012679</v>
+        <v>70858.6929699908</v>
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">E12*M12/G12</f>
-        <v>2268.31537209302</v>
+        <v>6213.24834883721</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">I12-M12</f>
-        <v>-5814.68462790698</v>
+        <v>-16119.7516511628</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8083</v>
+        <v>22333</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>22637</v>
+        <v>27312</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3049</v>
+        <v>2006</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>182971487</v>
+        <v>609968498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.077</v>
+        <v>0.149</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>90995</v>
+        <v>62358</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>47691</v>
+        <v>24786</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13/D13</f>
-        <v>0.524105720094511</v>
+        <v>0.397479072452612</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H13" s="2" t="n">
         <f aca="false">(G13-E13)/F13</f>
-        <v>-8950.48426327819</v>
+        <v>45823.7961752602</v>
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">E13*M13/G13</f>
-        <v>9544.85455813954</v>
+        <v>8646.27906976744</v>
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">I13-M13</f>
-        <v>938.854558139536</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>100</v>
+        <v>-6353.72093023256</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8606</v>
+        <v>15000</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>90995</v>
+        <v>62358</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4460</v>
+        <v>2901</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>783106269</v>
+        <v>935376480</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.412</v>
+        <v>0.556</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>82044</v>
+        <v>15237</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>43792</v>
+        <v>6649</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14/D14</f>
-        <v>0.533762371410463</v>
+        <v>0.436371989236726</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H14" s="2" t="n">
         <f aca="false">(G14-E14)/F14</f>
-        <v>-1483.80635732554</v>
+        <v>83302.780418108</v>
       </c>
       <c r="I14" s="2" t="n">
         <f aca="false">E14*M14/G14</f>
-        <v>9720.80558139535</v>
+        <v>3302.38820930233</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">I14-M14</f>
-        <v>175.805581395349</v>
+        <v>-18054.6117906977</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>9545</v>
+        <v>21357</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>82044</v>
+        <v>15237</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4002</v>
+        <v>1609</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>783106269</v>
-      </c>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="20"/>
+        <v>325407982</v>
+      </c>
+      <c r="Q14" s="12"/>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="n">
-        <v>87</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>80558</v>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>43051</v>
-      </c>
-      <c r="F15" s="10" t="n">
+      <c r="A15" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>40238</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>17698</v>
+      </c>
+      <c r="F15" s="13" t="n">
         <f aca="false">E15/D15</f>
-        <v>0.534409990317535</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H15" s="8" t="n">
+        <v>0.439832993687559</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="14" t="n">
         <f aca="false">(G15-E15)/F15</f>
-        <v>-95.4323476806578</v>
-      </c>
-      <c r="I15" s="8" t="n">
+        <v>57526.3801559498</v>
+      </c>
+      <c r="I15" s="14" t="n">
         <f aca="false">E15*M15/G15</f>
-        <v>9732.52955813953</v>
-      </c>
-      <c r="J15" s="8" t="n">
+        <v>9567.62111627907</v>
+      </c>
+      <c r="J15" s="14" t="n">
         <f aca="false">I15-M15</f>
-        <v>11.5295581395349</v>
-      </c>
-      <c r="K15" s="19" t="n">
-        <v>291</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v>9721</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>80558</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v>3928</v>
-      </c>
-      <c r="P15" s="8" t="n">
-        <v>783106269</v>
-      </c>
-      <c r="R15" s="19" t="n">
-        <v>20220830</v>
-      </c>
+        <v>-13678.3788837209</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>154</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="14" t="n">
+        <v>23246</v>
+      </c>
+      <c r="N15" s="14" t="n">
+        <v>40238</v>
+      </c>
+      <c r="O15" s="14" t="n">
+        <v>2241</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>935376480</v>
+      </c>
+      <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.309</v>
+        <v>0.169</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>27312</v>
+        <v>51965</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>11963</v>
+        <v>21842</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16/D16</f>
-        <v>0.438012595196251</v>
+        <v>0.420321370152988</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">(G16-E16)/F16</f>
-        <v>70858.6929699908</v>
+        <v>50337.6737478253</v>
       </c>
       <c r="I16" s="2" t="n">
         <f aca="false">E16*M16/G16</f>
-        <v>6213.24834883721</v>
+        <v>9143.16279069767</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">I16-M16</f>
-        <v>-16119.7516511628</v>
+        <v>-8856.83720930233</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>22333</v>
+        <v>18000</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>27312</v>
+        <v>51965</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2006</v>
+        <v>2635</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>609968498</v>
+        <v>935376480</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.556</v>
+        <v>0.13</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>15237</v>
+        <v>77948</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6649</v>
+        <v>28440</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17/D17</f>
-        <v>0.436371989236726</v>
+        <v>0.36485862369785</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">(G17-E17)/F17</f>
-        <v>83302.780418108</v>
+        <v>39905.8677918425</v>
       </c>
       <c r="I17" s="2" t="n">
         <f aca="false">E17*M17/G17</f>
-        <v>3302.38820930233</v>
+        <v>7936.74418604651</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">I17-M17</f>
-        <v>-18054.6117906977</v>
+        <v>-4063.25581395349</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>141</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>104</v>
+        <v>161</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>21357</v>
+        <v>12000</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>15237</v>
+        <v>77948</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1609</v>
+        <v>3202</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>325407982</v>
-      </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="3"/>
+        <v>935376480</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="13" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>40238</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>17698</v>
-      </c>
-      <c r="F18" s="13" t="n">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>41940</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>24656</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <f aca="false">E18/D18</f>
-        <v>0.439832993687559</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H18" s="14" t="n">
+        <v>0.587887458273724</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <f aca="false">(G18-E18)/F18</f>
-        <v>57526.3801559498</v>
-      </c>
-      <c r="I18" s="14" t="n">
+        <v>31203.2511356262</v>
+      </c>
+      <c r="I18" s="2" t="n">
         <f aca="false">E18*M18/G18</f>
-        <v>9567.62111627907</v>
-      </c>
-      <c r="J18" s="14" t="n">
+        <v>4454.70846511628</v>
+      </c>
+      <c r="J18" s="2" t="n">
         <f aca="false">I18-M18</f>
-        <v>-13678.3788837209</v>
-      </c>
-      <c r="K18" s="12" t="n">
-        <v>154</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" s="14" t="n">
-        <v>23246</v>
-      </c>
-      <c r="N18" s="14" t="n">
-        <v>40238</v>
-      </c>
-      <c r="O18" s="14" t="n">
-        <v>2241</v>
-      </c>
-      <c r="P18" s="14" t="n">
-        <v>935376480</v>
-      </c>
-      <c r="R18" s="19"/>
+        <v>-3314.29153488372</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>7769</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>41940</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>2664</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>325835021</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>77948</v>
+        <v>48808</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>28440</v>
+        <v>27984</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19/D19</f>
-        <v>0.36485862369785</v>
+        <v>0.573348631371906</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">(G19-E19)/F19</f>
-        <v>39905.8677918425</v>
+        <v>26189.9988564894</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">E19*M19/G19</f>
-        <v>7936.74418604651</v>
+        <v>5080.72297674419</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">I19-M19</f>
-        <v>-4063.25581395349</v>
+        <v>-2726.27702325581</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>12000</v>
+        <v>7807</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>77948</v>
+        <v>48808</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3202</v>
+        <v>2724</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>935376480</v>
+        <v>381040696</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>21</v>
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.149</v>
+        <v>0.079</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>62358</v>
+        <v>81616</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>24786</v>
+        <v>46735</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20/D20</f>
-        <v>0.397479072452612</v>
+        <v>0.572620564595177</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">(G20-E20)/F20</f>
-        <v>45823.7961752602</v>
+        <v>-6522.64384294426</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">E20*M20/G20</f>
-        <v>8646.27906976744</v>
+        <v>9413.29848837209</v>
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">I20-M20</f>
-        <v>-6353.72093023256</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>107</v>
+        <v>752.298488372093</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>15000</v>
+        <v>8661</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>62358</v>
+        <v>81616</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2901</v>
+        <v>3013</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>935376480</v>
+        <v>706875717</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.169</v>
+        <v>0.424</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>51965</v>
+        <v>33602</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>21842</v>
+        <v>8724</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">E21/D21</f>
-        <v>0.420321370152988</v>
+        <v>0.259627403130766</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">(G21-E21)/F21</f>
-        <v>50337.6737478253</v>
+        <v>132019.962402568</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">E21*M21/G21</f>
-        <v>9143.16279069767</v>
+        <v>2028.83720930233</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">I21-M21</f>
-        <v>-8856.83720930233</v>
+        <v>-7971.16279069768</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>51965</v>
+        <v>33602</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2635</v>
+        <v>1484</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>935376480</v>
+        <v>336023509</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.18</v>
+        <v>0.532</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>60997</v>
+        <v>23188</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>20565</v>
+        <v>6949</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">E22/D22</f>
-        <v>0.337147728576815</v>
+        <v>0.299680869415215</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">(G22-E22)/F22</f>
-        <v>66543.5300267445</v>
+        <v>120297.969204202</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">E22*M22/G22</f>
-        <v>4782.55813953488</v>
+        <v>2341.813</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">I22-M22</f>
-        <v>-5217.44186046512</v>
+        <v>-12149.187</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>10000</v>
+        <v>14491</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>60997</v>
+        <v>23188</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>3039</v>
+        <v>1227</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>609968498</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+        <v>336023509</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.15</v>
+        <v>0.376</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>41940</v>
+        <v>31676</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>24656</v>
+        <v>9836</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">E23/D23</f>
-        <v>0.587887458273724</v>
+        <v>0.310519004924864</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H23" s="2" t="n">
         <f aca="false">(G23-E23)/F23</f>
-        <v>31203.2511356262</v>
+        <v>106801.83651891</v>
       </c>
       <c r="I23" s="2" t="n">
         <f aca="false">E23*M23/G23</f>
-        <v>4454.70846511628</v>
+        <v>3560.17451162791</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">I23-M23</f>
-        <v>-3314.29153488372</v>
+        <v>-12003.8254883721</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7769</v>
+        <v>15564</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>41940</v>
+        <v>31676</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>2664</v>
+        <v>1305</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>325835021</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492998128</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.132</v>
+        <v>0.246</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>48808</v>
+        <v>46525</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>27984</v>
+        <v>15009</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">E24/D24</f>
-        <v>0.573348631371906</v>
+        <v>0.322600752283718</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H24" s="2" t="n">
         <f aca="false">(G24-E24)/F24</f>
-        <v>26189.9988564894</v>
+        <v>86766.6916516757</v>
       </c>
       <c r="I24" s="2" t="n">
         <f aca="false">E24*M24/G24</f>
-        <v>5080.72297674419</v>
+        <v>6219.65979069767</v>
       </c>
       <c r="J24" s="2" t="n">
         <f aca="false">I24-M24</f>
-        <v>-2726.27702325581</v>
+        <v>-11599.3402093023</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>7807</v>
+        <v>17819</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>48808</v>
+        <v>46525</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>2724</v>
+        <v>1478</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>381040696</v>
+        <v>829021637</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.079</v>
+        <v>0.173</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>81616</v>
+        <v>82347</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>46735</v>
+        <v>21404</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">E25/D25</f>
-        <v>0.572620564595177</v>
+        <v>0.259924465979331</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">(G25-E25)/F25</f>
-        <v>-6522.64384294426</v>
+        <v>83085.6761353018</v>
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">E25*M25/G25</f>
-        <v>9413.29848837209</v>
+        <v>4977.67441860465</v>
       </c>
       <c r="J25" s="2" t="n">
         <f aca="false">I25-M25</f>
-        <v>752.298488372093</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>116</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>112</v>
+        <v>-5022.32558139535</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>8661</v>
+        <v>10000</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>81616</v>
+        <v>82347</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>3013</v>
+        <v>1928</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>706875717</v>
+        <v>823472174</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.417</v>
+        <v>0.195</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>74562</v>
+        <v>39121</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>43191</v>
+        <v>18929</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">E26/D26</f>
-        <v>0.579262895308602</v>
+        <v>0.483857774596764</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">(G26-E26)/F26</f>
-        <v>-329.729388066958</v>
+        <v>49748.0897564584</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">E26*M26/G26</f>
-        <v>9454.81123255814</v>
+        <v>7999.04323255814</v>
       </c>
       <c r="J26" s="2" t="n">
         <f aca="false">I26-M26</f>
-        <v>41.8112325581387</v>
+        <v>-10171.9567674419</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>9413</v>
+        <v>18171</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>74562</v>
+        <v>39121</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2851</v>
+        <v>2669</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>701851123</v>
-      </c>
-      <c r="R26" s="20"/>
+        <v>710859245</v>
+      </c>
     </row>
     <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="n">
-        <v>88</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>11755</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>5664</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">E27/D27</f>
+        <v>0.481837515950659</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <f aca="false">(G27-E27)/F27</f>
+        <v>77486.7019774011</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <f aca="false">E27*M27/G27</f>
+        <v>2095.41655813954</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">I27-M27</f>
+        <v>-13812.5834418605</v>
+      </c>
+      <c r="K27" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="C27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>74231</v>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>43007</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <f aca="false">E27/D27</f>
-        <v>0.579367110775821</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H27" s="8" t="n">
-        <f aca="false">(G27-E27)/F27</f>
-        <v>-12.0821494175367</v>
-      </c>
-      <c r="I27" s="8" t="n">
-        <f aca="false">E27*M27/G27</f>
-        <v>9456.53918604651</v>
-      </c>
-      <c r="J27" s="8" t="n">
-        <f aca="false">I27-M27</f>
-        <v>1.53918604651153</v>
-      </c>
-      <c r="K27" s="19" t="n">
-        <v>292</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="M27" s="8" t="n">
-        <v>9455</v>
-      </c>
-      <c r="N27" s="8" t="n">
-        <v>74231</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>2844</v>
-      </c>
-      <c r="P27" s="8" t="n">
-        <v>701851123</v>
-      </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19" t="n">
-        <v>20220830</v>
+      <c r="L27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>15908</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>11755</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>1648</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>186991746</v>
       </c>
       <c r="AMG27" s="19"/>
       <c r="AMH27" s="19"/>
@@ -13727,445 +13766,439 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.532</v>
+        <v>0.119</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>23188</v>
+        <v>63944</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>6949</v>
+        <v>31131</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">E28/D28</f>
-        <v>0.299680869415215</v>
+        <v>0.486847866883523</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">(G28-E28)/F28</f>
-        <v>120297.969204202</v>
+        <v>24379.2790466095</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">E28*M28/G28</f>
-        <v>2341.813</v>
+        <v>13833.0236511628</v>
       </c>
       <c r="J28" s="2" t="n">
         <f aca="false">I28-M28</f>
-        <v>-12149.187</v>
+        <v>-5273.97634883721</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>14491</v>
+        <v>19107</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>23188</v>
+        <v>63944</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1227</v>
+        <v>2957</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>336023509</v>
+        <v>1221781079</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.376</v>
+        <v>0.083</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>31676</v>
+        <v>91629</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>9836</v>
+        <v>44770</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">E29/D29</f>
-        <v>0.310519004924864</v>
+        <v>0.488600770498423</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H29" s="2" t="n">
         <f aca="false">(G29-E29)/F29</f>
-        <v>106801.83651891</v>
+        <v>-3622.58945722582</v>
       </c>
       <c r="I29" s="2" t="n">
         <f aca="false">E29*M29/G29</f>
-        <v>3560.17451162791</v>
+        <v>4029.3</v>
       </c>
       <c r="J29" s="2" t="n">
         <f aca="false">I29-M29</f>
-        <v>-12003.8254883721</v>
+        <v>159.3</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>15564</v>
+        <v>3870</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>31676</v>
+        <v>91629</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1305</v>
+        <v>1890</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>492998128</v>
-      </c>
-    </row>
-    <row r="30" s="9" customFormat="true" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>354602695</v>
+      </c>
+    </row>
+    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.246</v>
+        <v>0.63</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>46525</v>
+        <v>13096</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>15009</v>
+        <v>5862</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">E30/D30</f>
-        <v>0.322600752283718</v>
+        <v>0.447617593158216</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H30" s="2" t="n">
         <f aca="false">(G30-E30)/F30</f>
-        <v>86766.6916516757</v>
+        <v>82968.1419310816</v>
       </c>
       <c r="I30" s="2" t="n">
         <f aca="false">E30*M30/G30</f>
-        <v>6219.65979069767</v>
+        <v>265.83488372093</v>
       </c>
       <c r="J30" s="2" t="n">
         <f aca="false">I30-M30</f>
-        <v>-11599.3402093023</v>
+        <v>-1684.16511627907</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>17819</v>
+        <v>1950</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>46525</v>
+        <v>13096</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1478</v>
+        <v>1234</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>829021637</v>
-      </c>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
+        <v>25537895</v>
+      </c>
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>82347</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>21404</v>
-      </c>
-      <c r="F31" s="1" t="n">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F31" s="10" t="n">
         <f aca="false">E31/D31</f>
-        <v>0.259924465979331</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H31" s="2" t="n">
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H31" s="8" t="n">
         <f aca="false">(G31-E31)/F31</f>
-        <v>83085.6761353018</v>
-      </c>
-      <c r="I31" s="2" t="n">
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I31" s="8" t="n">
         <f aca="false">E31*M31/G31</f>
-        <v>4977.67441860465</v>
-      </c>
-      <c r="J31" s="2" t="n">
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J31" s="8" t="n">
         <f aca="false">I31-M31</f>
-        <v>-5022.32558139535</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="L31" s="0" t="s">
+        <v>117.71511627907</v>
+      </c>
+      <c r="K31" s="9" t="n">
         <v>118</v>
       </c>
-      <c r="M31" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>82347</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>1928</v>
-      </c>
-      <c r="P31" s="2" t="n">
-        <v>823472174</v>
+      <c r="L31" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N31" s="8" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P31" s="8" t="n">
+        <v>380140590</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.424</v>
+        <v>0.159</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>33602</v>
+        <v>58984</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>8724</v>
+        <v>23286</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">E32/D32</f>
-        <v>0.259627403130766</v>
+        <v>0.39478502644785</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">(G32-E32)/F32</f>
-        <v>132019.962402568</v>
+        <v>49936.0377909474</v>
       </c>
       <c r="I32" s="2" t="n">
         <f aca="false">E32*M32/G32</f>
-        <v>2028.83720930233</v>
+        <v>7403.86493023256</v>
       </c>
       <c r="J32" s="2" t="n">
         <f aca="false">I32-M32</f>
-        <v>-7971.16279069768</v>
+        <v>-6268.13506976744</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>10000</v>
+        <v>13672</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>33602</v>
+        <v>58984</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1484</v>
+        <v>2691</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>336023509</v>
+        <v>806422492</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.195</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>39121</v>
+        <v>9456</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>18929</v>
+        <v>3696</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">E33/D33</f>
-        <v>0.483857774596764</v>
+        <v>0.390862944162437</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H33" s="2" t="n">
         <f aca="false">(G33-E33)/F33</f>
-        <v>49748.0897564584</v>
+        <v>100556.987012987</v>
       </c>
       <c r="I33" s="2" t="n">
         <f aca="false">E33*M33/G33</f>
-        <v>7999.04323255814</v>
+        <v>917.639441860465</v>
       </c>
       <c r="J33" s="2" t="n">
         <f aca="false">I33-M33</f>
-        <v>-10171.9567674419</v>
+        <v>-9758.36055813953</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>18171</v>
+        <v>10676</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>39121</v>
+        <v>9456</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>2669</v>
+        <v>1310</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>710859245</v>
+        <v>100952053</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.652</v>
+        <v>0.186</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>11755</v>
+        <v>50051</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>5664</v>
+        <v>19853</v>
       </c>
       <c r="F34" s="1" t="n">
         <f aca="false">E34/D34</f>
-        <v>0.481837515950659</v>
+        <v>0.39665541148029</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H34" s="2" t="n">
         <f aca="false">(G34-E34)/F34</f>
-        <v>77486.7019774011</v>
+        <v>58355.4373142598</v>
       </c>
       <c r="I34" s="2" t="n">
         <f aca="false">E34*M34/G34</f>
-        <v>2095.41655813954</v>
+        <v>6228.30162790698</v>
       </c>
       <c r="J34" s="2" t="n">
         <f aca="false">I34-M34</f>
-        <v>-13812.5834418605</v>
+        <v>-7261.69837209302</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>15908</v>
+        <v>13490</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>11755</v>
+        <v>50051</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1648</v>
+        <v>2589</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>186991746</v>
-      </c>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
+        <v>675189586</v>
+      </c>
     </row>
     <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>70</v>
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.119</v>
+        <v>0.084</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>63944</v>
+        <v>110099</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>31131</v>
+        <v>43750</v>
       </c>
       <c r="F35" s="1" t="n">
         <f aca="false">E35/D35</f>
-        <v>0.486847866883523</v>
+        <v>0.397369640051227</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H35" s="2" t="n">
         <f aca="false">(G35-E35)/F35</f>
-        <v>24379.2790466095</v>
+        <v>-1887.41142857143</v>
       </c>
       <c r="I35" s="2" t="n">
         <f aca="false">E35*M35/G35</f>
-        <v>13833.0236511628</v>
+        <v>14624.7093023256</v>
       </c>
       <c r="J35" s="2" t="n">
         <f aca="false">I35-M35</f>
-        <v>-5273.97634883721</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>122</v>
+        <v>250.709302325582</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>259</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>19107</v>
+        <v>14374</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>63944</v>
+        <v>110099</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>2957</v>
+        <v>3032</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1221781079</v>
-      </c>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
+        <v>1582564131</v>
+      </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
@@ -14173,395 +14206,386 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.346</v>
+        <v>0.242</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>107014</v>
+        <v>41417</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>52131</v>
+        <v>15297</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">E36/D36</f>
-        <v>0.48714186928813</v>
+        <v>0.369341091822199</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H36" s="2" t="n">
         <f aca="false">(G36-E36)/F36</f>
-        <v>-18744.0262799486</v>
+        <v>75006.5471007387</v>
       </c>
       <c r="I36" s="2" t="n">
         <f aca="false">E36*M36/G36</f>
-        <v>24012.9934186047</v>
+        <v>4126.63255813954</v>
       </c>
       <c r="J36" s="2" t="n">
         <f aca="false">I36-M36</f>
-        <v>4205.99341860465</v>
+        <v>-7473.36744186047</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>19807</v>
+        <v>11600</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>107014</v>
+        <v>41417</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>3206</v>
+        <v>2918</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2119632070</v>
+        <v>480438646</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.986</v>
+        <v>0.198</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>88270</v>
+        <v>52159</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>43635</v>
+        <v>18627</v>
       </c>
       <c r="F37" s="1" t="n">
         <f aca="false">E37/D37</f>
-        <v>0.494335561345871</v>
+        <v>0.357119576679001</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H37" s="2" t="n">
         <f aca="false">(G37-E37)/F37</f>
-        <v>-1284.55253810015</v>
+        <v>68248.8488216031</v>
       </c>
       <c r="I37" s="2" t="n">
         <f aca="false">E37*M37/G37</f>
-        <v>24367.6105813953</v>
+        <v>5321.25739534884</v>
       </c>
       <c r="J37" s="2" t="n">
         <f aca="false">I37-M37</f>
-        <v>354.610581395347</v>
+        <v>-6962.74260465116</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>24013</v>
+        <v>12284</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>88270</v>
+        <v>52159</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>2702</v>
+        <v>3086</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2119632070</v>
-      </c>
-      <c r="R37" s="19" t="n">
-        <v>20220830</v>
+        <v>640719935</v>
       </c>
     </row>
     <row r="38" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="n">
-        <v>95</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19" t="n">
-        <v>86984</v>
-      </c>
-      <c r="E38" s="19" t="n">
-        <v>43039</v>
-      </c>
-      <c r="F38" s="10" t="n">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>92745</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>33686</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <f aca="false">E38/D38</f>
-        <v>0.494792145681964</v>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H38" s="8" t="n">
+        <v>0.363210954768451</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H38" s="2" t="n">
         <f aca="false">(G38-E38)/F38</f>
-        <v>-78.8209763237993</v>
-      </c>
-      <c r="I38" s="8" t="n">
+        <v>25643.4996734548</v>
+      </c>
+      <c r="I38" s="2" t="n">
         <f aca="false">E38*M38/G38</f>
-        <v>24390.1012093023</v>
-      </c>
-      <c r="J38" s="8" t="n">
+        <v>9400.74418604651</v>
+      </c>
+      <c r="J38" s="2" t="n">
         <f aca="false">I38-M38</f>
-        <v>22.1012093023273</v>
-      </c>
-      <c r="K38" s="19" t="n">
-        <v>299</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="M38" s="19" t="n">
-        <v>24368</v>
-      </c>
-      <c r="N38" s="19" t="n">
-        <v>86984</v>
-      </c>
-      <c r="O38" s="19" t="n">
-        <v>2656</v>
-      </c>
-      <c r="P38" s="19" t="n">
-        <v>2119632070</v>
-      </c>
-      <c r="R38" s="19" t="n">
-        <v>20220912</v>
-      </c>
+        <v>-2599.25581395349</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>92745</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>3762</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>1112943723</v>
+      </c>
+      <c r="Q38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>91629</v>
+        <v>118272</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44770</v>
+        <v>41540</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">E39/D39</f>
-        <v>0.488600770498423</v>
+        <v>0.351224296536797</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H39" s="2" t="n">
         <f aca="false">(G39-E39)/F39</f>
-        <v>-3622.58945722582</v>
+        <v>4156.88781896967</v>
       </c>
       <c r="I39" s="2" t="n">
         <f aca="false">E39*M39/G39</f>
-        <v>4029.3</v>
+        <v>9090.4976744186</v>
       </c>
       <c r="J39" s="2" t="n">
         <f aca="false">I39-M39</f>
-        <v>159.3</v>
+        <v>-319.502325581396</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3870</v>
+        <v>9410</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>91629</v>
+        <v>118272</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1890</v>
+        <v>4340</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>354602695</v>
+        <v>1112943723</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>13096</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>5862</v>
-      </c>
-      <c r="F40" s="1" t="n">
+      <c r="A40" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="13" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>27955</v>
+      </c>
+      <c r="F40" s="13" t="n">
         <f aca="false">E40/D40</f>
-        <v>0.447617593158216</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H40" s="2" t="n">
+        <v>0.365807380266946</v>
+      </c>
+      <c r="G40" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="14" t="n">
         <f aca="false">(G40-E40)/F40</f>
-        <v>82968.1419310816</v>
-      </c>
-      <c r="I40" s="2" t="n">
+        <v>41128.2024682526</v>
+      </c>
+      <c r="I40" s="14" t="n">
         <f aca="false">E40*M40/G40</f>
-        <v>265.83488372093</v>
-      </c>
-      <c r="J40" s="2" t="n">
+        <v>9537.85593023256</v>
+      </c>
+      <c r="J40" s="14" t="n">
         <f aca="false">I40-M40</f>
-        <v>-1684.16511627907</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>1950</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>13096</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="P40" s="2" t="n">
-        <v>25537895</v>
-      </c>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
+        <v>-5133.14406976744</v>
+      </c>
+      <c r="K40" s="12" t="n">
+        <v>119</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="14" t="n">
+        <v>14671</v>
+      </c>
+      <c r="N40" s="14" t="n">
+        <v>76420</v>
+      </c>
+      <c r="O40" s="14" t="n">
+        <v>3137</v>
+      </c>
+      <c r="P40" s="14" t="n">
+        <v>1121158581</v>
+      </c>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="10" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D41" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="E41" s="8" t="n">
-        <v>44275</v>
-      </c>
-      <c r="F41" s="10" t="n">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>21676</v>
+      </c>
+      <c r="F41" s="1" t="n">
         <f aca="false">E41/D41</f>
-        <v>0.462387601432853</v>
-      </c>
-      <c r="G41" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H41" s="8" t="n">
+        <v>0.517796569681334</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H41" s="2" t="n">
         <f aca="false">(G41-E41)/F41</f>
-        <v>-2757.42687747036</v>
-      </c>
-      <c r="I41" s="8" t="n">
+        <v>41182.1963461893</v>
+      </c>
+      <c r="I41" s="2" t="n">
         <f aca="false">E41*M41/G41</f>
-        <v>4087.71511627907</v>
-      </c>
-      <c r="J41" s="8" t="n">
+        <v>8485.90195348837</v>
+      </c>
+      <c r="J41" s="2" t="n">
         <f aca="false">I41-M41</f>
-        <v>117.71511627907</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>118</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="M41" s="8" t="n">
-        <v>3970</v>
-      </c>
-      <c r="N41" s="8" t="n">
-        <v>95753</v>
-      </c>
-      <c r="O41" s="8" t="n">
-        <v>1888</v>
-      </c>
-      <c r="P41" s="8" t="n">
-        <v>380140590</v>
+        <v>-8348.09804651163</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>16834</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>41862</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>2487</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>704707035</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.159</v>
+        <v>0.654</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>58984</v>
+        <v>10899</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>23286</v>
+        <v>5653</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">E42/D42</f>
-        <v>0.39478502644785</v>
+        <v>0.518671437746582</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H42" s="2" t="n">
         <f aca="false">(G42-E42)/F42</f>
-        <v>49936.0377909474</v>
+        <v>72005.1217052892</v>
       </c>
       <c r="I42" s="2" t="n">
         <f aca="false">E42*M42/G42</f>
-        <v>7403.86493023256</v>
+        <v>1908.87348837209</v>
       </c>
       <c r="J42" s="2" t="n">
         <f aca="false">I42-M42</f>
-        <v>-6268.13506976744</v>
+        <v>-12611.1265116279</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>13672</v>
+        <v>14520</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>58984</v>
+        <v>10899</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>2691</v>
+        <v>1534</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>806422492</v>
-      </c>
-      <c r="Q42" s="0"/>
-      <c r="R42" s="0"/>
+        <v>158247680</v>
+      </c>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
@@ -14569,452 +14593,443 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>1</v>
+        <v>0.123</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>9456</v>
+        <v>57671</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>3696</v>
+        <v>30073</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">E43/D43</f>
-        <v>0.390862944162437</v>
+        <v>0.521457925127014</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H43" s="2" t="n">
         <f aca="false">(G43-E43)/F43</f>
-        <v>100556.987012987</v>
+        <v>24790.1112958468</v>
       </c>
       <c r="I43" s="2" t="n">
         <f aca="false">E43*M43/G43</f>
-        <v>917.639441860465</v>
+        <v>12712.4865348837</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">I43-M43</f>
-        <v>-9758.36055813953</v>
+        <v>-5464.51346511628</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>10676</v>
+        <v>18177</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9456</v>
+        <v>57671</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1310</v>
+        <v>2603</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>100952053</v>
+        <v>1048292829</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>71</v>
+      <c r="A44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.186</v>
+        <v>0.074</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>50051</v>
+        <v>95025</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>19853</v>
+        <v>49728</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">E44/D44</f>
-        <v>0.39665541148029</v>
+        <v>0.523314917127072</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H44" s="2" t="n">
         <f aca="false">(G44-E44)/F44</f>
-        <v>58355.4373142598</v>
+        <v>-12856.5033783784</v>
       </c>
       <c r="I44" s="2" t="n">
         <f aca="false">E44*M44/G44</f>
-        <v>6228.30162790698</v>
+        <v>23259.9828837209</v>
       </c>
       <c r="J44" s="2" t="n">
         <f aca="false">I44-M44</f>
-        <v>-7261.69837209302</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>130</v>
+        <v>3146.98288372093</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>258</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>13490</v>
+        <v>20113</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>50051</v>
+        <v>95025</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>2589</v>
+        <v>2744</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>675189586</v>
+        <v>1911247544</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>72</v>
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.084</v>
+        <v>0.248</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>110099</v>
+        <v>34649</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>43750</v>
+        <v>14929</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">E45/D45</f>
-        <v>0.397369640051227</v>
+        <v>0.430863805593235</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H45" s="2" t="n">
         <f aca="false">(G45-E45)/F45</f>
-        <v>-1887.41142857143</v>
+        <v>65150.5177171947</v>
       </c>
       <c r="I45" s="2" t="n">
         <f aca="false">E45*M45/G45</f>
-        <v>14624.7093023256</v>
+        <v>4975.87041860465</v>
       </c>
       <c r="J45" s="2" t="n">
         <f aca="false">I45-M45</f>
-        <v>250.709302325582</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>259</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>131</v>
+        <v>-9356.12958139535</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>14374</v>
+        <v>14332</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>110099</v>
+        <v>34649</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>3032</v>
+        <v>2139</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+        <v>496591233</v>
+      </c>
     </row>
     <row r="46" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.417</v>
+        <v>0.116</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>108210</v>
+        <v>74181</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>43252</v>
+        <v>31925</v>
       </c>
       <c r="F46" s="1" t="n">
         <f aca="false">E46/D46</f>
-        <v>0.399704278717309</v>
+        <v>0.430366266294604</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H46" s="2" t="n">
         <f aca="false">(G46-E46)/F46</f>
-        <v>-630.466105613613</v>
+        <v>25733.8942834769</v>
       </c>
       <c r="I46" s="2" t="n">
         <f aca="false">E46*M46/G46</f>
-        <v>14710.7093023256</v>
+        <v>14689.2122093023</v>
       </c>
       <c r="J46" s="2" t="n">
         <f aca="false">I46-M46</f>
-        <v>85.709302325582</v>
+        <v>-5095.78779069767</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>14625</v>
+        <v>19785</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>108210</v>
+        <v>74181</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>2986</v>
+        <v>2016</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="20"/>
+        <v>1467668630</v>
+      </c>
+      <c r="Q46" s="3"/>
       <c r="AMG46" s="19"/>
       <c r="AMH46" s="19"/>
       <c r="AMI46" s="19"/>
       <c r="AMJ46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="n">
-        <v>90</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8" t="n">
-        <v>107577</v>
-      </c>
-      <c r="E47" s="8" t="n">
-        <v>43022</v>
-      </c>
-      <c r="F47" s="10" t="n">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>41485</v>
+      </c>
+      <c r="F47" s="1" t="n">
         <f aca="false">E47/D47</f>
-        <v>0.399918198127853</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H47" s="8" t="n">
+        <v>0.426225971170542</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H47" s="2" t="n">
         <f aca="false">(G47-E47)/F47</f>
-        <v>-55.0112500581098</v>
-      </c>
-      <c r="I47" s="8" t="n">
+        <v>3554.45257321924</v>
+      </c>
+      <c r="I47" s="2" t="n">
         <f aca="false">E47*M47/G47</f>
-        <v>14718.5265581395</v>
-      </c>
-      <c r="J47" s="8" t="n">
+        <v>14471.511627907</v>
+      </c>
+      <c r="J47" s="2" t="n">
         <f aca="false">I47-M47</f>
-        <v>7.52655813953425</v>
-      </c>
-      <c r="K47" s="19" t="n">
-        <v>294</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M47" s="8" t="n">
-        <v>14711</v>
-      </c>
-      <c r="N47" s="8" t="n">
-        <v>107577</v>
-      </c>
-      <c r="O47" s="8" t="n">
-        <v>2973</v>
-      </c>
-      <c r="P47" s="8" t="n">
-        <v>1582564131</v>
-      </c>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19" t="n">
-        <v>20220830</v>
+        <v>-528.488372093023</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>97331</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>2698</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>1459966283</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>39</v>
+      <c r="A48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.242</v>
+        <v>0.086</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>41417</v>
+        <v>100882</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>15297</v>
+        <v>42891</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">E48/D48</f>
-        <v>0.369341091822199</v>
+        <v>0.425160088023632</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H48" s="2" t="n">
         <f aca="false">(G48-E48)/F48</f>
-        <v>75006.5471007387</v>
+        <v>256.374017859225</v>
       </c>
       <c r="I48" s="2" t="n">
         <f aca="false">E48*M48/G48</f>
-        <v>4126.63255813954</v>
+        <v>14435.3151627907</v>
       </c>
       <c r="J48" s="2" t="n">
         <f aca="false">I48-M48</f>
-        <v>-7473.36744186047</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>134</v>
+        <v>-36.6848372093027</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>11600</v>
+        <v>14472</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>41417</v>
+        <v>100882</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>2918</v>
+        <v>2778</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>480438646</v>
+        <v>1459966283</v>
       </c>
     </row>
     <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.198</v>
+        <v>0.159</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>52159</v>
+        <v>54384</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>18627</v>
+        <v>23263</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">E49/D49</f>
-        <v>0.357119576679001</v>
+        <v>0.42775448661371</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H49" s="2" t="n">
         <f aca="false">(G49-E49)/F49</f>
-        <v>68248.8488216031</v>
+        <v>46140.9537892791</v>
       </c>
       <c r="I49" s="2" t="n">
         <f aca="false">E49*M49/G49</f>
-        <v>5321.25739534884</v>
+        <v>9660.096</v>
       </c>
       <c r="J49" s="2" t="n">
         <f aca="false">I49-M49</f>
-        <v>-6962.74260465116</v>
+        <v>-8195.904</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>12284</v>
+        <v>17856</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>52159</v>
+        <v>54384</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>3086</v>
+        <v>2072</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>640719935</v>
-      </c>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
+        <v>971077397</v>
+      </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="13" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="D50" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="E50" s="14" t="n">
-        <v>27955</v>
-      </c>
-      <c r="F50" s="13" t="n">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>52395</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>20466</v>
+      </c>
+      <c r="F50" s="1" t="n">
         <f aca="false">E50/D50</f>
-        <v>0.365807380266946</v>
-      </c>
-      <c r="G50" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H50" s="14" t="n">
+        <v>0.390609791010593</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H50" s="2" t="n">
         <f aca="false">(G50-E50)/F50</f>
-        <v>41128.2024682526</v>
-      </c>
-      <c r="I50" s="14" t="n">
+        <v>57689.2861330988</v>
+      </c>
+      <c r="I50" s="2" t="n">
         <f aca="false">E50*M50/G50</f>
-        <v>9537.85593023256</v>
-      </c>
-      <c r="J50" s="14" t="n">
+        <v>6427.75186046512</v>
+      </c>
+      <c r="J50" s="2" t="n">
         <f aca="false">I50-M50</f>
-        <v>-5133.14406976744</v>
-      </c>
-      <c r="K50" s="12" t="n">
-        <v>119</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M50" s="14" t="n">
-        <v>14671</v>
-      </c>
-      <c r="N50" s="14" t="n">
-        <v>76420</v>
-      </c>
-      <c r="O50" s="14" t="n">
-        <v>3137</v>
-      </c>
-      <c r="P50" s="14" t="n">
-        <v>1121158581</v>
+        <v>-7077.24813953488</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>13505</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>52395</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>2519</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>707598641</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
@@ -15023,222 +15038,219 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.11</v>
+        <v>0.996</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>92745</v>
+        <v>9554</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>33686</v>
+        <v>3711</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">E51/D51</f>
-        <v>0.363210954768451</v>
+        <v>0.388423696880888</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H51" s="2" t="n">
         <f aca="false">(G51-E51)/F51</f>
-        <v>25643.4996734548</v>
+        <v>101149.853408785</v>
       </c>
       <c r="I51" s="2" t="n">
         <f aca="false">E51*M51/G51</f>
-        <v>9400.74418604651</v>
+        <v>925.074627906977</v>
       </c>
       <c r="J51" s="2" t="n">
         <f aca="false">I51-M51</f>
-        <v>-2599.25581395349</v>
+        <v>-9793.92537209302</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>12000</v>
+        <v>10719</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>92745</v>
+        <v>9554</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>3762</v>
+        <v>1199</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>1112943723</v>
-      </c>
-      <c r="R51" s="19"/>
+        <v>102412602</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0.089</v>
+        <v>0.189</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>118272</v>
+        <v>49699</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>41540</v>
+        <v>19530</v>
       </c>
       <c r="F52" s="1" t="n">
         <f aca="false">E52/D52</f>
-        <v>0.351224296536797</v>
+        <v>0.392965653232459</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H52" s="2" t="n">
         <f aca="false">(G52-E52)/F52</f>
-        <v>4156.88781896967</v>
+        <v>59725.3215565796</v>
       </c>
       <c r="I52" s="2" t="n">
         <f aca="false">E52*M52/G52</f>
-        <v>9090.4976744186</v>
+        <v>6154.22093023256</v>
       </c>
       <c r="J52" s="2" t="n">
         <f aca="false">I52-M52</f>
-        <v>-319.502325581396</v>
+        <v>-7395.77906976744</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>9410</v>
+        <v>13550</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>118272</v>
+        <v>49699</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>4340</v>
+        <v>2478</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>1112943723</v>
+        <v>673418437</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>41862</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>21676</v>
-      </c>
-      <c r="F53" s="1" t="n">
+      <c r="A53" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="13" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="D53" s="14" t="n">
+        <v>88054</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>26033</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <f aca="false">E53/D53</f>
-        <v>0.517796569681334</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H53" s="2" t="n">
+        <v>0.295648125014196</v>
+      </c>
+      <c r="G53" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H53" s="14" t="n">
         <f aca="false">(G53-E53)/F53</f>
-        <v>41182.1963461893</v>
-      </c>
-      <c r="I53" s="2" t="n">
+        <v>57389.1682864057</v>
+      </c>
+      <c r="I53" s="14" t="n">
         <f aca="false">E53*M53/G53</f>
-        <v>8485.90195348837</v>
-      </c>
-      <c r="J53" s="2" t="n">
+        <v>4777.96362790698</v>
+      </c>
+      <c r="J53" s="14" t="n">
         <f aca="false">I53-M53</f>
-        <v>-8348.09804651163</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>16834</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>41862</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>2487</v>
-      </c>
-      <c r="P53" s="2" t="n">
-        <v>704707035</v>
+        <v>-3114.03637209302</v>
+      </c>
+      <c r="K53" s="12" t="n">
+        <v>109</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M53" s="14" t="n">
+        <v>7892</v>
+      </c>
+      <c r="N53" s="14" t="n">
+        <v>88054</v>
+      </c>
+      <c r="O53" s="14" t="n">
+        <v>1951</v>
+      </c>
+      <c r="P53" s="14" t="n">
+        <v>694920731</v>
       </c>
     </row>
     <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>44</v>
+      <c r="A54" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.654</v>
+        <v>0.119</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>10899</v>
+        <v>106911</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>5653</v>
+        <v>31164</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">E54/D54</f>
-        <v>0.518671437746582</v>
+        <v>0.291494794735808</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H54" s="2" t="n">
         <f aca="false">(G54-E54)/F54</f>
-        <v>72005.1217052892</v>
+        <v>40604.4986522911</v>
       </c>
       <c r="I54" s="2" t="n">
         <f aca="false">E54*M54/G54</f>
-        <v>1908.87348837209</v>
+        <v>4710.83720930233</v>
       </c>
       <c r="J54" s="2" t="n">
         <f aca="false">I54-M54</f>
-        <v>-12611.1265116279</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>140</v>
+        <v>-1789.16279069767</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>14520</v>
+        <v>6500</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>10899</v>
+        <v>106911</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>1534</v>
+        <v>2270</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>158247680</v>
-      </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+        <v>694920731</v>
+      </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
@@ -15246,287 +15258,278 @@
     </row>
     <row r="55" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.123</v>
+        <v>0.229</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>57671</v>
+        <v>35520</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>30073</v>
+        <v>16141</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">E55/D55</f>
-        <v>0.521457925127014</v>
+        <v>0.454420045045045</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H55" s="2" t="n">
         <f aca="false">(G55-E55)/F55</f>
-        <v>24790.1112958468</v>
+        <v>59106.1074282882</v>
       </c>
       <c r="I55" s="2" t="n">
         <f aca="false">E55*M55/G55</f>
-        <v>12712.4865348837</v>
+        <v>7186.87409302326</v>
       </c>
       <c r="J55" s="2" t="n">
         <f aca="false">I55-M55</f>
-        <v>-5464.51346511628</v>
+        <v>-11959.1259069767</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>18177</v>
+        <v>19146</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>57671</v>
+        <v>35520</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>2603</v>
+        <v>1996</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>1048292829</v>
-      </c>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
+        <v>680068076</v>
+      </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>75</v>
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.074</v>
+        <v>0.668</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>95025</v>
+        <v>12263</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>49728</v>
+        <v>5532</v>
       </c>
       <c r="F56" s="1" t="n">
         <f aca="false">E56/D56</f>
-        <v>0.523314917127072</v>
+        <v>0.451113104460572</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H56" s="2" t="n">
         <f aca="false">(G56-E56)/F56</f>
-        <v>-12856.5033783784</v>
+        <v>83056.7758496023</v>
       </c>
       <c r="I56" s="2" t="n">
         <f aca="false">E56*M56/G56</f>
-        <v>23259.9828837209</v>
+        <v>2115.28241860465</v>
       </c>
       <c r="J56" s="2" t="n">
         <f aca="false">I56-M56</f>
-        <v>3146.98288372093</v>
-      </c>
-      <c r="K56" s="3" t="n">
-        <v>258</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>142</v>
+        <v>-14326.7175813954</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>20113</v>
+        <v>16442</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>95025</v>
+        <v>12263</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>2744</v>
+        <v>1188</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>1911247544</v>
+        <v>201632668</v>
       </c>
     </row>
     <row r="57" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0.414</v>
+        <v>0.134</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>82169</v>
+        <v>60517</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>43575</v>
+        <v>27600</v>
       </c>
       <c r="F57" s="1" t="n">
         <f aca="false">E57/D57</f>
-        <v>0.530309484112013</v>
+        <v>0.456070195151776</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H57" s="2" t="n">
         <f aca="false">(G57-E57)/F57</f>
-        <v>-1084.27251864601</v>
+        <v>33766.731884058</v>
       </c>
       <c r="I57" s="2" t="n">
         <f aca="false">E57*M57/G57</f>
-        <v>23571.0348837209</v>
+        <v>13739.023255814</v>
       </c>
       <c r="J57" s="2" t="n">
         <f aca="false">I57-M57</f>
-        <v>311.034883720931</v>
+        <v>-7665.97674418605</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>23260</v>
+        <v>21405</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>82169</v>
+        <v>60517</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>2395</v>
+        <v>2286</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>1911247544</v>
+        <v>1295363390</v>
       </c>
       <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="n">
-        <v>91</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="10" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>81085</v>
-      </c>
-      <c r="E58" s="8" t="n">
-        <v>43038</v>
-      </c>
-      <c r="F58" s="10" t="n">
+      <c r="A58" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>95364</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>43663</v>
+      </c>
+      <c r="F58" s="1" t="n">
         <f aca="false">E58/D58</f>
-        <v>0.530776345809952</v>
-      </c>
-      <c r="G58" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H58" s="8" t="n">
+        <v>0.45785621408498</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H58" s="2" t="n">
         <f aca="false">(G58-E58)/F58</f>
-        <v>-71.5932431804452</v>
-      </c>
-      <c r="I58" s="8" t="n">
+        <v>-1448.05285940041</v>
+      </c>
+      <c r="I58" s="2" t="n">
         <f aca="false">E58*M58/G58</f>
-        <v>23591.8301860465</v>
-      </c>
-      <c r="J58" s="8" t="n">
+        <v>23180.9913255814</v>
+      </c>
+      <c r="J58" s="2" t="n">
         <f aca="false">I58-M58</f>
-        <v>20.8301860465108</v>
-      </c>
-      <c r="K58" s="19" t="n">
-        <v>295</v>
-      </c>
-      <c r="L58" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="M58" s="8" t="n">
-        <v>23571</v>
-      </c>
-      <c r="N58" s="8" t="n">
-        <v>81085</v>
-      </c>
-      <c r="O58" s="8" t="n">
-        <v>2361</v>
-      </c>
-      <c r="P58" s="8" t="n">
-        <v>1911247544</v>
-      </c>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19" t="n">
-        <v>20220830</v>
+        <v>351.991325581395</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>257</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>22829</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>95364</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>2501</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>2177064134</v>
       </c>
     </row>
     <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.248</v>
+        <v>0.14</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>34649</v>
+        <v>66569</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>14929</v>
+        <v>26431</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">E59/D59</f>
-        <v>0.430863805593235</v>
+        <v>0.397046673376497</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H59" s="2" t="n">
         <f aca="false">(G59-E59)/F59</f>
-        <v>65150.5177171947</v>
+        <v>41730.61030608</v>
       </c>
       <c r="I59" s="2" t="n">
         <f aca="false">E59*M59/G59</f>
-        <v>4975.87041860465</v>
+        <v>6146.74418604651</v>
       </c>
       <c r="J59" s="2" t="n">
         <f aca="false">I59-M59</f>
-        <v>-9356.12958139535</v>
+        <v>-3853.25581395349</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>14332</v>
+        <v>10000</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>34649</v>
+        <v>66569</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>2139</v>
+        <v>3218</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>496591233</v>
-      </c>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
+        <v>665689450</v>
+      </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
       <c r="AMI59" s="0"/>
@@ -15534,285 +15537,277 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.159</v>
+        <v>0.225</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>54384</v>
+        <v>35774</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>23263</v>
+        <v>16433</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">E60/D60</f>
-        <v>0.42775448661371</v>
+        <v>0.459355956840163</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H60" s="2" t="n">
         <f aca="false">(G60-E60)/F60</f>
-        <v>46140.9537892791</v>
+        <v>57835.3227043145</v>
       </c>
       <c r="I60" s="2" t="n">
         <f aca="false">E60*M60/G60</f>
-        <v>9660.096</v>
+        <v>7111.28520930233</v>
       </c>
       <c r="J60" s="2" t="n">
         <f aca="false">I60-M60</f>
-        <v>-8195.904</v>
+        <v>-11496.7147906977</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>17856</v>
+        <v>18608</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>54384</v>
+        <v>35774</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>2072</v>
+        <v>2151</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>971077397</v>
-      </c>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
+        <v>665689450</v>
+      </c>
     </row>
     <row r="61" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0.116</v>
+        <v>0.104</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>74181</v>
+        <v>84661</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>31925</v>
+        <v>35506</v>
       </c>
       <c r="F61" s="1" t="n">
         <f aca="false">E61/D61</f>
-        <v>0.430366266294604</v>
+        <v>0.419390274152207</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H61" s="2" t="n">
         <f aca="false">(G61-E61)/F61</f>
-        <v>25733.8942834769</v>
+        <v>17868.7977806568</v>
       </c>
       <c r="I61" s="2" t="n">
         <f aca="false">E61*M61/G61</f>
-        <v>14689.2122093023</v>
+        <v>9908.6511627907</v>
       </c>
       <c r="J61" s="2" t="n">
         <f aca="false">I61-M61</f>
-        <v>-5095.78779069767</v>
+        <v>-2091.3488372093</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>19785</v>
+        <v>12000</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>74181</v>
+        <v>84661</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>2016</v>
+        <v>3305</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>1467668630</v>
-      </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="9"/>
+        <v>1015928395</v>
+      </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="n">
-        <v>85</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="10" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D62" s="8" t="n">
-        <v>101141</v>
-      </c>
-      <c r="E62" s="8" t="n">
-        <v>42993</v>
-      </c>
-      <c r="F62" s="10" t="n">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19800</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F62" s="1" t="n">
         <f aca="false">E62/D62</f>
-        <v>0.425079839036592</v>
-      </c>
-      <c r="G62" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H62" s="8" t="n">
+        <v>0.459090909090909</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H62" s="2" t="n">
         <f aca="false">(G62-E62)/F62</f>
-        <v>16.4674947084409</v>
-      </c>
-      <c r="I62" s="8" t="n">
+        <v>73863.3663366337</v>
+      </c>
+      <c r="I62" s="2" t="n">
         <f aca="false">E62*M62/G62</f>
-        <v>14432.6501162791</v>
-      </c>
-      <c r="J62" s="8" t="n">
+        <v>3739.37232558139</v>
+      </c>
+      <c r="J62" s="2" t="n">
         <f aca="false">I62-M62</f>
-        <v>-2.34988372092994</v>
-      </c>
-      <c r="K62" s="19" t="n">
-        <v>287</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M62" s="8" t="n">
-        <v>14435</v>
-      </c>
-      <c r="N62" s="8" t="n">
-        <v>101141</v>
-      </c>
-      <c r="O62" s="8" t="n">
-        <v>2781</v>
-      </c>
-      <c r="P62" s="8" t="n">
-        <v>1459966283</v>
-      </c>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20"/>
+        <v>-13949.6276744186</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>17689</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>19800</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>1713</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v>350238945</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>100882</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>42891</v>
-      </c>
-      <c r="F63" s="1" t="n">
+      <c r="A63" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="13" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>24035</v>
+      </c>
+      <c r="F63" s="13" t="n">
         <f aca="false">E63/D63</f>
-        <v>0.425160088023632</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H63" s="2" t="n">
+        <v>0.459727243166734</v>
+      </c>
+      <c r="G63" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H63" s="14" t="n">
         <f aca="false">(G63-E63)/F63</f>
-        <v>256.374017859225</v>
-      </c>
-      <c r="I63" s="2" t="n">
+        <v>41252.7216559185</v>
+      </c>
+      <c r="I63" s="14" t="n">
         <f aca="false">E63*M63/G63</f>
-        <v>14435.3151627907</v>
-      </c>
-      <c r="J63" s="2" t="n">
+        <v>10861.5841860465</v>
+      </c>
+      <c r="J63" s="14" t="n">
         <f aca="false">I63-M63</f>
-        <v>-36.6848372093027</v>
-      </c>
-      <c r="K63" s="3" t="n">
-        <v>236</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>14472</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>100882</v>
-      </c>
-      <c r="O63" s="2" t="n">
-        <v>2778</v>
-      </c>
-      <c r="P63" s="2" t="n">
-        <v>1459966283</v>
+        <v>-8570.41581395349</v>
+      </c>
+      <c r="K63" s="12" t="n">
+        <v>159</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M63" s="14" t="n">
+        <v>19432</v>
+      </c>
+      <c r="N63" s="14" t="n">
+        <v>52281</v>
+      </c>
+      <c r="O63" s="14" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P63" s="14" t="n">
+        <v>1015928395</v>
       </c>
     </row>
     <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>97331</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>41485</v>
-      </c>
-      <c r="F64" s="1" t="n">
+      <c r="A64" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="13" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D64" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="E64" s="14" t="n">
+        <v>16906</v>
+      </c>
+      <c r="F64" s="13" t="n">
         <f aca="false">E64/D64</f>
-        <v>0.426225971170542</v>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H64" s="2" t="n">
+        <v>0.428065022535069</v>
+      </c>
+      <c r="G64" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H64" s="14" t="n">
         <f aca="false">(G64-E64)/F64</f>
-        <v>3554.45257321924</v>
-      </c>
-      <c r="I64" s="2" t="n">
+        <v>60958.0288654915</v>
+      </c>
+      <c r="I64" s="14" t="n">
         <f aca="false">E64*M64/G64</f>
-        <v>14471.511627907</v>
-      </c>
-      <c r="J64" s="2" t="n">
+        <v>5073.76581395349</v>
+      </c>
+      <c r="J64" s="14" t="n">
         <f aca="false">I64-M64</f>
-        <v>-528.488372093023</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>97331</v>
-      </c>
-      <c r="O64" s="2" t="n">
-        <v>2698</v>
-      </c>
-      <c r="P64" s="2" t="n">
-        <v>1459966283</v>
-      </c>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="0"/>
+        <v>-7831.23418604651</v>
+      </c>
+      <c r="K64" s="12" t="n">
+        <v>178</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M64" s="14" t="n">
+        <v>12905</v>
+      </c>
+      <c r="N64" s="14" t="n">
+        <v>39494</v>
+      </c>
+      <c r="O64" s="14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="P64" s="14" t="n">
+        <v>509668347</v>
+      </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
@@ -15820,1686 +15815,1673 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.181</v>
+        <v>0.144</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>52395</v>
+        <v>56061</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>20466</v>
+        <v>25577</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">E65/D65</f>
-        <v>0.390609791010593</v>
+        <v>0.456235172401491</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H65" s="2" t="n">
         <f aca="false">(G65-E65)/F65</f>
-        <v>57689.2861330988</v>
+        <v>38188.6383469523</v>
       </c>
       <c r="I65" s="2" t="n">
         <f aca="false">E65*M65/G65</f>
-        <v>6427.75186046512</v>
+        <v>8687.85260465116</v>
       </c>
       <c r="J65" s="2" t="n">
         <f aca="false">I65-M65</f>
-        <v>-7077.24813953488</v>
+        <v>-5918.14739534884</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>13505</v>
+        <v>14606</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>52395</v>
+        <v>56061</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>2519</v>
+        <v>2538</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>707598641</v>
-      </c>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+        <v>818820178</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.996</v>
+        <v>0.873</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>9554</v>
+        <v>9341</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>3711</v>
+        <v>4234</v>
       </c>
       <c r="F66" s="1" t="n">
         <f aca="false">E66/D66</f>
-        <v>0.388423696880888</v>
+        <v>0.453270527780752</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H66" s="2" t="n">
         <f aca="false">(G66-E66)/F66</f>
-        <v>101149.853408785</v>
+        <v>85525.084081247</v>
       </c>
       <c r="I66" s="2" t="n">
         <f aca="false">E66*M66/G66</f>
-        <v>925.074627906977</v>
+        <v>1147.51246511628</v>
       </c>
       <c r="J66" s="2" t="n">
         <f aca="false">I66-M66</f>
-        <v>-9793.92537209302</v>
+        <v>-10506.4875348837</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>10719</v>
+        <v>11654</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>9554</v>
+        <v>9341</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>1199</v>
+        <v>1271</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>102412602</v>
+        <v>108865707</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.189</v>
+        <v>0.161</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>49699</v>
+        <v>50234</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>19530</v>
+        <v>22928</v>
       </c>
       <c r="F67" s="1" t="n">
         <f aca="false">E67/D67</f>
-        <v>0.392965653232459</v>
+        <v>0.456423935979615</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H67" s="2" t="n">
         <f aca="false">(G67-E67)/F67</f>
-        <v>59725.3215565796</v>
+        <v>43976.6594556874</v>
       </c>
       <c r="I67" s="2" t="n">
         <f aca="false">E67*M67/G67</f>
-        <v>6154.22093023256</v>
+        <v>7627.02586046512</v>
       </c>
       <c r="J67" s="2" t="n">
         <f aca="false">I67-M67</f>
-        <v>-7395.77906976744</v>
+        <v>-6676.97413953488</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>13550</v>
+        <v>14304</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>49699</v>
+        <v>50234</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>2478</v>
+        <v>2496</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>673418437</v>
+        <v>718546548</v>
       </c>
     </row>
     <row r="68" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>103744</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>40752</v>
-      </c>
-      <c r="F68" s="1" t="n">
+      <c r="A68" s="12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="13" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D68" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="E68" s="14" t="n">
+        <v>10616</v>
+      </c>
+      <c r="F68" s="13" t="n">
         <f aca="false">E68/D68</f>
-        <v>0.3928130783467</v>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H68" s="2" t="n">
+        <v>0.35149990066883</v>
+      </c>
+      <c r="G68" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="14" t="n">
         <f aca="false">(G68-E68)/F68</f>
-        <v>5722.82371417354</v>
-      </c>
-      <c r="I68" s="2" t="n">
+        <v>92130.8937452901</v>
+      </c>
+      <c r="I68" s="14" t="n">
         <f aca="false">E68*M68/G68</f>
-        <v>13551.4615813954</v>
-      </c>
-      <c r="J68" s="2" t="n">
+        <v>4480.44576744186</v>
+      </c>
+      <c r="J68" s="14" t="n">
         <f aca="false">I68-M68</f>
-        <v>-747.53841860465</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <v>263</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="M68" s="2" t="n">
-        <v>14299</v>
-      </c>
-      <c r="N68" s="2" t="n">
-        <v>103744</v>
-      </c>
-      <c r="O68" s="2" t="n">
-        <v>2818</v>
-      </c>
-      <c r="P68" s="2" t="n">
-        <v>1483429680</v>
+        <v>-13667.5542325581</v>
+      </c>
+      <c r="K68" s="12" t="n">
+        <v>179</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M68" s="14" t="n">
+        <v>18148</v>
+      </c>
+      <c r="N68" s="14" t="n">
+        <v>30202</v>
+      </c>
+      <c r="O68" s="14" t="n">
+        <v>2189</v>
+      </c>
+      <c r="P68" s="14" t="n">
+        <v>548108581</v>
       </c>
       <c r="Q68" s="0"/>
-      <c r="R68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19" t="n">
-        <v>92</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="8" t="n">
-        <v>109470</v>
-      </c>
-      <c r="E69" s="8" t="n">
-        <v>43013</v>
-      </c>
-      <c r="F69" s="10" t="n">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>34918</v>
+      </c>
+      <c r="F69" s="1" t="n">
         <f aca="false">E69/D69</f>
-        <v>0.392920434822326</v>
-      </c>
-      <c r="G69" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H69" s="8" t="n">
+        <v>0.510206168997209</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H69" s="2" t="n">
         <f aca="false">(G69-E69)/F69</f>
-        <v>-33.0855787785088</v>
-      </c>
-      <c r="I69" s="8" t="n">
+        <v>15840.6551921645</v>
+      </c>
+      <c r="I69" s="2" t="n">
         <f aca="false">E69*M69/G69</f>
-        <v>13555.0968139535</v>
-      </c>
-      <c r="J69" s="8" t="n">
+        <v>9006.40786046512</v>
+      </c>
+      <c r="J69" s="2" t="n">
         <f aca="false">I69-M69</f>
-        <v>4.09681395348889</v>
-      </c>
-      <c r="K69" s="19" t="n">
-        <v>296</v>
-      </c>
-      <c r="L69" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="M69" s="8" t="n">
-        <v>13551</v>
-      </c>
-      <c r="N69" s="8" t="n">
-        <v>109470</v>
-      </c>
-      <c r="O69" s="8" t="n">
-        <v>2927</v>
-      </c>
-      <c r="P69" s="8" t="n">
-        <v>1483429680</v>
-      </c>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19" t="n">
-        <v>20220830</v>
+        <v>-2084.59213953488</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>11091</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>68439</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>2470</v>
+      </c>
+      <c r="P69" s="2" t="n">
+        <v>759054298</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="13" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="D70" s="14" t="n">
-        <v>88054</v>
-      </c>
-      <c r="E70" s="14" t="n">
-        <v>26033</v>
-      </c>
-      <c r="F70" s="13" t="n">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>3824</v>
+      </c>
+      <c r="F70" s="1" t="n">
         <f aca="false">E70/D70</f>
-        <v>0.295648125014196</v>
-      </c>
-      <c r="G70" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H70" s="14" t="n">
+        <v>0.499086400417646</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H70" s="2" t="n">
         <f aca="false">(G70-E70)/F70</f>
-        <v>57389.1682864057</v>
-      </c>
-      <c r="I70" s="14" t="n">
+        <v>78495.4267782427</v>
+      </c>
+      <c r="I70" s="2" t="n">
         <f aca="false">E70*M70/G70</f>
-        <v>4777.96362790698</v>
-      </c>
-      <c r="J70" s="14" t="n">
+        <v>731.451162790698</v>
+      </c>
+      <c r="J70" s="2" t="n">
         <f aca="false">I70-M70</f>
-        <v>-3114.03637209302</v>
-      </c>
-      <c r="K70" s="12" t="n">
-        <v>109</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="M70" s="14" t="n">
-        <v>7892</v>
-      </c>
-      <c r="N70" s="14" t="n">
-        <v>88054</v>
-      </c>
-      <c r="O70" s="14" t="n">
-        <v>1951</v>
-      </c>
-      <c r="P70" s="14" t="n">
-        <v>694920731</v>
+        <v>-7493.5488372093</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>8225</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>7662</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>1166</v>
+      </c>
+      <c r="P70" s="2" t="n">
+        <v>63023534</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>51</v>
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.119</v>
+        <v>0.183</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>106911</v>
+        <v>39754</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>31164</v>
+        <v>20241</v>
       </c>
       <c r="F71" s="1" t="n">
         <f aca="false">E71/D71</f>
-        <v>0.291494794735808</v>
+        <v>0.509156311314585</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H71" s="2" t="n">
         <f aca="false">(G71-E71)/F71</f>
-        <v>40604.4986522911</v>
+        <v>44699.4360950546</v>
       </c>
       <c r="I71" s="2" t="n">
         <f aca="false">E71*M71/G71</f>
-        <v>4710.83720930233</v>
+        <v>4921.3873255814</v>
       </c>
       <c r="J71" s="2" t="n">
         <f aca="false">I71-M71</f>
-        <v>-1789.16279069767</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>158</v>
+        <v>-5533.61267441861</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6500</v>
+        <v>10455</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>106911</v>
+        <v>39754</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>2270</v>
+        <v>2244</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>694920731</v>
-      </c>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
+        <v>415628392</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>35520</v>
-      </c>
-      <c r="E72" s="2" t="n">
-        <v>16141</v>
-      </c>
-      <c r="F72" s="1" t="n">
+      <c r="A72" s="12" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="13" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="D72" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="E72" s="14" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F72" s="13" t="n">
         <f aca="false">E72/D72</f>
-        <v>0.454420045045045</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H72" s="2" t="n">
+        <v>0.345234300286898</v>
+      </c>
+      <c r="G72" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H72" s="14" t="n">
         <f aca="false">(G72-E72)/F72</f>
-        <v>59106.1074282882</v>
-      </c>
-      <c r="I72" s="2" t="n">
+        <v>61813.0932594644</v>
+      </c>
+      <c r="I72" s="14" t="n">
         <f aca="false">E72*M72/G72</f>
-        <v>7186.87409302326</v>
-      </c>
-      <c r="J72" s="2" t="n">
+        <v>4818.09069767442</v>
+      </c>
+      <c r="J72" s="14" t="n">
         <f aca="false">I72-M72</f>
-        <v>-11959.1259069767</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="M72" s="2" t="n">
-        <v>19146</v>
-      </c>
-      <c r="N72" s="2" t="n">
-        <v>35520</v>
-      </c>
-      <c r="O72" s="2" t="n">
-        <v>1996</v>
-      </c>
-      <c r="P72" s="2" t="n">
-        <v>680068076</v>
-      </c>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
+        <v>-4746.90930232558</v>
+      </c>
+      <c r="K72" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M72" s="14" t="n">
+        <v>9565</v>
+      </c>
+      <c r="N72" s="14" t="n">
+        <v>62740</v>
+      </c>
+      <c r="O72" s="14" t="n">
+        <v>2391</v>
+      </c>
+      <c r="P72" s="14" t="n">
+        <v>600104724</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>0.668</v>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>12263</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>5532</v>
-      </c>
-      <c r="F73" s="1" t="n">
+      <c r="A73" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="13" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D73" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="E73" s="14" t="n">
+        <v>28144</v>
+      </c>
+      <c r="F73" s="13" t="n">
         <f aca="false">E73/D73</f>
-        <v>0.451113104460572</v>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H73" s="2" t="n">
+        <v>0.448860464745379</v>
+      </c>
+      <c r="G73" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H73" s="14" t="n">
         <f aca="false">(G73-E73)/F73</f>
-        <v>83056.7758496023</v>
-      </c>
-      <c r="I73" s="2" t="n">
+        <v>33097.1452529847</v>
+      </c>
+      <c r="I73" s="14" t="n">
         <f aca="false">E73*M73/G73</f>
-        <v>2115.28241860465</v>
-      </c>
-      <c r="J73" s="2" t="n">
+        <v>6064.70474418605</v>
+      </c>
+      <c r="J73" s="14" t="n">
         <f aca="false">I73-M73</f>
-        <v>-14326.7175813954</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>16442</v>
-      </c>
-      <c r="N73" s="2" t="n">
-        <v>12263</v>
-      </c>
-      <c r="O73" s="2" t="n">
-        <v>1188</v>
-      </c>
-      <c r="P73" s="2" t="n">
-        <v>201632668</v>
+        <v>-3201.29525581395</v>
+      </c>
+      <c r="K73" s="12" t="n">
+        <v>176</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M73" s="14" t="n">
+        <v>9266</v>
+      </c>
+      <c r="N73" s="14" t="n">
+        <v>62701</v>
+      </c>
+      <c r="O73" s="14" t="n">
+        <v>2372</v>
+      </c>
+      <c r="P73" s="14" t="n">
+        <v>580988437</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>60517</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>27600</v>
-      </c>
-      <c r="F74" s="1" t="n">
+      <c r="A74" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D74" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="E74" s="14" t="n">
+        <v>21783</v>
+      </c>
+      <c r="F74" s="13" t="n">
         <f aca="false">E74/D74</f>
-        <v>0.456070195151776</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H74" s="2" t="n">
+        <v>0.496376811594203</v>
+      </c>
+      <c r="G74" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="14" t="n">
         <f aca="false">(G74-E74)/F74</f>
-        <v>33766.731884058</v>
-      </c>
-      <c r="I74" s="2" t="n">
+        <v>42743.7372262774</v>
+      </c>
+      <c r="I74" s="14" t="n">
         <f aca="false">E74*M74/G74</f>
-        <v>13739.023255814</v>
-      </c>
-      <c r="J74" s="2" t="n">
+        <v>5969.5551627907</v>
+      </c>
+      <c r="J74" s="14" t="n">
         <f aca="false">I74-M74</f>
-        <v>-7665.97674418605</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>21405</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>60517</v>
-      </c>
-      <c r="O74" s="2" t="n">
-        <v>2286</v>
-      </c>
-      <c r="P74" s="2" t="n">
-        <v>1295363390</v>
-      </c>
-      <c r="R74" s="19"/>
+        <v>-5814.4448372093</v>
+      </c>
+      <c r="K74" s="12" t="n">
+        <v>177</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M74" s="14" t="n">
+        <v>11784</v>
+      </c>
+      <c r="N74" s="14" t="n">
+        <v>43884</v>
+      </c>
+      <c r="O74" s="14" t="n">
+        <v>2804</v>
+      </c>
+      <c r="P74" s="14" t="n">
+        <v>517123870</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>79</v>
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>0.085</v>
+        <v>0.346</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>95364</v>
+        <v>107014</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>43663</v>
+        <v>52131</v>
       </c>
       <c r="F75" s="1" t="n">
         <f aca="false">E75/D75</f>
-        <v>0.45785621408498</v>
+        <v>0.48714186928813</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H75" s="2" t="n">
         <f aca="false">(G75-E75)/F75</f>
-        <v>-1448.05285940041</v>
+        <v>-18744.0262799486</v>
       </c>
       <c r="I75" s="2" t="n">
         <f aca="false">E75*M75/G75</f>
-        <v>23180.9913255814</v>
+        <v>24012.9934186047</v>
       </c>
       <c r="J75" s="2" t="n">
         <f aca="false">I75-M75</f>
-        <v>351.991325581395</v>
-      </c>
-      <c r="K75" s="3" t="n">
-        <v>257</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>162</v>
+        <v>4205.99341860465</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>22829</v>
+        <v>19807</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>95364</v>
+        <v>107014</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>2501</v>
+        <v>3206</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>2177064134</v>
+        <v>2119632070</v>
       </c>
     </row>
     <row r="76" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>38035</v>
+        <v>103465</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>18024</v>
+        <v>47379</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="false">E76/D76</f>
-        <v>0.473879321677402</v>
+        <v>0.457922969119992</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H76" s="2" t="n">
         <f aca="false">(G76-E76)/F76</f>
-        <v>52705.40168664</v>
+        <v>-9562.74372612339</v>
       </c>
       <c r="I76" s="2" t="n">
         <f aca="false">E76*M76/G76</f>
-        <v>9716.61265116279</v>
-      </c>
-      <c r="J76" s="14" t="n">
+        <v>17531.3318372093</v>
+      </c>
+      <c r="J76" s="2" t="n">
         <f aca="false">I76-M76</f>
-        <v>-13464.3873488372</v>
+        <v>1620.3318372093</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>23181</v>
+        <v>15911</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>38035</v>
+        <v>103465</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>1958</v>
+        <v>2730</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>881700744</v>
-      </c>
-      <c r="Q76" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="R76" s="12"/>
+        <v>1646232433</v>
+      </c>
+      <c r="Q76" s="0"/>
     </row>
     <row r="77" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19" t="n">
-        <v>96</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="10" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="D77" s="19" t="n">
-        <v>91213</v>
-      </c>
-      <c r="E77" s="19" t="n">
-        <v>43150</v>
-      </c>
-      <c r="F77" s="10" t="n">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>106350</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>54474</v>
+      </c>
+      <c r="F77" s="1" t="n">
         <f aca="false">E77/D77</f>
-        <v>0.473068531897865</v>
-      </c>
-      <c r="G77" s="8" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H77" s="8" t="n">
+        <v>0.512214386459803</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H77" s="2" t="n">
         <f aca="false">(G77-E77)/F77</f>
-        <v>-317.078794901506</v>
-      </c>
-      <c r="I77" s="8" t="n">
+        <v>-22400.7765172376</v>
+      </c>
+      <c r="I77" s="2" t="n">
         <f aca="false">E77*M77/G77</f>
-        <v>23951.2604651163</v>
-      </c>
-      <c r="J77" s="8" t="n">
+        <v>14743.4514418605</v>
+      </c>
+      <c r="J77" s="2" t="n">
         <f aca="false">I77-M77</f>
-        <v>83.2604651162801</v>
-      </c>
-      <c r="K77" s="19" t="n">
-        <v>301</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="M77" s="19" t="n">
-        <v>23868</v>
-      </c>
-      <c r="N77" s="19" t="n">
-        <v>91213</v>
-      </c>
-      <c r="O77" s="19" t="n">
-        <v>2461</v>
-      </c>
-      <c r="P77" s="19" t="n">
-        <v>2177064134</v>
-      </c>
-      <c r="R77" s="19" t="n">
-        <v>20220912</v>
-      </c>
+        <v>3105.45144186046</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>11638</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>106350</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>2601</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>1237706224</v>
+      </c>
+      <c r="Q77" s="0"/>
     </row>
     <row r="78" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>0.225</v>
+        <v>0.442</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>35774</v>
+        <v>103744</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>16433</v>
+        <v>40752</v>
       </c>
       <c r="F78" s="1" t="n">
         <f aca="false">E78/D78</f>
-        <v>0.459355956840163</v>
+        <v>0.3928130783467</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H78" s="2" t="n">
         <f aca="false">(G78-E78)/F78</f>
-        <v>57835.3227043145</v>
+        <v>5722.82371417354</v>
       </c>
       <c r="I78" s="2" t="n">
         <f aca="false">E78*M78/G78</f>
-        <v>7111.28520930233</v>
+        <v>13551.4615813954</v>
       </c>
       <c r="J78" s="2" t="n">
         <f aca="false">I78-M78</f>
-        <v>-11496.7147906977</v>
+        <v>-747.53841860465</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>18608</v>
+        <v>14299</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>35774</v>
+        <v>103744</v>
       </c>
       <c r="O78" s="2" t="n">
-        <v>2151</v>
+        <v>2818</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>665689450</v>
+        <v>1483429680</v>
       </c>
       <c r="Q78" s="0"/>
-      <c r="R78" s="0"/>
     </row>
     <row r="79" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>19800</v>
+        <v>80146</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>9090</v>
+        <v>44202</v>
       </c>
       <c r="F79" s="1" t="n">
         <f aca="false">E79/D79</f>
-        <v>0.459090909090909</v>
+        <v>0.551518478776233</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H79" s="2" t="n">
         <f aca="false">(G79-E79)/F79</f>
-        <v>73863.3663366337</v>
+        <v>-2179.43740102258</v>
       </c>
       <c r="I79" s="2" t="n">
         <f aca="false">E79*M79/G79</f>
-        <v>3739.37232558139</v>
-      </c>
-      <c r="J79" s="2" t="n">
+        <v>10739.0300930233</v>
+      </c>
+      <c r="J79" s="14" t="n">
         <f aca="false">I79-M79</f>
-        <v>-13949.6276744186</v>
+        <v>292.030093023255</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>17689</v>
+        <v>10447</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>19800</v>
+        <v>80146</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>1713</v>
+        <v>2185</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>350238945</v>
-      </c>
-      <c r="Q79" s="0"/>
-      <c r="R79" s="0"/>
+        <v>837283164</v>
+      </c>
       <c r="AMG79" s="0"/>
       <c r="AMH79" s="0"/>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
     <row r="80" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="n">
-        <v>62</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="13" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D80" s="14" t="n">
-        <v>52281</v>
-      </c>
-      <c r="E80" s="14" t="n">
-        <v>24035</v>
-      </c>
-      <c r="F80" s="13" t="n">
+      <c r="A80" s="19" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="10" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>43123</v>
+      </c>
+      <c r="F80" s="10" t="n">
         <f aca="false">E80/D80</f>
-        <v>0.459727243166734</v>
-      </c>
-      <c r="G80" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H80" s="14" t="n">
+        <v>0.553092975233111</v>
+      </c>
+      <c r="G80" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H80" s="8" t="n">
         <f aca="false">(G80-E80)/F80</f>
-        <v>41252.7216559185</v>
-      </c>
-      <c r="I80" s="14" t="n">
+        <v>-222.385757020615</v>
+      </c>
+      <c r="I80" s="8" t="n">
         <f aca="false">E80*M80/G80</f>
-        <v>10861.5841860465</v>
-      </c>
-      <c r="J80" s="14" t="n">
+        <v>10769.7185348837</v>
+      </c>
+      <c r="J80" s="8" t="n">
         <f aca="false">I80-M80</f>
-        <v>-8570.41581395349</v>
-      </c>
-      <c r="K80" s="12" t="n">
-        <v>159</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="M80" s="14" t="n">
-        <v>19432</v>
-      </c>
-      <c r="N80" s="14" t="n">
-        <v>52281</v>
-      </c>
-      <c r="O80" s="14" t="n">
-        <v>2400</v>
-      </c>
-      <c r="P80" s="14" t="n">
-        <v>1015928395</v>
-      </c>
-      <c r="Q80" s="0"/>
-      <c r="R80" s="0"/>
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K80" s="19" t="n">
+        <v>281</v>
+      </c>
+      <c r="L80" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M80" s="8" t="n">
+        <v>10739</v>
+      </c>
+      <c r="N80" s="8" t="n">
+        <v>77967</v>
+      </c>
+      <c r="O80" s="8" t="n">
+        <v>2116</v>
+      </c>
+      <c r="P80" s="8" t="n">
+        <v>837283164</v>
+      </c>
     </row>
     <row r="81" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>84661</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>35506</v>
-      </c>
-      <c r="F81" s="1" t="n">
+      <c r="A81" s="19" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F81" s="10" t="n">
         <f aca="false">E81/D81</f>
-        <v>0.419390274152207</v>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H81" s="2" t="n">
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G81" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H81" s="8" t="n">
         <f aca="false">(G81-E81)/F81</f>
-        <v>17868.7977806568</v>
-      </c>
-      <c r="I81" s="2" t="n">
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I81" s="8" t="n">
         <f aca="false">E81*M81/G81</f>
-        <v>9908.6511627907</v>
-      </c>
-      <c r="J81" s="2" t="n">
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J81" s="8" t="n">
         <f aca="false">I81-M81</f>
-        <v>-2091.3488372093</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="M81" s="2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N81" s="2" t="n">
-        <v>84661</v>
-      </c>
-      <c r="O81" s="2" t="n">
-        <v>3305</v>
-      </c>
-      <c r="P81" s="2" t="n">
-        <v>1015928395</v>
-      </c>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K81" s="19" t="n">
+        <v>282</v>
+      </c>
+      <c r="L81" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="8" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N81" s="8" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O81" s="8" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P81" s="8" t="n">
+        <v>555559035</v>
+      </c>
     </row>
     <row r="82" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.14</v>
+        <v>0.412</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>66569</v>
+        <v>82044</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>26431</v>
+        <v>43792</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">E82/D82</f>
-        <v>0.397046673376497</v>
+        <v>0.533762371410463</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H82" s="2" t="n">
         <f aca="false">(G82-E82)/F82</f>
-        <v>41730.61030608</v>
+        <v>-1483.80635732554</v>
       </c>
       <c r="I82" s="2" t="n">
         <f aca="false">E82*M82/G82</f>
-        <v>6146.74418604651</v>
+        <v>9720.80558139535</v>
       </c>
       <c r="J82" s="2" t="n">
         <f aca="false">I82-M82</f>
-        <v>-3853.25581395349</v>
+        <v>175.805581395349</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>10000</v>
+        <v>9545</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>66569</v>
+        <v>82044</v>
       </c>
       <c r="O82" s="2" t="n">
-        <v>3218</v>
+        <v>4002</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>665689450</v>
-      </c>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
+        <v>783106269</v>
+      </c>
+      <c r="Q82" s="0"/>
     </row>
     <row r="83" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="n">
-        <v>63</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="13" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="D83" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="E83" s="14" t="n">
-        <v>16906</v>
-      </c>
-      <c r="F83" s="13" t="n">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>74562</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="F83" s="1" t="n">
         <f aca="false">E83/D83</f>
-        <v>0.428065022535069</v>
-      </c>
-      <c r="G83" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H83" s="14" t="n">
+        <v>0.579262895308602</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H83" s="2" t="n">
         <f aca="false">(G83-E83)/F83</f>
-        <v>60958.0288654915</v>
-      </c>
-      <c r="I83" s="14" t="n">
+        <v>-329.729388066958</v>
+      </c>
+      <c r="I83" s="2" t="n">
         <f aca="false">E83*M83/G83</f>
-        <v>5073.76581395349</v>
-      </c>
-      <c r="J83" s="14" t="n">
+        <v>9454.81123255814</v>
+      </c>
+      <c r="J83" s="2" t="n">
         <f aca="false">I83-M83</f>
-        <v>-7831.23418604651</v>
-      </c>
-      <c r="K83" s="12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="M83" s="14" t="n">
-        <v>12905</v>
-      </c>
-      <c r="N83" s="14" t="n">
-        <v>39494</v>
-      </c>
-      <c r="O83" s="14" t="n">
-        <v>2190</v>
-      </c>
-      <c r="P83" s="14" t="n">
-        <v>509668347</v>
-      </c>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
+        <v>41.8112325581387</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>9413</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>74562</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>2851</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>701851123</v>
+      </c>
+      <c r="Q83" s="0"/>
     </row>
     <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>0.144</v>
+        <v>0.417</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>56061</v>
+        <v>108210</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>25577</v>
+        <v>43252</v>
       </c>
       <c r="F84" s="1" t="n">
         <f aca="false">E84/D84</f>
-        <v>0.456235172401491</v>
+        <v>0.399704278717309</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H84" s="2" t="n">
         <f aca="false">(G84-E84)/F84</f>
-        <v>38188.6383469523</v>
+        <v>-630.466105613613</v>
       </c>
       <c r="I84" s="2" t="n">
         <f aca="false">E84*M84/G84</f>
-        <v>8687.85260465116</v>
+        <v>14710.7093023256</v>
       </c>
       <c r="J84" s="2" t="n">
         <f aca="false">I84-M84</f>
-        <v>-5918.14739534884</v>
+        <v>85.709302325582</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>14606</v>
+        <v>14625</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>56061</v>
+        <v>108210</v>
       </c>
       <c r="O84" s="2" t="n">
-        <v>2538</v>
+        <v>2986</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>818820178</v>
+        <v>1582564131</v>
       </c>
       <c r="Q84" s="0"/>
-      <c r="R84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0.873</v>
+        <v>0.414</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>9341</v>
+        <v>82169</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>4234</v>
+        <v>43575</v>
       </c>
       <c r="F85" s="1" t="n">
         <f aca="false">E85/D85</f>
-        <v>0.453270527780752</v>
+        <v>0.530309484112013</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H85" s="2" t="n">
         <f aca="false">(G85-E85)/F85</f>
-        <v>85525.084081247</v>
+        <v>-1084.27251864601</v>
       </c>
       <c r="I85" s="2" t="n">
         <f aca="false">E85*M85/G85</f>
-        <v>1147.51246511628</v>
+        <v>23571.0348837209</v>
       </c>
       <c r="J85" s="2" t="n">
         <f aca="false">I85-M85</f>
-        <v>-10506.4875348837</v>
+        <v>311.034883720931</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>11654</v>
+        <v>23260</v>
       </c>
       <c r="N85" s="2" t="n">
-        <v>9341</v>
+        <v>82169</v>
       </c>
       <c r="O85" s="2" t="n">
-        <v>1271</v>
+        <v>2395</v>
       </c>
       <c r="P85" s="2" t="n">
-        <v>108865707</v>
+        <v>1911247544</v>
       </c>
     </row>
     <row r="86" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>50234</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>22928</v>
-      </c>
-      <c r="F86" s="1" t="n">
+      <c r="A86" s="19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D86" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F86" s="10" t="n">
         <f aca="false">E86/D86</f>
-        <v>0.456423935979615</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H86" s="2" t="n">
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G86" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H86" s="8" t="n">
         <f aca="false">(G86-E86)/F86</f>
-        <v>43976.6594556874</v>
-      </c>
-      <c r="I86" s="2" t="n">
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I86" s="8" t="n">
         <f aca="false">E86*M86/G86</f>
-        <v>7627.02586046512</v>
-      </c>
-      <c r="J86" s="2" t="n">
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J86" s="8" t="n">
         <f aca="false">I86-M86</f>
-        <v>-6676.97413953488</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>241</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>14304</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>50234</v>
-      </c>
-      <c r="O86" s="2" t="n">
-        <v>2496</v>
-      </c>
-      <c r="P86" s="2" t="n">
-        <v>718546548</v>
-      </c>
-      <c r="Q86" s="0"/>
-      <c r="R86" s="0"/>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K86" s="19" t="n">
+        <v>287</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M86" s="8" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N86" s="8" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O86" s="8" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P86" s="8" t="n">
+        <v>1459966283</v>
+      </c>
+      <c r="Q86" s="19"/>
     </row>
     <row r="87" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>103465</v>
+        <v>38035</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>47379</v>
+        <v>18024</v>
       </c>
       <c r="F87" s="1" t="n">
         <f aca="false">E87/D87</f>
-        <v>0.457922969119992</v>
+        <v>0.473879321677402</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H87" s="2" t="n">
         <f aca="false">(G87-E87)/F87</f>
-        <v>-9562.74372612339</v>
+        <v>52705.40168664</v>
       </c>
       <c r="I87" s="2" t="n">
         <f aca="false">E87*M87/G87</f>
-        <v>17531.3318372093</v>
-      </c>
-      <c r="J87" s="2" t="n">
+        <v>9716.61265116279</v>
+      </c>
+      <c r="J87" s="14" t="n">
         <f aca="false">I87-M87</f>
-        <v>1620.3318372093</v>
+        <v>-13464.3873488372</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>15911</v>
+        <v>23181</v>
       </c>
       <c r="N87" s="2" t="n">
-        <v>103465</v>
+        <v>38035</v>
       </c>
       <c r="O87" s="2" t="n">
-        <v>2730</v>
+        <v>1958</v>
       </c>
       <c r="P87" s="2" t="n">
-        <v>1646232433</v>
-      </c>
-      <c r="Q87" s="0"/>
-      <c r="R87" s="20"/>
+        <v>881700744</v>
+      </c>
+      <c r="Q87" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="AMG87" s="0"/>
       <c r="AMH87" s="0"/>
       <c r="AMI87" s="0"/>
       <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>93904</v>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>43404</v>
-      </c>
-      <c r="F88" s="1" t="n">
+      <c r="A88" s="19" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="10" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>80558</v>
+      </c>
+      <c r="E88" s="8" t="n">
+        <v>43051</v>
+      </c>
+      <c r="F88" s="10" t="n">
         <f aca="false">E88/D88</f>
-        <v>0.462216731981598</v>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H88" s="2" t="n">
+        <v>0.534409990317535</v>
+      </c>
+      <c r="G88" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H88" s="8" t="n">
         <f aca="false">(G88-E88)/F88</f>
-        <v>-874.048843424569</v>
-      </c>
-      <c r="I88" s="2" t="n">
+        <v>-95.4323476806578</v>
+      </c>
+      <c r="I88" s="8" t="n">
         <f aca="false">E88*M88/G88</f>
-        <v>17695.7098604651</v>
-      </c>
-      <c r="J88" s="2" t="n">
+        <v>9732.52955813953</v>
+      </c>
+      <c r="J88" s="8" t="n">
         <f aca="false">I88-M88</f>
-        <v>164.709860465115</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <v>297</v>
-      </c>
-      <c r="L88" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="M88" s="2" t="n">
-        <v>17531</v>
-      </c>
-      <c r="N88" s="2" t="n">
-        <v>93904</v>
-      </c>
-      <c r="O88" s="2" t="n">
-        <v>2524</v>
-      </c>
-      <c r="P88" s="2" t="n">
-        <v>1646232433</v>
-      </c>
+        <v>11.5295581395349</v>
+      </c>
+      <c r="K88" s="19" t="n">
+        <v>291</v>
+      </c>
+      <c r="L88" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M88" s="8" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N88" s="8" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O88" s="8" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P88" s="8" t="n">
+        <v>783106269</v>
+      </c>
+      <c r="Q88" s="19"/>
       <c r="R88" s="19" t="n">
         <v>20220830</v>
       </c>
     </row>
     <row r="89" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C89" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D89" s="19" t="n">
-        <v>93029</v>
-      </c>
-      <c r="E89" s="19" t="n">
-        <v>43024</v>
+      <c r="D89" s="8" t="n">
+        <v>74231</v>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>43007</v>
       </c>
       <c r="F89" s="10" t="n">
         <f aca="false">E89/D89</f>
-        <v>0.462479441894463</v>
+        <v>0.579367110775821</v>
       </c>
       <c r="G89" s="8" t="n">
         <v>43000</v>
       </c>
       <c r="H89" s="8" t="n">
         <f aca="false">(G89-E89)/F89</f>
-        <v>-51.8941985868353</v>
+        <v>-12.0821494175367</v>
       </c>
       <c r="I89" s="8" t="n">
         <f aca="false">E89*M89/G89</f>
-        <v>17705.8768372093</v>
+        <v>9456.53918604651</v>
       </c>
       <c r="J89" s="8" t="n">
         <f aca="false">I89-M89</f>
-        <v>9.87683720930363</v>
+        <v>1.53918604651153</v>
       </c>
       <c r="K89" s="19" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="M89" s="19" t="n">
-        <v>17696</v>
-      </c>
-      <c r="N89" s="19" t="n">
-        <v>93029</v>
-      </c>
-      <c r="O89" s="19" t="n">
-        <v>2503</v>
-      </c>
-      <c r="P89" s="19" t="n">
-        <v>1646232433</v>
+        <v>191</v>
+      </c>
+      <c r="M89" s="8" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N89" s="8" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O89" s="8" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P89" s="8" t="n">
+        <v>701851123</v>
       </c>
       <c r="R89" s="19" t="n">
-        <v>20220912</v>
+        <v>20220830</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="n">
-        <v>67</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="13" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="D90" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="E90" s="14" t="n">
-        <v>10616</v>
-      </c>
-      <c r="F90" s="13" t="n">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>88270</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>43635</v>
+      </c>
+      <c r="F90" s="1" t="n">
         <f aca="false">E90/D90</f>
-        <v>0.35149990066883</v>
-      </c>
-      <c r="G90" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H90" s="14" t="n">
+        <v>0.494335561345871</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H90" s="2" t="n">
         <f aca="false">(G90-E90)/F90</f>
-        <v>92130.8937452901</v>
-      </c>
-      <c r="I90" s="14" t="n">
+        <v>-1284.55253810015</v>
+      </c>
+      <c r="I90" s="2" t="n">
         <f aca="false">E90*M90/G90</f>
-        <v>4480.44576744186</v>
-      </c>
-      <c r="J90" s="14" t="n">
+        <v>24367.6105813953</v>
+      </c>
+      <c r="J90" s="2" t="n">
         <f aca="false">I90-M90</f>
-        <v>-13667.5542325581</v>
-      </c>
-      <c r="K90" s="12" t="n">
-        <v>179</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M90" s="14" t="n">
-        <v>18148</v>
-      </c>
-      <c r="N90" s="14" t="n">
-        <v>30202</v>
-      </c>
-      <c r="O90" s="14" t="n">
-        <v>2189</v>
-      </c>
-      <c r="P90" s="14" t="n">
-        <v>548108581</v>
-      </c>
-      <c r="R90" s="19"/>
+        <v>354.610581395347</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>24013</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>88270</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>2702</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>2119632070</v>
+      </c>
+      <c r="R90" s="19" t="n">
+        <v>20220830</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>68439</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>34918</v>
-      </c>
-      <c r="F91" s="1" t="n">
+      <c r="A91" s="19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F91" s="10" t="n">
         <f aca="false">E91/D91</f>
-        <v>0.510206168997209</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H91" s="2" t="n">
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G91" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H91" s="8" t="n">
         <f aca="false">(G91-E91)/F91</f>
-        <v>15840.6551921645</v>
-      </c>
-      <c r="I91" s="2" t="n">
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I91" s="8" t="n">
         <f aca="false">E91*M91/G91</f>
-        <v>9006.40786046512</v>
-      </c>
-      <c r="J91" s="2" t="n">
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J91" s="8" t="n">
         <f aca="false">I91-M91</f>
-        <v>-2084.59213953488</v>
-      </c>
-      <c r="K91" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="M91" s="2" t="n">
-        <v>11091</v>
-      </c>
-      <c r="N91" s="2" t="n">
-        <v>68439</v>
-      </c>
-      <c r="O91" s="2" t="n">
-        <v>2470</v>
-      </c>
-      <c r="P91" s="2" t="n">
-        <v>759054298</v>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K91" s="19" t="n">
+        <v>294</v>
+      </c>
+      <c r="L91" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M91" s="8" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N91" s="8" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O91" s="8" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P91" s="8" t="n">
+        <v>1582564131</v>
+      </c>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19" t="n">
+        <v>20220830</v>
       </c>
     </row>
     <row r="92" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>7662</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>3824</v>
-      </c>
-      <c r="F92" s="1" t="n">
+      <c r="A92" s="19" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="10" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>81085</v>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>43038</v>
+      </c>
+      <c r="F92" s="10" t="n">
         <f aca="false">E92/D92</f>
-        <v>0.499086400417646</v>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H92" s="2" t="n">
+        <v>0.530776345809952</v>
+      </c>
+      <c r="G92" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H92" s="8" t="n">
         <f aca="false">(G92-E92)/F92</f>
-        <v>78495.4267782427</v>
-      </c>
-      <c r="I92" s="2" t="n">
+        <v>-71.5932431804452</v>
+      </c>
+      <c r="I92" s="8" t="n">
         <f aca="false">E92*M92/G92</f>
-        <v>731.451162790698</v>
-      </c>
-      <c r="J92" s="2" t="n">
+        <v>23591.8301860465</v>
+      </c>
+      <c r="J92" s="8" t="n">
         <f aca="false">I92-M92</f>
-        <v>-7493.5488372093</v>
-      </c>
-      <c r="K92" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>8225</v>
-      </c>
-      <c r="N92" s="2" t="n">
-        <v>7662</v>
-      </c>
-      <c r="O92" s="2" t="n">
-        <v>1166</v>
-      </c>
-      <c r="P92" s="2" t="n">
-        <v>63023534</v>
-      </c>
-      <c r="Q92" s="0"/>
-      <c r="R92" s="0"/>
+        <v>20.8301860465108</v>
+      </c>
+      <c r="K92" s="19" t="n">
+        <v>295</v>
+      </c>
+      <c r="L92" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M92" s="8" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N92" s="8" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O92" s="8" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P92" s="8" t="n">
+        <v>1911247544</v>
+      </c>
+      <c r="R92" s="19" t="n">
+        <v>20220830</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>39754</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>20241</v>
-      </c>
-      <c r="F93" s="1" t="n">
+      <c r="A93" s="19" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8" t="n">
+        <v>109470</v>
+      </c>
+      <c r="E93" s="8" t="n">
+        <v>43013</v>
+      </c>
+      <c r="F93" s="10" t="n">
         <f aca="false">E93/D93</f>
-        <v>0.509156311314585</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H93" s="2" t="n">
+        <v>0.392920434822326</v>
+      </c>
+      <c r="G93" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H93" s="8" t="n">
         <f aca="false">(G93-E93)/F93</f>
-        <v>44699.4360950546</v>
-      </c>
-      <c r="I93" s="2" t="n">
+        <v>-33.0855787785088</v>
+      </c>
+      <c r="I93" s="8" t="n">
         <f aca="false">E93*M93/G93</f>
-        <v>4921.3873255814</v>
-      </c>
-      <c r="J93" s="2" t="n">
+        <v>13555.0968139535</v>
+      </c>
+      <c r="J93" s="8" t="n">
         <f aca="false">I93-M93</f>
-        <v>-5533.61267441861</v>
-      </c>
-      <c r="K93" s="0" t="n">
-        <v>242</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="M93" s="2" t="n">
-        <v>10455</v>
-      </c>
-      <c r="N93" s="2" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O93" s="2" t="n">
-        <v>2244</v>
-      </c>
-      <c r="P93" s="2" t="n">
-        <v>415628392</v>
+        <v>4.09681395348889</v>
+      </c>
+      <c r="K93" s="19" t="n">
+        <v>296</v>
+      </c>
+      <c r="L93" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M93" s="8" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N93" s="8" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O93" s="8" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P93" s="8" t="n">
+        <v>1483429680</v>
+      </c>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19" t="n">
+        <v>20220830</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0.331</v>
+        <v>0.991</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>106350</v>
+        <v>93904</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>54474</v>
+        <v>43404</v>
       </c>
       <c r="F94" s="1" t="n">
         <f aca="false">E94/D94</f>
-        <v>0.512214386459803</v>
+        <v>0.462216731981598</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>43000</v>
       </c>
       <c r="H94" s="2" t="n">
         <f aca="false">(G94-E94)/F94</f>
-        <v>-22400.7765172376</v>
+        <v>-874.048843424569</v>
       </c>
       <c r="I94" s="2" t="n">
         <f aca="false">E94*M94/G94</f>
-        <v>14743.4514418605</v>
+        <v>17695.7098604651</v>
       </c>
       <c r="J94" s="2" t="n">
         <f aca="false">I94-M94</f>
-        <v>3105.45144186046</v>
+        <v>164.709860465115</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M94" s="2" t="n">
-        <v>11638</v>
+        <v>17531</v>
       </c>
       <c r="N94" s="2" t="n">
-        <v>106350</v>
+        <v>93904</v>
       </c>
       <c r="O94" s="2" t="n">
-        <v>2601</v>
+        <v>2524</v>
       </c>
       <c r="P94" s="2" t="n">
-        <v>1237706224</v>
-      </c>
-      <c r="R94" s="19"/>
+        <v>1646232433</v>
+      </c>
+      <c r="R94" s="19" t="n">
+        <v>20220830</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="19" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C95" s="10" t="n">
         <v>0.965</v>
@@ -17533,7 +17515,7 @@
         <v>298</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M95" s="8" t="n">
         <v>14743</v>
@@ -17553,185 +17535,603 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="n">
-        <v>71</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="13" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="D96" s="14" t="n">
-        <v>62740</v>
-      </c>
-      <c r="E96" s="14" t="n">
-        <v>21660</v>
-      </c>
-      <c r="F96" s="13" t="n">
+      <c r="A96" s="19" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="19" t="n">
+        <v>86984</v>
+      </c>
+      <c r="E96" s="19" t="n">
+        <v>43039</v>
+      </c>
+      <c r="F96" s="10" t="n">
         <f aca="false">E96/D96</f>
-        <v>0.345234300286898</v>
-      </c>
-      <c r="G96" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H96" s="14" t="n">
+        <v>0.494792145681964</v>
+      </c>
+      <c r="G96" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H96" s="8" t="n">
         <f aca="false">(G96-E96)/F96</f>
-        <v>61813.0932594644</v>
-      </c>
-      <c r="I96" s="14" t="n">
+        <v>-78.8209763237993</v>
+      </c>
+      <c r="I96" s="8" t="n">
         <f aca="false">E96*M96/G96</f>
-        <v>4818.09069767442</v>
-      </c>
-      <c r="J96" s="14" t="n">
+        <v>24390.1012093023</v>
+      </c>
+      <c r="J96" s="8" t="n">
         <f aca="false">I96-M96</f>
-        <v>-4746.90930232558</v>
-      </c>
-      <c r="K96" s="12" t="n">
-        <v>180</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M96" s="14" t="n">
-        <v>9565</v>
-      </c>
-      <c r="N96" s="14" t="n">
-        <v>62740</v>
-      </c>
-      <c r="O96" s="14" t="n">
-        <v>2391</v>
-      </c>
-      <c r="P96" s="14" t="n">
-        <v>600104724</v>
+        <v>22.1012093023273</v>
+      </c>
+      <c r="K96" s="19" t="n">
+        <v>299</v>
+      </c>
+      <c r="L96" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" s="19" t="n">
+        <v>24368</v>
+      </c>
+      <c r="N96" s="19" t="n">
+        <v>86984</v>
+      </c>
+      <c r="O96" s="19" t="n">
+        <v>2656</v>
+      </c>
+      <c r="P96" s="19" t="n">
+        <v>2119632070</v>
+      </c>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19" t="n">
+        <v>20220912</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="n">
-        <v>72</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="13" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="D97" s="14" t="n">
-        <v>62701</v>
-      </c>
-      <c r="E97" s="14" t="n">
-        <v>28144</v>
-      </c>
-      <c r="F97" s="13" t="n">
+      <c r="A97" s="19" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="10" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D97" s="19" t="n">
+        <v>91213</v>
+      </c>
+      <c r="E97" s="19" t="n">
+        <v>43150</v>
+      </c>
+      <c r="F97" s="10" t="n">
         <f aca="false">E97/D97</f>
-        <v>0.448860464745379</v>
-      </c>
-      <c r="G97" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H97" s="14" t="n">
+        <v>0.473068531897865</v>
+      </c>
+      <c r="G97" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H97" s="8" t="n">
         <f aca="false">(G97-E97)/F97</f>
-        <v>33097.1452529847</v>
-      </c>
-      <c r="I97" s="14" t="n">
+        <v>-317.078794901506</v>
+      </c>
+      <c r="I97" s="8" t="n">
         <f aca="false">E97*M97/G97</f>
-        <v>6064.70474418605</v>
-      </c>
-      <c r="J97" s="14" t="n">
+        <v>23951.2604651163</v>
+      </c>
+      <c r="J97" s="8" t="n">
         <f aca="false">I97-M97</f>
-        <v>-3201.29525581395</v>
-      </c>
-      <c r="K97" s="12" t="n">
-        <v>176</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="M97" s="14" t="n">
-        <v>9266</v>
-      </c>
-      <c r="N97" s="14" t="n">
-        <v>62701</v>
-      </c>
-      <c r="O97" s="14" t="n">
-        <v>2372</v>
-      </c>
-      <c r="P97" s="14" t="n">
-        <v>580988437</v>
+        <v>83.2604651162801</v>
+      </c>
+      <c r="K97" s="19" t="n">
+        <v>301</v>
+      </c>
+      <c r="L97" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M97" s="19" t="n">
+        <v>23868</v>
+      </c>
+      <c r="N97" s="19" t="n">
+        <v>91213</v>
+      </c>
+      <c r="O97" s="19" t="n">
+        <v>2461</v>
+      </c>
+      <c r="P97" s="19" t="n">
+        <v>2177064134</v>
+      </c>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19" t="n">
+        <v>20220912</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="n">
-        <v>73</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" s="13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D98" s="14" t="n">
-        <v>43884</v>
-      </c>
-      <c r="E98" s="14" t="n">
-        <v>21783</v>
-      </c>
-      <c r="F98" s="13" t="n">
+      <c r="A98" s="19" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="19" t="n">
+        <v>93029</v>
+      </c>
+      <c r="E98" s="19" t="n">
+        <v>43024</v>
+      </c>
+      <c r="F98" s="10" t="n">
         <f aca="false">E98/D98</f>
-        <v>0.496376811594203</v>
-      </c>
-      <c r="G98" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H98" s="14" t="n">
+        <v>0.462479441894463</v>
+      </c>
+      <c r="G98" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H98" s="8" t="n">
         <f aca="false">(G98-E98)/F98</f>
-        <v>42743.7372262774</v>
-      </c>
-      <c r="I98" s="14" t="n">
+        <v>-51.8941985868353</v>
+      </c>
+      <c r="I98" s="8" t="n">
         <f aca="false">E98*M98/G98</f>
-        <v>5969.5551627907</v>
-      </c>
-      <c r="J98" s="14" t="n">
+        <v>17705.8768372093</v>
+      </c>
+      <c r="J98" s="8" t="n">
         <f aca="false">I98-M98</f>
-        <v>-5814.4448372093</v>
-      </c>
-      <c r="K98" s="12" t="n">
-        <v>177</v>
-      </c>
-      <c r="L98" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="M98" s="14" t="n">
-        <v>11784</v>
-      </c>
-      <c r="N98" s="14" t="n">
-        <v>43884</v>
-      </c>
-      <c r="O98" s="14" t="n">
-        <v>2804</v>
-      </c>
-      <c r="P98" s="14" t="n">
-        <v>517123870</v>
+        <v>9.87683720930363</v>
+      </c>
+      <c r="K98" s="19" t="n">
+        <v>300</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M98" s="19" t="n">
+        <v>17696</v>
+      </c>
+      <c r="N98" s="19" t="n">
+        <v>93029</v>
+      </c>
+      <c r="O98" s="19" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P98" s="19" t="n">
+        <v>1646232433</v>
+      </c>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19" t="n">
+        <v>20220912</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="23" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="24" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D99" s="25" t="n">
+        <v>46981</v>
+      </c>
+      <c r="E99" s="25" t="n">
+        <v>20650</v>
+      </c>
+      <c r="F99" s="24" t="n">
+        <f aca="false">E99/D99</f>
+        <v>0.439539388263341</v>
+      </c>
+      <c r="G99" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H99" s="25" t="n">
+        <f aca="false">(G99-E99)/F99</f>
+        <v>50848.6852300242</v>
+      </c>
+      <c r="I99" s="25" t="n">
+        <f aca="false">E99*M99/G99</f>
+        <v>11331.0872093023</v>
+      </c>
+      <c r="J99" s="25" t="n">
+        <f aca="false">I99-M99</f>
+        <v>-12263.9127906977</v>
+      </c>
+      <c r="K99" s="23" t="n">
+        <v>305</v>
+      </c>
+      <c r="L99" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M99" s="25" t="n">
+        <v>23595</v>
+      </c>
+      <c r="N99" s="25" t="n">
+        <v>46981</v>
+      </c>
+      <c r="O99" s="25" t="n">
+        <v>2325</v>
+      </c>
+      <c r="P99" s="25" t="n">
+        <v>1108507077</v>
+      </c>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="23" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="24" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="D100" s="25" t="n">
+        <v>57068</v>
+      </c>
+      <c r="E100" s="25" t="n">
+        <v>26197</v>
+      </c>
+      <c r="F100" s="24" t="n">
+        <f aca="false">E100/D100</f>
+        <v>0.459048853998738</v>
+      </c>
+      <c r="G100" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H100" s="25" t="n">
+        <f aca="false">(G100-E100)/F100</f>
+        <v>36603.9471695232</v>
+      </c>
+      <c r="I100" s="25" t="n">
+        <f aca="false">E100*M100/G100</f>
+        <v>12045.7461395349</v>
+      </c>
+      <c r="J100" s="25" t="n">
+        <f aca="false">I100-M100</f>
+        <v>-7726.25386046512</v>
+      </c>
+      <c r="K100" s="23" t="n">
+        <v>306</v>
+      </c>
+      <c r="L100" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M100" s="25" t="n">
+        <v>19772</v>
+      </c>
+      <c r="N100" s="25" t="n">
+        <v>57068</v>
+      </c>
+      <c r="O100" s="25" t="n">
+        <v>2444</v>
+      </c>
+      <c r="P100" s="25" t="n">
+        <v>1128346327</v>
+      </c>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="24" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="D101" s="25" t="n">
+        <v>56207</v>
+      </c>
+      <c r="E101" s="25" t="n">
+        <v>24310</v>
+      </c>
+      <c r="F101" s="24" t="n">
+        <f aca="false">E101/D101</f>
+        <v>0.432508406426246</v>
+      </c>
+      <c r="G101" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H101" s="25" t="n">
+        <f aca="false">(G101-E101)/F101</f>
+        <v>43213.0329082682</v>
+      </c>
+      <c r="I101" s="25" t="n">
+        <f aca="false">E101*M101/G101</f>
+        <v>7640.68953488372</v>
+      </c>
+      <c r="J101" s="25" t="n">
+        <f aca="false">I101-M101</f>
+        <v>-5874.31046511628</v>
+      </c>
+      <c r="K101" s="23" t="n">
+        <v>312</v>
+      </c>
+      <c r="L101" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M101" s="25" t="n">
+        <v>13515</v>
+      </c>
+      <c r="N101" s="25" t="n">
+        <v>56207</v>
+      </c>
+      <c r="O101" s="25" t="n">
+        <v>2335</v>
+      </c>
+      <c r="P101" s="25" t="n">
+        <v>759641219</v>
+      </c>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="23" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="24" t="n">
+        <v>0.566</v>
+      </c>
+      <c r="D102" s="25" t="n">
+        <v>85135</v>
+      </c>
+      <c r="E102" s="25" t="n">
+        <v>31735</v>
+      </c>
+      <c r="F102" s="24" t="n">
+        <f aca="false">E102/D102</f>
+        <v>0.3727609091443</v>
+      </c>
+      <c r="G102" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H102" s="25" t="n">
+        <f aca="false">(G102-E102)/F102</f>
+        <v>30220.443516622</v>
+      </c>
+      <c r="I102" s="25" t="n">
+        <f aca="false">E102*M102/G102</f>
+        <v>16303.671744186</v>
+      </c>
+      <c r="J102" s="25" t="n">
+        <f aca="false">I102-M102</f>
+        <v>-5787.32825581395</v>
+      </c>
+      <c r="K102" s="23" t="n">
+        <v>313</v>
+      </c>
+      <c r="L102" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M102" s="25" t="n">
+        <v>22091</v>
+      </c>
+      <c r="N102" s="25" t="n">
+        <v>85135</v>
+      </c>
+      <c r="O102" s="25" t="n">
+        <v>2773</v>
+      </c>
+      <c r="P102" s="25" t="n">
+        <v>1880716200</v>
+      </c>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="23" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="24" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="D103" s="25" t="n">
+        <v>74569</v>
+      </c>
+      <c r="E103" s="25" t="n">
+        <v>25966</v>
+      </c>
+      <c r="F103" s="24" t="n">
+        <f aca="false">E103/D103</f>
+        <v>0.348214405449986</v>
+      </c>
+      <c r="G103" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H103" s="25" t="n">
+        <f aca="false">(G103-E103)/F103</f>
+        <v>48918.1370253408</v>
+      </c>
+      <c r="I103" s="25" t="n">
+        <f aca="false">E103*M103/G103</f>
+        <v>5939.57153488372</v>
+      </c>
+      <c r="J103" s="25" t="n">
+        <f aca="false">I103-M103</f>
+        <v>-3896.42846511628</v>
+      </c>
+      <c r="K103" s="23" t="n">
+        <v>308</v>
+      </c>
+      <c r="L103" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M103" s="25" t="n">
+        <v>9836</v>
+      </c>
+      <c r="N103" s="25" t="n">
+        <v>74569</v>
+      </c>
+      <c r="O103" s="25" t="n">
+        <v>2492</v>
+      </c>
+      <c r="P103" s="25" t="n">
+        <v>733460905</v>
+      </c>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="23" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="23" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="25" t="n">
+        <v>39650</v>
+      </c>
+      <c r="E104" s="25" t="n">
+        <v>17961</v>
+      </c>
+      <c r="F104" s="24" t="n">
+        <f aca="false">E104/D104</f>
+        <v>0.452988650693569</v>
+      </c>
+      <c r="G104" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H104" s="25" t="n">
+        <f aca="false">(G104-E104)/F104</f>
+        <v>55275.1155280886</v>
+      </c>
+      <c r="I104" s="25" t="n">
+        <f aca="false">E104*M104/G104</f>
+        <v>3772.22769767442</v>
+      </c>
+      <c r="J104" s="25" t="n">
+        <f aca="false">I104-M104</f>
+        <v>-5258.77230232558</v>
+      </c>
+      <c r="K104" s="23" t="n">
+        <v>311</v>
+      </c>
+      <c r="L104" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M104" s="25" t="n">
+        <v>9031</v>
+      </c>
+      <c r="N104" s="25" t="n">
+        <v>39650</v>
+      </c>
+      <c r="O104" s="25" t="n">
+        <v>2103</v>
+      </c>
+      <c r="P104" s="25" t="n">
+        <v>358079298</v>
+      </c>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="23" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="23" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="24" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="D105" s="25" t="n">
+        <v>53218</v>
+      </c>
+      <c r="E105" s="25" t="n">
+        <v>26569</v>
+      </c>
+      <c r="F105" s="24" t="n">
+        <f aca="false">E105/D105</f>
+        <v>0.499248374610094</v>
+      </c>
+      <c r="G105" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H105" s="25" t="n">
+        <f aca="false">(G105-E105)/F105</f>
+        <v>32911.4741992548</v>
+      </c>
+      <c r="I105" s="25" t="n">
+        <f aca="false">E105*M105/G105</f>
+        <v>7529.53102325581</v>
+      </c>
+      <c r="J105" s="25" t="n">
+        <f aca="false">I105-M105</f>
+        <v>-4656.46897674419</v>
+      </c>
+      <c r="K105" s="23" t="n">
+        <v>309</v>
+      </c>
+      <c r="L105" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M105" s="25" t="n">
+        <v>12186</v>
+      </c>
+      <c r="N105" s="25" t="n">
+        <v>53218</v>
+      </c>
+      <c r="O105" s="25" t="n">
+        <v>2969</v>
+      </c>
+      <c r="P105" s="25" t="n">
+        <v>648519915</v>
+      </c>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="23" t="n">
+        <v>20220919</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R98"/>
+  <autoFilter ref="A1:R105"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F3:F98 F1">
+  <conditionalFormatting sqref="F2:G2 F3:F105 F1">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H98">
+  <conditionalFormatting sqref="H1:H105">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J98">
+  <conditionalFormatting sqref="J1:J105">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -17762,10 +18162,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="99:99 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -17805,7 +18205,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -18183,7 +18583,7 @@
         <v>294</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>14711</v>
@@ -18237,7 +18637,7 @@
         <v>295</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>23571</v>
@@ -18345,7 +18745,7 @@
         <v>296</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>13551</v>
@@ -18453,7 +18853,7 @@
         <v>297</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="20" t="n">
         <v>17531</v>
@@ -18507,7 +18907,7 @@
         <v>298</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>14743</v>
@@ -18563,10 +18963,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="99:99 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -18605,7 +19005,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -18875,7 +19275,7 @@
         <v>299</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>24368</v>
@@ -18983,7 +19383,7 @@
         <v>294</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>14711</v>
@@ -19037,7 +19437,7 @@
         <v>295</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>23571</v>
@@ -19145,7 +19545,7 @@
         <v>296</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>13551</v>
@@ -19199,7 +19599,7 @@
         <v>301</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>23868</v>
@@ -19253,7 +19653,7 @@
         <v>300</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>17696</v>
@@ -19307,7 +19707,7 @@
         <v>298</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>14743</v>
@@ -19362,11 +19762,11 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="99:99 F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -19406,7 +19806,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -19424,7 +19824,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19484,7 +19884,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19544,7 +19944,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19604,7 +20004,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19664,7 +20064,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19706,7 +20106,7 @@
         <v>299</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>24368</v>
@@ -19724,7 +20124,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19784,7 +20184,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19826,7 +20226,7 @@
         <v>294</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>14711</v>
@@ -19844,7 +20244,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19886,7 +20286,7 @@
         <v>295</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>23571</v>
@@ -19904,7 +20304,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19964,7 +20364,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20006,7 +20406,7 @@
         <v>296</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>13551</v>
@@ -20024,7 +20424,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20066,7 +20466,7 @@
         <v>301</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>23868</v>
@@ -20084,7 +20484,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20126,7 +20526,7 @@
         <v>300</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>17696</v>
@@ -20144,7 +20544,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20186,7 +20586,7 @@
         <v>298</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>14743</v>
@@ -20204,7 +20604,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20212,7 +20612,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -20246,7 +20646,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -20261,10 +20661,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20272,7 +20672,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -20306,7 +20706,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -20321,10 +20721,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20332,7 +20732,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -20366,7 +20766,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -20381,10 +20781,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20392,7 +20792,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -20426,7 +20826,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -20441,10 +20841,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20452,7 +20852,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -20486,7 +20886,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -20501,10 +20901,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20512,7 +20912,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -20546,7 +20946,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -20561,10 +20961,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20572,7 +20972,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -20606,7 +21006,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -20621,10 +21021,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20632,7 +21032,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -20666,7 +21066,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -20681,10 +21081,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20692,7 +21092,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -20726,7 +21126,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -20741,10 +21141,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20752,7 +21152,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -20786,7 +21186,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -20801,10 +21201,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20812,7 +21212,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -20846,7 +21246,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -20861,10 +21261,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20872,7 +21272,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -20906,7 +21306,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -20921,10 +21321,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20932,7 +21332,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -20966,7 +21366,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -20981,10 +21381,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20992,7 +21392,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -21026,7 +21426,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -21041,10 +21441,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21052,7 +21452,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -21086,7 +21486,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -21101,10 +21501,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21112,7 +21512,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -21146,7 +21546,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -21161,10 +21561,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21172,7 +21572,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -21206,7 +21606,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -21221,10 +21621,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21232,7 +21632,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -21266,7 +21666,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -21281,10 +21681,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Combine" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$105</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$111</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="294">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -667,12 +667,30 @@
     <t xml:space="preserve">76638_V11_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76638_V11_3_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76658_V5_3_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_3_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76658_V5_3rd)</t>
   </si>
   <si>
     <t xml:space="preserve">76658_V5_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V11_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76660_V11_2nd)</t>
   </si>
   <si>
@@ -685,10 +703,28 @@
     <t xml:space="preserve">76661_V11_2nd</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V11_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of Reads Kept (76662_V11_2nd)</t>
   </si>
   <si>
     <t xml:space="preserve">76662_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V11_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V5_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V5_2_combine</t>
   </si>
   <si>
     <t xml:space="preserve">Fraction of Reads Kept (76662_V5_2nd)</t>
@@ -982,7 +1018,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1071,8 +1107,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1248,10 +1296,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" activeCellId="1" sqref="99:99 I3"/>
+      <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4047,10 +4095,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="99:99 A17"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7427,10 +7475,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="99:99 B3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12259,17 +12307,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ105"/>
+  <dimension ref="A1:AMJ111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="C99" activeCellId="0" sqref="99:99"/>
+      <selection pane="bottomRight" activeCell="J108" activeCellId="0" sqref="J108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -13220,7 +13268,7 @@
         <v>935376480</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -13273,8 +13321,10 @@
       <c r="P18" s="2" t="n">
         <v>325835021</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+    </row>
+    <row r="19" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -13327,6 +13377,8 @@
       <c r="P19" s="2" t="n">
         <v>381040696</v>
       </c>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
@@ -13582,7 +13634,7 @@
       <c r="K24" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="23" t="s">
         <v>117</v>
       </c>
       <c r="M24" s="2" t="n">
@@ -16794,7 +16846,7 @@
       </c>
       <c r="Q82" s="0"/>
     </row>
-    <row r="83" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
@@ -16848,6 +16900,7 @@
         <v>701851123</v>
       </c>
       <c r="Q83" s="0"/>
+      <c r="R83" s="20"/>
     </row>
     <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -17074,7 +17127,7 @@
       <c r="AMI87" s="0"/>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="19" t="n">
         <v>87</v>
       </c>
@@ -17132,7 +17185,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="89" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="n">
         <v>88</v>
       </c>
@@ -17185,6 +17238,7 @@
       <c r="P89" s="8" t="n">
         <v>701851123</v>
       </c>
+      <c r="Q89" s="19"/>
       <c r="R89" s="19" t="n">
         <v>20220830</v>
       </c>
@@ -17592,7 +17646,7 @@
         <v>20220912</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="19" t="n">
         <v>96</v>
       </c>
@@ -17650,7 +17704,7 @@
         <v>20220912</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="19" t="n">
         <v>97</v>
       </c>
@@ -17709,10 +17763,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23" t="n">
+      <c r="A99" s="22" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="22" t="s">
         <v>210</v>
       </c>
       <c r="C99" s="24" t="n">
@@ -17743,10 +17797,10 @@
         <f aca="false">I99-M99</f>
         <v>-12263.9127906977</v>
       </c>
-      <c r="K99" s="23" t="n">
+      <c r="K99" s="22" t="n">
         <v>305</v>
       </c>
-      <c r="L99" s="23" t="s">
+      <c r="L99" s="22" t="s">
         <v>211</v>
       </c>
       <c r="M99" s="25" t="n">
@@ -17761,377 +17815,724 @@
       <c r="P99" s="25" t="n">
         <v>1108507077</v>
       </c>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="23" t="n">
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23" t="n">
+      <c r="A100" s="20" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="24" t="n">
+      <c r="C100" s="5" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>82041</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>36304</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <f aca="false">E100/D100</f>
+        <v>0.442510452091028</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H100" s="6" t="n">
+        <f aca="false">(G100-E100)/F100</f>
+        <v>15131.8459673865</v>
+      </c>
+      <c r="I100" s="6" t="n">
+        <f aca="false">E100*M100/G100</f>
+        <v>21033.5244651163</v>
+      </c>
+      <c r="J100" s="6" t="n">
+        <f aca="false">I100-M100</f>
+        <v>-3879.47553488372</v>
+      </c>
+      <c r="K100" s="20" t="n">
+        <v>326</v>
+      </c>
+      <c r="L100" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="M100" s="6" t="n">
+        <v>24913</v>
+      </c>
+      <c r="N100" s="6" t="n">
+        <v>82041</v>
+      </c>
+      <c r="O100" s="6" t="n">
+        <v>2570</v>
+      </c>
+      <c r="P100" s="6" t="n">
+        <v>2043883557</v>
+      </c>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="D101" s="6" t="n">
+        <v>100647</v>
+      </c>
+      <c r="E101" s="6" t="n">
+        <v>46392</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <f aca="false">E101/D101</f>
+        <v>0.460937732868342</v>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H101" s="6" t="n">
+        <f aca="false">(G101-E101)/F101</f>
+        <v>-7358.91153647181</v>
+      </c>
+      <c r="I101" s="6" t="n">
+        <f aca="false">E101*M101/G101</f>
+        <v>22985.6176744186</v>
+      </c>
+      <c r="J101" s="6" t="n">
+        <f aca="false">I101-M101</f>
+        <v>1680.61767441861</v>
+      </c>
+      <c r="K101" s="20" t="n">
+        <v>327</v>
+      </c>
+      <c r="L101" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="M101" s="6" t="n">
+        <v>21305</v>
+      </c>
+      <c r="N101" s="6" t="n">
+        <v>100647</v>
+      </c>
+      <c r="O101" s="6" t="n">
+        <v>2704</v>
+      </c>
+      <c r="P101" s="6" t="n">
+        <v>2144274722</v>
+      </c>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="22" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="24" t="n">
         <v>0.686</v>
       </c>
-      <c r="D100" s="25" t="n">
+      <c r="D102" s="25" t="n">
         <v>57068</v>
       </c>
-      <c r="E100" s="25" t="n">
+      <c r="E102" s="25" t="n">
         <v>26197</v>
-      </c>
-      <c r="F100" s="24" t="n">
-        <f aca="false">E100/D100</f>
-        <v>0.459048853998738</v>
-      </c>
-      <c r="G100" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H100" s="25" t="n">
-        <f aca="false">(G100-E100)/F100</f>
-        <v>36603.9471695232</v>
-      </c>
-      <c r="I100" s="25" t="n">
-        <f aca="false">E100*M100/G100</f>
-        <v>12045.7461395349</v>
-      </c>
-      <c r="J100" s="25" t="n">
-        <f aca="false">I100-M100</f>
-        <v>-7726.25386046512</v>
-      </c>
-      <c r="K100" s="23" t="n">
-        <v>306</v>
-      </c>
-      <c r="L100" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="M100" s="25" t="n">
-        <v>19772</v>
-      </c>
-      <c r="N100" s="25" t="n">
-        <v>57068</v>
-      </c>
-      <c r="O100" s="25" t="n">
-        <v>2444</v>
-      </c>
-      <c r="P100" s="25" t="n">
-        <v>1128346327</v>
-      </c>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23" t="n">
-        <v>20220919</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="24" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="D101" s="25" t="n">
-        <v>56207</v>
-      </c>
-      <c r="E101" s="25" t="n">
-        <v>24310</v>
-      </c>
-      <c r="F101" s="24" t="n">
-        <f aca="false">E101/D101</f>
-        <v>0.432508406426246</v>
-      </c>
-      <c r="G101" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H101" s="25" t="n">
-        <f aca="false">(G101-E101)/F101</f>
-        <v>43213.0329082682</v>
-      </c>
-      <c r="I101" s="25" t="n">
-        <f aca="false">E101*M101/G101</f>
-        <v>7640.68953488372</v>
-      </c>
-      <c r="J101" s="25" t="n">
-        <f aca="false">I101-M101</f>
-        <v>-5874.31046511628</v>
-      </c>
-      <c r="K101" s="23" t="n">
-        <v>312</v>
-      </c>
-      <c r="L101" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="M101" s="25" t="n">
-        <v>13515</v>
-      </c>
-      <c r="N101" s="25" t="n">
-        <v>56207</v>
-      </c>
-      <c r="O101" s="25" t="n">
-        <v>2335</v>
-      </c>
-      <c r="P101" s="25" t="n">
-        <v>759641219</v>
-      </c>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23" t="n">
-        <v>20220919</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102" s="24" t="n">
-        <v>0.566</v>
-      </c>
-      <c r="D102" s="25" t="n">
-        <v>85135</v>
-      </c>
-      <c r="E102" s="25" t="n">
-        <v>31735</v>
       </c>
       <c r="F102" s="24" t="n">
         <f aca="false">E102/D102</f>
-        <v>0.3727609091443</v>
+        <v>0.459048853998738</v>
       </c>
       <c r="G102" s="25" t="n">
         <v>43000</v>
       </c>
       <c r="H102" s="25" t="n">
         <f aca="false">(G102-E102)/F102</f>
-        <v>30220.443516622</v>
+        <v>36603.9471695232</v>
       </c>
       <c r="I102" s="25" t="n">
         <f aca="false">E102*M102/G102</f>
-        <v>16303.671744186</v>
+        <v>12045.7461395349</v>
       </c>
       <c r="J102" s="25" t="n">
         <f aca="false">I102-M102</f>
-        <v>-5787.32825581395</v>
-      </c>
-      <c r="K102" s="23" t="n">
-        <v>313</v>
-      </c>
-      <c r="L102" s="23" t="s">
+        <v>-7726.25386046512</v>
+      </c>
+      <c r="K102" s="22" t="n">
+        <v>306</v>
+      </c>
+      <c r="L102" s="22" t="s">
         <v>217</v>
       </c>
       <c r="M102" s="25" t="n">
-        <v>22091</v>
+        <v>19772</v>
       </c>
       <c r="N102" s="25" t="n">
-        <v>85135</v>
+        <v>57068</v>
       </c>
       <c r="O102" s="25" t="n">
-        <v>2773</v>
+        <v>2444</v>
       </c>
       <c r="P102" s="25" t="n">
-        <v>1880716200</v>
-      </c>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="23" t="n">
+        <v>1128346327</v>
+      </c>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="n">
+      <c r="A103" s="20" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="24" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="D103" s="25" t="n">
-        <v>74569</v>
-      </c>
-      <c r="E103" s="25" t="n">
-        <v>25966</v>
-      </c>
-      <c r="F103" s="24" t="n">
+      <c r="C103" s="5" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D103" s="6" t="n">
+        <v>87635</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>37941</v>
+      </c>
+      <c r="F103" s="5" t="n">
         <f aca="false">E103/D103</f>
-        <v>0.348214405449986</v>
-      </c>
-      <c r="G103" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H103" s="25" t="n">
+        <v>0.432943458663776</v>
+      </c>
+      <c r="G103" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H103" s="6" t="n">
         <f aca="false">(G103-E103)/F103</f>
-        <v>48918.1370253408</v>
-      </c>
-      <c r="I103" s="25" t="n">
+        <v>11685.1286207533</v>
+      </c>
+      <c r="I103" s="6" t="n">
         <f aca="false">E103*M103/G103</f>
-        <v>5939.57153488372</v>
-      </c>
-      <c r="J103" s="25" t="n">
+        <v>12779.9405581395</v>
+      </c>
+      <c r="J103" s="6" t="n">
         <f aca="false">I103-M103</f>
-        <v>-3896.42846511628</v>
-      </c>
-      <c r="K103" s="23" t="n">
-        <v>308</v>
-      </c>
-      <c r="L103" s="23" t="s">
+        <v>-1704.05944186047</v>
+      </c>
+      <c r="K103" s="20" t="n">
+        <v>333</v>
+      </c>
+      <c r="L103" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="M103" s="25" t="n">
-        <v>9836</v>
-      </c>
-      <c r="N103" s="25" t="n">
-        <v>74569</v>
-      </c>
-      <c r="O103" s="25" t="n">
-        <v>2492</v>
-      </c>
-      <c r="P103" s="25" t="n">
-        <v>733460905</v>
-      </c>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="23" t="n">
+      <c r="M103" s="6" t="n">
+        <v>14484</v>
+      </c>
+      <c r="N103" s="6" t="n">
+        <v>87635</v>
+      </c>
+      <c r="O103" s="6" t="n">
+        <v>2450</v>
+      </c>
+      <c r="P103" s="6" t="n">
+        <v>1269309566</v>
+      </c>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20" t="n">
         <v>20220919</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="23" t="n">
+      <c r="A104" s="22" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="24" t="n">
-        <v>1</v>
+        <v>0.739</v>
       </c>
       <c r="D104" s="25" t="n">
-        <v>39650</v>
+        <v>56207</v>
       </c>
       <c r="E104" s="25" t="n">
-        <v>17961</v>
+        <v>24310</v>
       </c>
       <c r="F104" s="24" t="n">
         <f aca="false">E104/D104</f>
-        <v>0.452988650693569</v>
+        <v>0.432508406426246</v>
       </c>
       <c r="G104" s="25" t="n">
         <v>43000</v>
       </c>
       <c r="H104" s="25" t="n">
         <f aca="false">(G104-E104)/F104</f>
-        <v>55275.1155280886</v>
+        <v>43213.0329082682</v>
       </c>
       <c r="I104" s="25" t="n">
         <f aca="false">E104*M104/G104</f>
-        <v>3772.22769767442</v>
+        <v>7640.68953488372</v>
       </c>
       <c r="J104" s="25" t="n">
         <f aca="false">I104-M104</f>
-        <v>-5258.77230232558</v>
-      </c>
-      <c r="K104" s="23" t="n">
-        <v>311</v>
-      </c>
-      <c r="L104" s="23" t="s">
+        <v>-5874.31046511628</v>
+      </c>
+      <c r="K104" s="22" t="n">
+        <v>312</v>
+      </c>
+      <c r="L104" s="22" t="s">
         <v>221</v>
       </c>
       <c r="M104" s="25" t="n">
-        <v>9031</v>
+        <v>13515</v>
       </c>
       <c r="N104" s="25" t="n">
-        <v>39650</v>
+        <v>56207</v>
       </c>
       <c r="O104" s="25" t="n">
-        <v>2103</v>
+        <v>2335</v>
       </c>
       <c r="P104" s="25" t="n">
-        <v>358079298</v>
-      </c>
-      <c r="Q104" s="23"/>
-      <c r="R104" s="23" t="n">
+        <v>759641219</v>
+      </c>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23" t="n">
+    <row r="105" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="22" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="22" t="s">
         <v>222</v>
       </c>
       <c r="C105" s="24" t="n">
-        <v>0.676</v>
+        <v>0.566</v>
       </c>
       <c r="D105" s="25" t="n">
-        <v>53218</v>
+        <v>85135</v>
       </c>
       <c r="E105" s="25" t="n">
-        <v>26569</v>
+        <v>31735</v>
       </c>
       <c r="F105" s="24" t="n">
         <f aca="false">E105/D105</f>
-        <v>0.499248374610094</v>
+        <v>0.3727609091443</v>
       </c>
       <c r="G105" s="25" t="n">
         <v>43000</v>
       </c>
       <c r="H105" s="25" t="n">
         <f aca="false">(G105-E105)/F105</f>
-        <v>32911.4741992548</v>
+        <v>30220.443516622</v>
       </c>
       <c r="I105" s="25" t="n">
         <f aca="false">E105*M105/G105</f>
-        <v>7529.53102325581</v>
+        <v>16303.671744186</v>
       </c>
       <c r="J105" s="25" t="n">
         <f aca="false">I105-M105</f>
+        <v>-5787.32825581395</v>
+      </c>
+      <c r="K105" s="22" t="n">
+        <v>313</v>
+      </c>
+      <c r="L105" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M105" s="25" t="n">
+        <v>22091</v>
+      </c>
+      <c r="N105" s="25" t="n">
+        <v>85135</v>
+      </c>
+      <c r="O105" s="25" t="n">
+        <v>2773</v>
+      </c>
+      <c r="P105" s="25" t="n">
+        <v>1880716200</v>
+      </c>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="106" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="20" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="D106" s="6" t="n">
+        <v>104560</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>39369</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <f aca="false">E106/D106</f>
+        <v>0.376520657995409</v>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H106" s="6" t="n">
+        <f aca="false">(G106-E106)/F106</f>
+        <v>9643.56117757627</v>
+      </c>
+      <c r="I106" s="6" t="n">
+        <f aca="false">E106*M106/G106</f>
+        <v>21267.5000232558</v>
+      </c>
+      <c r="J106" s="6" t="n">
+        <f aca="false">I106-M106</f>
+        <v>-1961.49997674419</v>
+      </c>
+      <c r="K106" s="20" t="n">
+        <v>334</v>
+      </c>
+      <c r="L106" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="M106" s="6" t="n">
+        <v>23229</v>
+      </c>
+      <c r="N106" s="6" t="n">
+        <v>104560</v>
+      </c>
+      <c r="O106" s="6" t="n">
+        <v>2833</v>
+      </c>
+      <c r="P106" s="6" t="n">
+        <v>2428824781</v>
+      </c>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="22" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="24" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="D107" s="25" t="n">
+        <v>74569</v>
+      </c>
+      <c r="E107" s="25" t="n">
+        <v>25966</v>
+      </c>
+      <c r="F107" s="24" t="n">
+        <f aca="false">E107/D107</f>
+        <v>0.348214405449986</v>
+      </c>
+      <c r="G107" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H107" s="25" t="n">
+        <f aca="false">(G107-E107)/F107</f>
+        <v>48918.1370253408</v>
+      </c>
+      <c r="I107" s="25" t="n">
+        <f aca="false">E107*M107/G107</f>
+        <v>5939.57153488372</v>
+      </c>
+      <c r="J107" s="25" t="n">
+        <f aca="false">I107-M107</f>
+        <v>-3896.42846511628</v>
+      </c>
+      <c r="K107" s="22" t="n">
+        <v>308</v>
+      </c>
+      <c r="L107" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M107" s="25" t="n">
+        <v>9836</v>
+      </c>
+      <c r="N107" s="25" t="n">
+        <v>74569</v>
+      </c>
+      <c r="O107" s="25" t="n">
+        <v>2492</v>
+      </c>
+      <c r="P107" s="25" t="n">
+        <v>733460905</v>
+      </c>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="108" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="20" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="D108" s="6" t="n">
+        <v>128104</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>44660</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <f aca="false">E108/D108</f>
+        <v>0.348622993817523</v>
+      </c>
+      <c r="G108" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H108" s="6" t="n">
+        <f aca="false">(G108-E108)/F108</f>
+        <v>-4761.59068517689</v>
+      </c>
+      <c r="I108" s="6" t="n">
+        <f aca="false">E108*M108/G108</f>
+        <v>10811.8744186047</v>
+      </c>
+      <c r="J108" s="6" t="n">
+        <f aca="false">I108-M108</f>
+        <v>401.874418604652</v>
+      </c>
+      <c r="K108" s="20" t="n">
+        <v>329</v>
+      </c>
+      <c r="L108" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M108" s="6" t="n">
+        <v>10410</v>
+      </c>
+      <c r="N108" s="6" t="n">
+        <v>128104</v>
+      </c>
+      <c r="O108" s="6" t="n">
+        <v>2691</v>
+      </c>
+      <c r="P108" s="6" t="n">
+        <v>1333565629</v>
+      </c>
+      <c r="R108" s="20" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="109" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="20" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>98414</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>44305</v>
+      </c>
+      <c r="F109" s="5" t="n">
+        <f aca="false">E109/D109</f>
+        <v>0.450190013615949</v>
+      </c>
+      <c r="G109" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H109" s="6" t="n">
+        <f aca="false">(G109-E109)/F109</f>
+        <v>-2898.77598465185</v>
+      </c>
+      <c r="I109" s="6" t="n">
+        <f aca="false">E109*M109/G109</f>
+        <v>9831.58860465116</v>
+      </c>
+      <c r="J109" s="6" t="n">
+        <f aca="false">I109-M109</f>
+        <v>289.588604651162</v>
+      </c>
+      <c r="K109" s="20" t="n">
+        <v>332</v>
+      </c>
+      <c r="L109" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M109" s="6" t="n">
+        <v>9542</v>
+      </c>
+      <c r="N109" s="6" t="n">
+        <v>98414</v>
+      </c>
+      <c r="O109" s="6" t="n">
+        <v>2577</v>
+      </c>
+      <c r="P109" s="6" t="n">
+        <v>939067735</v>
+      </c>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="22" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="25" t="n">
+        <v>39650</v>
+      </c>
+      <c r="E110" s="25" t="n">
+        <v>17961</v>
+      </c>
+      <c r="F110" s="24" t="n">
+        <f aca="false">E110/D110</f>
+        <v>0.452988650693569</v>
+      </c>
+      <c r="G110" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H110" s="25" t="n">
+        <f aca="false">(G110-E110)/F110</f>
+        <v>55275.1155280886</v>
+      </c>
+      <c r="I110" s="25" t="n">
+        <f aca="false">E110*M110/G110</f>
+        <v>3772.22769767442</v>
+      </c>
+      <c r="J110" s="25" t="n">
+        <f aca="false">I110-M110</f>
+        <v>-5258.77230232558</v>
+      </c>
+      <c r="K110" s="22" t="n">
+        <v>311</v>
+      </c>
+      <c r="L110" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M110" s="25" t="n">
+        <v>9031</v>
+      </c>
+      <c r="N110" s="25" t="n">
+        <v>39650</v>
+      </c>
+      <c r="O110" s="25" t="n">
+        <v>2103</v>
+      </c>
+      <c r="P110" s="25" t="n">
+        <v>358079298</v>
+      </c>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="26" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="27" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="D111" s="28" t="n">
+        <v>53218</v>
+      </c>
+      <c r="E111" s="28" t="n">
+        <v>26569</v>
+      </c>
+      <c r="F111" s="27" t="n">
+        <f aca="false">E111/D111</f>
+        <v>0.499248374610094</v>
+      </c>
+      <c r="G111" s="28" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H111" s="28" t="n">
+        <f aca="false">(G111-E111)/F111</f>
+        <v>32911.4741992548</v>
+      </c>
+      <c r="I111" s="28" t="n">
+        <f aca="false">E111*M111/G111</f>
+        <v>7529.53102325581</v>
+      </c>
+      <c r="J111" s="28" t="n">
+        <f aca="false">I111-M111</f>
         <v>-4656.46897674419</v>
       </c>
-      <c r="K105" s="23" t="n">
+      <c r="K111" s="26" t="n">
         <v>309</v>
       </c>
-      <c r="L105" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="M105" s="25" t="n">
+      <c r="L111" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M111" s="28" t="n">
         <v>12186</v>
       </c>
-      <c r="N105" s="25" t="n">
+      <c r="N111" s="28" t="n">
         <v>53218</v>
       </c>
-      <c r="O105" s="25" t="n">
+      <c r="O111" s="28" t="n">
         <v>2969</v>
       </c>
-      <c r="P105" s="25" t="n">
+      <c r="P111" s="28" t="n">
         <v>648519915</v>
       </c>
-      <c r="Q105" s="23"/>
-      <c r="R105" s="23" t="n">
+      <c r="Q111" s="26"/>
+      <c r="R111" s="26" t="n">
         <v>20220919</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R105"/>
+  <autoFilter ref="A1:R111"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F3:F105 F1">
+  <conditionalFormatting sqref="F2:G2 F1 F3:F111">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H105">
+  <conditionalFormatting sqref="H1:H111">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J105">
+  <conditionalFormatting sqref="J1:J111">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -18162,10 +18563,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="99:99 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -18205,7 +18606,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -18963,10 +19364,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="99:99 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -19005,7 +19406,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -19763,10 +20164,10 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="99:99 F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -19806,7 +20207,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -19824,7 +20225,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19884,7 +20285,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19944,7 +20345,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20004,7 +20405,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20064,7 +20465,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20124,7 +20525,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20184,7 +20585,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20244,7 +20645,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20304,7 +20705,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20364,7 +20765,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20424,7 +20825,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20484,7 +20885,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20544,7 +20945,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20604,7 +21005,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20612,7 +21013,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -20646,7 +21047,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -20661,10 +21062,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20672,7 +21073,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -20706,7 +21107,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -20721,10 +21122,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20732,7 +21133,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -20766,7 +21167,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -20781,10 +21182,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20792,7 +21193,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -20826,7 +21227,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -20841,10 +21242,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20852,7 +21253,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -20886,7 +21287,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -20901,10 +21302,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="R19" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20912,7 +21313,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -20946,7 +21347,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -20961,10 +21362,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20972,7 +21373,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -21006,7 +21407,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -21021,10 +21422,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21032,7 +21433,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -21066,7 +21467,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -21081,10 +21482,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21092,7 +21493,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -21126,7 +21527,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -21141,10 +21542,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21152,7 +21553,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -21186,7 +21587,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -21201,10 +21602,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21212,7 +21613,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -21246,7 +21647,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -21261,10 +21662,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21272,7 +21673,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -21306,7 +21707,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -21321,10 +21722,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21332,7 +21733,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -21366,7 +21767,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -21381,10 +21782,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21392,7 +21793,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -21426,7 +21827,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -21441,10 +21842,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21452,7 +21853,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -21486,7 +21887,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -21501,10 +21902,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21512,7 +21913,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -21546,7 +21947,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -21561,10 +21962,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21572,7 +21973,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -21606,7 +22007,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -21621,10 +22022,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21632,7 +22033,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -21666,7 +22067,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -21681,10 +22082,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -1018,7 +1018,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,20 +1107,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1299,7 +1287,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4098,7 +4086,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7478,7 +7466,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12314,10 +12302,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="J108" activeCellId="0" sqref="J108"/>
+      <selection pane="bottomRight" activeCell="G87" activeCellId="0" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -13324,7 +13312,7 @@
       <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
     </row>
-    <row r="19" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -13377,8 +13365,6 @@
       <c r="P19" s="2" t="n">
         <v>381040696</v>
       </c>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
@@ -13634,7 +13620,7 @@
       <c r="K24" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>117</v>
       </c>
       <c r="M24" s="2" t="n">
@@ -16846,7 +16832,7 @@
       </c>
       <c r="Q82" s="0"/>
     </row>
-    <row r="83" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
@@ -16899,7 +16885,6 @@
       <c r="P83" s="2" t="n">
         <v>701851123</v>
       </c>
-      <c r="Q83" s="0"/>
       <c r="R83" s="20"/>
     </row>
     <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17185,7 +17170,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="89" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="n">
         <v>88</v>
       </c>
@@ -17704,7 +17689,7 @@
         <v>20220912</v>
       </c>
     </row>
-    <row r="98" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="19" t="n">
         <v>97</v>
       </c>
@@ -17763,60 +17748,59 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="22" t="n">
+      <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="24" t="n">
+      <c r="C99" s="1" t="n">
         <v>0.87</v>
       </c>
-      <c r="D99" s="25" t="n">
+      <c r="D99" s="2" t="n">
         <v>46981</v>
       </c>
-      <c r="E99" s="25" t="n">
+      <c r="E99" s="2" t="n">
         <v>20650</v>
       </c>
-      <c r="F99" s="24" t="n">
+      <c r="F99" s="1" t="n">
         <f aca="false">E99/D99</f>
         <v>0.439539388263341</v>
       </c>
-      <c r="G99" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H99" s="25" t="n">
+      <c r="G99" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H99" s="2" t="n">
         <f aca="false">(G99-E99)/F99</f>
         <v>50848.6852300242</v>
       </c>
-      <c r="I99" s="25" t="n">
+      <c r="I99" s="2" t="n">
         <f aca="false">E99*M99/G99</f>
         <v>11331.0872093023</v>
       </c>
-      <c r="J99" s="25" t="n">
+      <c r="J99" s="2" t="n">
         <f aca="false">I99-M99</f>
         <v>-12263.9127906977</v>
       </c>
-      <c r="K99" s="22" t="n">
+      <c r="K99" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="L99" s="22" t="s">
+      <c r="L99" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="M99" s="25" t="n">
+      <c r="M99" s="2" t="n">
         <v>23595</v>
       </c>
-      <c r="N99" s="25" t="n">
+      <c r="N99" s="2" t="n">
         <v>46981</v>
       </c>
-      <c r="O99" s="25" t="n">
+      <c r="O99" s="2" t="n">
         <v>2325</v>
       </c>
-      <c r="P99" s="25" t="n">
+      <c r="P99" s="2" t="n">
         <v>1108507077</v>
       </c>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22" t="n">
+      <c r="R99" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -17937,60 +17921,59 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22" t="n">
+      <c r="A102" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="24" t="n">
+      <c r="C102" s="1" t="n">
         <v>0.686</v>
       </c>
-      <c r="D102" s="25" t="n">
+      <c r="D102" s="2" t="n">
         <v>57068</v>
       </c>
-      <c r="E102" s="25" t="n">
+      <c r="E102" s="2" t="n">
         <v>26197</v>
       </c>
-      <c r="F102" s="24" t="n">
+      <c r="F102" s="1" t="n">
         <f aca="false">E102/D102</f>
         <v>0.459048853998738</v>
       </c>
-      <c r="G102" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H102" s="25" t="n">
+      <c r="G102" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H102" s="2" t="n">
         <f aca="false">(G102-E102)/F102</f>
         <v>36603.9471695232</v>
       </c>
-      <c r="I102" s="25" t="n">
+      <c r="I102" s="2" t="n">
         <f aca="false">E102*M102/G102</f>
         <v>12045.7461395349</v>
       </c>
-      <c r="J102" s="25" t="n">
+      <c r="J102" s="2" t="n">
         <f aca="false">I102-M102</f>
         <v>-7726.25386046512</v>
       </c>
-      <c r="K102" s="22" t="n">
+      <c r="K102" s="0" t="n">
         <v>306</v>
       </c>
-      <c r="L102" s="22" t="s">
+      <c r="L102" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="M102" s="25" t="n">
+      <c r="M102" s="2" t="n">
         <v>19772</v>
       </c>
-      <c r="N102" s="25" t="n">
+      <c r="N102" s="2" t="n">
         <v>57068</v>
       </c>
-      <c r="O102" s="25" t="n">
+      <c r="O102" s="2" t="n">
         <v>2444</v>
       </c>
-      <c r="P102" s="25" t="n">
+      <c r="P102" s="2" t="n">
         <v>1128346327</v>
       </c>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22" t="n">
+      <c r="R102" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18053,122 +18036,121 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22" t="n">
+      <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C104" s="24" t="n">
+      <c r="C104" s="1" t="n">
         <v>0.739</v>
       </c>
-      <c r="D104" s="25" t="n">
+      <c r="D104" s="2" t="n">
         <v>56207</v>
       </c>
-      <c r="E104" s="25" t="n">
+      <c r="E104" s="2" t="n">
         <v>24310</v>
       </c>
-      <c r="F104" s="24" t="n">
+      <c r="F104" s="1" t="n">
         <f aca="false">E104/D104</f>
         <v>0.432508406426246</v>
       </c>
-      <c r="G104" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H104" s="25" t="n">
+      <c r="G104" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H104" s="2" t="n">
         <f aca="false">(G104-E104)/F104</f>
         <v>43213.0329082682</v>
       </c>
-      <c r="I104" s="25" t="n">
+      <c r="I104" s="2" t="n">
         <f aca="false">E104*M104/G104</f>
         <v>7640.68953488372</v>
       </c>
-      <c r="J104" s="25" t="n">
+      <c r="J104" s="2" t="n">
         <f aca="false">I104-M104</f>
         <v>-5874.31046511628</v>
       </c>
-      <c r="K104" s="22" t="n">
+      <c r="K104" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="L104" s="22" t="s">
+      <c r="L104" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="M104" s="25" t="n">
+      <c r="M104" s="2" t="n">
         <v>13515</v>
       </c>
-      <c r="N104" s="25" t="n">
+      <c r="N104" s="2" t="n">
         <v>56207</v>
       </c>
-      <c r="O104" s="25" t="n">
+      <c r="O104" s="2" t="n">
         <v>2335</v>
       </c>
-      <c r="P104" s="25" t="n">
+      <c r="P104" s="2" t="n">
         <v>759641219</v>
       </c>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="22" t="n">
+      <c r="R104" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
     <row r="105" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="22" t="n">
+      <c r="A105" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C105" s="24" t="n">
+      <c r="C105" s="1" t="n">
         <v>0.566</v>
       </c>
-      <c r="D105" s="25" t="n">
+      <c r="D105" s="2" t="n">
         <v>85135</v>
       </c>
-      <c r="E105" s="25" t="n">
+      <c r="E105" s="2" t="n">
         <v>31735</v>
       </c>
-      <c r="F105" s="24" t="n">
+      <c r="F105" s="1" t="n">
         <f aca="false">E105/D105</f>
         <v>0.3727609091443</v>
       </c>
-      <c r="G105" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H105" s="25" t="n">
+      <c r="G105" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H105" s="2" t="n">
         <f aca="false">(G105-E105)/F105</f>
         <v>30220.443516622</v>
       </c>
-      <c r="I105" s="25" t="n">
+      <c r="I105" s="2" t="n">
         <f aca="false">E105*M105/G105</f>
         <v>16303.671744186</v>
       </c>
-      <c r="J105" s="25" t="n">
+      <c r="J105" s="2" t="n">
         <f aca="false">I105-M105</f>
         <v>-5787.32825581395</v>
       </c>
-      <c r="K105" s="22" t="n">
+      <c r="K105" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="L105" s="22" t="s">
+      <c r="L105" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="M105" s="25" t="n">
+      <c r="M105" s="2" t="n">
         <v>22091</v>
       </c>
-      <c r="N105" s="25" t="n">
+      <c r="N105" s="2" t="n">
         <v>85135</v>
       </c>
-      <c r="O105" s="25" t="n">
+      <c r="O105" s="2" t="n">
         <v>2773</v>
       </c>
-      <c r="P105" s="25" t="n">
+      <c r="P105" s="2" t="n">
         <v>1880716200</v>
       </c>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22" t="n">
+      <c r="Q105" s="0"/>
+      <c r="R105" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="106" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="20" t="n">
         <v>105</v>
       </c>
@@ -18227,60 +18209,59 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="22" t="n">
+      <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="24" t="n">
+      <c r="C107" s="1" t="n">
         <v>0.692</v>
       </c>
-      <c r="D107" s="25" t="n">
+      <c r="D107" s="2" t="n">
         <v>74569</v>
       </c>
-      <c r="E107" s="25" t="n">
+      <c r="E107" s="2" t="n">
         <v>25966</v>
       </c>
-      <c r="F107" s="24" t="n">
+      <c r="F107" s="1" t="n">
         <f aca="false">E107/D107</f>
         <v>0.348214405449986</v>
       </c>
-      <c r="G107" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H107" s="25" t="n">
+      <c r="G107" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H107" s="2" t="n">
         <f aca="false">(G107-E107)/F107</f>
         <v>48918.1370253408</v>
       </c>
-      <c r="I107" s="25" t="n">
+      <c r="I107" s="2" t="n">
         <f aca="false">E107*M107/G107</f>
         <v>5939.57153488372</v>
       </c>
-      <c r="J107" s="25" t="n">
+      <c r="J107" s="2" t="n">
         <f aca="false">I107-M107</f>
         <v>-3896.42846511628</v>
       </c>
-      <c r="K107" s="22" t="n">
+      <c r="K107" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="L107" s="22" t="s">
+      <c r="L107" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="M107" s="25" t="n">
+      <c r="M107" s="2" t="n">
         <v>9836</v>
       </c>
-      <c r="N107" s="25" t="n">
+      <c r="N107" s="2" t="n">
         <v>74569</v>
       </c>
-      <c r="O107" s="25" t="n">
+      <c r="O107" s="2" t="n">
         <v>2492</v>
       </c>
-      <c r="P107" s="25" t="n">
+      <c r="P107" s="2" t="n">
         <v>733460905</v>
       </c>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22" t="n">
+      <c r="R107" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18341,7 +18322,7 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="109" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="20" t="n">
         <v>108</v>
       </c>
@@ -18400,118 +18381,117 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="22" t="n">
+      <c r="A110" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="24" t="n">
+      <c r="C110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D110" s="25" t="n">
+      <c r="D110" s="2" t="n">
         <v>39650</v>
       </c>
-      <c r="E110" s="25" t="n">
+      <c r="E110" s="2" t="n">
         <v>17961</v>
       </c>
-      <c r="F110" s="24" t="n">
+      <c r="F110" s="1" t="n">
         <f aca="false">E110/D110</f>
         <v>0.452988650693569</v>
       </c>
-      <c r="G110" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H110" s="25" t="n">
+      <c r="G110" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H110" s="2" t="n">
         <f aca="false">(G110-E110)/F110</f>
         <v>55275.1155280886</v>
       </c>
-      <c r="I110" s="25" t="n">
+      <c r="I110" s="2" t="n">
         <f aca="false">E110*M110/G110</f>
         <v>3772.22769767442</v>
       </c>
-      <c r="J110" s="25" t="n">
+      <c r="J110" s="2" t="n">
         <f aca="false">I110-M110</f>
         <v>-5258.77230232558</v>
       </c>
-      <c r="K110" s="22" t="n">
+      <c r="K110" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="L110" s="22" t="s">
+      <c r="L110" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="M110" s="25" t="n">
+      <c r="M110" s="2" t="n">
         <v>9031</v>
       </c>
-      <c r="N110" s="25" t="n">
+      <c r="N110" s="2" t="n">
         <v>39650</v>
       </c>
-      <c r="O110" s="25" t="n">
+      <c r="O110" s="2" t="n">
         <v>2103</v>
       </c>
-      <c r="P110" s="25" t="n">
+      <c r="P110" s="2" t="n">
         <v>358079298</v>
       </c>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22" t="n">
+      <c r="R110" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="26" t="n">
+      <c r="A111" s="23" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="26" t="s">
+      <c r="B111" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="27" t="n">
+      <c r="C111" s="24" t="n">
         <v>0.676</v>
       </c>
-      <c r="D111" s="28" t="n">
+      <c r="D111" s="25" t="n">
         <v>53218</v>
       </c>
-      <c r="E111" s="28" t="n">
+      <c r="E111" s="25" t="n">
         <v>26569</v>
       </c>
-      <c r="F111" s="27" t="n">
+      <c r="F111" s="24" t="n">
         <f aca="false">E111/D111</f>
         <v>0.499248374610094</v>
       </c>
-      <c r="G111" s="28" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H111" s="28" t="n">
+      <c r="G111" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H111" s="25" t="n">
         <f aca="false">(G111-E111)/F111</f>
         <v>32911.4741992548</v>
       </c>
-      <c r="I111" s="28" t="n">
+      <c r="I111" s="25" t="n">
         <f aca="false">E111*M111/G111</f>
         <v>7529.53102325581</v>
       </c>
-      <c r="J111" s="28" t="n">
+      <c r="J111" s="25" t="n">
         <f aca="false">I111-M111</f>
         <v>-4656.46897674419</v>
       </c>
-      <c r="K111" s="26" t="n">
+      <c r="K111" s="23" t="n">
         <v>309</v>
       </c>
-      <c r="L111" s="26" t="s">
+      <c r="L111" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="M111" s="28" t="n">
+      <c r="M111" s="25" t="n">
         <v>12186</v>
       </c>
-      <c r="N111" s="28" t="n">
+      <c r="N111" s="25" t="n">
         <v>53218</v>
       </c>
-      <c r="O111" s="28" t="n">
+      <c r="O111" s="25" t="n">
         <v>2969</v>
       </c>
-      <c r="P111" s="28" t="n">
+      <c r="P111" s="25" t="n">
         <v>648519915</v>
       </c>
-      <c r="Q111" s="26"/>
-      <c r="R111" s="26" t="n">
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18566,7 +18546,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -19367,7 +19347,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -20167,7 +20147,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Combine" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$111</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$112</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="296">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -737,6 +737,12 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76664_V5_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V5_2_combine</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -952,7 +958,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,12 +981,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1018,7 +1018,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1109,18 +1109,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1234,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -1287,7 +1275,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4086,7 +4074,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7466,7 +7454,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12295,17 +12283,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ111"/>
+  <dimension ref="A1:AMJ112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="G87" activeCellId="0" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="P116" activeCellId="0" sqref="P116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -18438,81 +18426,137 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="23" t="n">
+      <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="24" t="n">
+      <c r="C111" s="1" t="n">
         <v>0.676</v>
       </c>
-      <c r="D111" s="25" t="n">
+      <c r="D111" s="2" t="n">
         <v>53218</v>
       </c>
-      <c r="E111" s="25" t="n">
+      <c r="E111" s="2" t="n">
         <v>26569</v>
       </c>
-      <c r="F111" s="24" t="n">
+      <c r="F111" s="1" t="n">
         <f aca="false">E111/D111</f>
         <v>0.499248374610094</v>
       </c>
-      <c r="G111" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H111" s="25" t="n">
+      <c r="G111" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H111" s="2" t="n">
         <f aca="false">(G111-E111)/F111</f>
         <v>32911.4741992548</v>
       </c>
-      <c r="I111" s="25" t="n">
+      <c r="I111" s="2" t="n">
         <f aca="false">E111*M111/G111</f>
         <v>7529.53102325581</v>
       </c>
-      <c r="J111" s="25" t="n">
+      <c r="J111" s="2" t="n">
         <f aca="false">I111-M111</f>
         <v>-4656.46897674419</v>
       </c>
-      <c r="K111" s="23" t="n">
+      <c r="K111" s="0" t="n">
         <v>309</v>
       </c>
-      <c r="L111" s="23" t="s">
+      <c r="L111" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="M111" s="25" t="n">
+      <c r="M111" s="2" t="n">
         <v>12186</v>
       </c>
-      <c r="N111" s="25" t="n">
+      <c r="N111" s="2" t="n">
         <v>53218</v>
       </c>
-      <c r="O111" s="25" t="n">
+      <c r="O111" s="2" t="n">
         <v>2969</v>
       </c>
-      <c r="P111" s="25" t="n">
+      <c r="P111" s="2" t="n">
         <v>648519915</v>
       </c>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23" t="n">
+      <c r="R111" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
+    <row r="112" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="20" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="D112" s="6" t="n">
+        <v>84854</v>
+      </c>
+      <c r="E112" s="6" t="n">
+        <v>42314</v>
+      </c>
+      <c r="F112" s="5" t="n">
+        <f aca="false">E112/D112</f>
+        <v>0.498668300846159</v>
+      </c>
+      <c r="G112" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H112" s="6" t="n">
+        <f aca="false">(G112-E112)/F112</f>
+        <v>1375.66394101243</v>
+      </c>
+      <c r="I112" s="6" t="n">
+        <f aca="false">E112*M112/G112</f>
+        <v>13517.8469302326</v>
+      </c>
+      <c r="J112" s="6" t="n">
+        <f aca="false">I112-M112</f>
+        <v>-219.153069767442</v>
+      </c>
+      <c r="K112" s="20" t="n">
+        <v>330</v>
+      </c>
+      <c r="L112" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="M112" s="6" t="n">
+        <v>13737</v>
+      </c>
+      <c r="N112" s="6" t="n">
+        <v>84854</v>
+      </c>
+      <c r="O112" s="6" t="n">
+        <v>3126</v>
+      </c>
+      <c r="P112" s="6" t="n">
+        <v>1165643785</v>
+      </c>
+      <c r="R112" s="20" t="n">
+        <v>20220919</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R111"/>
+  <autoFilter ref="A1:R112"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F1 F3:F111">
+  <conditionalFormatting sqref="F2:G2 F1 F3:F112">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H111">
+  <conditionalFormatting sqref="H1:H112">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J111">
+  <conditionalFormatting sqref="J1:J112">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -18546,7 +18590,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -18586,7 +18630,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -19347,7 +19391,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -19386,7 +19430,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20147,7 +20191,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -20187,7 +20231,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20205,7 +20249,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20265,7 +20309,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20325,7 +20369,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20385,7 +20429,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20445,7 +20489,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20505,7 +20549,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20565,7 +20609,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20625,7 +20669,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20685,7 +20729,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20745,7 +20789,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20805,7 +20849,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20865,7 +20909,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20925,7 +20969,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20985,7 +21029,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20993,7 +21037,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -21027,7 +21071,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -21042,10 +21086,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21053,7 +21097,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -21087,7 +21131,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -21102,10 +21146,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21113,7 +21157,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -21147,7 +21191,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -21162,10 +21206,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21173,7 +21217,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -21207,7 +21251,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -21222,10 +21266,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21233,7 +21277,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -21267,7 +21311,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -21282,10 +21326,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21293,7 +21337,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -21327,7 +21371,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -21342,10 +21386,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21353,7 +21397,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -21387,7 +21431,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -21402,10 +21446,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21413,7 +21457,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -21447,7 +21491,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -21462,10 +21506,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21473,7 +21517,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -21507,7 +21551,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -21522,10 +21566,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21533,7 +21577,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -21567,7 +21611,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -21582,10 +21626,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21593,7 +21637,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -21627,7 +21671,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -21642,10 +21686,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21653,7 +21697,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -21687,7 +21731,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -21702,10 +21746,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21713,7 +21757,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -21747,7 +21791,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -21762,10 +21806,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21773,7 +21817,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -21807,7 +21851,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -21822,10 +21866,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21833,7 +21877,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -21867,7 +21911,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -21882,10 +21926,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21893,7 +21937,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -21927,7 +21971,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -21942,10 +21986,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21953,7 +21997,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -21987,7 +22031,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -22002,10 +22046,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22013,7 +22057,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -22047,7 +22091,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -22062,10 +22106,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Combine" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$112</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$119</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="310">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -743,6 +743,48 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V5_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76638_V11_3_combine_force21034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3_combine_force21034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76658_V5_3_combine_force22986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_3_combine_force22986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V11_2_combine_force12780)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2_combine_force12780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V11_2_combine_force21268)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine_force21268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V11_2_combine_force10812)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11_2_combine_force10812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V5_2_combine_force9832)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V5_2_combine_force9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76664_V5_2_combine_force13518)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V5_2_combine_force13518</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -958,7 +1000,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +1023,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1018,7 +1066,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,8 +1155,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1234,7 +1298,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -1275,7 +1339,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4074,7 +4138,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7454,7 +7518,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12283,17 +12347,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ112"/>
+  <dimension ref="A1:AMJ119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="P116" activeCellId="0" sqref="P116"/>
+      <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="J123" activeCellId="0" sqref="J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -13244,7 +13308,7 @@
         <v>935376480</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -13300,7 +13364,7 @@
       <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -13353,6 +13417,8 @@
       <c r="P19" s="2" t="n">
         <v>381040696</v>
       </c>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
@@ -13608,7 +13674,7 @@
       <c r="K24" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="23" t="s">
         <v>117</v>
       </c>
       <c r="M24" s="2" t="n">
@@ -16820,7 +16886,7 @@
       </c>
       <c r="Q82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
@@ -16873,9 +16939,10 @@
       <c r="P83" s="2" t="n">
         <v>701851123</v>
       </c>
+      <c r="Q83" s="0"/>
       <c r="R83" s="20"/>
     </row>
-    <row r="84" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
@@ -16929,6 +16996,7 @@
         <v>1582564131</v>
       </c>
       <c r="Q84" s="0"/>
+      <c r="R84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -17216,7 +17284,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
@@ -17269,11 +17337,12 @@
       <c r="P90" s="2" t="n">
         <v>2119632070</v>
       </c>
+      <c r="Q90" s="0"/>
       <c r="R90" s="19" t="n">
         <v>20220830</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="19" t="n">
         <v>90</v>
       </c>
@@ -17792,119 +17861,118 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20" t="n">
+    <row r="100" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="22" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="5" t="n">
+      <c r="C100" s="24" t="n">
         <v>0.495</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" s="25" t="n">
         <v>82041</v>
       </c>
-      <c r="E100" s="6" t="n">
+      <c r="E100" s="25" t="n">
         <v>36304</v>
       </c>
-      <c r="F100" s="5" t="n">
+      <c r="F100" s="24" t="n">
         <f aca="false">E100/D100</f>
         <v>0.442510452091028</v>
       </c>
-      <c r="G100" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H100" s="6" t="n">
+      <c r="G100" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H100" s="25" t="n">
         <f aca="false">(G100-E100)/F100</f>
         <v>15131.8459673865</v>
       </c>
-      <c r="I100" s="6" t="n">
+      <c r="I100" s="25" t="n">
         <f aca="false">E100*M100/G100</f>
         <v>21033.5244651163</v>
       </c>
-      <c r="J100" s="6" t="n">
+      <c r="J100" s="25" t="n">
         <f aca="false">I100-M100</f>
         <v>-3879.47553488372</v>
       </c>
-      <c r="K100" s="20" t="n">
+      <c r="K100" s="22" t="n">
         <v>326</v>
       </c>
-      <c r="L100" s="20" t="s">
+      <c r="L100" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="M100" s="6" t="n">
+      <c r="M100" s="25" t="n">
         <v>24913</v>
       </c>
-      <c r="N100" s="6" t="n">
+      <c r="N100" s="25" t="n">
         <v>82041</v>
       </c>
-      <c r="O100" s="6" t="n">
+      <c r="O100" s="25" t="n">
         <v>2570</v>
       </c>
-      <c r="P100" s="6" t="n">
+      <c r="P100" s="25" t="n">
         <v>2043883557</v>
       </c>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20" t="n">
+      <c r="R100" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20" t="n">
+    <row r="101" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="5" t="n">
+      <c r="C101" s="24" t="n">
         <v>0.387</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" s="25" t="n">
         <v>100647</v>
       </c>
-      <c r="E101" s="6" t="n">
+      <c r="E101" s="25" t="n">
         <v>46392</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="24" t="n">
         <f aca="false">E101/D101</f>
         <v>0.460937732868342</v>
       </c>
-      <c r="G101" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H101" s="6" t="n">
+      <c r="G101" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H101" s="25" t="n">
         <f aca="false">(G101-E101)/F101</f>
         <v>-7358.91153647181</v>
       </c>
-      <c r="I101" s="6" t="n">
+      <c r="I101" s="25" t="n">
         <f aca="false">E101*M101/G101</f>
         <v>22985.6176744186</v>
       </c>
-      <c r="J101" s="6" t="n">
+      <c r="J101" s="25" t="n">
         <f aca="false">I101-M101</f>
         <v>1680.61767441861</v>
       </c>
-      <c r="K101" s="20" t="n">
+      <c r="K101" s="22" t="n">
         <v>327</v>
       </c>
-      <c r="L101" s="20" t="s">
+      <c r="L101" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="M101" s="6" t="n">
+      <c r="M101" s="25" t="n">
         <v>21305</v>
       </c>
-      <c r="N101" s="6" t="n">
+      <c r="N101" s="25" t="n">
         <v>100647</v>
       </c>
-      <c r="O101" s="6" t="n">
+      <c r="O101" s="25" t="n">
         <v>2704</v>
       </c>
-      <c r="P101" s="6" t="n">
+      <c r="P101" s="25" t="n">
         <v>2144274722</v>
       </c>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="20" t="n">
+      <c r="Q101" s="22"/>
+      <c r="R101" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -17966,60 +18034,60 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20" t="n">
+      <c r="A103" s="22" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="5" t="n">
+      <c r="C103" s="24" t="n">
         <v>0.473</v>
       </c>
-      <c r="D103" s="6" t="n">
+      <c r="D103" s="25" t="n">
         <v>87635</v>
       </c>
-      <c r="E103" s="6" t="n">
+      <c r="E103" s="25" t="n">
         <v>37941</v>
       </c>
-      <c r="F103" s="5" t="n">
+      <c r="F103" s="24" t="n">
         <f aca="false">E103/D103</f>
         <v>0.432943458663776</v>
       </c>
-      <c r="G103" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H103" s="6" t="n">
+      <c r="G103" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H103" s="25" t="n">
         <f aca="false">(G103-E103)/F103</f>
         <v>11685.1286207533</v>
       </c>
-      <c r="I103" s="6" t="n">
+      <c r="I103" s="25" t="n">
         <f aca="false">E103*M103/G103</f>
         <v>12779.9405581395</v>
       </c>
-      <c r="J103" s="6" t="n">
+      <c r="J103" s="25" t="n">
         <f aca="false">I103-M103</f>
         <v>-1704.05944186047</v>
       </c>
-      <c r="K103" s="20" t="n">
+      <c r="K103" s="22" t="n">
         <v>333</v>
       </c>
-      <c r="L103" s="20" t="s">
+      <c r="L103" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="M103" s="6" t="n">
+      <c r="M103" s="25" t="n">
         <v>14484</v>
       </c>
-      <c r="N103" s="6" t="n">
+      <c r="N103" s="25" t="n">
         <v>87635</v>
       </c>
-      <c r="O103" s="6" t="n">
+      <c r="O103" s="25" t="n">
         <v>2450</v>
       </c>
-      <c r="P103" s="6" t="n">
+      <c r="P103" s="25" t="n">
         <v>1269309566</v>
       </c>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20" t="n">
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18139,60 +18207,60 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20" t="n">
+      <c r="A106" s="22" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="24" t="n">
         <v>0.456</v>
       </c>
-      <c r="D106" s="6" t="n">
+      <c r="D106" s="25" t="n">
         <v>104560</v>
       </c>
-      <c r="E106" s="6" t="n">
+      <c r="E106" s="25" t="n">
         <v>39369</v>
       </c>
-      <c r="F106" s="5" t="n">
+      <c r="F106" s="24" t="n">
         <f aca="false">E106/D106</f>
         <v>0.376520657995409</v>
       </c>
-      <c r="G106" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H106" s="6" t="n">
+      <c r="G106" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H106" s="25" t="n">
         <f aca="false">(G106-E106)/F106</f>
         <v>9643.56117757627</v>
       </c>
-      <c r="I106" s="6" t="n">
+      <c r="I106" s="25" t="n">
         <f aca="false">E106*M106/G106</f>
         <v>21267.5000232558</v>
       </c>
-      <c r="J106" s="6" t="n">
+      <c r="J106" s="25" t="n">
         <f aca="false">I106-M106</f>
         <v>-1961.49997674419</v>
       </c>
-      <c r="K106" s="20" t="n">
+      <c r="K106" s="22" t="n">
         <v>334</v>
       </c>
-      <c r="L106" s="20" t="s">
+      <c r="L106" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="M106" s="6" t="n">
+      <c r="M106" s="25" t="n">
         <v>23229</v>
       </c>
-      <c r="N106" s="6" t="n">
+      <c r="N106" s="25" t="n">
         <v>104560</v>
       </c>
-      <c r="O106" s="6" t="n">
+      <c r="O106" s="25" t="n">
         <v>2833</v>
       </c>
-      <c r="P106" s="6" t="n">
+      <c r="P106" s="25" t="n">
         <v>2428824781</v>
       </c>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20" t="n">
+      <c r="Q106" s="22"/>
+      <c r="R106" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18254,121 +18322,121 @@
       </c>
     </row>
     <row r="108" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20" t="n">
+      <c r="A108" s="22" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="5" t="n">
+      <c r="C108" s="24" t="n">
         <v>0.402</v>
       </c>
-      <c r="D108" s="6" t="n">
+      <c r="D108" s="25" t="n">
         <v>128104</v>
       </c>
-      <c r="E108" s="6" t="n">
+      <c r="E108" s="25" t="n">
         <v>44660</v>
       </c>
-      <c r="F108" s="5" t="n">
+      <c r="F108" s="24" t="n">
         <f aca="false">E108/D108</f>
         <v>0.348622993817523</v>
       </c>
-      <c r="G108" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H108" s="6" t="n">
+      <c r="G108" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H108" s="25" t="n">
         <f aca="false">(G108-E108)/F108</f>
         <v>-4761.59068517689</v>
       </c>
-      <c r="I108" s="6" t="n">
+      <c r="I108" s="25" t="n">
         <f aca="false">E108*M108/G108</f>
         <v>10811.8744186047</v>
       </c>
-      <c r="J108" s="6" t="n">
+      <c r="J108" s="25" t="n">
         <f aca="false">I108-M108</f>
         <v>401.874418604652</v>
       </c>
-      <c r="K108" s="20" t="n">
+      <c r="K108" s="22" t="n">
         <v>329</v>
       </c>
-      <c r="L108" s="20" t="s">
+      <c r="L108" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="M108" s="6" t="n">
+      <c r="M108" s="25" t="n">
         <v>10410</v>
       </c>
-      <c r="N108" s="6" t="n">
+      <c r="N108" s="25" t="n">
         <v>128104</v>
       </c>
-      <c r="O108" s="6" t="n">
+      <c r="O108" s="25" t="n">
         <v>2691</v>
       </c>
-      <c r="P108" s="6" t="n">
+      <c r="P108" s="25" t="n">
         <v>1333565629</v>
       </c>
-      <c r="R108" s="20" t="n">
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20" t="n">
+    <row r="109" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="22" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="5" t="n">
+      <c r="C109" s="24" t="n">
         <v>0.405</v>
       </c>
-      <c r="D109" s="6" t="n">
+      <c r="D109" s="25" t="n">
         <v>98414</v>
       </c>
-      <c r="E109" s="6" t="n">
+      <c r="E109" s="25" t="n">
         <v>44305</v>
       </c>
-      <c r="F109" s="5" t="n">
+      <c r="F109" s="24" t="n">
         <f aca="false">E109/D109</f>
         <v>0.450190013615949</v>
       </c>
-      <c r="G109" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H109" s="6" t="n">
+      <c r="G109" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H109" s="25" t="n">
         <f aca="false">(G109-E109)/F109</f>
         <v>-2898.77598465185</v>
       </c>
-      <c r="I109" s="6" t="n">
+      <c r="I109" s="25" t="n">
         <f aca="false">E109*M109/G109</f>
         <v>9831.58860465116</v>
       </c>
-      <c r="J109" s="6" t="n">
+      <c r="J109" s="25" t="n">
         <f aca="false">I109-M109</f>
         <v>289.588604651162</v>
       </c>
-      <c r="K109" s="20" t="n">
+      <c r="K109" s="22" t="n">
         <v>332</v>
       </c>
-      <c r="L109" s="20" t="s">
+      <c r="L109" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="M109" s="6" t="n">
+      <c r="M109" s="25" t="n">
         <v>9542</v>
       </c>
-      <c r="N109" s="6" t="n">
+      <c r="N109" s="25" t="n">
         <v>98414</v>
       </c>
-      <c r="O109" s="6" t="n">
+      <c r="O109" s="25" t="n">
         <v>2577</v>
       </c>
-      <c r="P109" s="6" t="n">
+      <c r="P109" s="25" t="n">
         <v>939067735</v>
       </c>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20" t="n">
+      <c r="R109" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>109</v>
       </c>
@@ -18421,6 +18489,7 @@
       <c r="P110" s="2" t="n">
         <v>358079298</v>
       </c>
+      <c r="Q110" s="0"/>
       <c r="R110" s="0" t="n">
         <v>20220919</v>
       </c>
@@ -18483,80 +18552,485 @@
       </c>
     </row>
     <row r="112" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="20" t="n">
+      <c r="A112" s="22" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="5" t="n">
+      <c r="C112" s="24" t="n">
         <v>0.628</v>
       </c>
-      <c r="D112" s="6" t="n">
+      <c r="D112" s="25" t="n">
         <v>84854</v>
       </c>
-      <c r="E112" s="6" t="n">
+      <c r="E112" s="25" t="n">
         <v>42314</v>
       </c>
-      <c r="F112" s="5" t="n">
+      <c r="F112" s="24" t="n">
         <f aca="false">E112/D112</f>
         <v>0.498668300846159</v>
       </c>
-      <c r="G112" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H112" s="6" t="n">
+      <c r="G112" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H112" s="25" t="n">
         <f aca="false">(G112-E112)/F112</f>
         <v>1375.66394101243</v>
       </c>
-      <c r="I112" s="6" t="n">
+      <c r="I112" s="25" t="n">
         <f aca="false">E112*M112/G112</f>
         <v>13517.8469302326</v>
       </c>
-      <c r="J112" s="6" t="n">
+      <c r="J112" s="25" t="n">
         <f aca="false">I112-M112</f>
         <v>-219.153069767442</v>
       </c>
-      <c r="K112" s="20" t="n">
+      <c r="K112" s="22" t="n">
         <v>330</v>
       </c>
-      <c r="L112" s="20" t="s">
+      <c r="L112" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="M112" s="6" t="n">
+      <c r="M112" s="25" t="n">
         <v>13737</v>
       </c>
-      <c r="N112" s="6" t="n">
+      <c r="N112" s="25" t="n">
         <v>84854</v>
       </c>
-      <c r="O112" s="6" t="n">
+      <c r="O112" s="25" t="n">
         <v>3126</v>
       </c>
-      <c r="P112" s="6" t="n">
+      <c r="P112" s="25" t="n">
         <v>1165643785</v>
       </c>
-      <c r="R112" s="20" t="n">
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22" t="n">
         <v>20220919</v>
       </c>
     </row>
+    <row r="113" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="20" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>97170</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>42166</v>
+      </c>
+      <c r="F113" s="5" t="n">
+        <f aca="false">E113/D113</f>
+        <v>0.433940516620356</v>
+      </c>
+      <c r="G113" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H113" s="6" t="n">
+        <f aca="false">(G113-E113)/F113</f>
+        <v>1921.92240193521</v>
+      </c>
+      <c r="I113" s="6" t="n">
+        <f aca="false">E113*M113/G113</f>
+        <v>20626.0382325581</v>
+      </c>
+      <c r="J113" s="6" t="n">
+        <f aca="false">I113-M113</f>
+        <v>-407.961767441859</v>
+      </c>
+      <c r="K113" s="20" t="n">
+        <v>338</v>
+      </c>
+      <c r="L113" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="M113" s="6" t="n">
+        <v>21034</v>
+      </c>
+      <c r="N113" s="6" t="n">
+        <v>97170</v>
+      </c>
+      <c r="O113" s="6" t="n">
+        <v>2876</v>
+      </c>
+      <c r="P113" s="6" t="n">
+        <v>2043883557</v>
+      </c>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="114" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="19" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="10" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="D114" s="8" t="n">
+        <v>93286</v>
+      </c>
+      <c r="E114" s="8" t="n">
+        <v>43423</v>
+      </c>
+      <c r="F114" s="10" t="n">
+        <f aca="false">E114/D114</f>
+        <v>0.465482494693738</v>
+      </c>
+      <c r="G114" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H114" s="8" t="n">
+        <f aca="false">(G114-E114)/F114</f>
+        <v>-908.734495543836</v>
+      </c>
+      <c r="I114" s="8" t="n">
+        <f aca="false">E114*M114/G114</f>
+        <v>23212.1180930233</v>
+      </c>
+      <c r="J114" s="8" t="n">
+        <f aca="false">I114-M114</f>
+        <v>226.118093023255</v>
+      </c>
+      <c r="K114" s="19" t="n">
+        <v>339</v>
+      </c>
+      <c r="L114" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="M114" s="8" t="n">
+        <v>22986</v>
+      </c>
+      <c r="N114" s="8" t="n">
+        <v>93286</v>
+      </c>
+      <c r="O114" s="8" t="n">
+        <v>2535</v>
+      </c>
+      <c r="P114" s="8" t="n">
+        <v>2144274722</v>
+      </c>
+      <c r="R114" s="19" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="115" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="20" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D115" s="6" t="n">
+        <v>99320</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>42727</v>
+      </c>
+      <c r="F115" s="5" t="n">
+        <f aca="false">E115/D115</f>
+        <v>0.430195328231977</v>
+      </c>
+      <c r="G115" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H115" s="6" t="n">
+        <f aca="false">(G115-E115)/F115</f>
+        <v>634.595454864606</v>
+      </c>
+      <c r="I115" s="6" t="n">
+        <f aca="false">E115*M115/G115</f>
+        <v>12698.8618604651</v>
+      </c>
+      <c r="J115" s="6" t="n">
+        <f aca="false">I115-M115</f>
+        <v>-81.1381395348835</v>
+      </c>
+      <c r="K115" s="20" t="n">
+        <v>344</v>
+      </c>
+      <c r="L115" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="M115" s="6" t="n">
+        <v>12780</v>
+      </c>
+      <c r="N115" s="6" t="n">
+        <v>99320</v>
+      </c>
+      <c r="O115" s="6" t="n">
+        <v>2641</v>
+      </c>
+      <c r="P115" s="6" t="n">
+        <v>1269309566</v>
+      </c>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="116" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="20" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>114201</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>46103</v>
+      </c>
+      <c r="F116" s="5" t="n">
+        <f aca="false">E116/D116</f>
+        <v>0.403700492990429</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H116" s="6" t="n">
+        <f aca="false">(G116-E116)/F116</f>
+        <v>-7686.39140619916</v>
+      </c>
+      <c r="I116" s="6" t="n">
+        <f aca="false">E116*M116/G116</f>
+        <v>22802.7582325581</v>
+      </c>
+      <c r="J116" s="6" t="n">
+        <f aca="false">I116-M116</f>
+        <v>1534.75823255814</v>
+      </c>
+      <c r="K116" s="20" t="n">
+        <v>345</v>
+      </c>
+      <c r="L116" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="M116" s="6" t="n">
+        <v>21268</v>
+      </c>
+      <c r="N116" s="6" t="n">
+        <v>114201</v>
+      </c>
+      <c r="O116" s="6" t="n">
+        <v>3141</v>
+      </c>
+      <c r="P116" s="6" t="n">
+        <v>2428824781</v>
+      </c>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="117" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="20" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>123341</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>43568</v>
+      </c>
+      <c r="F117" s="5" t="n">
+        <f aca="false">E117/D117</f>
+        <v>0.353232096383198</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H117" s="6" t="n">
+        <f aca="false">(G117-E117)/F117</f>
+        <v>-1608.00789570327</v>
+      </c>
+      <c r="I117" s="6" t="n">
+        <f aca="false">E117*M117/G117</f>
+        <v>10954.8189767442</v>
+      </c>
+      <c r="J117" s="6" t="n">
+        <f aca="false">I117-M117</f>
+        <v>142.818976744185</v>
+      </c>
+      <c r="K117" s="20" t="n">
+        <v>341</v>
+      </c>
+      <c r="L117" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="M117" s="6" t="n">
+        <v>10812</v>
+      </c>
+      <c r="N117" s="6" t="n">
+        <v>123341</v>
+      </c>
+      <c r="O117" s="6" t="n">
+        <v>2633</v>
+      </c>
+      <c r="P117" s="6" t="n">
+        <v>1333565629</v>
+      </c>
+      <c r="Q117" s="20"/>
+      <c r="R117" s="20" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="118" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="19" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="10" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D118" s="8" t="n">
+        <v>95511</v>
+      </c>
+      <c r="E118" s="8" t="n">
+        <v>43101</v>
+      </c>
+      <c r="F118" s="10" t="n">
+        <f aca="false">E118/D118</f>
+        <v>0.451267393284543</v>
+      </c>
+      <c r="G118" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H118" s="8" t="n">
+        <f aca="false">(G118-E118)/F118</f>
+        <v>-223.814087840189</v>
+      </c>
+      <c r="I118" s="8" t="n">
+        <f aca="false">E118*M118/G118</f>
+        <v>9855.09376744186</v>
+      </c>
+      <c r="J118" s="8" t="n">
+        <f aca="false">I118-M118</f>
+        <v>23.0937674418601</v>
+      </c>
+      <c r="K118" s="19" t="n">
+        <v>343</v>
+      </c>
+      <c r="L118" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M118" s="8" t="n">
+        <v>9832</v>
+      </c>
+      <c r="N118" s="8" t="n">
+        <v>95511</v>
+      </c>
+      <c r="O118" s="8" t="n">
+        <v>2531</v>
+      </c>
+      <c r="P118" s="8" t="n">
+        <v>939067735</v>
+      </c>
+      <c r="R118" s="19" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="119" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="19" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="10" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D119" s="8" t="n">
+        <v>86229</v>
+      </c>
+      <c r="E119" s="8" t="n">
+        <v>43128</v>
+      </c>
+      <c r="F119" s="10" t="n">
+        <f aca="false">E119/D119</f>
+        <v>0.500156559858052</v>
+      </c>
+      <c r="G119" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H119" s="8" t="n">
+        <f aca="false">(G119-E119)/F119</f>
+        <v>-255.919866444073</v>
+      </c>
+      <c r="I119" s="8" t="n">
+        <f aca="false">E119*M119/G119</f>
+        <v>13558.239627907</v>
+      </c>
+      <c r="J119" s="8" t="n">
+        <f aca="false">I119-M119</f>
+        <v>40.2396279069762</v>
+      </c>
+      <c r="K119" s="19" t="n">
+        <v>342</v>
+      </c>
+      <c r="L119" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="M119" s="8" t="n">
+        <v>13518</v>
+      </c>
+      <c r="N119" s="8" t="n">
+        <v>86229</v>
+      </c>
+      <c r="O119" s="8" t="n">
+        <v>3160</v>
+      </c>
+      <c r="P119" s="8" t="n">
+        <v>1165643785</v>
+      </c>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19" t="n">
+        <v>20220923</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R112"/>
+  <autoFilter ref="A1:R119"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F1 F3:F112">
+  <conditionalFormatting sqref="F2:G2 F1 F3:F119">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H112">
+  <conditionalFormatting sqref="H1:H119">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J112">
+  <conditionalFormatting sqref="J1:J119">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -18590,7 +19064,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -18630,7 +19104,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -19391,7 +19865,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -19430,7 +19904,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20191,7 +20665,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -20231,7 +20705,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20249,7 +20723,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20309,7 +20783,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20369,7 +20843,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20429,7 +20903,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20489,7 +20963,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20549,7 +21023,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,7 +21083,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20669,7 +21143,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20729,7 +21203,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20789,7 +21263,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20849,7 +21323,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20909,7 +21383,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20969,7 +21443,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21029,7 +21503,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21037,7 +21511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -21071,7 +21545,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -21086,10 +21560,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21097,7 +21571,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -21131,7 +21605,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -21146,10 +21620,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21157,7 +21631,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -21191,7 +21665,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -21206,10 +21680,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21217,7 +21691,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -21251,7 +21725,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -21266,10 +21740,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21277,7 +21751,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -21311,7 +21785,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -21326,10 +21800,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21337,7 +21811,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -21371,7 +21845,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -21386,10 +21860,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21397,7 +21871,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -21431,7 +21905,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -21446,10 +21920,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21457,7 +21931,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -21491,7 +21965,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -21506,10 +21980,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21517,7 +21991,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -21551,7 +22025,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -21566,10 +22040,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21577,7 +22051,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -21611,7 +22085,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -21626,10 +22100,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21637,7 +22111,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -21671,7 +22145,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -21686,10 +22160,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21697,7 +22171,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -21731,7 +22205,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -21746,10 +22220,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21757,7 +22231,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -21791,7 +22265,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -21806,10 +22280,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21817,7 +22291,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -21851,7 +22325,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -21866,10 +22340,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21877,7 +22351,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -21911,7 +22385,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -21926,10 +22400,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21937,7 +22411,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -21971,7 +22445,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -21986,10 +22460,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21997,7 +22471,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -22031,7 +22505,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -22046,10 +22520,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22057,7 +22531,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -22091,7 +22565,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -22106,10 +22580,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -785,6 +785,30 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V5_2_combine_force13518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76638_V11_3_combine_force20626)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3_combine_force20626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76660_V11_2_combine_force12699)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2_combine_force12699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76661_V11_2_combine_force22803)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine_force22803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76662_V11_2_combine_force10955)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11_2_combine_force10955</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -1155,12 +1179,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1339,7 +1363,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4138,10 +4162,10 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="11.6"/>
@@ -7518,7 +7542,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12347,17 +12371,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ119"/>
+  <dimension ref="A1:AMJ123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
-      <selection pane="bottomRight" activeCell="J123" activeCellId="0" sqref="J123"/>
+      <selection pane="bottomRight" activeCell="L125" activeCellId="0" sqref="L125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -13308,7 +13332,7 @@
         <v>935376480</v>
       </c>
     </row>
-    <row r="18" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -13361,8 +13385,6 @@
       <c r="P18" s="2" t="n">
         <v>325835021</v>
       </c>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
     </row>
     <row r="19" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -13674,7 +13696,7 @@
       <c r="K24" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>117</v>
       </c>
       <c r="M24" s="2" t="n">
@@ -16886,7 +16908,7 @@
       </c>
       <c r="Q82" s="0"/>
     </row>
-    <row r="83" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
@@ -16939,7 +16961,6 @@
       <c r="P83" s="2" t="n">
         <v>701851123</v>
       </c>
-      <c r="Q83" s="0"/>
       <c r="R83" s="20"/>
     </row>
     <row r="84" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17284,7 +17305,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="90" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
@@ -17337,7 +17358,6 @@
       <c r="P90" s="2" t="n">
         <v>2119632070</v>
       </c>
-      <c r="Q90" s="0"/>
       <c r="R90" s="19" t="n">
         <v>20220830</v>
       </c>
@@ -17861,118 +17881,118 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="100" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22" t="n">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="24" t="n">
+      <c r="C100" s="1" t="n">
         <v>0.495</v>
       </c>
-      <c r="D100" s="25" t="n">
+      <c r="D100" s="2" t="n">
         <v>82041</v>
       </c>
-      <c r="E100" s="25" t="n">
+      <c r="E100" s="2" t="n">
         <v>36304</v>
       </c>
-      <c r="F100" s="24" t="n">
+      <c r="F100" s="1" t="n">
         <f aca="false">E100/D100</f>
         <v>0.442510452091028</v>
       </c>
-      <c r="G100" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H100" s="25" t="n">
+      <c r="G100" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H100" s="2" t="n">
         <f aca="false">(G100-E100)/F100</f>
         <v>15131.8459673865</v>
       </c>
-      <c r="I100" s="25" t="n">
+      <c r="I100" s="2" t="n">
         <f aca="false">E100*M100/G100</f>
         <v>21033.5244651163</v>
       </c>
-      <c r="J100" s="25" t="n">
+      <c r="J100" s="2" t="n">
         <f aca="false">I100-M100</f>
         <v>-3879.47553488372</v>
       </c>
-      <c r="K100" s="22" t="n">
+      <c r="K100" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="L100" s="22" t="s">
+      <c r="L100" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="M100" s="25" t="n">
+      <c r="M100" s="2" t="n">
         <v>24913</v>
       </c>
-      <c r="N100" s="25" t="n">
+      <c r="N100" s="2" t="n">
         <v>82041</v>
       </c>
-      <c r="O100" s="25" t="n">
+      <c r="O100" s="2" t="n">
         <v>2570</v>
       </c>
-      <c r="P100" s="25" t="n">
+      <c r="P100" s="2" t="n">
         <v>2043883557</v>
       </c>
-      <c r="R100" s="22" t="n">
+      <c r="R100" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
     <row r="101" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22" t="n">
+      <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="24" t="n">
+      <c r="C101" s="1" t="n">
         <v>0.387</v>
       </c>
-      <c r="D101" s="25" t="n">
+      <c r="D101" s="2" t="n">
         <v>100647</v>
       </c>
-      <c r="E101" s="25" t="n">
+      <c r="E101" s="2" t="n">
         <v>46392</v>
       </c>
-      <c r="F101" s="24" t="n">
+      <c r="F101" s="1" t="n">
         <f aca="false">E101/D101</f>
         <v>0.460937732868342</v>
       </c>
-      <c r="G101" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H101" s="25" t="n">
+      <c r="G101" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H101" s="2" t="n">
         <f aca="false">(G101-E101)/F101</f>
         <v>-7358.91153647181</v>
       </c>
-      <c r="I101" s="25" t="n">
+      <c r="I101" s="2" t="n">
         <f aca="false">E101*M101/G101</f>
         <v>22985.6176744186</v>
       </c>
-      <c r="J101" s="25" t="n">
+      <c r="J101" s="2" t="n">
         <f aca="false">I101-M101</f>
         <v>1680.61767441861</v>
       </c>
-      <c r="K101" s="22" t="n">
+      <c r="K101" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="L101" s="22" t="s">
+      <c r="L101" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="M101" s="25" t="n">
+      <c r="M101" s="2" t="n">
         <v>21305</v>
       </c>
-      <c r="N101" s="25" t="n">
+      <c r="N101" s="2" t="n">
         <v>100647</v>
       </c>
-      <c r="O101" s="25" t="n">
+      <c r="O101" s="2" t="n">
         <v>2704</v>
       </c>
-      <c r="P101" s="25" t="n">
+      <c r="P101" s="2" t="n">
         <v>2144274722</v>
       </c>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22" t="n">
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18034,60 +18054,59 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22" t="n">
+      <c r="A103" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="24" t="n">
+      <c r="C103" s="1" t="n">
         <v>0.473</v>
       </c>
-      <c r="D103" s="25" t="n">
+      <c r="D103" s="2" t="n">
         <v>87635</v>
       </c>
-      <c r="E103" s="25" t="n">
+      <c r="E103" s="2" t="n">
         <v>37941</v>
       </c>
-      <c r="F103" s="24" t="n">
+      <c r="F103" s="1" t="n">
         <f aca="false">E103/D103</f>
         <v>0.432943458663776</v>
       </c>
-      <c r="G103" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H103" s="25" t="n">
+      <c r="G103" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H103" s="2" t="n">
         <f aca="false">(G103-E103)/F103</f>
         <v>11685.1286207533</v>
       </c>
-      <c r="I103" s="25" t="n">
+      <c r="I103" s="2" t="n">
         <f aca="false">E103*M103/G103</f>
         <v>12779.9405581395</v>
       </c>
-      <c r="J103" s="25" t="n">
+      <c r="J103" s="2" t="n">
         <f aca="false">I103-M103</f>
         <v>-1704.05944186047</v>
       </c>
-      <c r="K103" s="22" t="n">
+      <c r="K103" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="L103" s="22" t="s">
+      <c r="L103" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="M103" s="25" t="n">
+      <c r="M103" s="2" t="n">
         <v>14484</v>
       </c>
-      <c r="N103" s="25" t="n">
+      <c r="N103" s="2" t="n">
         <v>87635</v>
       </c>
-      <c r="O103" s="25" t="n">
+      <c r="O103" s="2" t="n">
         <v>2450</v>
       </c>
-      <c r="P103" s="25" t="n">
+      <c r="P103" s="2" t="n">
         <v>1269309566</v>
       </c>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22" t="n">
+      <c r="R103" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18207,60 +18226,59 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="22" t="n">
+      <c r="A106" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="24" t="n">
+      <c r="C106" s="1" t="n">
         <v>0.456</v>
       </c>
-      <c r="D106" s="25" t="n">
+      <c r="D106" s="2" t="n">
         <v>104560</v>
       </c>
-      <c r="E106" s="25" t="n">
+      <c r="E106" s="2" t="n">
         <v>39369</v>
       </c>
-      <c r="F106" s="24" t="n">
+      <c r="F106" s="1" t="n">
         <f aca="false">E106/D106</f>
         <v>0.376520657995409</v>
       </c>
-      <c r="G106" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H106" s="25" t="n">
+      <c r="G106" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H106" s="2" t="n">
         <f aca="false">(G106-E106)/F106</f>
         <v>9643.56117757627</v>
       </c>
-      <c r="I106" s="25" t="n">
+      <c r="I106" s="2" t="n">
         <f aca="false">E106*M106/G106</f>
         <v>21267.5000232558</v>
       </c>
-      <c r="J106" s="25" t="n">
+      <c r="J106" s="2" t="n">
         <f aca="false">I106-M106</f>
         <v>-1961.49997674419</v>
       </c>
-      <c r="K106" s="22" t="n">
+      <c r="K106" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="L106" s="22" t="s">
+      <c r="L106" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="M106" s="25" t="n">
+      <c r="M106" s="2" t="n">
         <v>23229</v>
       </c>
-      <c r="N106" s="25" t="n">
+      <c r="N106" s="2" t="n">
         <v>104560</v>
       </c>
-      <c r="O106" s="25" t="n">
+      <c r="O106" s="2" t="n">
         <v>2833</v>
       </c>
-      <c r="P106" s="25" t="n">
+      <c r="P106" s="2" t="n">
         <v>2428824781</v>
       </c>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22" t="n">
+      <c r="R106" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18322,117 +18340,117 @@
       </c>
     </row>
     <row r="108" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22" t="n">
+      <c r="A108" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="24" t="n">
+      <c r="C108" s="1" t="n">
         <v>0.402</v>
       </c>
-      <c r="D108" s="25" t="n">
+      <c r="D108" s="2" t="n">
         <v>128104</v>
       </c>
-      <c r="E108" s="25" t="n">
+      <c r="E108" s="2" t="n">
         <v>44660</v>
       </c>
-      <c r="F108" s="24" t="n">
+      <c r="F108" s="1" t="n">
         <f aca="false">E108/D108</f>
         <v>0.348622993817523</v>
       </c>
-      <c r="G108" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H108" s="25" t="n">
+      <c r="G108" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H108" s="2" t="n">
         <f aca="false">(G108-E108)/F108</f>
         <v>-4761.59068517689</v>
       </c>
-      <c r="I108" s="25" t="n">
+      <c r="I108" s="2" t="n">
         <f aca="false">E108*M108/G108</f>
         <v>10811.8744186047</v>
       </c>
-      <c r="J108" s="25" t="n">
+      <c r="J108" s="2" t="n">
         <f aca="false">I108-M108</f>
         <v>401.874418604652</v>
       </c>
-      <c r="K108" s="22" t="n">
+      <c r="K108" s="0" t="n">
         <v>329</v>
       </c>
-      <c r="L108" s="22" t="s">
+      <c r="L108" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M108" s="25" t="n">
+      <c r="M108" s="2" t="n">
         <v>10410</v>
       </c>
-      <c r="N108" s="25" t="n">
+      <c r="N108" s="2" t="n">
         <v>128104</v>
       </c>
-      <c r="O108" s="25" t="n">
+      <c r="O108" s="2" t="n">
         <v>2691</v>
       </c>
-      <c r="P108" s="25" t="n">
+      <c r="P108" s="2" t="n">
         <v>1333565629</v>
       </c>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22" t="n">
+      <c r="Q108" s="0"/>
+      <c r="R108" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="109" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22" t="n">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="24" t="n">
+      <c r="C109" s="1" t="n">
         <v>0.405</v>
       </c>
-      <c r="D109" s="25" t="n">
+      <c r="D109" s="2" t="n">
         <v>98414</v>
       </c>
-      <c r="E109" s="25" t="n">
+      <c r="E109" s="2" t="n">
         <v>44305</v>
       </c>
-      <c r="F109" s="24" t="n">
+      <c r="F109" s="1" t="n">
         <f aca="false">E109/D109</f>
         <v>0.450190013615949</v>
       </c>
-      <c r="G109" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H109" s="25" t="n">
+      <c r="G109" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H109" s="2" t="n">
         <f aca="false">(G109-E109)/F109</f>
         <v>-2898.77598465185</v>
       </c>
-      <c r="I109" s="25" t="n">
+      <c r="I109" s="2" t="n">
         <f aca="false">E109*M109/G109</f>
         <v>9831.58860465116</v>
       </c>
-      <c r="J109" s="25" t="n">
+      <c r="J109" s="2" t="n">
         <f aca="false">I109-M109</f>
         <v>289.588604651162</v>
       </c>
-      <c r="K109" s="22" t="n">
+      <c r="K109" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="L109" s="22" t="s">
+      <c r="L109" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="M109" s="25" t="n">
+      <c r="M109" s="2" t="n">
         <v>9542</v>
       </c>
-      <c r="N109" s="25" t="n">
+      <c r="N109" s="2" t="n">
         <v>98414</v>
       </c>
-      <c r="O109" s="25" t="n">
+      <c r="O109" s="2" t="n">
         <v>2577</v>
       </c>
-      <c r="P109" s="25" t="n">
+      <c r="P109" s="2" t="n">
         <v>939067735</v>
       </c>
-      <c r="R109" s="22" t="n">
+      <c r="R109" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -18552,118 +18570,117 @@
       </c>
     </row>
     <row r="112" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="22" t="n">
+      <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="24" t="n">
+      <c r="C112" s="1" t="n">
         <v>0.628</v>
       </c>
-      <c r="D112" s="25" t="n">
+      <c r="D112" s="2" t="n">
         <v>84854</v>
       </c>
-      <c r="E112" s="25" t="n">
+      <c r="E112" s="2" t="n">
         <v>42314</v>
       </c>
-      <c r="F112" s="24" t="n">
+      <c r="F112" s="1" t="n">
         <f aca="false">E112/D112</f>
         <v>0.498668300846159</v>
       </c>
-      <c r="G112" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H112" s="25" t="n">
+      <c r="G112" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H112" s="2" t="n">
         <f aca="false">(G112-E112)/F112</f>
         <v>1375.66394101243</v>
       </c>
-      <c r="I112" s="25" t="n">
+      <c r="I112" s="2" t="n">
         <f aca="false">E112*M112/G112</f>
         <v>13517.8469302326</v>
       </c>
-      <c r="J112" s="25" t="n">
+      <c r="J112" s="2" t="n">
         <f aca="false">I112-M112</f>
         <v>-219.153069767442</v>
       </c>
-      <c r="K112" s="22" t="n">
+      <c r="K112" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="L112" s="22" t="s">
+      <c r="L112" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="M112" s="25" t="n">
+      <c r="M112" s="2" t="n">
         <v>13737</v>
       </c>
-      <c r="N112" s="25" t="n">
+      <c r="N112" s="2" t="n">
         <v>84854</v>
       </c>
-      <c r="O112" s="25" t="n">
+      <c r="O112" s="2" t="n">
         <v>3126</v>
       </c>
-      <c r="P112" s="25" t="n">
+      <c r="P112" s="2" t="n">
         <v>1165643785</v>
       </c>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22" t="n">
+      <c r="Q112" s="0"/>
+      <c r="R112" s="0" t="n">
         <v>20220919</v>
       </c>
     </row>
-    <row r="113" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="20" t="n">
+    <row r="113" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="23" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D113" s="6" t="n">
+      <c r="D113" s="25" t="n">
         <v>97170</v>
       </c>
-      <c r="E113" s="6" t="n">
+      <c r="E113" s="25" t="n">
         <v>42166</v>
       </c>
-      <c r="F113" s="5" t="n">
+      <c r="F113" s="24" t="n">
         <f aca="false">E113/D113</f>
         <v>0.433940516620356</v>
       </c>
-      <c r="G113" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H113" s="6" t="n">
+      <c r="G113" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H113" s="25" t="n">
         <f aca="false">(G113-E113)/F113</f>
         <v>1921.92240193521</v>
       </c>
-      <c r="I113" s="6" t="n">
+      <c r="I113" s="25" t="n">
         <f aca="false">E113*M113/G113</f>
         <v>20626.0382325581</v>
       </c>
-      <c r="J113" s="6" t="n">
+      <c r="J113" s="25" t="n">
         <f aca="false">I113-M113</f>
         <v>-407.961767441859</v>
       </c>
-      <c r="K113" s="20" t="n">
+      <c r="K113" s="23" t="n">
         <v>338</v>
       </c>
-      <c r="L113" s="20" t="s">
+      <c r="L113" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="M113" s="6" t="n">
+      <c r="M113" s="25" t="n">
         <v>21034</v>
       </c>
-      <c r="N113" s="6" t="n">
+      <c r="N113" s="25" t="n">
         <v>97170</v>
       </c>
-      <c r="O113" s="6" t="n">
+      <c r="O113" s="25" t="n">
         <v>2876</v>
       </c>
-      <c r="P113" s="6" t="n">
+      <c r="P113" s="25" t="n">
         <v>2043883557</v>
       </c>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20" t="n">
+      <c r="R113" s="23" t="n">
         <v>20220923</v>
       </c>
     </row>
@@ -18724,177 +18741,174 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="115" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="20" t="n">
+    <row r="115" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="23" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="5" t="n">
+      <c r="C115" s="24" t="n">
         <v>0.987</v>
       </c>
-      <c r="D115" s="6" t="n">
+      <c r="D115" s="25" t="n">
         <v>99320</v>
       </c>
-      <c r="E115" s="6" t="n">
+      <c r="E115" s="25" t="n">
         <v>42727</v>
       </c>
-      <c r="F115" s="5" t="n">
+      <c r="F115" s="24" t="n">
         <f aca="false">E115/D115</f>
         <v>0.430195328231977</v>
       </c>
-      <c r="G115" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H115" s="6" t="n">
+      <c r="G115" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H115" s="25" t="n">
         <f aca="false">(G115-E115)/F115</f>
         <v>634.595454864606</v>
       </c>
-      <c r="I115" s="6" t="n">
+      <c r="I115" s="25" t="n">
         <f aca="false">E115*M115/G115</f>
         <v>12698.8618604651</v>
       </c>
-      <c r="J115" s="6" t="n">
+      <c r="J115" s="25" t="n">
         <f aca="false">I115-M115</f>
         <v>-81.1381395348835</v>
       </c>
-      <c r="K115" s="20" t="n">
+      <c r="K115" s="23" t="n">
         <v>344</v>
       </c>
-      <c r="L115" s="20" t="s">
+      <c r="L115" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="M115" s="6" t="n">
+      <c r="M115" s="25" t="n">
         <v>12780</v>
       </c>
-      <c r="N115" s="6" t="n">
+      <c r="N115" s="25" t="n">
         <v>99320</v>
       </c>
-      <c r="O115" s="6" t="n">
+      <c r="O115" s="25" t="n">
         <v>2641</v>
       </c>
-      <c r="P115" s="6" t="n">
+      <c r="P115" s="25" t="n">
         <v>1269309566</v>
       </c>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20" t="n">
+      <c r="R115" s="23" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="116" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="20" t="n">
+    <row r="116" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="23" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="5" t="n">
+      <c r="C116" s="24" t="n">
         <v>0.915</v>
       </c>
-      <c r="D116" s="6" t="n">
+      <c r="D116" s="25" t="n">
         <v>114201</v>
       </c>
-      <c r="E116" s="6" t="n">
+      <c r="E116" s="25" t="n">
         <v>46103</v>
       </c>
-      <c r="F116" s="5" t="n">
+      <c r="F116" s="24" t="n">
         <f aca="false">E116/D116</f>
         <v>0.403700492990429</v>
       </c>
-      <c r="G116" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H116" s="6" t="n">
+      <c r="G116" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H116" s="25" t="n">
         <f aca="false">(G116-E116)/F116</f>
         <v>-7686.39140619916</v>
       </c>
-      <c r="I116" s="6" t="n">
+      <c r="I116" s="25" t="n">
         <f aca="false">E116*M116/G116</f>
         <v>22802.7582325581</v>
       </c>
-      <c r="J116" s="6" t="n">
+      <c r="J116" s="25" t="n">
         <f aca="false">I116-M116</f>
         <v>1534.75823255814</v>
       </c>
-      <c r="K116" s="20" t="n">
+      <c r="K116" s="23" t="n">
         <v>345</v>
       </c>
-      <c r="L116" s="20" t="s">
+      <c r="L116" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="M116" s="6" t="n">
+      <c r="M116" s="25" t="n">
         <v>21268</v>
       </c>
-      <c r="N116" s="6" t="n">
+      <c r="N116" s="25" t="n">
         <v>114201</v>
       </c>
-      <c r="O116" s="6" t="n">
+      <c r="O116" s="25" t="n">
         <v>3141</v>
       </c>
-      <c r="P116" s="6" t="n">
+      <c r="P116" s="25" t="n">
         <v>2428824781</v>
       </c>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20" t="n">
+      <c r="R116" s="23" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="117" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20" t="n">
+    <row r="117" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="23" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C117" s="5" t="n">
+      <c r="C117" s="24" t="n">
         <v>0.968</v>
       </c>
-      <c r="D117" s="6" t="n">
+      <c r="D117" s="25" t="n">
         <v>123341</v>
       </c>
-      <c r="E117" s="6" t="n">
+      <c r="E117" s="25" t="n">
         <v>43568</v>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" s="24" t="n">
         <f aca="false">E117/D117</f>
         <v>0.353232096383198</v>
       </c>
-      <c r="G117" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H117" s="6" t="n">
+      <c r="G117" s="25" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H117" s="25" t="n">
         <f aca="false">(G117-E117)/F117</f>
         <v>-1608.00789570327</v>
       </c>
-      <c r="I117" s="6" t="n">
+      <c r="I117" s="25" t="n">
         <f aca="false">E117*M117/G117</f>
         <v>10954.8189767442</v>
       </c>
-      <c r="J117" s="6" t="n">
+      <c r="J117" s="25" t="n">
         <f aca="false">I117-M117</f>
         <v>142.818976744185</v>
       </c>
-      <c r="K117" s="20" t="n">
+      <c r="K117" s="23" t="n">
         <v>341</v>
       </c>
-      <c r="L117" s="20" t="s">
+      <c r="L117" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="M117" s="6" t="n">
+      <c r="M117" s="25" t="n">
         <v>10812</v>
       </c>
-      <c r="N117" s="6" t="n">
+      <c r="N117" s="25" t="n">
         <v>123341</v>
       </c>
-      <c r="O117" s="6" t="n">
+      <c r="O117" s="25" t="n">
         <v>2633</v>
       </c>
-      <c r="P117" s="6" t="n">
+      <c r="P117" s="25" t="n">
         <v>1333565629</v>
       </c>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20" t="n">
+      <c r="R117" s="23" t="n">
         <v>20220923</v>
       </c>
     </row>
@@ -19011,6 +19025,234 @@
       <c r="Q119" s="19"/>
       <c r="R119" s="19" t="n">
         <v>20220923</v>
+      </c>
+    </row>
+    <row r="120" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="19" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="8" t="n">
+        <v>99093</v>
+      </c>
+      <c r="E120" s="8" t="n">
+        <v>42839</v>
+      </c>
+      <c r="F120" s="10" t="n">
+        <f aca="false">E120/D120</f>
+        <v>0.432311061326229</v>
+      </c>
+      <c r="G120" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H120" s="8" t="n">
+        <f aca="false">(G120-E120)/F120</f>
+        <v>372.417026541236</v>
+      </c>
+      <c r="I120" s="8" t="n">
+        <f aca="false">E120*M120/G120</f>
+        <v>20548.7724186047</v>
+      </c>
+      <c r="J120" s="8" t="n">
+        <f aca="false">I120-M120</f>
+        <v>-77.2275813953493</v>
+      </c>
+      <c r="K120" s="19" t="n">
+        <v>346</v>
+      </c>
+      <c r="L120" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="M120" s="8" t="n">
+        <v>20626</v>
+      </c>
+      <c r="N120" s="8" t="n">
+        <v>99093</v>
+      </c>
+      <c r="O120" s="8" t="n">
+        <v>2911</v>
+      </c>
+      <c r="P120" s="8" t="n">
+        <v>2043883557</v>
+      </c>
+      <c r="R120" s="19" t="n">
+        <v>20220927</v>
+      </c>
+    </row>
+    <row r="121" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="19" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="10" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D121" s="8" t="n">
+        <v>99954</v>
+      </c>
+      <c r="E121" s="8" t="n">
+        <v>42971</v>
+      </c>
+      <c r="F121" s="10" t="n">
+        <f aca="false">E121/D121</f>
+        <v>0.429907757568482</v>
+      </c>
+      <c r="G121" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H121" s="8" t="n">
+        <f aca="false">(G121-E121)/F121</f>
+        <v>67.4563310139396</v>
+      </c>
+      <c r="I121" s="8" t="n">
+        <f aca="false">E121*M121/G121</f>
+        <v>12690.4355581395</v>
+      </c>
+      <c r="J121" s="8" t="n">
+        <f aca="false">I121-M121</f>
+        <v>-8.56444186046429</v>
+      </c>
+      <c r="K121" s="19" t="n">
+        <v>348</v>
+      </c>
+      <c r="L121" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="M121" s="8" t="n">
+        <v>12699</v>
+      </c>
+      <c r="N121" s="8" t="n">
+        <v>99954</v>
+      </c>
+      <c r="O121" s="8" t="n">
+        <v>2653</v>
+      </c>
+      <c r="P121" s="8" t="n">
+        <v>1269309566</v>
+      </c>
+      <c r="R121" s="19" t="n">
+        <v>20220927</v>
+      </c>
+    </row>
+    <row r="122" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="20" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>106513</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>44087</v>
+      </c>
+      <c r="F122" s="5" t="n">
+        <f aca="false">E122/D122</f>
+        <v>0.41391191685522</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H122" s="6" t="n">
+        <f aca="false">(G122-E122)/F122</f>
+        <v>-2626.16261029328</v>
+      </c>
+      <c r="I122" s="6" t="n">
+        <f aca="false">E122*M122/G122</f>
+        <v>23379.438627907</v>
+      </c>
+      <c r="J122" s="6" t="n">
+        <f aca="false">I122-M122</f>
+        <v>576.438627906977</v>
+      </c>
+      <c r="K122" s="20" t="n">
+        <v>349</v>
+      </c>
+      <c r="L122" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="M122" s="6" t="n">
+        <v>22803</v>
+      </c>
+      <c r="N122" s="6" t="n">
+        <v>106513</v>
+      </c>
+      <c r="O122" s="6" t="n">
+        <v>3055</v>
+      </c>
+      <c r="P122" s="6" t="n">
+        <v>2428824781</v>
+      </c>
+      <c r="R122" s="20" t="n">
+        <v>20220927</v>
+      </c>
+    </row>
+    <row r="123" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D123" s="8" t="n">
+        <v>121731</v>
+      </c>
+      <c r="E123" s="8" t="n">
+        <v>43070</v>
+      </c>
+      <c r="F123" s="10" t="n">
+        <f aca="false">E123/D123</f>
+        <v>0.353812915362562</v>
+      </c>
+      <c r="G123" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H123" s="8" t="n">
+        <f aca="false">(G123-E123)/F123</f>
+        <v>-197.844671465057</v>
+      </c>
+      <c r="I123" s="8" t="n">
+        <f aca="false">E123*M123/G123</f>
+        <v>10972.8337209302</v>
+      </c>
+      <c r="J123" s="8" t="n">
+        <f aca="false">I123-M123</f>
+        <v>17.8337209302317</v>
+      </c>
+      <c r="K123" s="19" t="n">
+        <v>347</v>
+      </c>
+      <c r="L123" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="M123" s="8" t="n">
+        <v>10955</v>
+      </c>
+      <c r="N123" s="8" t="n">
+        <v>121731</v>
+      </c>
+      <c r="O123" s="8" t="n">
+        <v>2619</v>
+      </c>
+      <c r="P123" s="8" t="n">
+        <v>1333565629</v>
+      </c>
+      <c r="R123" s="19" t="n">
+        <v>20220927</v>
       </c>
     </row>
   </sheetData>
@@ -19020,17 +19262,17 @@
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F1 F3:F119">
+  <conditionalFormatting sqref="F2:G2 F1 F3:F123">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H119">
+  <conditionalFormatting sqref="H1:H123">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J119">
+  <conditionalFormatting sqref="J1:J123">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -19064,7 +19306,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -19104,7 +19346,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -19865,7 +20107,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -19904,7 +20146,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20665,7 +20907,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -20705,7 +20947,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20723,7 +20965,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20783,7 +21025,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20843,7 +21085,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20903,7 +21145,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20963,7 +21205,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21023,7 +21265,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21083,7 +21325,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21143,7 +21385,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21203,7 +21445,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21263,7 +21505,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21323,7 +21565,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21383,7 +21625,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21443,7 +21685,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21503,7 +21745,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21511,7 +21753,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -21545,7 +21787,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -21560,10 +21802,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21571,7 +21813,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -21605,7 +21847,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -21620,10 +21862,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21631,7 +21873,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -21665,7 +21907,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -21680,10 +21922,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21691,7 +21933,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -21725,7 +21967,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -21740,10 +21982,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21751,7 +21993,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -21785,7 +22027,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -21800,10 +22042,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21811,7 +22053,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -21845,7 +22087,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -21860,10 +22102,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21871,7 +22113,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -21905,7 +22147,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -21920,10 +22162,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21931,7 +22173,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -21965,7 +22207,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -21980,10 +22222,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21991,7 +22233,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -22025,7 +22267,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -22040,10 +22282,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22051,7 +22293,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -22085,7 +22327,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -22100,10 +22342,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22111,7 +22353,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -22145,7 +22387,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -22160,10 +22402,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22171,7 +22413,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -22205,7 +22447,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -22220,10 +22462,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22231,7 +22473,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -22265,7 +22507,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -22280,10 +22522,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22291,7 +22533,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -22325,7 +22567,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -22340,10 +22582,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22351,7 +22593,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -22385,7 +22627,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -22400,10 +22642,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22411,7 +22653,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -22445,7 +22687,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -22460,10 +22702,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22471,7 +22713,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -22505,7 +22747,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -22520,10 +22762,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22531,7 +22773,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -22565,7 +22807,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -22580,10 +22822,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="Final" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Final_2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Combine" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Final_20" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$119</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="319">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -809,6 +810,9 @@
   </si>
   <si>
     <t xml:space="preserve">76662_V11_2_combine_force10955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine_force23379</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -1183,6 +1187,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1192,10 +1200,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1363,7 +1367,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4162,7 +4166,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7542,7 +7546,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12371,17 +12375,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ123"/>
+  <dimension ref="A1:AMJ124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
-      <selection pane="bottomRight" activeCell="L125" activeCellId="0" sqref="L125"/>
+      <selection pane="bottomRight" activeCell="I128" activeCellId="0" sqref="I128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -18627,60 +18631,60 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="113" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23" t="n">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="24" t="n">
+      <c r="C113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D113" s="25" t="n">
+      <c r="D113" s="2" t="n">
         <v>97170</v>
       </c>
-      <c r="E113" s="25" t="n">
+      <c r="E113" s="2" t="n">
         <v>42166</v>
       </c>
-      <c r="F113" s="24" t="n">
+      <c r="F113" s="1" t="n">
         <f aca="false">E113/D113</f>
         <v>0.433940516620356</v>
       </c>
-      <c r="G113" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H113" s="25" t="n">
+      <c r="G113" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H113" s="2" t="n">
         <f aca="false">(G113-E113)/F113</f>
         <v>1921.92240193521</v>
       </c>
-      <c r="I113" s="25" t="n">
+      <c r="I113" s="2" t="n">
         <f aca="false">E113*M113/G113</f>
         <v>20626.0382325581</v>
       </c>
-      <c r="J113" s="25" t="n">
+      <c r="J113" s="2" t="n">
         <f aca="false">I113-M113</f>
         <v>-407.961767441859</v>
       </c>
-      <c r="K113" s="23" t="n">
+      <c r="K113" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="L113" s="23" t="s">
+      <c r="L113" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="M113" s="25" t="n">
+      <c r="M113" s="2" t="n">
         <v>21034</v>
       </c>
-      <c r="N113" s="25" t="n">
+      <c r="N113" s="2" t="n">
         <v>97170</v>
       </c>
-      <c r="O113" s="25" t="n">
+      <c r="O113" s="2" t="n">
         <v>2876</v>
       </c>
-      <c r="P113" s="25" t="n">
+      <c r="P113" s="2" t="n">
         <v>2043883557</v>
       </c>
-      <c r="R113" s="23" t="n">
+      <c r="R113" s="0" t="n">
         <v>20220923</v>
       </c>
     </row>
@@ -18741,174 +18745,174 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="115" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23" t="n">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="24" t="n">
+      <c r="C115" s="1" t="n">
         <v>0.987</v>
       </c>
-      <c r="D115" s="25" t="n">
+      <c r="D115" s="2" t="n">
         <v>99320</v>
       </c>
-      <c r="E115" s="25" t="n">
+      <c r="E115" s="2" t="n">
         <v>42727</v>
       </c>
-      <c r="F115" s="24" t="n">
+      <c r="F115" s="1" t="n">
         <f aca="false">E115/D115</f>
         <v>0.430195328231977</v>
       </c>
-      <c r="G115" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H115" s="25" t="n">
+      <c r="G115" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H115" s="2" t="n">
         <f aca="false">(G115-E115)/F115</f>
         <v>634.595454864606</v>
       </c>
-      <c r="I115" s="25" t="n">
+      <c r="I115" s="2" t="n">
         <f aca="false">E115*M115/G115</f>
         <v>12698.8618604651</v>
       </c>
-      <c r="J115" s="25" t="n">
+      <c r="J115" s="2" t="n">
         <f aca="false">I115-M115</f>
         <v>-81.1381395348835</v>
       </c>
-      <c r="K115" s="23" t="n">
+      <c r="K115" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="L115" s="23" t="s">
+      <c r="L115" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="M115" s="25" t="n">
+      <c r="M115" s="2" t="n">
         <v>12780</v>
       </c>
-      <c r="N115" s="25" t="n">
+      <c r="N115" s="2" t="n">
         <v>99320</v>
       </c>
-      <c r="O115" s="25" t="n">
+      <c r="O115" s="2" t="n">
         <v>2641</v>
       </c>
-      <c r="P115" s="25" t="n">
+      <c r="P115" s="2" t="n">
         <v>1269309566</v>
       </c>
-      <c r="R115" s="23" t="n">
+      <c r="R115" s="0" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="116" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="23" t="n">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="24" t="n">
+      <c r="C116" s="1" t="n">
         <v>0.915</v>
       </c>
-      <c r="D116" s="25" t="n">
+      <c r="D116" s="2" t="n">
         <v>114201</v>
       </c>
-      <c r="E116" s="25" t="n">
+      <c r="E116" s="2" t="n">
         <v>46103</v>
       </c>
-      <c r="F116" s="24" t="n">
+      <c r="F116" s="1" t="n">
         <f aca="false">E116/D116</f>
         <v>0.403700492990429</v>
       </c>
-      <c r="G116" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H116" s="25" t="n">
+      <c r="G116" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H116" s="2" t="n">
         <f aca="false">(G116-E116)/F116</f>
         <v>-7686.39140619916</v>
       </c>
-      <c r="I116" s="25" t="n">
+      <c r="I116" s="2" t="n">
         <f aca="false">E116*M116/G116</f>
         <v>22802.7582325581</v>
       </c>
-      <c r="J116" s="25" t="n">
+      <c r="J116" s="2" t="n">
         <f aca="false">I116-M116</f>
         <v>1534.75823255814</v>
       </c>
-      <c r="K116" s="23" t="n">
+      <c r="K116" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="L116" s="23" t="s">
+      <c r="L116" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="M116" s="25" t="n">
+      <c r="M116" s="2" t="n">
         <v>21268</v>
       </c>
-      <c r="N116" s="25" t="n">
+      <c r="N116" s="2" t="n">
         <v>114201</v>
       </c>
-      <c r="O116" s="25" t="n">
+      <c r="O116" s="2" t="n">
         <v>3141</v>
       </c>
-      <c r="P116" s="25" t="n">
+      <c r="P116" s="2" t="n">
         <v>2428824781</v>
       </c>
-      <c r="R116" s="23" t="n">
+      <c r="R116" s="0" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="117" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23" t="n">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C117" s="24" t="n">
+      <c r="C117" s="1" t="n">
         <v>0.968</v>
       </c>
-      <c r="D117" s="25" t="n">
+      <c r="D117" s="2" t="n">
         <v>123341</v>
       </c>
-      <c r="E117" s="25" t="n">
+      <c r="E117" s="2" t="n">
         <v>43568</v>
       </c>
-      <c r="F117" s="24" t="n">
+      <c r="F117" s="1" t="n">
         <f aca="false">E117/D117</f>
         <v>0.353232096383198</v>
       </c>
-      <c r="G117" s="25" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H117" s="25" t="n">
+      <c r="G117" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H117" s="2" t="n">
         <f aca="false">(G117-E117)/F117</f>
         <v>-1608.00789570327</v>
       </c>
-      <c r="I117" s="25" t="n">
+      <c r="I117" s="2" t="n">
         <f aca="false">E117*M117/G117</f>
         <v>10954.8189767442</v>
       </c>
-      <c r="J117" s="25" t="n">
+      <c r="J117" s="2" t="n">
         <f aca="false">I117-M117</f>
         <v>142.818976744185</v>
       </c>
-      <c r="K117" s="23" t="n">
+      <c r="K117" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="L117" s="23" t="s">
+      <c r="L117" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="M117" s="25" t="n">
+      <c r="M117" s="2" t="n">
         <v>10812</v>
       </c>
-      <c r="N117" s="25" t="n">
+      <c r="N117" s="2" t="n">
         <v>123341</v>
       </c>
-      <c r="O117" s="25" t="n">
+      <c r="O117" s="2" t="n">
         <v>2633</v>
       </c>
-      <c r="P117" s="25" t="n">
+      <c r="P117" s="2" t="n">
         <v>1333565629</v>
       </c>
-      <c r="R117" s="23" t="n">
+      <c r="R117" s="0" t="n">
         <v>20220923</v>
       </c>
     </row>
@@ -18969,7 +18973,7 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="119" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
         <v>118</v>
       </c>
@@ -19141,60 +19145,60 @@
         <v>20220927</v>
       </c>
     </row>
-    <row r="122" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="20" t="n">
+    <row r="122" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="24" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="5" t="n">
+      <c r="C122" s="25" t="n">
         <v>0.972</v>
       </c>
-      <c r="D122" s="6" t="n">
+      <c r="D122" s="26" t="n">
         <v>106513</v>
       </c>
-      <c r="E122" s="6" t="n">
+      <c r="E122" s="26" t="n">
         <v>44087</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="25" t="n">
         <f aca="false">E122/D122</f>
         <v>0.41391191685522</v>
       </c>
-      <c r="G122" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H122" s="6" t="n">
+      <c r="G122" s="26" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H122" s="26" t="n">
         <f aca="false">(G122-E122)/F122</f>
         <v>-2626.16261029328</v>
       </c>
-      <c r="I122" s="6" t="n">
+      <c r="I122" s="26" t="n">
         <f aca="false">E122*M122/G122</f>
         <v>23379.438627907</v>
       </c>
-      <c r="J122" s="6" t="n">
+      <c r="J122" s="26" t="n">
         <f aca="false">I122-M122</f>
         <v>576.438627906977</v>
       </c>
-      <c r="K122" s="20" t="n">
+      <c r="K122" s="24" t="n">
         <v>349</v>
       </c>
-      <c r="L122" s="20" t="s">
+      <c r="L122" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="M122" s="6" t="n">
+      <c r="M122" s="26" t="n">
         <v>22803</v>
       </c>
-      <c r="N122" s="6" t="n">
+      <c r="N122" s="26" t="n">
         <v>106513</v>
       </c>
-      <c r="O122" s="6" t="n">
+      <c r="O122" s="26" t="n">
         <v>3055</v>
       </c>
-      <c r="P122" s="6" t="n">
+      <c r="P122" s="26" t="n">
         <v>2428824781</v>
       </c>
-      <c r="R122" s="20" t="n">
+      <c r="R122" s="24" t="n">
         <v>20220927</v>
       </c>
     </row>
@@ -19252,6 +19256,63 @@
         <v>1333565629</v>
       </c>
       <c r="R123" s="19" t="n">
+        <v>20220927</v>
+      </c>
+    </row>
+    <row r="124" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="19" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="10" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D124" s="8" t="n">
+        <v>103889</v>
+      </c>
+      <c r="E124" s="8" t="n">
+        <v>43380</v>
+      </c>
+      <c r="F124" s="10" t="n">
+        <f aca="false">E124/D124</f>
+        <v>0.417561050736844</v>
+      </c>
+      <c r="G124" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H124" s="8" t="n">
+        <f aca="false">(G124-E124)/F124</f>
+        <v>-910.046565237437</v>
+      </c>
+      <c r="I124" s="8" t="n">
+        <f aca="false">E124*M124/G124</f>
+        <v>23585.6051162791</v>
+      </c>
+      <c r="J124" s="8" t="n">
+        <f aca="false">I124-M124</f>
+        <v>206.605116279068</v>
+      </c>
+      <c r="K124" s="19" t="n">
+        <v>350</v>
+      </c>
+      <c r="L124" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="M124" s="8" t="n">
+        <v>23379</v>
+      </c>
+      <c r="N124" s="8" t="n">
+        <v>103889</v>
+      </c>
+      <c r="O124" s="8" t="n">
+        <v>3028</v>
+      </c>
+      <c r="P124" s="8" t="n">
+        <v>2428824781</v>
+      </c>
+      <c r="R124" s="19" t="n">
         <v>20220927</v>
       </c>
     </row>
@@ -19262,17 +19323,17 @@
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F1 F3:F123">
+  <conditionalFormatting sqref="F2:G2 F1 F3:F123 F124:G124">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H123">
+  <conditionalFormatting sqref="H1:H124">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J123">
+  <conditionalFormatting sqref="J1:J124">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -19306,7 +19367,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -19346,7 +19407,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20107,7 +20168,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -20146,7 +20207,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20907,7 +20968,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -20947,7 +21008,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20965,7 +21026,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21025,7 +21086,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21085,7 +21146,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21145,7 +21206,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21205,7 +21266,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21265,7 +21326,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21325,7 +21386,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21385,7 +21446,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21445,7 +21506,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21505,7 +21566,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21565,7 +21626,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21625,7 +21686,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21685,7 +21746,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21745,7 +21806,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21753,7 +21814,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -21787,7 +21848,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -21802,10 +21863,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21813,7 +21874,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -21847,7 +21908,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -21862,10 +21923,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21873,7 +21934,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -21907,7 +21968,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -21922,10 +21983,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21933,7 +21994,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -21967,7 +22028,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -21982,10 +22043,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21993,7 +22054,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -22027,7 +22088,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -22042,10 +22103,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22053,7 +22114,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -22087,7 +22148,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -22102,10 +22163,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22113,7 +22174,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -22147,7 +22208,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -22162,10 +22223,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22173,7 +22234,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -22207,7 +22268,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -22222,10 +22283,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22233,7 +22294,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -22267,7 +22328,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -22282,10 +22343,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22293,7 +22354,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -22327,7 +22388,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -22342,10 +22403,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22353,7 +22414,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -22387,7 +22448,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -22402,10 +22463,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22413,7 +22474,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -22447,7 +22508,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -22462,10 +22523,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22473,7 +22534,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -22507,7 +22568,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -22522,10 +22583,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22533,7 +22594,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -22567,7 +22628,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -22582,10 +22643,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22593,7 +22654,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -22627,7 +22688,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -22642,10 +22703,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22653,7 +22714,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -22687,7 +22748,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -22702,10 +22763,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22713,7 +22774,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -22747,7 +22808,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -22762,10 +22823,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22773,7 +22834,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -22807,7 +22868,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -22822,10 +22883,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -22859,4 +22920,1188 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.04"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>77967</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>43123</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">E2/D2</f>
+        <v>0.553092975233111</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">(G2-E2)/F2</f>
+        <v>-222.385757020615</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">E2*M2/G2</f>
+        <v>10769.7185348837</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">I2-M2</f>
+        <v>30.7185348837211</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>10739</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>77967</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>2116</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>837283164</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>92408</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.465403428274608</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">(G3-E3)/F3</f>
+        <v>-15.0407143023229</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">E3*M3/G3</f>
+        <v>6012.97869767442</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">I3-M3</f>
+        <v>0.978697674418982</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>6012</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>92408</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>555559035</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>80558</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>43051</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.534409990317535</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">(G4-E4)/F4</f>
+        <v>-95.4323476806578</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">E4*M4/G4</f>
+        <v>9732.52955813953</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">I4-M4</f>
+        <v>11.5295581395349</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>9721</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>80558</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>3928</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>783106269</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>99093</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>42839</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5/D5</f>
+        <v>0.432311061326229</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">(G5-E5)/F5</f>
+        <v>372.417026541236</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">E5*M5/G5</f>
+        <v>20548.7724186047</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">I5-M5</f>
+        <v>-77.2275813953493</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>20626</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>99093</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>2911</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>2043883557</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>74231</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">E6/D6</f>
+        <v>0.579367110775821</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">(G6-E6)/F6</f>
+        <v>-12.0821494175367</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">E6*M6/G6</f>
+        <v>9456.53918604651</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">I6-M6</f>
+        <v>1.53918604651153</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>74231</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>2844</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>701851123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>86984</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.494792145681964</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">(G7-E7)/F7</f>
+        <v>-78.8209763237993</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">E7*M7/G7</f>
+        <v>24390.1012093023</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">I7-M7</f>
+        <v>22.1012093023273</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>24368</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>86984</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>2656</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>2119632070</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>95753</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44275</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">E8/D8</f>
+        <v>0.462387601432853</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">(G8-E8)/F8</f>
+        <v>-2757.42687747036</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">E8*M8/G8</f>
+        <v>4087.71511627907</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">I8-M8</f>
+        <v>117.71511627907</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>95753</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>380140590</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>107577</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>43022</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.399918198127853</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">(G9-E9)/F9</f>
+        <v>-55.0112500581098</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">E9*M9/G9</f>
+        <v>14718.5265581395</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">I9-M9</f>
+        <v>7.52655813953425</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>14711</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>107577</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>2973</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>1582564131</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>81085</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>43038</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">E10/D10</f>
+        <v>0.530776345809952</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">(G10-E10)/F10</f>
+        <v>-71.5932431804452</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">E10*M10/G10</f>
+        <v>23591.8301860465</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">I10-M10</f>
+        <v>20.8301860465108</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>23571</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>81085</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>1911247544</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>101141</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>42993</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">E11/D11</f>
+        <v>0.425079839036592</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">(G11-E11)/F11</f>
+        <v>16.4674947084409</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">E11*M11/G11</f>
+        <v>14432.6501162791</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">I11-M11</f>
+        <v>-2.34988372092994</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>14435</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>101141</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>2781</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>1459966283</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>109470</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>43013</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">E12/D12</f>
+        <v>0.392920434822326</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">(G12-E12)/F12</f>
+        <v>-33.0855787785088</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">E12*M12/G12</f>
+        <v>13555.0968139535</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">I12-M12</f>
+        <v>4.09681395348889</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>13551</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>109470</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>2927</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>1483429680</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>91213</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>43150</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.473068531897865</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">(G13-E13)/F13</f>
+        <v>-317.078794901506</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">E13*M13/G13</f>
+        <v>23951.2604651163</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">I13-M13</f>
+        <v>83.2604651162801</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>23868</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>91213</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>2461</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>2177064134</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>93286</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14/D14</f>
+        <v>0.465482494693738</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">(G14-E14)/F14</f>
+        <v>-908.734495543836</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">E14*M14/G14</f>
+        <v>23212.1180930233</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">I14-M14</f>
+        <v>226.118093023255</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>22986</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>93286</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>2535</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>2144274722</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>99954</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>42971</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15/D15</f>
+        <v>0.429907757568482</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">(G15-E15)/F15</f>
+        <v>67.4563310139396</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">E15*M15/G15</f>
+        <v>12690.4355581395</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">I15-M15</f>
+        <v>-8.56444186046429</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>12699</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>99954</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>2653</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>1269309566</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>93029</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>43024</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16/D16</f>
+        <v>0.462479441894463</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">(G16-E16)/F16</f>
+        <v>-51.8941985868353</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">E16*M16/G16</f>
+        <v>17705.8768372093</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">I16-M16</f>
+        <v>9.87683720930363</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>17696</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>93029</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>1646232433</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>103889</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>43380</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17/D17</f>
+        <v>0.417561050736844</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">(G17-E17)/F17</f>
+        <v>-910.046565237437</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">E17*M17/G17</f>
+        <v>23585.6051162791</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">I17-M17</f>
+        <v>206.605116279068</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>23379</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>103889</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>3028</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>2428824781</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>83952</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18/D18</f>
+        <v>0.531089193825043</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">(G18-E18)/F18</f>
+        <v>-2986.31570448123</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <f aca="false">E18*M18/G18</f>
+        <v>15286.7766976744</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">I18-M18</f>
+        <v>543.776697674419</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>14743</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>83952</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>2126</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>1237706224</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>121731</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E19/D19</f>
+        <v>0.353812915362562</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">(G19-E19)/F19</f>
+        <v>-197.844671465057</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">E19*M19/G19</f>
+        <v>10972.8337209302</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">I19-M19</f>
+        <v>17.8337209302317</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>10955</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>121731</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>2619</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>1333565629</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>95511</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20/D20</f>
+        <v>0.451267393284543</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">(G20-E20)/F20</f>
+        <v>-223.814087840189</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">E20*M20/G20</f>
+        <v>9855.09376744186</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">I20-M20</f>
+        <v>23.0937674418601</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>9832</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>95511</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>2531</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>939067735</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>86229</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>43128</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E21/D21</f>
+        <v>0.500156559858052</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">(G21-E21)/F21</f>
+        <v>-255.919866444073</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">E21*M21/G21</f>
+        <v>13558.239627907</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">I21-M21</f>
+        <v>40.2396279069762</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>13518</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>86229</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>3160</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>1165643785</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F2:G21">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H21">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J21">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
     <sheet name="Final_20" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$119</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$127</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="325">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -813,6 +813,24 @@
   </si>
   <si>
     <t xml:space="preserve">76661_V11_2_combine_force23379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76647_V5_3rd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76647_V5_3_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_3_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76664_V11_1st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V11_1st</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -1028,7 +1046,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,7 +1074,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1094,7 +1118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1183,15 +1207,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="5" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1200,6 +1216,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,7 +1320,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1326,7 +1358,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -1367,7 +1399,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4166,7 +4198,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7546,7 +7578,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12375,17 +12407,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ124"/>
+  <dimension ref="A1:AMJ127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
-      <selection pane="bottomRight" activeCell="I128" activeCellId="0" sqref="I128"/>
+      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="H134" activeCellId="0" sqref="H134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -13174,59 +13206,60 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="23" t="n">
         <v>0.209</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="24" t="n">
         <v>40238</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="24" t="n">
         <v>17698</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="23" t="n">
         <f aca="false">E15/D15</f>
         <v>0.439832993687559</v>
       </c>
-      <c r="G15" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H15" s="14" t="n">
+      <c r="G15" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="24" t="n">
         <f aca="false">(G15-E15)/F15</f>
         <v>57526.3801559498</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="24" t="n">
         <f aca="false">E15*M15/G15</f>
         <v>9567.62111627907</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="24" t="n">
         <f aca="false">I15-M15</f>
         <v>-13678.3788837209</v>
       </c>
-      <c r="K15" s="12" t="n">
+      <c r="K15" s="22" t="n">
         <v>154</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="14" t="n">
+      <c r="M15" s="24" t="n">
         <v>23246</v>
       </c>
-      <c r="N15" s="14" t="n">
+      <c r="N15" s="24" t="n">
         <v>40238</v>
       </c>
-      <c r="O15" s="14" t="n">
+      <c r="O15" s="24" t="n">
         <v>2241</v>
       </c>
-      <c r="P15" s="14" t="n">
+      <c r="P15" s="24" t="n">
         <v>935376480</v>
       </c>
-      <c r="Q15" s="0"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -13662,7 +13695,7 @@
         <v>492998128</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -13700,7 +13733,7 @@
       <c r="K24" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="0" t="s">
         <v>117</v>
       </c>
       <c r="M24" s="2" t="n">
@@ -13715,6 +13748,8 @@
       <c r="P24" s="2" t="n">
         <v>829021637</v>
       </c>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -14540,58 +14575,60 @@
       </c>
     </row>
     <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="13" t="n">
+      <c r="C40" s="23" t="n">
         <v>0.132</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="24" t="n">
         <v>76420</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="24" t="n">
         <v>27955</v>
       </c>
-      <c r="F40" s="13" t="n">
+      <c r="F40" s="23" t="n">
         <f aca="false">E40/D40</f>
         <v>0.365807380266946</v>
       </c>
-      <c r="G40" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H40" s="14" t="n">
+      <c r="G40" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="24" t="n">
         <f aca="false">(G40-E40)/F40</f>
         <v>41128.2024682526</v>
       </c>
-      <c r="I40" s="14" t="n">
+      <c r="I40" s="24" t="n">
         <f aca="false">E40*M40/G40</f>
         <v>9537.85593023256</v>
       </c>
-      <c r="J40" s="14" t="n">
+      <c r="J40" s="24" t="n">
         <f aca="false">I40-M40</f>
         <v>-5133.14406976744</v>
       </c>
-      <c r="K40" s="12" t="n">
+      <c r="K40" s="22" t="n">
         <v>119</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="M40" s="14" t="n">
+      <c r="M40" s="24" t="n">
         <v>14671</v>
       </c>
-      <c r="N40" s="14" t="n">
+      <c r="N40" s="24" t="n">
         <v>76420</v>
       </c>
-      <c r="O40" s="14" t="n">
+      <c r="O40" s="24" t="n">
         <v>3137</v>
       </c>
-      <c r="P40" s="14" t="n">
+      <c r="P40" s="24" t="n">
         <v>1121158581</v>
       </c>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
@@ -15316,7 +15353,7 @@
         <v>694920731</v>
       </c>
     </row>
-    <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>53</v>
       </c>
@@ -15369,12 +15406,14 @@
       <c r="P54" s="2" t="n">
         <v>694920731</v>
       </c>
-      <c r="AMG54" s="0"/>
-      <c r="AMH54" s="0"/>
-      <c r="AMI54" s="0"/>
-      <c r="AMJ54" s="0"/>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="AMG54" s="20"/>
+      <c r="AMH54" s="20"/>
+      <c r="AMI54" s="20"/>
+      <c r="AMJ54" s="20"/>
+    </row>
+    <row r="55" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
@@ -15427,6 +15466,8 @@
       <c r="P55" s="2" t="n">
         <v>680068076</v>
       </c>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
@@ -15486,7 +15527,7 @@
         <v>201632668</v>
       </c>
     </row>
-    <row r="57" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
@@ -15540,6 +15581,7 @@
         <v>1295363390</v>
       </c>
       <c r="Q57" s="0"/>
+      <c r="R57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
@@ -15820,112 +15862,116 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="n">
+      <c r="A63" s="22" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="13" t="n">
+      <c r="C63" s="23" t="n">
         <v>0.154</v>
       </c>
-      <c r="D63" s="14" t="n">
+      <c r="D63" s="24" t="n">
         <v>52281</v>
       </c>
-      <c r="E63" s="14" t="n">
+      <c r="E63" s="24" t="n">
         <v>24035</v>
       </c>
-      <c r="F63" s="13" t="n">
+      <c r="F63" s="23" t="n">
         <f aca="false">E63/D63</f>
         <v>0.459727243166734</v>
       </c>
-      <c r="G63" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H63" s="14" t="n">
+      <c r="G63" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H63" s="24" t="n">
         <f aca="false">(G63-E63)/F63</f>
         <v>41252.7216559185</v>
       </c>
-      <c r="I63" s="14" t="n">
+      <c r="I63" s="24" t="n">
         <f aca="false">E63*M63/G63</f>
         <v>10861.5841860465</v>
       </c>
-      <c r="J63" s="14" t="n">
+      <c r="J63" s="24" t="n">
         <f aca="false">I63-M63</f>
         <v>-8570.41581395349</v>
       </c>
-      <c r="K63" s="12" t="n">
+      <c r="K63" s="22" t="n">
         <v>159</v>
       </c>
-      <c r="L63" s="12" t="s">
+      <c r="L63" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M63" s="14" t="n">
+      <c r="M63" s="24" t="n">
         <v>19432</v>
       </c>
-      <c r="N63" s="14" t="n">
+      <c r="N63" s="24" t="n">
         <v>52281</v>
       </c>
-      <c r="O63" s="14" t="n">
+      <c r="O63" s="24" t="n">
         <v>2400</v>
       </c>
-      <c r="P63" s="14" t="n">
+      <c r="P63" s="24" t="n">
         <v>1015928395</v>
       </c>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
     </row>
     <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="n">
+      <c r="A64" s="22" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="13" t="n">
+      <c r="C64" s="23" t="n">
         <v>0.219</v>
       </c>
-      <c r="D64" s="14" t="n">
+      <c r="D64" s="24" t="n">
         <v>39494</v>
       </c>
-      <c r="E64" s="14" t="n">
+      <c r="E64" s="24" t="n">
         <v>16906</v>
       </c>
-      <c r="F64" s="13" t="n">
+      <c r="F64" s="23" t="n">
         <f aca="false">E64/D64</f>
         <v>0.428065022535069</v>
       </c>
-      <c r="G64" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H64" s="14" t="n">
+      <c r="G64" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H64" s="24" t="n">
         <f aca="false">(G64-E64)/F64</f>
         <v>60958.0288654915</v>
       </c>
-      <c r="I64" s="14" t="n">
+      <c r="I64" s="24" t="n">
         <f aca="false">E64*M64/G64</f>
         <v>5073.76581395349</v>
       </c>
-      <c r="J64" s="14" t="n">
+      <c r="J64" s="24" t="n">
         <f aca="false">I64-M64</f>
         <v>-7831.23418604651</v>
       </c>
-      <c r="K64" s="12" t="n">
+      <c r="K64" s="22" t="n">
         <v>178</v>
       </c>
-      <c r="L64" s="12" t="s">
+      <c r="L64" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="M64" s="14" t="n">
+      <c r="M64" s="24" t="n">
         <v>12905</v>
       </c>
-      <c r="N64" s="14" t="n">
+      <c r="N64" s="24" t="n">
         <v>39494</v>
       </c>
-      <c r="O64" s="14" t="n">
+      <c r="O64" s="24" t="n">
         <v>2190</v>
       </c>
-      <c r="P64" s="14" t="n">
+      <c r="P64" s="24" t="n">
         <v>509668347</v>
       </c>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
@@ -16094,59 +16140,60 @@
       </c>
     </row>
     <row r="68" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="n">
+      <c r="A68" s="22" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="13" t="n">
+      <c r="C68" s="23" t="n">
         <v>0.348</v>
       </c>
-      <c r="D68" s="14" t="n">
+      <c r="D68" s="24" t="n">
         <v>30202</v>
       </c>
-      <c r="E68" s="14" t="n">
+      <c r="E68" s="24" t="n">
         <v>10616</v>
       </c>
-      <c r="F68" s="13" t="n">
+      <c r="F68" s="23" t="n">
         <f aca="false">E68/D68</f>
         <v>0.35149990066883</v>
       </c>
-      <c r="G68" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H68" s="14" t="n">
+      <c r="G68" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="24" t="n">
         <f aca="false">(G68-E68)/F68</f>
         <v>92130.8937452901</v>
       </c>
-      <c r="I68" s="14" t="n">
+      <c r="I68" s="24" t="n">
         <f aca="false">E68*M68/G68</f>
         <v>4480.44576744186</v>
       </c>
-      <c r="J68" s="14" t="n">
+      <c r="J68" s="24" t="n">
         <f aca="false">I68-M68</f>
         <v>-13667.5542325581</v>
       </c>
-      <c r="K68" s="12" t="n">
+      <c r="K68" s="22" t="n">
         <v>179</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="L68" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="M68" s="14" t="n">
+      <c r="M68" s="24" t="n">
         <v>18148</v>
       </c>
-      <c r="N68" s="14" t="n">
+      <c r="N68" s="24" t="n">
         <v>30202</v>
       </c>
-      <c r="O68" s="14" t="n">
+      <c r="O68" s="24" t="n">
         <v>2189</v>
       </c>
-      <c r="P68" s="14" t="n">
+      <c r="P68" s="24" t="n">
         <v>548108581</v>
       </c>
-      <c r="Q68" s="0"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -16311,166 +16358,172 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="n">
+      <c r="A72" s="22" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="13" t="n">
+      <c r="C72" s="23" t="n">
         <v>0.171</v>
       </c>
-      <c r="D72" s="14" t="n">
+      <c r="D72" s="24" t="n">
         <v>62740</v>
       </c>
-      <c r="E72" s="14" t="n">
+      <c r="E72" s="24" t="n">
         <v>21660</v>
       </c>
-      <c r="F72" s="13" t="n">
+      <c r="F72" s="23" t="n">
         <f aca="false">E72/D72</f>
         <v>0.345234300286898</v>
       </c>
-      <c r="G72" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H72" s="14" t="n">
+      <c r="G72" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H72" s="24" t="n">
         <f aca="false">(G72-E72)/F72</f>
         <v>61813.0932594644</v>
       </c>
-      <c r="I72" s="14" t="n">
+      <c r="I72" s="24" t="n">
         <f aca="false">E72*M72/G72</f>
         <v>4818.09069767442</v>
       </c>
-      <c r="J72" s="14" t="n">
+      <c r="J72" s="24" t="n">
         <f aca="false">I72-M72</f>
         <v>-4746.90930232558</v>
       </c>
-      <c r="K72" s="12" t="n">
+      <c r="K72" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="L72" s="12" t="s">
+      <c r="L72" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="M72" s="14" t="n">
+      <c r="M72" s="24" t="n">
         <v>9565</v>
       </c>
-      <c r="N72" s="14" t="n">
+      <c r="N72" s="24" t="n">
         <v>62740</v>
       </c>
-      <c r="O72" s="14" t="n">
+      <c r="O72" s="24" t="n">
         <v>2391</v>
       </c>
-      <c r="P72" s="14" t="n">
+      <c r="P72" s="24" t="n">
         <v>600104724</v>
       </c>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="n">
+      <c r="A73" s="22" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="13" t="n">
+      <c r="C73" s="23" t="n">
         <v>0.131</v>
       </c>
-      <c r="D73" s="14" t="n">
+      <c r="D73" s="24" t="n">
         <v>62701</v>
       </c>
-      <c r="E73" s="14" t="n">
+      <c r="E73" s="24" t="n">
         <v>28144</v>
       </c>
-      <c r="F73" s="13" t="n">
+      <c r="F73" s="23" t="n">
         <f aca="false">E73/D73</f>
         <v>0.448860464745379</v>
       </c>
-      <c r="G73" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H73" s="14" t="n">
+      <c r="G73" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H73" s="24" t="n">
         <f aca="false">(G73-E73)/F73</f>
         <v>33097.1452529847</v>
       </c>
-      <c r="I73" s="14" t="n">
+      <c r="I73" s="24" t="n">
         <f aca="false">E73*M73/G73</f>
         <v>6064.70474418605</v>
       </c>
-      <c r="J73" s="14" t="n">
+      <c r="J73" s="24" t="n">
         <f aca="false">I73-M73</f>
         <v>-3201.29525581395</v>
       </c>
-      <c r="K73" s="12" t="n">
+      <c r="K73" s="22" t="n">
         <v>176</v>
       </c>
-      <c r="L73" s="12" t="s">
+      <c r="L73" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="M73" s="14" t="n">
+      <c r="M73" s="24" t="n">
         <v>9266</v>
       </c>
-      <c r="N73" s="14" t="n">
+      <c r="N73" s="24" t="n">
         <v>62701</v>
       </c>
-      <c r="O73" s="14" t="n">
+      <c r="O73" s="24" t="n">
         <v>2372</v>
       </c>
-      <c r="P73" s="14" t="n">
+      <c r="P73" s="24" t="n">
         <v>580988437</v>
       </c>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="n">
+      <c r="A74" s="22" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="13" t="n">
+      <c r="C74" s="23" t="n">
         <v>0.17</v>
       </c>
-      <c r="D74" s="14" t="n">
+      <c r="D74" s="24" t="n">
         <v>43884</v>
       </c>
-      <c r="E74" s="14" t="n">
+      <c r="E74" s="24" t="n">
         <v>21783</v>
       </c>
-      <c r="F74" s="13" t="n">
+      <c r="F74" s="23" t="n">
         <f aca="false">E74/D74</f>
         <v>0.496376811594203</v>
       </c>
-      <c r="G74" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H74" s="14" t="n">
+      <c r="G74" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="24" t="n">
         <f aca="false">(G74-E74)/F74</f>
         <v>42743.7372262774</v>
       </c>
-      <c r="I74" s="14" t="n">
+      <c r="I74" s="24" t="n">
         <f aca="false">E74*M74/G74</f>
         <v>5969.5551627907</v>
       </c>
-      <c r="J74" s="14" t="n">
+      <c r="J74" s="24" t="n">
         <f aca="false">I74-M74</f>
         <v>-5814.4448372093</v>
       </c>
-      <c r="K74" s="12" t="n">
+      <c r="K74" s="22" t="n">
         <v>177</v>
       </c>
-      <c r="L74" s="12" t="s">
+      <c r="L74" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="M74" s="14" t="n">
+      <c r="M74" s="24" t="n">
         <v>11784</v>
       </c>
-      <c r="N74" s="14" t="n">
+      <c r="N74" s="24" t="n">
         <v>43884</v>
       </c>
-      <c r="O74" s="14" t="n">
+      <c r="O74" s="24" t="n">
         <v>2804</v>
       </c>
-      <c r="P74" s="14" t="n">
+      <c r="P74" s="24" t="n">
         <v>517123870</v>
       </c>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -17251,7 +17304,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="n">
         <v>88</v>
       </c>
@@ -17654,7 +17707,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="19" t="n">
         <v>95</v>
       </c>
@@ -18286,7 +18339,7 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
@@ -18339,6 +18392,7 @@
       <c r="P107" s="2" t="n">
         <v>733460905</v>
       </c>
+      <c r="Q107" s="0"/>
       <c r="R107" s="0" t="n">
         <v>20220919</v>
       </c>
@@ -18916,7 +18970,7 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="118" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="19" t="n">
         <v>117</v>
       </c>
@@ -18969,11 +19023,12 @@
       <c r="P118" s="8" t="n">
         <v>939067735</v>
       </c>
+      <c r="Q118" s="19"/>
       <c r="R118" s="19" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="119" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
         <v>118</v>
       </c>
@@ -19145,64 +19200,65 @@
         <v>20220927</v>
       </c>
     </row>
-    <row r="122" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="24" t="n">
+    <row r="122" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="25" t="n">
+      <c r="C122" s="1" t="n">
         <v>0.972</v>
       </c>
-      <c r="D122" s="26" t="n">
+      <c r="D122" s="2" t="n">
         <v>106513</v>
       </c>
-      <c r="E122" s="26" t="n">
+      <c r="E122" s="2" t="n">
         <v>44087</v>
       </c>
-      <c r="F122" s="25" t="n">
+      <c r="F122" s="1" t="n">
         <f aca="false">E122/D122</f>
         <v>0.41391191685522</v>
       </c>
-      <c r="G122" s="26" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H122" s="26" t="n">
+      <c r="G122" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H122" s="2" t="n">
         <f aca="false">(G122-E122)/F122</f>
         <v>-2626.16261029328</v>
       </c>
-      <c r="I122" s="26" t="n">
+      <c r="I122" s="2" t="n">
         <f aca="false">E122*M122/G122</f>
         <v>23379.438627907</v>
       </c>
-      <c r="J122" s="26" t="n">
+      <c r="J122" s="2" t="n">
         <f aca="false">I122-M122</f>
         <v>576.438627906977</v>
       </c>
-      <c r="K122" s="24" t="n">
+      <c r="K122" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="L122" s="24" t="s">
+      <c r="L122" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="M122" s="26" t="n">
+      <c r="M122" s="2" t="n">
         <v>22803</v>
       </c>
-      <c r="N122" s="26" t="n">
+      <c r="N122" s="2" t="n">
         <v>106513</v>
       </c>
-      <c r="O122" s="26" t="n">
+      <c r="O122" s="2" t="n">
         <v>3055</v>
       </c>
-      <c r="P122" s="26" t="n">
+      <c r="P122" s="2" t="n">
         <v>2428824781</v>
       </c>
-      <c r="R122" s="24" t="n">
+      <c r="Q122" s="0"/>
+      <c r="R122" s="0" t="n">
         <v>20220927</v>
       </c>
     </row>
-    <row r="123" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="19" t="n">
         <v>122</v>
       </c>
@@ -19255,6 +19311,7 @@
       <c r="P123" s="8" t="n">
         <v>1333565629</v>
       </c>
+      <c r="Q123" s="19"/>
       <c r="R123" s="19" t="n">
         <v>20220927</v>
       </c>
@@ -19316,31 +19373,199 @@
         <v>20220927</v>
       </c>
     </row>
+    <row r="125" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>16722</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <f aca="false">E125/D125</f>
+        <v>0.371401918976546</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <f aca="false">(G125-E125)/F125</f>
+        <v>70753.5385719412</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <f aca="false">E125*M125/G125</f>
+        <v>4400.99706976744</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <f aca="false">I125-M125</f>
+        <v>-6916.00293023256</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>11317</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>2975</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>509539292</v>
+      </c>
+      <c r="Q125" s="0"/>
+      <c r="R125" s="0" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="126" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="20" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>100289</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>37479</v>
+      </c>
+      <c r="F126" s="5" t="n">
+        <f aca="false">E126/D126</f>
+        <v>0.373709978163109</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H126" s="6" t="n">
+        <f aca="false">(G126-E126)/F126</f>
+        <v>14773.4883267963</v>
+      </c>
+      <c r="I126" s="6" t="n">
+        <f aca="false">E126*M126/G126</f>
+        <v>14100.8200465116</v>
+      </c>
+      <c r="J126" s="6" t="n">
+        <f aca="false">I126-M126</f>
+        <v>-2077.17995348837</v>
+      </c>
+      <c r="K126" s="20" t="n">
+        <v>324</v>
+      </c>
+      <c r="L126" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="M126" s="6" t="n">
+        <v>16178</v>
+      </c>
+      <c r="N126" s="6" t="n">
+        <v>100289</v>
+      </c>
+      <c r="O126" s="6" t="n">
+        <v>3080</v>
+      </c>
+      <c r="P126" s="6" t="n">
+        <v>1622483015</v>
+      </c>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="127" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="28" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="13" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="D127" s="14" t="n">
+        <v>92463</v>
+      </c>
+      <c r="E127" s="14" t="n">
+        <v>38111</v>
+      </c>
+      <c r="F127" s="13" t="n">
+        <f aca="false">E127/D127</f>
+        <v>0.412175681083244</v>
+      </c>
+      <c r="G127" s="14" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H127" s="14" t="n">
+        <f aca="false">(G127-E127)/F127</f>
+        <v>11861.4470100496</v>
+      </c>
+      <c r="I127" s="14" t="n">
+        <f aca="false">E127*M127/G127</f>
+        <v>8379.10218604651</v>
+      </c>
+      <c r="J127" s="14" t="n">
+        <f aca="false">I127-M127</f>
+        <v>-1074.89781395349</v>
+      </c>
+      <c r="K127" s="28" t="n">
+        <v>317</v>
+      </c>
+      <c r="L127" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M127" s="14" t="n">
+        <v>9454</v>
+      </c>
+      <c r="N127" s="14" t="n">
+        <v>92463</v>
+      </c>
+      <c r="O127" s="14" t="n">
+        <v>3406</v>
+      </c>
+      <c r="P127" s="14" t="n">
+        <v>874143291</v>
+      </c>
+      <c r="R127" s="28" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R119"/>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>40%</formula>
+  <autoFilter ref="A1:R127"/>
+  <conditionalFormatting sqref="F2:F200">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2 F1 F3:F123 F124:G124">
-    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>40%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H124">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="H2:H200">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J124">
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="J2:J200">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
       <formula>50</formula>
     </cfRule>
@@ -19367,7 +19592,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -19407,7 +19632,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20168,7 +20393,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -20207,7 +20432,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20968,7 +21193,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -21008,7 +21233,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -21026,7 +21251,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21086,7 +21311,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21146,7 +21371,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21206,7 +21431,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21266,7 +21491,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21326,7 +21551,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21386,7 +21611,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21446,7 +21671,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21506,7 +21731,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21566,7 +21791,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21626,7 +21851,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21686,7 +21911,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21746,7 +21971,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21806,7 +22031,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21814,7 +22039,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -21848,7 +22073,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -21863,10 +22088,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21874,7 +22099,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -21908,7 +22133,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -21923,10 +22148,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21934,7 +22159,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -21968,7 +22193,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -21983,10 +22208,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21994,7 +22219,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -22028,7 +22253,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -22043,10 +22268,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22054,7 +22279,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -22088,7 +22313,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -22103,10 +22328,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22114,7 +22339,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -22148,7 +22373,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -22163,10 +22388,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22174,7 +22399,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -22208,7 +22433,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -22223,10 +22448,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22234,7 +22459,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -22268,7 +22493,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -22283,10 +22508,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22294,7 +22519,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -22328,7 +22553,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -22343,10 +22568,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22354,7 +22579,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -22388,7 +22613,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -22403,10 +22628,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22414,7 +22639,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -22448,7 +22673,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -22463,10 +22688,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22474,7 +22699,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -22508,7 +22733,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -22523,10 +22748,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22534,7 +22759,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -22568,7 +22793,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -22583,10 +22808,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22594,7 +22819,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -22628,7 +22853,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -22643,10 +22868,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22654,7 +22879,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -22688,7 +22913,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -22703,10 +22928,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22714,7 +22939,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -22748,7 +22973,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -22763,10 +22988,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22774,7 +22999,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -22808,7 +23033,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -22823,10 +23048,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22834,7 +23059,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -22868,7 +23093,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -22883,10 +23108,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -22929,13 +23154,13 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.04"/>
   </cols>
   <sheetData>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Final_20" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$129</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="329">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -831,6 +831,18 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V11_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76647_V5_3_combine_force14101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_3_combine_force14101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76664_V11_1_force8379)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V11_1_force8379</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -1118,7 +1130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1211,6 +1223,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1219,19 +1239,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1244,7 +1264,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="1"/>
@@ -1292,6 +1312,29 @@
           <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF333333"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1399,7 +1442,7 @@
       <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4198,7 +4241,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7578,7 +7621,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12407,17 +12450,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ127"/>
+  <dimension ref="A1:AMJ129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
-      <selection pane="bottomRight" activeCell="H134" activeCellId="0" sqref="H134"/>
+      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -13206,60 +13249,60 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.209</v>
       </c>
-      <c r="D15" s="24" t="n">
+      <c r="D15" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="2" t="n">
         <v>17698</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">E15/D15</f>
         <v>0.439832993687559</v>
       </c>
-      <c r="G15" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H15" s="24" t="n">
+      <c r="G15" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <f aca="false">(G15-E15)/F15</f>
         <v>57526.3801559498</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="2" t="n">
         <f aca="false">E15*M15/G15</f>
         <v>9567.62111627907</v>
       </c>
-      <c r="J15" s="24" t="n">
+      <c r="J15" s="2" t="n">
         <f aca="false">I15-M15</f>
         <v>-13678.3788837209</v>
       </c>
-      <c r="K15" s="22" t="n">
+      <c r="K15" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="24" t="n">
+      <c r="M15" s="2" t="n">
         <v>23246</v>
       </c>
-      <c r="N15" s="24" t="n">
+      <c r="N15" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="O15" s="24" t="n">
+      <c r="O15" s="2" t="n">
         <v>2241</v>
       </c>
-      <c r="P15" s="24" t="n">
+      <c r="P15" s="2" t="n">
         <v>935376480</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -13695,7 +13738,7 @@
         <v>492998128</v>
       </c>
     </row>
-    <row r="24" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -13748,8 +13791,6 @@
       <c r="P24" s="2" t="n">
         <v>829021637</v>
       </c>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -14575,60 +14616,60 @@
       </c>
     </row>
     <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="n">
+      <c r="A40" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="23" t="n">
+      <c r="C40" s="1" t="n">
         <v>0.132</v>
       </c>
-      <c r="D40" s="24" t="n">
+      <c r="D40" s="2" t="n">
         <v>76420</v>
       </c>
-      <c r="E40" s="24" t="n">
+      <c r="E40" s="2" t="n">
         <v>27955</v>
       </c>
-      <c r="F40" s="23" t="n">
+      <c r="F40" s="1" t="n">
         <f aca="false">E40/D40</f>
         <v>0.365807380266946</v>
       </c>
-      <c r="G40" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H40" s="24" t="n">
+      <c r="G40" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="2" t="n">
         <f aca="false">(G40-E40)/F40</f>
         <v>41128.2024682526</v>
       </c>
-      <c r="I40" s="24" t="n">
+      <c r="I40" s="2" t="n">
         <f aca="false">E40*M40/G40</f>
         <v>9537.85593023256</v>
       </c>
-      <c r="J40" s="24" t="n">
+      <c r="J40" s="2" t="n">
         <f aca="false">I40-M40</f>
         <v>-5133.14406976744</v>
       </c>
-      <c r="K40" s="22" t="n">
+      <c r="K40" s="3" t="n">
         <v>119</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M40" s="24" t="n">
+      <c r="M40" s="2" t="n">
         <v>14671</v>
       </c>
-      <c r="N40" s="24" t="n">
+      <c r="N40" s="2" t="n">
         <v>76420</v>
       </c>
-      <c r="O40" s="24" t="n">
+      <c r="O40" s="2" t="n">
         <v>3137</v>
       </c>
-      <c r="P40" s="24" t="n">
+      <c r="P40" s="2" t="n">
         <v>1121158581</v>
       </c>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
@@ -15299,7 +15340,7 @@
         <v>673418437</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="n">
         <v>52</v>
       </c>
@@ -15352,8 +15393,10 @@
       <c r="P53" s="14" t="n">
         <v>694920731</v>
       </c>
-    </row>
-    <row r="54" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+    </row>
+    <row r="54" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>53</v>
       </c>
@@ -15408,10 +15451,10 @@
       </c>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="AMG54" s="20"/>
-      <c r="AMH54" s="20"/>
-      <c r="AMI54" s="20"/>
-      <c r="AMJ54" s="20"/>
+      <c r="AMG54" s="23"/>
+      <c r="AMH54" s="23"/>
+      <c r="AMI54" s="23"/>
+      <c r="AMJ54" s="23"/>
     </row>
     <row r="55" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -15527,7 +15570,7 @@
         <v>201632668</v>
       </c>
     </row>
-    <row r="57" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
@@ -15580,7 +15623,6 @@
       <c r="P57" s="2" t="n">
         <v>1295363390</v>
       </c>
-      <c r="Q57" s="0"/>
       <c r="R57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15862,116 +15904,114 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="n">
+      <c r="A63" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="23" t="n">
+      <c r="C63" s="1" t="n">
         <v>0.154</v>
       </c>
-      <c r="D63" s="24" t="n">
+      <c r="D63" s="2" t="n">
         <v>52281</v>
       </c>
-      <c r="E63" s="24" t="n">
+      <c r="E63" s="2" t="n">
         <v>24035</v>
       </c>
-      <c r="F63" s="23" t="n">
+      <c r="F63" s="1" t="n">
         <f aca="false">E63/D63</f>
         <v>0.459727243166734</v>
       </c>
-      <c r="G63" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H63" s="24" t="n">
+      <c r="G63" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H63" s="2" t="n">
         <f aca="false">(G63-E63)/F63</f>
         <v>41252.7216559185</v>
       </c>
-      <c r="I63" s="24" t="n">
+      <c r="I63" s="2" t="n">
         <f aca="false">E63*M63/G63</f>
         <v>10861.5841860465</v>
       </c>
-      <c r="J63" s="24" t="n">
+      <c r="J63" s="2" t="n">
         <f aca="false">I63-M63</f>
         <v>-8570.41581395349</v>
       </c>
-      <c r="K63" s="22" t="n">
+      <c r="K63" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="L63" s="22" t="s">
+      <c r="L63" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M63" s="24" t="n">
+      <c r="M63" s="2" t="n">
         <v>19432</v>
       </c>
-      <c r="N63" s="24" t="n">
+      <c r="N63" s="2" t="n">
         <v>52281</v>
       </c>
-      <c r="O63" s="24" t="n">
+      <c r="O63" s="2" t="n">
         <v>2400</v>
       </c>
-      <c r="P63" s="24" t="n">
+      <c r="P63" s="2" t="n">
         <v>1015928395</v>
       </c>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
     </row>
     <row r="64" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="n">
+      <c r="A64" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="23" t="n">
+      <c r="C64" s="1" t="n">
         <v>0.219</v>
       </c>
-      <c r="D64" s="24" t="n">
+      <c r="D64" s="2" t="n">
         <v>39494</v>
       </c>
-      <c r="E64" s="24" t="n">
+      <c r="E64" s="2" t="n">
         <v>16906</v>
       </c>
-      <c r="F64" s="23" t="n">
+      <c r="F64" s="1" t="n">
         <f aca="false">E64/D64</f>
         <v>0.428065022535069</v>
       </c>
-      <c r="G64" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H64" s="24" t="n">
+      <c r="G64" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H64" s="2" t="n">
         <f aca="false">(G64-E64)/F64</f>
         <v>60958.0288654915</v>
       </c>
-      <c r="I64" s="24" t="n">
+      <c r="I64" s="2" t="n">
         <f aca="false">E64*M64/G64</f>
         <v>5073.76581395349</v>
       </c>
-      <c r="J64" s="24" t="n">
+      <c r="J64" s="2" t="n">
         <f aca="false">I64-M64</f>
         <v>-7831.23418604651</v>
       </c>
-      <c r="K64" s="22" t="n">
+      <c r="K64" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="L64" s="22" t="s">
+      <c r="L64" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M64" s="24" t="n">
+      <c r="M64" s="2" t="n">
         <v>12905</v>
       </c>
-      <c r="N64" s="24" t="n">
+      <c r="N64" s="2" t="n">
         <v>39494</v>
       </c>
-      <c r="O64" s="24" t="n">
+      <c r="O64" s="2" t="n">
         <v>2190</v>
       </c>
-      <c r="P64" s="24" t="n">
+      <c r="P64" s="2" t="n">
         <v>509668347</v>
       </c>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
@@ -16140,60 +16180,60 @@
       </c>
     </row>
     <row r="68" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22" t="n">
+      <c r="A68" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="23" t="n">
+      <c r="C68" s="1" t="n">
         <v>0.348</v>
       </c>
-      <c r="D68" s="24" t="n">
+      <c r="D68" s="2" t="n">
         <v>30202</v>
       </c>
-      <c r="E68" s="24" t="n">
+      <c r="E68" s="2" t="n">
         <v>10616</v>
       </c>
-      <c r="F68" s="23" t="n">
+      <c r="F68" s="1" t="n">
         <f aca="false">E68/D68</f>
         <v>0.35149990066883</v>
       </c>
-      <c r="G68" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H68" s="24" t="n">
+      <c r="G68" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H68" s="2" t="n">
         <f aca="false">(G68-E68)/F68</f>
         <v>92130.8937452901</v>
       </c>
-      <c r="I68" s="24" t="n">
+      <c r="I68" s="2" t="n">
         <f aca="false">E68*M68/G68</f>
         <v>4480.44576744186</v>
       </c>
-      <c r="J68" s="24" t="n">
+      <c r="J68" s="2" t="n">
         <f aca="false">I68-M68</f>
         <v>-13667.5542325581</v>
       </c>
-      <c r="K68" s="22" t="n">
+      <c r="K68" s="3" t="n">
         <v>179</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="L68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M68" s="24" t="n">
+      <c r="M68" s="2" t="n">
         <v>18148</v>
       </c>
-      <c r="N68" s="24" t="n">
+      <c r="N68" s="2" t="n">
         <v>30202</v>
       </c>
-      <c r="O68" s="24" t="n">
+      <c r="O68" s="2" t="n">
         <v>2189</v>
       </c>
-      <c r="P68" s="24" t="n">
+      <c r="P68" s="2" t="n">
         <v>548108581</v>
       </c>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
+      <c r="Q68" s="0"/>
+      <c r="R68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -16358,172 +16398,166 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="n">
+      <c r="A72" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="23" t="n">
+      <c r="C72" s="1" t="n">
         <v>0.171</v>
       </c>
-      <c r="D72" s="24" t="n">
+      <c r="D72" s="2" t="n">
         <v>62740</v>
       </c>
-      <c r="E72" s="24" t="n">
+      <c r="E72" s="2" t="n">
         <v>21660</v>
       </c>
-      <c r="F72" s="23" t="n">
+      <c r="F72" s="1" t="n">
         <f aca="false">E72/D72</f>
         <v>0.345234300286898</v>
       </c>
-      <c r="G72" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H72" s="24" t="n">
+      <c r="G72" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H72" s="2" t="n">
         <f aca="false">(G72-E72)/F72</f>
         <v>61813.0932594644</v>
       </c>
-      <c r="I72" s="24" t="n">
+      <c r="I72" s="2" t="n">
         <f aca="false">E72*M72/G72</f>
         <v>4818.09069767442</v>
       </c>
-      <c r="J72" s="24" t="n">
+      <c r="J72" s="2" t="n">
         <f aca="false">I72-M72</f>
         <v>-4746.90930232558</v>
       </c>
-      <c r="K72" s="22" t="n">
+      <c r="K72" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="L72" s="22" t="s">
+      <c r="L72" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M72" s="24" t="n">
+      <c r="M72" s="2" t="n">
         <v>9565</v>
       </c>
-      <c r="N72" s="24" t="n">
+      <c r="N72" s="2" t="n">
         <v>62740</v>
       </c>
-      <c r="O72" s="24" t="n">
+      <c r="O72" s="2" t="n">
         <v>2391</v>
       </c>
-      <c r="P72" s="24" t="n">
+      <c r="P72" s="2" t="n">
         <v>600104724</v>
       </c>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="n">
+      <c r="A73" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="1" t="n">
         <v>0.131</v>
       </c>
-      <c r="D73" s="24" t="n">
+      <c r="D73" s="2" t="n">
         <v>62701</v>
       </c>
-      <c r="E73" s="24" t="n">
+      <c r="E73" s="2" t="n">
         <v>28144</v>
       </c>
-      <c r="F73" s="23" t="n">
+      <c r="F73" s="1" t="n">
         <f aca="false">E73/D73</f>
         <v>0.448860464745379</v>
       </c>
-      <c r="G73" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H73" s="24" t="n">
+      <c r="G73" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H73" s="2" t="n">
         <f aca="false">(G73-E73)/F73</f>
         <v>33097.1452529847</v>
       </c>
-      <c r="I73" s="24" t="n">
+      <c r="I73" s="2" t="n">
         <f aca="false">E73*M73/G73</f>
         <v>6064.70474418605</v>
       </c>
-      <c r="J73" s="24" t="n">
+      <c r="J73" s="2" t="n">
         <f aca="false">I73-M73</f>
         <v>-3201.29525581395</v>
       </c>
-      <c r="K73" s="22" t="n">
+      <c r="K73" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="L73" s="22" t="s">
+      <c r="L73" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M73" s="24" t="n">
+      <c r="M73" s="2" t="n">
         <v>9266</v>
       </c>
-      <c r="N73" s="24" t="n">
+      <c r="N73" s="2" t="n">
         <v>62701</v>
       </c>
-      <c r="O73" s="24" t="n">
+      <c r="O73" s="2" t="n">
         <v>2372</v>
       </c>
-      <c r="P73" s="24" t="n">
+      <c r="P73" s="2" t="n">
         <v>580988437</v>
       </c>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="n">
+      <c r="A74" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="23" t="n">
+      <c r="C74" s="1" t="n">
         <v>0.17</v>
       </c>
-      <c r="D74" s="24" t="n">
+      <c r="D74" s="2" t="n">
         <v>43884</v>
       </c>
-      <c r="E74" s="24" t="n">
+      <c r="E74" s="2" t="n">
         <v>21783</v>
       </c>
-      <c r="F74" s="23" t="n">
+      <c r="F74" s="1" t="n">
         <f aca="false">E74/D74</f>
         <v>0.496376811594203</v>
       </c>
-      <c r="G74" s="24" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H74" s="24" t="n">
+      <c r="G74" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H74" s="2" t="n">
         <f aca="false">(G74-E74)/F74</f>
         <v>42743.7372262774</v>
       </c>
-      <c r="I74" s="24" t="n">
+      <c r="I74" s="2" t="n">
         <f aca="false">E74*M74/G74</f>
         <v>5969.5551627907</v>
       </c>
-      <c r="J74" s="24" t="n">
+      <c r="J74" s="2" t="n">
         <f aca="false">I74-M74</f>
         <v>-5814.4448372093</v>
       </c>
-      <c r="K74" s="22" t="n">
+      <c r="K74" s="3" t="n">
         <v>177</v>
       </c>
-      <c r="L74" s="22" t="s">
+      <c r="L74" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M74" s="24" t="n">
+      <c r="M74" s="2" t="n">
         <v>11784</v>
       </c>
-      <c r="N74" s="24" t="n">
+      <c r="N74" s="2" t="n">
         <v>43884</v>
       </c>
-      <c r="O74" s="24" t="n">
+      <c r="O74" s="2" t="n">
         <v>2804</v>
       </c>
-      <c r="P74" s="24" t="n">
+      <c r="P74" s="2" t="n">
         <v>517123870</v>
       </c>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -17304,7 +17338,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="89" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="n">
         <v>88</v>
       </c>
@@ -17707,7 +17741,7 @@
         <v>20220830</v>
       </c>
     </row>
-    <row r="96" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="19" t="n">
         <v>95</v>
       </c>
@@ -18339,7 +18373,7 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="107" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
@@ -18392,7 +18426,6 @@
       <c r="P107" s="2" t="n">
         <v>733460905</v>
       </c>
-      <c r="Q107" s="0"/>
       <c r="R107" s="0" t="n">
         <v>20220919</v>
       </c>
@@ -18970,7 +19003,7 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="118" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="19" t="n">
         <v>117</v>
       </c>
@@ -19028,7 +19061,7 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="119" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
         <v>118</v>
       </c>
@@ -19200,7 +19233,7 @@
         <v>20220927</v>
       </c>
     </row>
-    <row r="122" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
@@ -19253,7 +19286,6 @@
       <c r="P122" s="2" t="n">
         <v>2428824781</v>
       </c>
-      <c r="Q122" s="0"/>
       <c r="R122" s="0" t="n">
         <v>20220927</v>
       </c>
@@ -19373,7 +19405,7 @@
         <v>20220927</v>
       </c>
     </row>
-    <row r="125" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>124</v>
       </c>
@@ -19432,123 +19464,240 @@
       </c>
     </row>
     <row r="126" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="20" t="n">
+      <c r="A126" s="23" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C126" s="5" t="n">
+      <c r="C126" s="25" t="n">
         <v>0.446</v>
       </c>
-      <c r="D126" s="6" t="n">
+      <c r="D126" s="26" t="n">
         <v>100289</v>
       </c>
-      <c r="E126" s="6" t="n">
+      <c r="E126" s="26" t="n">
         <v>37479</v>
       </c>
-      <c r="F126" s="5" t="n">
+      <c r="F126" s="25" t="n">
         <f aca="false">E126/D126</f>
         <v>0.373709978163109</v>
       </c>
-      <c r="G126" s="6" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H126" s="6" t="n">
+      <c r="G126" s="26" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H126" s="26" t="n">
         <f aca="false">(G126-E126)/F126</f>
         <v>14773.4883267963</v>
       </c>
-      <c r="I126" s="6" t="n">
+      <c r="I126" s="26" t="n">
         <f aca="false">E126*M126/G126</f>
         <v>14100.8200465116</v>
       </c>
-      <c r="J126" s="6" t="n">
+      <c r="J126" s="26" t="n">
         <f aca="false">I126-M126</f>
         <v>-2077.17995348837</v>
       </c>
-      <c r="K126" s="20" t="n">
+      <c r="K126" s="23" t="n">
         <v>324</v>
       </c>
-      <c r="L126" s="20" t="s">
+      <c r="L126" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="M126" s="6" t="n">
+      <c r="M126" s="26" t="n">
         <v>16178</v>
       </c>
-      <c r="N126" s="6" t="n">
+      <c r="N126" s="26" t="n">
         <v>100289</v>
       </c>
-      <c r="O126" s="6" t="n">
+      <c r="O126" s="26" t="n">
         <v>3080</v>
       </c>
-      <c r="P126" s="6" t="n">
+      <c r="P126" s="26" t="n">
         <v>1622483015</v>
       </c>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="20" t="n">
+      <c r="Q126" s="23"/>
+      <c r="R126" s="23" t="n">
         <v>20220929</v>
       </c>
     </row>
     <row r="127" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="28" t="n">
+      <c r="A127" s="23" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="13" t="n">
+      <c r="C127" s="25" t="n">
         <v>0.439</v>
       </c>
-      <c r="D127" s="14" t="n">
+      <c r="D127" s="26" t="n">
         <v>92463</v>
       </c>
-      <c r="E127" s="14" t="n">
+      <c r="E127" s="26" t="n">
         <v>38111</v>
       </c>
-      <c r="F127" s="13" t="n">
+      <c r="F127" s="25" t="n">
         <f aca="false">E127/D127</f>
         <v>0.412175681083244</v>
       </c>
-      <c r="G127" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H127" s="14" t="n">
+      <c r="G127" s="26" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H127" s="26" t="n">
         <f aca="false">(G127-E127)/F127</f>
         <v>11861.4470100496</v>
       </c>
-      <c r="I127" s="14" t="n">
+      <c r="I127" s="26" t="n">
         <f aca="false">E127*M127/G127</f>
         <v>8379.10218604651</v>
       </c>
-      <c r="J127" s="14" t="n">
+      <c r="J127" s="26" t="n">
         <f aca="false">I127-M127</f>
         <v>-1074.89781395349</v>
       </c>
-      <c r="K127" s="28" t="n">
+      <c r="K127" s="23" t="n">
         <v>317</v>
       </c>
-      <c r="L127" s="28" t="s">
+      <c r="L127" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="M127" s="14" t="n">
+      <c r="M127" s="26" t="n">
         <v>9454</v>
       </c>
-      <c r="N127" s="14" t="n">
+      <c r="N127" s="26" t="n">
         <v>92463</v>
       </c>
-      <c r="O127" s="14" t="n">
+      <c r="O127" s="26" t="n">
         <v>3406</v>
       </c>
-      <c r="P127" s="14" t="n">
+      <c r="P127" s="26" t="n">
         <v>874143291</v>
       </c>
-      <c r="R127" s="28" t="n">
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23" t="n">
         <v>20220929</v>
       </c>
     </row>
+    <row r="128" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="29" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D128" s="11" t="n">
+        <v>115062</v>
+      </c>
+      <c r="E128" s="11" t="n">
+        <v>43050</v>
+      </c>
+      <c r="F128" s="10" t="n">
+        <f aca="false">E128/D128</f>
+        <v>0.374146112530636</v>
+      </c>
+      <c r="G128" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H128" s="8" t="n">
+        <f aca="false">(G128-E128)/F128</f>
+        <v>-133.637630662021</v>
+      </c>
+      <c r="I128" s="8" t="n">
+        <f aca="false">E128*M128/G128</f>
+        <v>14117.3965116279</v>
+      </c>
+      <c r="J128" s="8" t="n">
+        <f aca="false">I128-M128</f>
+        <v>16.3965116279069</v>
+      </c>
+      <c r="K128" s="11" t="n">
+        <v>352</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="M128" s="11" t="n">
+        <v>14101</v>
+      </c>
+      <c r="N128" s="11" t="n">
+        <v>115062</v>
+      </c>
+      <c r="O128" s="11" t="n">
+        <v>3624</v>
+      </c>
+      <c r="P128" s="11" t="n">
+        <v>1622483015</v>
+      </c>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="9" t="n">
+        <v>20221005</v>
+      </c>
+    </row>
+    <row r="129" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="11" t="n">
+        <v>104325</v>
+      </c>
+      <c r="E129" s="11" t="n">
+        <v>42699</v>
+      </c>
+      <c r="F129" s="10" t="n">
+        <f aca="false">E129/D129</f>
+        <v>0.409288281811646</v>
+      </c>
+      <c r="G129" s="8" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H129" s="8" t="n">
+        <f aca="false">(G129-E129)/F129</f>
+        <v>735.422960725076</v>
+      </c>
+      <c r="I129" s="8" t="n">
+        <f aca="false">E129*M129/G129</f>
+        <v>8320.347</v>
+      </c>
+      <c r="J129" s="8" t="n">
+        <f aca="false">I129-M129</f>
+        <v>-58.6530000000002</v>
+      </c>
+      <c r="K129" s="11" t="n">
+        <v>351</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M129" s="11" t="n">
+        <v>8379</v>
+      </c>
+      <c r="N129" s="11" t="n">
+        <v>104325</v>
+      </c>
+      <c r="O129" s="11" t="n">
+        <v>3652</v>
+      </c>
+      <c r="P129" s="11" t="n">
+        <v>874143291</v>
+      </c>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="9" t="n">
+        <v>20221005</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R127"/>
-  <conditionalFormatting sqref="F2:F200">
+  <autoFilter ref="A1:R129"/>
+  <conditionalFormatting sqref="F130:F200 F2:F127">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>30%</formula>
     </cfRule>
@@ -19558,7 +19707,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J200">
+  <conditionalFormatting sqref="J130:J200 J2:J127">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -19566,6 +19715,23 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F128:F129">
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>30%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128:J129">
+    <cfRule type="cellIs" priority="8" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
       <formula>50</formula>
     </cfRule>
@@ -19592,7 +19758,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -19632,7 +19798,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20393,7 +20559,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -20432,7 +20598,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -21193,7 +21359,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -21233,7 +21399,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -21251,7 +21417,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21311,7 +21477,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21371,7 +21537,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21431,7 +21597,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21491,7 +21657,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21551,7 +21717,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21611,7 +21777,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21671,7 +21837,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21731,7 +21897,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21791,7 +21957,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21851,7 +22017,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21911,7 +22077,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21971,7 +22137,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22031,7 +22197,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22039,7 +22205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -22073,7 +22239,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -22088,10 +22254,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22099,7 +22265,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -22133,7 +22299,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -22148,10 +22314,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22159,7 +22325,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -22193,7 +22359,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -22208,10 +22374,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22219,7 +22385,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -22253,7 +22419,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -22268,10 +22434,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22279,7 +22445,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -22313,7 +22479,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -22328,10 +22494,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22339,7 +22505,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -22373,7 +22539,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -22388,10 +22554,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22399,7 +22565,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -22433,7 +22599,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -22448,10 +22614,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22459,7 +22625,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -22493,7 +22659,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -22508,10 +22674,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22519,7 +22685,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -22553,7 +22719,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -22568,10 +22734,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22579,7 +22745,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -22613,7 +22779,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -22628,10 +22794,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22639,7 +22805,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -22673,7 +22839,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -22688,10 +22854,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22699,7 +22865,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -22733,7 +22899,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -22748,10 +22914,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22759,7 +22925,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -22793,7 +22959,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -22808,10 +22974,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22819,7 +22985,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -22853,7 +23019,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -22868,10 +23034,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22879,7 +23045,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -22913,7 +23079,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -22928,10 +23094,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22939,7 +23105,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -22973,7 +23139,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -22988,10 +23154,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22999,7 +23165,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -23033,7 +23199,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -23048,10 +23214,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23059,7 +23225,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -23093,7 +23259,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -23108,10 +23274,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -23158,7 +23324,7 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.04"/>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -1130,7 +1130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1219,23 +1219,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1439,10 +1423,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I3" activeCellId="1" sqref="F10:F11 I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4238,10 +4222,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="F10:F11 A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7618,10 +7602,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="F10:F11 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12453,14 +12437,14 @@
   <dimension ref="A1:AMJ129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
-      <selection pane="bottomRight" activeCell="B88" activeCellId="0" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -15396,7 +15380,7 @@
       <c r="Q53" s="0"/>
       <c r="R53" s="0"/>
     </row>
-    <row r="54" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>53</v>
       </c>
@@ -15451,10 +15435,10 @@
       </c>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="AMG54" s="23"/>
-      <c r="AMH54" s="23"/>
-      <c r="AMI54" s="23"/>
-      <c r="AMJ54" s="23"/>
+      <c r="AMG54" s="0"/>
+      <c r="AMH54" s="0"/>
+      <c r="AMI54" s="0"/>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -19061,7 +19045,7 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="119" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
         <v>118</v>
       </c>
@@ -19405,7 +19389,7 @@
         <v>20220927</v>
       </c>
     </row>
-    <row r="125" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>124</v>
       </c>
@@ -19458,135 +19442,134 @@
       <c r="P125" s="2" t="n">
         <v>509539292</v>
       </c>
-      <c r="Q125" s="0"/>
       <c r="R125" s="0" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="126" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="23" t="n">
+    <row r="126" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B126" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C126" s="25" t="n">
+      <c r="C126" s="1" t="n">
         <v>0.446</v>
       </c>
-      <c r="D126" s="26" t="n">
+      <c r="D126" s="2" t="n">
         <v>100289</v>
       </c>
-      <c r="E126" s="26" t="n">
+      <c r="E126" s="2" t="n">
         <v>37479</v>
       </c>
-      <c r="F126" s="25" t="n">
+      <c r="F126" s="1" t="n">
         <f aca="false">E126/D126</f>
         <v>0.373709978163109</v>
       </c>
-      <c r="G126" s="26" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H126" s="26" t="n">
+      <c r="G126" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H126" s="2" t="n">
         <f aca="false">(G126-E126)/F126</f>
         <v>14773.4883267963</v>
       </c>
-      <c r="I126" s="26" t="n">
+      <c r="I126" s="2" t="n">
         <f aca="false">E126*M126/G126</f>
         <v>14100.8200465116</v>
       </c>
-      <c r="J126" s="26" t="n">
+      <c r="J126" s="2" t="n">
         <f aca="false">I126-M126</f>
         <v>-2077.17995348837</v>
       </c>
-      <c r="K126" s="23" t="n">
+      <c r="K126" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="L126" s="23" t="s">
+      <c r="L126" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="M126" s="26" t="n">
+      <c r="M126" s="2" t="n">
         <v>16178</v>
       </c>
-      <c r="N126" s="26" t="n">
+      <c r="N126" s="2" t="n">
         <v>100289</v>
       </c>
-      <c r="O126" s="26" t="n">
+      <c r="O126" s="2" t="n">
         <v>3080</v>
       </c>
-      <c r="P126" s="26" t="n">
+      <c r="P126" s="2" t="n">
         <v>1622483015</v>
       </c>
-      <c r="Q126" s="23"/>
-      <c r="R126" s="23" t="n">
+      <c r="Q126" s="0"/>
+      <c r="R126" s="0" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="127" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="23" t="n">
+    <row r="127" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="25" t="n">
+      <c r="C127" s="1" t="n">
         <v>0.439</v>
       </c>
-      <c r="D127" s="26" t="n">
+      <c r="D127" s="2" t="n">
         <v>92463</v>
       </c>
-      <c r="E127" s="26" t="n">
+      <c r="E127" s="2" t="n">
         <v>38111</v>
       </c>
-      <c r="F127" s="25" t="n">
+      <c r="F127" s="1" t="n">
         <f aca="false">E127/D127</f>
         <v>0.412175681083244</v>
       </c>
-      <c r="G127" s="26" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H127" s="26" t="n">
+      <c r="G127" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H127" s="2" t="n">
         <f aca="false">(G127-E127)/F127</f>
         <v>11861.4470100496</v>
       </c>
-      <c r="I127" s="26" t="n">
+      <c r="I127" s="2" t="n">
         <f aca="false">E127*M127/G127</f>
         <v>8379.10218604651</v>
       </c>
-      <c r="J127" s="26" t="n">
+      <c r="J127" s="2" t="n">
         <f aca="false">I127-M127</f>
         <v>-1074.89781395349</v>
       </c>
-      <c r="K127" s="23" t="n">
+      <c r="K127" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="L127" s="23" t="s">
+      <c r="L127" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="M127" s="26" t="n">
+      <c r="M127" s="2" t="n">
         <v>9454</v>
       </c>
-      <c r="N127" s="26" t="n">
+      <c r="N127" s="2" t="n">
         <v>92463</v>
       </c>
-      <c r="O127" s="26" t="n">
+      <c r="O127" s="2" t="n">
         <v>3406</v>
       </c>
-      <c r="P127" s="26" t="n">
+      <c r="P127" s="2" t="n">
         <v>874143291</v>
       </c>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23" t="n">
+      <c r="Q127" s="0"/>
+      <c r="R127" s="0" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="128" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="29" t="n">
+      <c r="C128" s="25" t="n">
         <v>0.992</v>
       </c>
       <c r="D128" s="11" t="n">
@@ -19637,14 +19620,14 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="129" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C129" s="29" t="n">
+      <c r="C129" s="25" t="n">
         <v>1</v>
       </c>
       <c r="D129" s="11" t="n">
@@ -19755,10 +19738,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F10:F11 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -20556,10 +20539,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F10:F11 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -21356,10 +21339,10 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="F10:F11 F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -23321,10 +23304,10 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="F10:F11 B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.04"/>

--- a/AggrFiles/SGLT2.xlsx
+++ b/AggrFiles/SGLT2.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Final_20" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$129</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_4!$A$1:$R$131</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="333">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -843,6 +843,18 @@
   </si>
   <si>
     <t xml:space="preserve">76664_V11_1_force8379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76656_V5_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (76656_V5_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5_2_combine</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -1130,7 +1142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1217,6 +1229,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1423,10 +1451,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" activeCellId="1" sqref="F10:F11 I3"/>
+      <selection pane="bottomRight" activeCell="I3" activeCellId="1" sqref="31:31 I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -4222,10 +4250,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="F10:F11 A17"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="31:31 A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.76"/>
@@ -7602,10 +7630,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="F10:F11 B3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="31:31 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -12434,17 +12462,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ129"/>
+  <dimension ref="A1:AMJ131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10:F11"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C31" activeCellId="0" sqref="31:31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.68"/>
@@ -15324,61 +15352,59 @@
         <v>673418437</v>
       </c>
     </row>
-    <row r="53" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+    <row r="53" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="22" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="13" t="n">
+      <c r="C53" s="23" t="n">
         <v>0.142</v>
       </c>
-      <c r="D53" s="14" t="n">
+      <c r="D53" s="24" t="n">
         <v>88054</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E53" s="24" t="n">
         <v>26033</v>
       </c>
-      <c r="F53" s="13" t="n">
+      <c r="F53" s="23" t="n">
         <f aca="false">E53/D53</f>
         <v>0.295648125014196</v>
       </c>
-      <c r="G53" s="14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H53" s="14" t="n">
+      <c r="G53" s="24" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H53" s="24" t="n">
         <f aca="false">(G53-E53)/F53</f>
         <v>57389.1682864057</v>
       </c>
-      <c r="I53" s="14" t="n">
+      <c r="I53" s="24" t="n">
         <f aca="false">E53*M53/G53</f>
         <v>4777.96362790698</v>
       </c>
-      <c r="J53" s="14" t="n">
+      <c r="J53" s="24" t="n">
         <f aca="false">I53-M53</f>
         <v>-3114.03637209302</v>
       </c>
-      <c r="K53" s="12" t="n">
+      <c r="K53" s="22" t="n">
         <v>109</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="L53" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="M53" s="14" t="n">
+      <c r="M53" s="24" t="n">
         <v>7892</v>
       </c>
-      <c r="N53" s="14" t="n">
+      <c r="N53" s="24" t="n">
         <v>88054</v>
       </c>
-      <c r="O53" s="14" t="n">
+      <c r="O53" s="24" t="n">
         <v>1951</v>
       </c>
-      <c r="P53" s="14" t="n">
+      <c r="P53" s="24" t="n">
         <v>694920731</v>
       </c>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
     </row>
     <row r="54" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
@@ -19045,7 +19071,7 @@
         <v>20220923</v>
       </c>
     </row>
-    <row r="119" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
         <v>118</v>
       </c>
@@ -19446,7 +19472,7 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="126" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>125</v>
       </c>
@@ -19504,7 +19530,7 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="127" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>126</v>
       </c>
@@ -19562,14 +19588,14 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="128" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="25" t="n">
+      <c r="C128" s="29" t="n">
         <v>0.992</v>
       </c>
       <c r="D128" s="11" t="n">
@@ -19620,14 +19646,14 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="129" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C129" s="25" t="n">
+      <c r="C129" s="29" t="n">
         <v>1</v>
       </c>
       <c r="D129" s="11" t="n">
@@ -19678,19 +19704,133 @@
         <v>20221005</v>
       </c>
     </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>58751</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>17330</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <f aca="false">E130/D130</f>
+        <v>0.294973702575275</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <f aca="false">(G130-E130)/F130</f>
+        <v>87024.7068667051</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <f aca="false">E130*M130/G130</f>
+        <v>3197.58651162791</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <f aca="false">I130-M130</f>
+        <v>-4736.41348837209</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>7934</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>58751</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>1748</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>466127611</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>20221010</v>
+      </c>
+    </row>
+    <row r="131" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="20" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>141144</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>41984</v>
+      </c>
+      <c r="F131" s="5" t="n">
+        <f aca="false">E131/D131</f>
+        <v>0.297455081335374</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <f aca="false">(G131-E131)/F131</f>
+        <v>3415.64176829268</v>
+      </c>
+      <c r="I131" s="6" t="n">
+        <f aca="false">E131*M131/G131</f>
+        <v>8031.6368372093</v>
+      </c>
+      <c r="J131" s="6" t="n">
+        <f aca="false">I131-M131</f>
+        <v>-194.363162790698</v>
+      </c>
+      <c r="K131" s="20" t="n">
+        <v>336</v>
+      </c>
+      <c r="L131" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="M131" s="6" t="n">
+        <v>8226</v>
+      </c>
+      <c r="N131" s="6" t="n">
+        <v>141144</v>
+      </c>
+      <c r="O131" s="6" t="n">
+        <v>2107</v>
+      </c>
+      <c r="P131" s="6" t="n">
+        <v>1161048342</v>
+      </c>
+      <c r="R131" s="20" t="n">
+        <v>20221010</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R129"/>
-  <conditionalFormatting sqref="F130:F200 F2:F127">
+  <autoFilter ref="A1:R131"/>
+  <conditionalFormatting sqref="F2:F127 F137:F186 F130:F131">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H200">
+  <conditionalFormatting sqref="H137:H186 H2:H131">
     <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J130:J200 J2:J127">
+  <conditionalFormatting sqref="J2:J127 J137:J186 J130:J131">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>50</formula>
     </cfRule>
@@ -19738,10 +19878,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F10:F11 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="31:31 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -19781,7 +19921,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -20539,10 +20679,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="F10:F11 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="31:31 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -20581,7 +20721,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -21339,10 +21479,10 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="F10:F11 F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="31:31 F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -21382,7 +21522,7 @@
         <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>4</v>
@@ -21400,7 +21540,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21460,7 +21600,7 @@
         <v>88</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21520,7 +21660,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21580,7 +21720,7 @@
         <v>98</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21640,7 +21780,7 @@
         <v>110</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21700,7 +21840,7 @@
         <v>120</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21760,7 +21900,7 @@
         <v>125</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21820,7 +21960,7 @@
         <v>128</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21880,7 +22020,7 @@
         <v>139</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21940,7 +22080,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22000,7 +22140,7 @@
         <v>152</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22060,7 +22200,7 @@
         <v>159</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22120,7 +22260,7 @@
         <v>172</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22180,7 +22320,7 @@
         <v>178</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22188,7 +22328,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.86</v>
@@ -22222,7 +22362,7 @@
         <v>230</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>12660</v>
@@ -22237,10 +22377,10 @@
         <v>1301343516</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22248,7 +22388,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.86</v>
@@ -22282,7 +22422,7 @@
         <v>267</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>7398</v>
@@ -22297,10 +22437,10 @@
         <v>589206059</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22308,7 +22448,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.859</v>
@@ -22342,7 +22482,7 @@
         <v>266</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>9907</v>
@@ -22357,10 +22497,10 @@
         <v>1042384328</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22368,7 +22508,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.86</v>
@@ -22402,7 +22542,7 @@
         <v>247</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8966</v>
@@ -22417,10 +22557,10 @@
         <v>953461413</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22428,7 +22568,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.841</v>
@@ -22462,7 +22602,7 @@
         <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15847</v>
@@ -22477,10 +22617,10 @@
         <v>1550968370</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22488,7 +22628,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.858</v>
@@ -22522,7 +22662,7 @@
         <v>269</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>9146</v>
@@ -22537,10 +22677,10 @@
         <v>877693939</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22548,7 +22688,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0.857</v>
@@ -22582,7 +22722,7 @@
         <v>289</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8535</v>
@@ -22597,10 +22737,10 @@
         <v>773029050</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22608,7 +22748,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.86</v>
@@ -22642,7 +22782,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>5793</v>
@@ -22657,10 +22797,10 @@
         <v>706088154</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22668,7 +22808,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.874</v>
@@ -22702,7 +22842,7 @@
         <v>272</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>9464</v>
@@ -22717,10 +22857,10 @@
         <v>1407347538</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22728,7 +22868,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0.864</v>
@@ -22762,7 +22902,7 @@
         <v>273</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7508</v>
@@ -22777,10 +22917,10 @@
         <v>857858458</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22788,7 +22928,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0.86</v>
@@ -22822,7 +22962,7 @@
         <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8196</v>
@@ -22837,10 +22977,10 @@
         <v>800342375</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22848,7 +22988,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.861</v>
@@ -22882,7 +23022,7 @@
         <v>275</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11261</v>
@@ -22897,10 +23037,10 @@
         <v>1276111489</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22908,7 +23048,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.86</v>
@@ -22942,7 +23082,7 @@
         <v>254</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>13147</v>
@@ -22957,10 +23097,10 @@
         <v>1313660155</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22968,7 +23108,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.86</v>
@@ -23002,7 +23142,7 @@
         <v>276</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>18792</v>
@@ -23017,10 +23157,10 @@
         <v>1902547600</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23028,7 +23168,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.86</v>
@@ -23062,7 +23202,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>13134</v>
@@ -23077,10 +23217,10 @@
         <v>1327847231</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23088,7 +23228,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.86</v>
@@ -23122,7 +23262,7 @@
         <v>278</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>13446</v>
@@ -23137,10 +23277,10 @@
         <v>1336986912</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23148,7 +23288,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.861</v>
@@ -23182,7 +23322,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>4270</v>
@@ -23197,10 +23337,10 @@
         <v>478908775</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23208,7 +23348,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.421</v>
@@ -23242,7 +23382,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>9000</v>
@@ -23257,10 +23397,10 @@
         <v>2542002423</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -23304,10 +23444,10 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="F10:F11 B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="31:31 B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.04"/>
